--- a/scripts/output/202002/全家/全家整体资产配置.xlsx
+++ b/scripts/output/202002/全家/全家整体资产配置.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K127"/>
+  <dimension ref="A1:K128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,10 +530,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>260844.41</v>
+        <v>248044.41</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>260844.41</v>
+        <v>248044.41</v>
       </c>
       <c r="F2" s="5" t="n">
         <v>6512.79</v>
@@ -1272,70 +1272,70 @@
     <row r="18">
       <c r="A18" s="22" t="inlineStr">
         <is>
-          <t>50ETF</t>
+          <t>华宝油气</t>
         </is>
       </c>
       <c r="B18" s="23" t="n">
-        <v>510050</v>
+        <v>162411</v>
       </c>
       <c r="C18" s="24" t="n">
-        <v>2.337</v>
+        <v>0.36</v>
       </c>
       <c r="D18" s="25" t="n">
-        <v>2700</v>
+        <v>35500</v>
       </c>
       <c r="E18" s="25" t="n">
-        <v>7897.5</v>
+        <v>13032.05</v>
       </c>
       <c r="F18" s="25" t="n">
-        <v>1587.6</v>
+        <v>252.05</v>
       </c>
       <c r="G18" s="26" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="H18" s="26" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="I18" s="26" t="inlineStr">
         <is>
-          <t>上证50</t>
+          <t>原油</t>
         </is>
       </c>
       <c r="J18" s="26" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>613</t>
         </is>
       </c>
       <c r="K18" s="26" t="inlineStr">
         <is>
-          <t>股票账户</t>
+          <t>华宝证券</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="22" t="inlineStr">
         <is>
-          <t>300ETF</t>
+          <t>50ETF</t>
         </is>
       </c>
       <c r="B19" s="23" t="n">
-        <v>510300</v>
+        <v>510050</v>
       </c>
       <c r="C19" s="24" t="n">
-        <v>3.447</v>
+        <v>2.337</v>
       </c>
       <c r="D19" s="25" t="n">
-        <v>9100</v>
+        <v>2700</v>
       </c>
       <c r="E19" s="25" t="n">
-        <v>36384.53</v>
+        <v>7897.5</v>
       </c>
       <c r="F19" s="25" t="n">
-        <v>5016.83</v>
+        <v>1587.6</v>
       </c>
       <c r="G19" s="26" t="inlineStr">
         <is>
@@ -1349,40 +1349,40 @@
       </c>
       <c r="I19" s="26" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>上证50</t>
         </is>
       </c>
       <c r="J19" s="26" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>111</t>
         </is>
       </c>
       <c r="K19" s="26" t="inlineStr">
         <is>
-          <t>股票账户</t>
+          <t>华泰证券</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="22" t="inlineStr">
         <is>
-          <t>500ETF</t>
+          <t>300ETF</t>
         </is>
       </c>
       <c r="B20" s="23" t="n">
-        <v>510500</v>
+        <v>510300</v>
       </c>
       <c r="C20" s="24" t="n">
-        <v>5.601</v>
+        <v>3.447</v>
       </c>
       <c r="D20" s="25" t="n">
-        <v>38800</v>
+        <v>9100</v>
       </c>
       <c r="E20" s="25" t="n">
-        <v>225998.36</v>
+        <v>36384.53</v>
       </c>
       <c r="F20" s="25" t="n">
-        <v>8679.559999999999</v>
+        <v>5016.83</v>
       </c>
       <c r="G20" s="26" t="inlineStr">
         <is>
@@ -1391,45 +1391,45 @@
       </c>
       <c r="H20" s="26" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I20" s="26" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>沪深300</t>
         </is>
       </c>
       <c r="J20" s="26" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>113</t>
         </is>
       </c>
       <c r="K20" s="26" t="inlineStr">
         <is>
-          <t>股票账户</t>
+          <t>华泰证券</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="22" t="inlineStr">
         <is>
-          <t>环保ETF</t>
+          <t>500ETF</t>
         </is>
       </c>
       <c r="B21" s="23" t="n">
-        <v>512580</v>
+        <v>510500</v>
       </c>
       <c r="C21" s="24" t="n">
-        <v>0.877</v>
+        <v>5.601</v>
       </c>
       <c r="D21" s="25" t="n">
-        <v>33800</v>
+        <v>38800</v>
       </c>
       <c r="E21" s="25" t="n">
-        <v>27908.66</v>
+        <v>225998.36</v>
       </c>
       <c r="F21" s="25" t="n">
-        <v>-1733.94</v>
+        <v>8679.559999999999</v>
       </c>
       <c r="G21" s="26" t="inlineStr">
         <is>
@@ -1438,45 +1438,45 @@
       </c>
       <c r="H21" s="26" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I21" s="26" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J21" s="26" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K21" s="26" t="inlineStr">
         <is>
-          <t>股票账户</t>
+          <t>华泰证券</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="22" t="inlineStr">
         <is>
-          <t>证券ETF</t>
+          <t>环保ETF</t>
         </is>
       </c>
       <c r="B22" s="23" t="n">
-        <v>512880</v>
+        <v>512580</v>
       </c>
       <c r="C22" s="24" t="n">
-        <v>0.783</v>
+        <v>0.877</v>
       </c>
       <c r="D22" s="25" t="n">
-        <v>32700</v>
+        <v>33800</v>
       </c>
       <c r="E22" s="25" t="n">
-        <v>32379.54</v>
+        <v>27908.66</v>
       </c>
       <c r="F22" s="25" t="n">
-        <v>6775.44</v>
+        <v>-1733.94</v>
       </c>
       <c r="G22" s="26" t="inlineStr">
         <is>
@@ -1490,40 +1490,40 @@
       </c>
       <c r="I22" s="26" t="inlineStr">
         <is>
-          <t>证券公司</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="J22" s="26" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>143</t>
         </is>
       </c>
       <c r="K22" s="26" t="inlineStr">
         <is>
-          <t>股票账户</t>
+          <t>华泰证券</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="22" t="inlineStr">
         <is>
-          <t>传媒ETF</t>
+          <t>证券ETF</t>
         </is>
       </c>
       <c r="B23" s="23" t="n">
-        <v>512980</v>
+        <v>512880</v>
       </c>
       <c r="C23" s="24" t="n">
-        <v>0.869</v>
+        <v>0.783</v>
       </c>
       <c r="D23" s="25" t="n">
-        <v>34100</v>
+        <v>32700</v>
       </c>
       <c r="E23" s="25" t="n">
-        <v>29943.21</v>
+        <v>32379.54</v>
       </c>
       <c r="F23" s="25" t="n">
-        <v>310.31</v>
+        <v>6775.44</v>
       </c>
       <c r="G23" s="26" t="inlineStr">
         <is>
@@ -1537,228 +1537,228 @@
       </c>
       <c r="I23" s="26" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>证券公司</t>
         </is>
       </c>
       <c r="J23" s="26" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>145</t>
         </is>
       </c>
       <c r="K23" s="26" t="inlineStr">
         <is>
-          <t>股票账户</t>
+          <t>华泰证券</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="22" t="inlineStr">
         <is>
-          <t>黄金ETF</t>
+          <t>传媒ETF</t>
         </is>
       </c>
       <c r="B24" s="23" t="n">
-        <v>518880</v>
+        <v>512980</v>
       </c>
       <c r="C24" s="24" t="n">
-        <v>2.856</v>
+        <v>0.869</v>
       </c>
       <c r="D24" s="25" t="n">
-        <v>4500</v>
+        <v>34100</v>
       </c>
       <c r="E24" s="25" t="n">
-        <v>15450.3</v>
+        <v>29943.21</v>
       </c>
       <c r="F24" s="25" t="n">
-        <v>2598.3</v>
+        <v>310.31</v>
       </c>
       <c r="G24" s="26" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H24" s="26" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I24" s="26" t="inlineStr">
         <is>
-          <t>黄金</t>
+          <t>中证传媒</t>
         </is>
       </c>
       <c r="J24" s="26" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>144</t>
         </is>
       </c>
       <c r="K24" s="26" t="inlineStr">
         <is>
-          <t>股票账户</t>
+          <t>华泰证券</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="22" t="inlineStr">
         <is>
-          <t>创业板</t>
+          <t>黄金ETF</t>
         </is>
       </c>
       <c r="B25" s="23" t="n">
-        <v>159915</v>
+        <v>518880</v>
       </c>
       <c r="C25" s="24" t="n">
-        <v>1.399</v>
+        <v>2.856</v>
       </c>
       <c r="D25" s="25" t="n">
-        <v>9200</v>
+        <v>4500</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>17057.72</v>
+        <v>15450.3</v>
       </c>
       <c r="F25" s="25" t="n">
-        <v>4186.92</v>
+        <v>2598.3</v>
       </c>
       <c r="G25" s="26" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="H25" s="26" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="I25" s="26" t="inlineStr">
         <is>
-          <t>创业板</t>
+          <t>黄金</t>
         </is>
       </c>
       <c r="J25" s="26" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>611</t>
         </is>
       </c>
       <c r="K25" s="26" t="inlineStr">
         <is>
-          <t>股票账户</t>
+          <t>华泰证券</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="22" t="inlineStr">
         <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="B26" s="23" t="n">
+        <v>159915</v>
+      </c>
+      <c r="C26" s="24" t="n">
+        <v>1.399</v>
+      </c>
+      <c r="D26" s="25" t="n">
+        <v>9200</v>
+      </c>
+      <c r="E26" s="25" t="n">
+        <v>17057.72</v>
+      </c>
+      <c r="F26" s="25" t="n">
+        <v>4186.92</v>
+      </c>
+      <c r="G26" s="26" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H26" s="26" t="inlineStr">
+        <is>
+          <t>中小盘股</t>
+        </is>
+      </c>
+      <c r="I26" s="26" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="J26" s="26" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="K26" s="26" t="inlineStr">
+        <is>
+          <t>华泰证券</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="22" t="inlineStr">
+        <is>
           <t>广发医药</t>
         </is>
       </c>
-      <c r="B26" s="23" t="n">
+      <c r="B27" s="23" t="n">
         <v>159938</v>
       </c>
-      <c r="C26" s="24" t="n">
+      <c r="C27" s="24" t="n">
         <v>1.271</v>
       </c>
-      <c r="D26" s="25" t="n">
+      <c r="D27" s="25" t="n">
         <v>14400</v>
       </c>
-      <c r="E26" s="25" t="n">
+      <c r="E27" s="25" t="n">
         <v>20854.08</v>
       </c>
-      <c r="F26" s="25" t="n">
+      <c r="F27" s="25" t="n">
         <v>2551.68</v>
       </c>
-      <c r="G26" s="26" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H26" s="26" t="inlineStr">
+      <c r="G27" s="26" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H27" s="26" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="I26" s="26" t="inlineStr">
+      <c r="I27" s="26" t="inlineStr">
         <is>
           <t>全指医药</t>
         </is>
       </c>
-      <c r="J26" s="26" t="inlineStr">
+      <c r="J27" s="26" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="K26" s="26" t="inlineStr">
-        <is>
-          <t>股票账户</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="27" t="inlineStr">
-        <is>
-          <t>建信中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="B27" s="28" t="n">
-        <v>478</v>
-      </c>
-      <c r="C27" s="29" t="n">
-        <v>1.9252</v>
-      </c>
-      <c r="D27" s="30" t="n">
-        <v>4157.52</v>
-      </c>
-      <c r="E27" s="30" t="n">
-        <v>8680.49</v>
-      </c>
-      <c r="F27" s="30" t="n">
-        <v>676.4299999999999</v>
-      </c>
-      <c r="G27" s="31" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H27" s="31" t="inlineStr">
-        <is>
-          <t>中小盘股</t>
-        </is>
-      </c>
-      <c r="I27" s="31" t="inlineStr">
-        <is>
-          <t>中证500</t>
-        </is>
-      </c>
-      <c r="J27" s="31" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="K27" s="31" t="inlineStr">
-        <is>
-          <t>且慢 150 份</t>
+      <c r="K27" s="26" t="inlineStr">
+        <is>
+          <t>华泰证券</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="27" t="inlineStr">
         <is>
-          <t>广发中证环保ETF联接A</t>
+          <t>建信中证500指数增强A</t>
         </is>
       </c>
       <c r="B28" s="28" t="n">
-        <v>1064</v>
+        <v>478</v>
       </c>
       <c r="C28" s="29" t="n">
-        <v>0.5489000000000001</v>
+        <v>1.9252</v>
       </c>
       <c r="D28" s="30" t="n">
-        <v>9722</v>
+        <v>4157.52</v>
       </c>
       <c r="E28" s="30" t="n">
-        <v>5991.67</v>
+        <v>8680.49</v>
       </c>
       <c r="F28" s="30" t="n">
-        <v>655.26</v>
+        <v>676.4299999999999</v>
       </c>
       <c r="G28" s="31" t="inlineStr">
         <is>
@@ -1767,17 +1767,17 @@
       </c>
       <c r="H28" s="31" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I28" s="31" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J28" s="31" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K28" s="31" t="inlineStr">
@@ -1789,23 +1789,23 @@
     <row r="29">
       <c r="A29" s="27" t="inlineStr">
         <is>
-          <t>广发养老指数A</t>
+          <t>广发中证环保ETF联接A</t>
         </is>
       </c>
       <c r="B29" s="28" t="n">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="C29" s="29" t="n">
-        <v>0.9444</v>
+        <v>0.5489000000000001</v>
       </c>
       <c r="D29" s="30" t="n">
-        <v>4943.96</v>
+        <v>9722</v>
       </c>
       <c r="E29" s="30" t="n">
-        <v>4996.86</v>
+        <v>5991.67</v>
       </c>
       <c r="F29" s="30" t="n">
-        <v>327.78</v>
+        <v>655.26</v>
       </c>
       <c r="G29" s="31" t="inlineStr">
         <is>
@@ -1819,12 +1819,12 @@
       </c>
       <c r="I29" s="31" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="J29" s="31" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>143</t>
         </is>
       </c>
       <c r="K29" s="31" t="inlineStr">
@@ -1836,23 +1836,23 @@
     <row r="30">
       <c r="A30" s="27" t="inlineStr">
         <is>
-          <t>华夏中证500ETF联接A</t>
+          <t>广发养老指数A</t>
         </is>
       </c>
       <c r="B30" s="28" t="n">
-        <v>1052</v>
+        <v>968</v>
       </c>
       <c r="C30" s="29" t="n">
-        <v>0.5423</v>
+        <v>0.9444</v>
       </c>
       <c r="D30" s="30" t="n">
-        <v>7379.54</v>
+        <v>4943.96</v>
       </c>
       <c r="E30" s="30" t="n">
-        <v>4398.21</v>
+        <v>4996.86</v>
       </c>
       <c r="F30" s="30" t="n">
-        <v>396.28</v>
+        <v>327.78</v>
       </c>
       <c r="G30" s="31" t="inlineStr">
         <is>
@@ -1861,17 +1861,17 @@
       </c>
       <c r="H30" s="31" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I30" s="31" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="J30" s="31" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K30" s="31" t="inlineStr">
@@ -1883,23 +1883,23 @@
     <row r="31">
       <c r="A31" s="27" t="inlineStr">
         <is>
-          <t>富国中证红利指数增强</t>
+          <t>华夏中证500ETF联接A</t>
         </is>
       </c>
       <c r="B31" s="28" t="n">
-        <v>100032</v>
+        <v>1052</v>
       </c>
       <c r="C31" s="29" t="n">
-        <v>1.0919</v>
+        <v>0.5423</v>
       </c>
       <c r="D31" s="30" t="n">
-        <v>3665.01</v>
+        <v>7379.54</v>
       </c>
       <c r="E31" s="30" t="n">
-        <v>4145.13</v>
+        <v>4398.21</v>
       </c>
       <c r="F31" s="30" t="n">
-        <v>143.3</v>
+        <v>396.28</v>
       </c>
       <c r="G31" s="31" t="inlineStr">
         <is>
@@ -1908,17 +1908,17 @@
       </c>
       <c r="H31" s="31" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I31" s="31" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J31" s="31" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K31" s="31" t="inlineStr">
@@ -1930,23 +1930,23 @@
     <row r="32">
       <c r="A32" s="27" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF联接A</t>
+          <t>富国中证红利指数增强</t>
         </is>
       </c>
       <c r="B32" s="28" t="n">
-        <v>4752</v>
+        <v>100032</v>
       </c>
       <c r="C32" s="29" t="n">
-        <v>0.7329</v>
+        <v>1.0919</v>
       </c>
       <c r="D32" s="30" t="n">
-        <v>4550.55</v>
+        <v>3665.01</v>
       </c>
       <c r="E32" s="30" t="n">
-        <v>3971.72</v>
+        <v>4145.13</v>
       </c>
       <c r="F32" s="30" t="n">
-        <v>636.62</v>
+        <v>143.3</v>
       </c>
       <c r="G32" s="31" t="inlineStr">
         <is>
@@ -1955,17 +1955,17 @@
       </c>
       <c r="H32" s="31" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I32" s="31" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J32" s="31" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K32" s="31" t="inlineStr">
@@ -1977,23 +1977,23 @@
     <row r="33">
       <c r="A33" s="27" t="inlineStr">
         <is>
-          <t>易方达创业板ETF联接A</t>
+          <t>广发中证传媒ETF联接A</t>
         </is>
       </c>
       <c r="B33" s="28" t="n">
-        <v>110026</v>
+        <v>4752</v>
       </c>
       <c r="C33" s="29" t="n">
-        <v>1.6649</v>
+        <v>0.7329</v>
       </c>
       <c r="D33" s="30" t="n">
-        <v>400.63</v>
+        <v>4550.55</v>
       </c>
       <c r="E33" s="30" t="n">
-        <v>792.6900000000001</v>
+        <v>3971.72</v>
       </c>
       <c r="F33" s="30" t="n">
-        <v>125.68</v>
+        <v>636.62</v>
       </c>
       <c r="G33" s="31" t="inlineStr">
         <is>
@@ -2002,17 +2002,17 @@
       </c>
       <c r="H33" s="31" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I33" s="31" t="inlineStr">
         <is>
-          <t>创业板</t>
+          <t>中证传媒</t>
         </is>
       </c>
       <c r="J33" s="31" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>144</t>
         </is>
       </c>
       <c r="K33" s="31" t="inlineStr">
@@ -2024,23 +2024,23 @@
     <row r="34">
       <c r="A34" s="27" t="inlineStr">
         <is>
-          <t>广发创业板ETF联接A</t>
+          <t>易方达创业板ETF联接A</t>
         </is>
       </c>
       <c r="B34" s="28" t="n">
-        <v>3765</v>
+        <v>110026</v>
       </c>
       <c r="C34" s="29" t="n">
-        <v>0.9059</v>
+        <v>1.6649</v>
       </c>
       <c r="D34" s="30" t="n">
-        <v>736.3</v>
+        <v>400.63</v>
       </c>
       <c r="E34" s="30" t="n">
-        <v>785.04</v>
+        <v>792.6900000000001</v>
       </c>
       <c r="F34" s="30" t="n">
-        <v>118.03</v>
+        <v>125.68</v>
       </c>
       <c r="G34" s="31" t="inlineStr">
         <is>
@@ -2071,23 +2071,23 @@
     <row r="35">
       <c r="A35" s="27" t="inlineStr">
         <is>
-          <t>广发医药卫生联接A</t>
+          <t>广发创业板ETF联接A</t>
         </is>
       </c>
       <c r="B35" s="28" t="n">
-        <v>1180</v>
+        <v>3765</v>
       </c>
       <c r="C35" s="29" t="n">
-        <v>0.8242</v>
+        <v>0.9059</v>
       </c>
       <c r="D35" s="30" t="n">
-        <v>809.28</v>
+        <v>736.3</v>
       </c>
       <c r="E35" s="30" t="n">
-        <v>727.62</v>
+        <v>785.04</v>
       </c>
       <c r="F35" s="30" t="n">
-        <v>60.62</v>
+        <v>118.03</v>
       </c>
       <c r="G35" s="31" t="inlineStr">
         <is>
@@ -2096,17 +2096,17 @@
       </c>
       <c r="H35" s="31" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I35" s="31" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>创业板</t>
         </is>
       </c>
       <c r="J35" s="31" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>124</t>
         </is>
       </c>
       <c r="K35" s="31" t="inlineStr">
@@ -2118,23 +2118,23 @@
     <row r="36">
       <c r="A36" s="27" t="inlineStr">
         <is>
-          <t>易方达证券公司分级</t>
+          <t>广发医药卫生联接A</t>
         </is>
       </c>
       <c r="B36" s="28" t="n">
-        <v>502010</v>
+        <v>1180</v>
       </c>
       <c r="C36" s="29" t="n">
-        <v>0.9853</v>
+        <v>0.8242</v>
       </c>
       <c r="D36" s="30" t="n">
-        <v>473.85</v>
+        <v>809.28</v>
       </c>
       <c r="E36" s="30" t="n">
-        <v>504.56</v>
+        <v>727.62</v>
       </c>
       <c r="F36" s="30" t="n">
-        <v>37.67</v>
+        <v>60.62</v>
       </c>
       <c r="G36" s="31" t="inlineStr">
         <is>
@@ -2148,12 +2148,12 @@
       </c>
       <c r="I36" s="31" t="inlineStr">
         <is>
-          <t>证券公司</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="J36" s="31" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K36" s="31" t="inlineStr">
@@ -2165,42 +2165,42 @@
     <row r="37">
       <c r="A37" s="27" t="inlineStr">
         <is>
-          <t>华宝标普石油指数A</t>
+          <t>易方达证券公司分级</t>
         </is>
       </c>
       <c r="B37" s="28" t="n">
-        <v>162411</v>
+        <v>502010</v>
       </c>
       <c r="C37" s="29" t="n">
-        <v>0.3775</v>
+        <v>0.9853</v>
       </c>
       <c r="D37" s="30" t="n">
-        <v>5299.96</v>
+        <v>473.85</v>
       </c>
       <c r="E37" s="30" t="n">
-        <v>1945.62</v>
+        <v>504.56</v>
       </c>
       <c r="F37" s="30" t="n">
-        <v>-55.12</v>
+        <v>37.67</v>
       </c>
       <c r="G37" s="31" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H37" s="31" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I37" s="31" t="inlineStr">
         <is>
-          <t>原油</t>
+          <t>证券公司</t>
         </is>
       </c>
       <c r="J37" s="31" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>145</t>
         </is>
       </c>
       <c r="K37" s="31" t="inlineStr">
@@ -2212,42 +2212,42 @@
     <row r="38">
       <c r="A38" s="27" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>华宝标普石油指数A</t>
         </is>
       </c>
       <c r="B38" s="28" t="n">
-        <v>164906</v>
+        <v>162411</v>
       </c>
       <c r="C38" s="29" t="n">
-        <v>1.1564</v>
+        <v>0.3775</v>
       </c>
       <c r="D38" s="30" t="n">
-        <v>576.8</v>
+        <v>5299.96</v>
       </c>
       <c r="E38" s="30" t="n">
-        <v>820.21</v>
+        <v>1945.62</v>
       </c>
       <c r="F38" s="30" t="n">
-        <v>153.2</v>
+        <v>-55.12</v>
       </c>
       <c r="G38" s="31" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="H38" s="31" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="I38" s="31" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>原油</t>
         </is>
       </c>
       <c r="J38" s="31" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>613</t>
         </is>
       </c>
       <c r="K38" s="31" t="inlineStr">
@@ -2259,23 +2259,23 @@
     <row r="39">
       <c r="A39" s="27" t="inlineStr">
         <is>
-          <t>华夏恒生ETF联接A</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B39" s="28" t="n">
-        <v>71</v>
+        <v>164906</v>
       </c>
       <c r="C39" s="29" t="n">
-        <v>1.451</v>
+        <v>1.1564</v>
       </c>
       <c r="D39" s="30" t="n">
-        <v>459.67</v>
+        <v>576.8</v>
       </c>
       <c r="E39" s="30" t="n">
-        <v>707.0599999999999</v>
+        <v>820.21</v>
       </c>
       <c r="F39" s="30" t="n">
-        <v>40.08</v>
+        <v>153.2</v>
       </c>
       <c r="G39" s="31" t="inlineStr">
         <is>
@@ -2284,17 +2284,17 @@
       </c>
       <c r="H39" s="31" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="I39" s="31" t="inlineStr">
         <is>
-          <t>恒生</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="J39" s="31" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>221</t>
         </is>
       </c>
       <c r="K39" s="31" t="inlineStr">
@@ -2306,42 +2306,42 @@
     <row r="40">
       <c r="A40" s="27" t="inlineStr">
         <is>
-          <t>华安德国30(DAX)联接</t>
+          <t>华夏恒生ETF联接A</t>
         </is>
       </c>
       <c r="B40" s="28" t="n">
-        <v>614</v>
+        <v>71</v>
       </c>
       <c r="C40" s="29" t="n">
-        <v>1.0903</v>
+        <v>1.451</v>
       </c>
       <c r="D40" s="30" t="n">
-        <v>611.75</v>
+        <v>459.67</v>
       </c>
       <c r="E40" s="30" t="n">
-        <v>738.99</v>
+        <v>707.0599999999999</v>
       </c>
       <c r="F40" s="30" t="n">
-        <v>72</v>
+        <v>40.08</v>
       </c>
       <c r="G40" s="31" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H40" s="31" t="inlineStr">
         <is>
-          <t>德国</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I40" s="31" t="inlineStr">
         <is>
-          <t>德国30</t>
+          <t>恒生</t>
         </is>
       </c>
       <c r="J40" s="31" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>211</t>
         </is>
       </c>
       <c r="K40" s="31" t="inlineStr">
@@ -2353,70 +2353,70 @@
     <row r="41">
       <c r="A41" s="27" t="inlineStr">
         <is>
-          <t>建信中证500指数增强A</t>
+          <t>华安德国30(DAX)联接</t>
         </is>
       </c>
       <c r="B41" s="28" t="n">
-        <v>478</v>
+        <v>614</v>
       </c>
       <c r="C41" s="29" t="n">
-        <v>1.9107</v>
+        <v>1.0903</v>
       </c>
       <c r="D41" s="30" t="n">
-        <v>1046.73</v>
+        <v>611.75</v>
       </c>
       <c r="E41" s="30" t="n">
-        <v>2185.47</v>
+        <v>738.99</v>
       </c>
       <c r="F41" s="30" t="n">
-        <v>185.48</v>
+        <v>72</v>
       </c>
       <c r="G41" s="31" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="H41" s="31" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>德国</t>
         </is>
       </c>
       <c r="I41" s="31" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>德国30</t>
         </is>
       </c>
       <c r="J41" s="31" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>321</t>
         </is>
       </c>
       <c r="K41" s="31" t="inlineStr">
         <is>
-          <t>且慢 S 定投</t>
+          <t>且慢 150 份</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="27" t="inlineStr">
         <is>
-          <t>富国中证红利指数增强</t>
+          <t>建信中证500指数增强A</t>
         </is>
       </c>
       <c r="B42" s="28" t="n">
-        <v>100032</v>
+        <v>478</v>
       </c>
       <c r="C42" s="29" t="n">
-        <v>1.0954</v>
+        <v>1.9107</v>
       </c>
       <c r="D42" s="30" t="n">
-        <v>1825.9</v>
+        <v>1046.73</v>
       </c>
       <c r="E42" s="30" t="n">
-        <v>2065.09</v>
+        <v>2185.47</v>
       </c>
       <c r="F42" s="30" t="n">
-        <v>65</v>
+        <v>185.48</v>
       </c>
       <c r="G42" s="31" t="inlineStr">
         <is>
@@ -2425,17 +2425,17 @@
       </c>
       <c r="H42" s="31" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I42" s="31" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J42" s="31" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K42" s="31" t="inlineStr">
@@ -2447,23 +2447,23 @@
     <row r="43">
       <c r="A43" s="27" t="inlineStr">
         <is>
-          <t>华夏中证500ETF联接A</t>
+          <t>富国中证红利指数增强</t>
         </is>
       </c>
       <c r="B43" s="28" t="n">
-        <v>1052</v>
+        <v>100032</v>
       </c>
       <c r="C43" s="29" t="n">
-        <v>0.5517</v>
+        <v>1.0954</v>
       </c>
       <c r="D43" s="30" t="n">
-        <v>1812.7</v>
+        <v>1825.9</v>
       </c>
       <c r="E43" s="30" t="n">
-        <v>1080.37</v>
+        <v>2065.09</v>
       </c>
       <c r="F43" s="30" t="n">
-        <v>80.3</v>
+        <v>65</v>
       </c>
       <c r="G43" s="31" t="inlineStr">
         <is>
@@ -2472,17 +2472,17 @@
       </c>
       <c r="H43" s="31" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I43" s="31" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J43" s="31" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K43" s="31" t="inlineStr">
@@ -2494,23 +2494,23 @@
     <row r="44">
       <c r="A44" s="27" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF联接A</t>
+          <t>华夏中证500ETF联接A</t>
         </is>
       </c>
       <c r="B44" s="28" t="n">
-        <v>4752</v>
+        <v>1052</v>
       </c>
       <c r="C44" s="29" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.5517</v>
       </c>
       <c r="D44" s="30" t="n">
-        <v>1227.03</v>
+        <v>1812.7</v>
       </c>
       <c r="E44" s="30" t="n">
-        <v>1070.95</v>
+        <v>1080.37</v>
       </c>
       <c r="F44" s="30" t="n">
-        <v>70.92</v>
+        <v>80.3</v>
       </c>
       <c r="G44" s="31" t="inlineStr">
         <is>
@@ -2519,17 +2519,17 @@
       </c>
       <c r="H44" s="31" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I44" s="31" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J44" s="31" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K44" s="31" t="inlineStr">
@@ -2541,23 +2541,23 @@
     <row r="45">
       <c r="A45" s="27" t="inlineStr">
         <is>
-          <t>华夏上证50ETF联接A</t>
+          <t>广发中证传媒ETF联接A</t>
         </is>
       </c>
       <c r="B45" s="28" t="n">
-        <v>1051</v>
+        <v>4752</v>
       </c>
       <c r="C45" s="29" t="n">
-        <v>0.9441000000000001</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="D45" s="30" t="n">
-        <v>1059.17</v>
+        <v>1227.03</v>
       </c>
       <c r="E45" s="30" t="n">
-        <v>1061.29</v>
+        <v>1070.95</v>
       </c>
       <c r="F45" s="30" t="n">
-        <v>61.33</v>
+        <v>70.92</v>
       </c>
       <c r="G45" s="31" t="inlineStr">
         <is>
@@ -2566,17 +2566,17 @@
       </c>
       <c r="H45" s="31" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I45" s="31" t="inlineStr">
         <is>
-          <t>上证50</t>
+          <t>中证传媒</t>
         </is>
       </c>
       <c r="J45" s="31" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>144</t>
         </is>
       </c>
       <c r="K45" s="31" t="inlineStr">
@@ -2588,42 +2588,42 @@
     <row r="46">
       <c r="A46" s="27" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>华夏上证50ETF联接A</t>
         </is>
       </c>
       <c r="B46" s="28" t="n">
-        <v>164906</v>
+        <v>1051</v>
       </c>
       <c r="C46" s="29" t="n">
-        <v>1.1113</v>
+        <v>0.9441000000000001</v>
       </c>
       <c r="D46" s="30" t="n">
-        <v>899.8200000000001</v>
+        <v>1059.17</v>
       </c>
       <c r="E46" s="30" t="n">
-        <v>1279.54</v>
+        <v>1061.29</v>
       </c>
       <c r="F46" s="30" t="n">
-        <v>279.57</v>
+        <v>61.33</v>
       </c>
       <c r="G46" s="31" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H46" s="31" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I46" s="31" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>上证50</t>
         </is>
       </c>
       <c r="J46" s="31" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>111</t>
         </is>
       </c>
       <c r="K46" s="31" t="inlineStr">
@@ -2635,23 +2635,23 @@
     <row r="47">
       <c r="A47" s="27" t="inlineStr">
         <is>
-          <t>华夏恒生ETF联接A</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B47" s="28" t="n">
-        <v>71</v>
+        <v>164906</v>
       </c>
       <c r="C47" s="29" t="n">
-        <v>1.4513</v>
+        <v>1.1113</v>
       </c>
       <c r="D47" s="30" t="n">
-        <v>689.02</v>
+        <v>899.8200000000001</v>
       </c>
       <c r="E47" s="30" t="n">
-        <v>1059.85</v>
+        <v>1279.54</v>
       </c>
       <c r="F47" s="30" t="n">
-        <v>59.88</v>
+        <v>279.57</v>
       </c>
       <c r="G47" s="31" t="inlineStr">
         <is>
@@ -2660,17 +2660,17 @@
       </c>
       <c r="H47" s="31" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="I47" s="31" t="inlineStr">
         <is>
-          <t>恒生</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="J47" s="31" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>221</t>
         </is>
       </c>
       <c r="K47" s="31" t="inlineStr">
@@ -2682,42 +2682,42 @@
     <row r="48">
       <c r="A48" s="27" t="inlineStr">
         <is>
-          <t>华安黄金易ETF联接A</t>
+          <t>华夏恒生ETF联接A</t>
         </is>
       </c>
       <c r="B48" s="28" t="n">
-        <v>216</v>
+        <v>71</v>
       </c>
       <c r="C48" s="29" t="n">
-        <v>1.0902</v>
+        <v>1.4513</v>
       </c>
       <c r="D48" s="30" t="n">
-        <v>1834.47</v>
+        <v>689.02</v>
       </c>
       <c r="E48" s="30" t="n">
-        <v>2333.45</v>
+        <v>1059.85</v>
       </c>
       <c r="F48" s="30" t="n">
-        <v>333.51</v>
+        <v>59.88</v>
       </c>
       <c r="G48" s="31" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H48" s="31" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I48" s="31" t="inlineStr">
         <is>
-          <t>黄金</t>
+          <t>恒生</t>
         </is>
       </c>
       <c r="J48" s="31" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>211</t>
         </is>
       </c>
       <c r="K48" s="31" t="inlineStr">
@@ -2729,23 +2729,23 @@
     <row r="49">
       <c r="A49" s="27" t="inlineStr">
         <is>
-          <t>华宝标普石油指数A</t>
+          <t>华安黄金易ETF联接A</t>
         </is>
       </c>
       <c r="B49" s="28" t="n">
-        <v>162411</v>
+        <v>216</v>
       </c>
       <c r="C49" s="29" t="n">
-        <v>0.4204</v>
+        <v>1.0902</v>
       </c>
       <c r="D49" s="30" t="n">
-        <v>4757.9</v>
+        <v>1834.47</v>
       </c>
       <c r="E49" s="30" t="n">
-        <v>1746.63</v>
+        <v>2333.45</v>
       </c>
       <c r="F49" s="30" t="n">
-        <v>-253.6</v>
+        <v>333.51</v>
       </c>
       <c r="G49" s="31" t="inlineStr">
         <is>
@@ -2759,12 +2759,12 @@
       </c>
       <c r="I49" s="31" t="inlineStr">
         <is>
-          <t>原油</t>
+          <t>黄金</t>
         </is>
       </c>
       <c r="J49" s="31" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>611</t>
         </is>
       </c>
       <c r="K49" s="31" t="inlineStr">
@@ -2776,42 +2776,42 @@
     <row r="50">
       <c r="A50" s="27" t="inlineStr">
         <is>
-          <t>华安德国30(DAX)联接</t>
+          <t>华宝标普石油指数A</t>
         </is>
       </c>
       <c r="B50" s="28" t="n">
-        <v>614</v>
+        <v>162411</v>
       </c>
       <c r="C50" s="29" t="n">
-        <v>1.0483</v>
+        <v>0.4204</v>
       </c>
       <c r="D50" s="30" t="n">
-        <v>953.96</v>
+        <v>4757.9</v>
       </c>
       <c r="E50" s="30" t="n">
-        <v>1152.38</v>
+        <v>1746.63</v>
       </c>
       <c r="F50" s="30" t="n">
-        <v>152.35</v>
+        <v>-253.6</v>
       </c>
       <c r="G50" s="31" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="H50" s="31" t="inlineStr">
         <is>
-          <t>德国</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="I50" s="31" t="inlineStr">
         <is>
-          <t>德国30</t>
+          <t>原油</t>
         </is>
       </c>
       <c r="J50" s="31" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>613</t>
         </is>
       </c>
       <c r="K50" s="31" t="inlineStr">
@@ -2823,117 +2823,117 @@
     <row r="51">
       <c r="A51" s="27" t="inlineStr">
         <is>
+          <t>华安德国30(DAX)联接</t>
+        </is>
+      </c>
+      <c r="B51" s="28" t="n">
+        <v>614</v>
+      </c>
+      <c r="C51" s="29" t="n">
+        <v>1.0483</v>
+      </c>
+      <c r="D51" s="30" t="n">
+        <v>953.96</v>
+      </c>
+      <c r="E51" s="30" t="n">
+        <v>1152.38</v>
+      </c>
+      <c r="F51" s="30" t="n">
+        <v>152.35</v>
+      </c>
+      <c r="G51" s="31" t="inlineStr">
+        <is>
+          <t>海外成熟</t>
+        </is>
+      </c>
+      <c r="H51" s="31" t="inlineStr">
+        <is>
+          <t>德国</t>
+        </is>
+      </c>
+      <c r="I51" s="31" t="inlineStr">
+        <is>
+          <t>德国30</t>
+        </is>
+      </c>
+      <c r="J51" s="31" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="K51" s="31" t="inlineStr">
+        <is>
+          <t>且慢 S 定投</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="27" t="inlineStr">
+        <is>
           <t>易方达安心债券A</t>
         </is>
       </c>
-      <c r="B51" s="28" t="n">
+      <c r="B52" s="28" t="n">
         <v>110027</v>
       </c>
-      <c r="C51" s="29" t="n">
+      <c r="C52" s="29" t="n">
         <v>1.6793</v>
       </c>
-      <c r="D51" s="30" t="n">
+      <c r="D52" s="30" t="n">
         <v>595.47</v>
       </c>
-      <c r="E51" s="30" t="n">
+      <c r="E52" s="30" t="n">
         <v>1056.36</v>
       </c>
-      <c r="F51" s="30" t="n">
+      <c r="F52" s="30" t="n">
         <v>56.39</v>
       </c>
-      <c r="G51" s="31" t="inlineStr">
+      <c r="G52" s="31" t="inlineStr">
         <is>
           <t>债券</t>
         </is>
       </c>
-      <c r="H51" s="31" t="inlineStr">
+      <c r="H52" s="31" t="inlineStr">
         <is>
           <t>国内债券</t>
         </is>
       </c>
-      <c r="I51" s="31" t="inlineStr">
+      <c r="I52" s="31" t="inlineStr">
         <is>
           <t>可转债</t>
         </is>
       </c>
-      <c r="J51" s="31" t="inlineStr">
+      <c r="J52" s="31" t="inlineStr">
         <is>
           <t>512</t>
         </is>
       </c>
-      <c r="K51" s="31" t="inlineStr">
+      <c r="K52" s="31" t="inlineStr">
         <is>
           <t>且慢 S 定投</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="32" t="inlineStr">
-        <is>
-          <t>富国中证红利指数增强</t>
-        </is>
-      </c>
-      <c r="B52" s="33" t="n">
-        <v>100032</v>
-      </c>
-      <c r="C52" s="34" t="n">
-        <v>1.0193</v>
-      </c>
-      <c r="D52" s="35" t="n">
-        <v>65064.33</v>
-      </c>
-      <c r="E52" s="35" t="n">
-        <v>73587.75999999999</v>
-      </c>
-      <c r="F52" s="35" t="n">
-        <v>7267.69</v>
-      </c>
-      <c r="G52" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H52" s="36" t="inlineStr">
-        <is>
-          <t>红利价值</t>
-        </is>
-      </c>
-      <c r="I52" s="36" t="inlineStr">
-        <is>
-          <t>中证红利</t>
-        </is>
-      </c>
-      <c r="J52" s="36" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
-      </c>
-      <c r="K52" s="36" t="inlineStr">
-        <is>
-          <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="32" t="inlineStr">
         <is>
-          <t>广发养老指数A</t>
+          <t>富国中证红利指数增强</t>
         </is>
       </c>
       <c r="B53" s="33" t="n">
-        <v>968</v>
+        <v>100032</v>
       </c>
       <c r="C53" s="34" t="n">
-        <v>0.9167</v>
+        <v>1.0193</v>
       </c>
       <c r="D53" s="35" t="n">
-        <v>63490</v>
+        <v>65064.33</v>
       </c>
       <c r="E53" s="35" t="n">
-        <v>64169.34</v>
+        <v>73587.75999999999</v>
       </c>
       <c r="F53" s="35" t="n">
-        <v>5968.06</v>
+        <v>7267.69</v>
       </c>
       <c r="G53" s="36" t="inlineStr">
         <is>
@@ -2942,17 +2942,17 @@
       </c>
       <c r="H53" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I53" s="36" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J53" s="36" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K53" s="36" t="inlineStr">
@@ -2964,42 +2964,42 @@
     <row r="54">
       <c r="A54" s="32" t="inlineStr">
         <is>
-          <t>兴全可转债混合</t>
+          <t>广发养老指数A</t>
         </is>
       </c>
       <c r="B54" s="33" t="n">
-        <v>340001</v>
+        <v>968</v>
       </c>
       <c r="C54" s="34" t="n">
-        <v>0.9886</v>
+        <v>0.9167</v>
       </c>
       <c r="D54" s="35" t="n">
-        <v>32370.29</v>
+        <v>63490</v>
       </c>
       <c r="E54" s="35" t="n">
-        <v>39404.35</v>
+        <v>64169.34</v>
       </c>
       <c r="F54" s="35" t="n">
-        <v>7403.09</v>
+        <v>5968.06</v>
       </c>
       <c r="G54" s="36" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H54" s="36" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I54" s="36" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="J54" s="36" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K54" s="36" t="inlineStr">
@@ -3011,42 +3011,42 @@
     <row r="55">
       <c r="A55" s="32" t="inlineStr">
         <is>
-          <t>广发医药卫生联接A</t>
+          <t>兴全可转债混合</t>
         </is>
       </c>
       <c r="B55" s="33" t="n">
-        <v>1180</v>
+        <v>340001</v>
       </c>
       <c r="C55" s="34" t="n">
-        <v>0.7451</v>
+        <v>0.9886</v>
       </c>
       <c r="D55" s="35" t="n">
-        <v>41014.88</v>
+        <v>32370.29</v>
       </c>
       <c r="E55" s="35" t="n">
-        <v>36876.48</v>
+        <v>39404.35</v>
       </c>
       <c r="F55" s="35" t="n">
-        <v>6316.29</v>
+        <v>7403.09</v>
       </c>
       <c r="G55" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H55" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I55" s="36" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J55" s="36" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K55" s="36" t="inlineStr">
@@ -3058,42 +3058,42 @@
     <row r="56">
       <c r="A56" s="32" t="inlineStr">
         <is>
-          <t>易方达安心回报债券A</t>
+          <t>广发医药卫生联接A</t>
         </is>
       </c>
       <c r="B56" s="33" t="n">
-        <v>110027</v>
+        <v>1180</v>
       </c>
       <c r="C56" s="34" t="n">
-        <v>1.5931</v>
+        <v>0.7451</v>
       </c>
       <c r="D56" s="35" t="n">
-        <v>20086.63</v>
+        <v>41014.88</v>
       </c>
       <c r="E56" s="35" t="n">
-        <v>35633.68</v>
+        <v>36876.48</v>
       </c>
       <c r="F56" s="35" t="n">
-        <v>3633.67</v>
+        <v>6316.29</v>
       </c>
       <c r="G56" s="36" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H56" s="36" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I56" s="36" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="J56" s="36" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K56" s="36" t="inlineStr">
@@ -3105,42 +3105,42 @@
     <row r="57">
       <c r="A57" s="32" t="inlineStr">
         <is>
-          <t>华安德国30(DAX)联接</t>
+          <t>易方达安心回报债券A</t>
         </is>
       </c>
       <c r="B57" s="33" t="n">
-        <v>614</v>
+        <v>110027</v>
       </c>
       <c r="C57" s="34" t="n">
-        <v>1.091</v>
+        <v>1.5931</v>
       </c>
       <c r="D57" s="35" t="n">
-        <v>20716.63</v>
+        <v>20086.63</v>
       </c>
       <c r="E57" s="35" t="n">
-        <v>25025.69</v>
+        <v>35633.68</v>
       </c>
       <c r="F57" s="35" t="n">
-        <v>2423.85</v>
+        <v>3633.67</v>
       </c>
       <c r="G57" s="36" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H57" s="36" t="inlineStr">
         <is>
-          <t>德国</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I57" s="36" t="inlineStr">
         <is>
-          <t>德国30</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J57" s="36" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K57" s="36" t="inlineStr">
@@ -3152,42 +3152,42 @@
     <row r="58">
       <c r="A58" s="32" t="inlineStr">
         <is>
-          <t>富国沪深300指数增强</t>
+          <t>华安德国30(DAX)联接</t>
         </is>
       </c>
       <c r="B58" s="33" t="n">
-        <v>100038</v>
+        <v>614</v>
       </c>
       <c r="C58" s="34" t="n">
-        <v>1.3129</v>
+        <v>1.091</v>
       </c>
       <c r="D58" s="35" t="n">
-        <v>14624.61</v>
+        <v>20716.63</v>
       </c>
       <c r="E58" s="35" t="n">
-        <v>24437.72</v>
+        <v>25025.69</v>
       </c>
       <c r="F58" s="35" t="n">
-        <v>5237.07</v>
+        <v>2423.85</v>
       </c>
       <c r="G58" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="H58" s="36" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>德国</t>
         </is>
       </c>
       <c r="I58" s="36" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>德国30</t>
         </is>
       </c>
       <c r="J58" s="36" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>321</t>
         </is>
       </c>
       <c r="K58" s="36" t="inlineStr">
@@ -3199,42 +3199,42 @@
     <row r="59">
       <c r="A59" s="32" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>富国沪深300指数增强</t>
         </is>
       </c>
       <c r="B59" s="33" t="n">
-        <v>164906</v>
+        <v>100038</v>
       </c>
       <c r="C59" s="34" t="n">
-        <v>1.1444</v>
+        <v>1.3129</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>16778.47</v>
+        <v>14624.61</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>23858.98</v>
+        <v>24437.72</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>4657.7</v>
+        <v>5237.07</v>
       </c>
       <c r="G59" s="36" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H59" s="36" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I59" s="36" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>沪深300</t>
         </is>
       </c>
       <c r="J59" s="36" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>113</t>
         </is>
       </c>
       <c r="K59" s="36" t="inlineStr">
@@ -3246,42 +3246,42 @@
     <row r="60">
       <c r="A60" s="32" t="inlineStr">
         <is>
-          <t>广发中证全指金融地产联接A</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B60" s="33" t="n">
-        <v>1469</v>
+        <v>164906</v>
       </c>
       <c r="C60" s="34" t="n">
-        <v>0.9073</v>
+        <v>1.1444</v>
       </c>
       <c r="D60" s="35" t="n">
-        <v>21163.93</v>
+        <v>16778.47</v>
       </c>
       <c r="E60" s="35" t="n">
-        <v>23305.72</v>
+        <v>23858.98</v>
       </c>
       <c r="F60" s="35" t="n">
-        <v>4103.69</v>
+        <v>4657.7</v>
       </c>
       <c r="G60" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H60" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="I60" s="36" t="inlineStr">
         <is>
-          <t>金融地产</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="J60" s="36" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>221</t>
         </is>
       </c>
       <c r="K60" s="36" t="inlineStr">
@@ -3293,23 +3293,23 @@
     <row r="61">
       <c r="A61" s="32" t="inlineStr">
         <is>
-          <t>富国中证500指数(LOF)</t>
+          <t>广发中证全指金融地产联接A</t>
         </is>
       </c>
       <c r="B61" s="33" t="n">
-        <v>161017</v>
+        <v>1469</v>
       </c>
       <c r="C61" s="34" t="n">
-        <v>1.3432</v>
+        <v>0.9073</v>
       </c>
       <c r="D61" s="35" t="n">
-        <v>9529.809999999999</v>
+        <v>21163.93</v>
       </c>
       <c r="E61" s="35" t="n">
-        <v>16753.41</v>
+        <v>23305.72</v>
       </c>
       <c r="F61" s="35" t="n">
-        <v>3952.97</v>
+        <v>4103.69</v>
       </c>
       <c r="G61" s="36" t="inlineStr">
         <is>
@@ -3318,17 +3318,17 @@
       </c>
       <c r="H61" s="36" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I61" s="36" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>金融地产</t>
         </is>
       </c>
       <c r="J61" s="36" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>147</t>
         </is>
       </c>
       <c r="K61" s="36" t="inlineStr">
@@ -3340,42 +3340,42 @@
     <row r="62">
       <c r="A62" s="32" t="inlineStr">
         <is>
-          <t>华宝标普油气上游股票人民币A</t>
+          <t>富国中证500指数(LOF)</t>
         </is>
       </c>
       <c r="B62" s="33" t="n">
-        <v>162411</v>
+        <v>161017</v>
       </c>
       <c r="C62" s="34" t="n">
-        <v>0.5152</v>
+        <v>1.3432</v>
       </c>
       <c r="D62" s="35" t="n">
-        <v>37267.45</v>
+        <v>9529.809999999999</v>
       </c>
       <c r="E62" s="35" t="n">
-        <v>13680.88</v>
+        <v>16753.41</v>
       </c>
       <c r="F62" s="35" t="n">
-        <v>-5519.31</v>
+        <v>3952.97</v>
       </c>
       <c r="G62" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H62" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I62" s="36" t="inlineStr">
         <is>
-          <t>原油</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J62" s="36" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K62" s="36" t="inlineStr">
@@ -3387,42 +3387,42 @@
     <row r="63">
       <c r="A63" s="32" t="inlineStr">
         <is>
-          <t>华夏恒生ETF联接A</t>
+          <t>华宝标普油气上游股票人民币A</t>
         </is>
       </c>
       <c r="B63" s="33" t="n">
-        <v>71</v>
+        <v>162411</v>
       </c>
       <c r="C63" s="34" t="n">
-        <v>1.4562</v>
+        <v>0.5152</v>
       </c>
       <c r="D63" s="35" t="n">
-        <v>6798.52</v>
+        <v>37267.45</v>
       </c>
       <c r="E63" s="35" t="n">
-        <v>10457.48</v>
+        <v>13680.88</v>
       </c>
       <c r="F63" s="35" t="n">
-        <v>557.48</v>
+        <v>-5519.31</v>
       </c>
       <c r="G63" s="36" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="H63" s="36" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="I63" s="36" t="inlineStr">
         <is>
-          <t>恒生</t>
+          <t>原油</t>
         </is>
       </c>
       <c r="J63" s="36" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>613</t>
         </is>
       </c>
       <c r="K63" s="36" t="inlineStr">
@@ -3434,42 +3434,42 @@
     <row r="64">
       <c r="A64" s="32" t="inlineStr">
         <is>
-          <t>广发中证环保ETF联接A</t>
+          <t>华夏恒生ETF联接A</t>
         </is>
       </c>
       <c r="B64" s="33" t="n">
-        <v>1064</v>
+        <v>71</v>
       </c>
       <c r="C64" s="34" t="n">
-        <v>0.4775</v>
+        <v>1.4562</v>
       </c>
       <c r="D64" s="35" t="n">
-        <v>13403.92</v>
+        <v>6798.52</v>
       </c>
       <c r="E64" s="35" t="n">
-        <v>8260.84</v>
+        <v>10457.48</v>
       </c>
       <c r="F64" s="35" t="n">
-        <v>1860.46</v>
+        <v>557.48</v>
       </c>
       <c r="G64" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H64" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I64" s="36" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>恒生</t>
         </is>
       </c>
       <c r="J64" s="36" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>211</t>
         </is>
       </c>
       <c r="K64" s="36" t="inlineStr">
@@ -3481,42 +3481,42 @@
     <row r="65">
       <c r="A65" s="32" t="inlineStr">
         <is>
-          <t>长信可转债债券A</t>
+          <t>广发中证环保ETF联接A</t>
         </is>
       </c>
       <c r="B65" s="33" t="n">
-        <v>519977</v>
+        <v>1064</v>
       </c>
       <c r="C65" s="34" t="n">
-        <v>1.2011</v>
+        <v>0.4775</v>
       </c>
       <c r="D65" s="35" t="n">
-        <v>5328.62</v>
+        <v>13403.92</v>
       </c>
       <c r="E65" s="35" t="n">
-        <v>7688.13</v>
+        <v>8260.84</v>
       </c>
       <c r="F65" s="35" t="n">
-        <v>1287.93</v>
+        <v>1860.46</v>
       </c>
       <c r="G65" s="36" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H65" s="36" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I65" s="36" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="J65" s="36" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>143</t>
         </is>
       </c>
       <c r="K65" s="36" t="inlineStr">
@@ -3528,23 +3528,23 @@
     <row r="66">
       <c r="A66" s="32" t="inlineStr">
         <is>
-          <t>华夏收益债券(QDII)A</t>
+          <t>长信可转债债券A</t>
         </is>
       </c>
       <c r="B66" s="33" t="n">
-        <v>1061</v>
+        <v>519977</v>
       </c>
       <c r="C66" s="34" t="n">
-        <v>0.9172</v>
+        <v>1.2011</v>
       </c>
       <c r="D66" s="35" t="n">
-        <v>5609.79</v>
+        <v>5328.62</v>
       </c>
       <c r="E66" s="35" t="n">
-        <v>7629.31</v>
+        <v>7688.13</v>
       </c>
       <c r="F66" s="35" t="n">
-        <v>2484.02</v>
+        <v>1287.93</v>
       </c>
       <c r="G66" s="36" t="inlineStr">
         <is>
@@ -3553,17 +3553,17 @@
       </c>
       <c r="H66" s="36" t="inlineStr">
         <is>
-          <t>海外债券</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I66" s="36" t="inlineStr">
         <is>
-          <t>美元债</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J66" s="36" t="inlineStr">
         <is>
-          <t>521</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K66" s="36" t="inlineStr">
@@ -3575,42 +3575,42 @@
     <row r="67">
       <c r="A67" s="32" t="inlineStr">
         <is>
-          <t>建信中证500指数增强A</t>
+          <t>华夏收益债券(QDII)A</t>
         </is>
       </c>
       <c r="B67" s="33" t="n">
-        <v>478</v>
+        <v>1061</v>
       </c>
       <c r="C67" s="34" t="n">
-        <v>1.9397</v>
+        <v>0.9172</v>
       </c>
       <c r="D67" s="35" t="n">
-        <v>3299.64</v>
+        <v>5609.79</v>
       </c>
       <c r="E67" s="35" t="n">
-        <v>6889.32</v>
+        <v>7629.31</v>
       </c>
       <c r="F67" s="35" t="n">
-        <v>489.01</v>
+        <v>2484.02</v>
       </c>
       <c r="G67" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H67" s="36" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>海外债券</t>
         </is>
       </c>
       <c r="I67" s="36" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>美元债</t>
         </is>
       </c>
       <c r="J67" s="36" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>521</t>
         </is>
       </c>
       <c r="K67" s="36" t="inlineStr">
@@ -3622,23 +3622,23 @@
     <row r="68">
       <c r="A68" s="32" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF联接A</t>
+          <t>建信中证500指数增强A</t>
         </is>
       </c>
       <c r="B68" s="33" t="n">
-        <v>4752</v>
+        <v>478</v>
       </c>
       <c r="C68" s="34" t="n">
-        <v>0.8149999999999999</v>
+        <v>1.9397</v>
       </c>
       <c r="D68" s="35" t="n">
-        <v>7852.99</v>
+        <v>3299.64</v>
       </c>
       <c r="E68" s="35" t="n">
-        <v>6854.09</v>
+        <v>6889.32</v>
       </c>
       <c r="F68" s="35" t="n">
-        <v>453.9</v>
+        <v>489.01</v>
       </c>
       <c r="G68" s="36" t="inlineStr">
         <is>
@@ -3647,17 +3647,17 @@
       </c>
       <c r="H68" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I68" s="36" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J68" s="36" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K68" s="36" t="inlineStr">
@@ -3669,164 +3669,164 @@
     <row r="69">
       <c r="A69" s="32" t="inlineStr">
         <is>
+          <t>广发中证传媒ETF联接A</t>
+        </is>
+      </c>
+      <c r="B69" s="33" t="n">
+        <v>4752</v>
+      </c>
+      <c r="C69" s="34" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="D69" s="35" t="n">
+        <v>7852.99</v>
+      </c>
+      <c r="E69" s="35" t="n">
+        <v>6854.09</v>
+      </c>
+      <c r="F69" s="35" t="n">
+        <v>453.9</v>
+      </c>
+      <c r="G69" s="36" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H69" s="36" t="inlineStr">
+        <is>
+          <t>行业股</t>
+        </is>
+      </c>
+      <c r="I69" s="36" t="inlineStr">
+        <is>
+          <t>中证传媒</t>
+        </is>
+      </c>
+      <c r="J69" s="36" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="K69" s="36" t="inlineStr">
+        <is>
+          <t>天天基金</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="32" t="inlineStr">
+        <is>
           <t>广发中证500ETF联接C</t>
         </is>
       </c>
-      <c r="B69" s="33" t="n">
+      <c r="B70" s="33" t="n">
         <v>2903</v>
       </c>
-      <c r="C69" s="34" t="n">
+      <c r="C70" s="34" t="n">
         <v>0.8548</v>
       </c>
-      <c r="D69" s="35" t="n">
+      <c r="D70" s="35" t="n">
         <v>3889.32</v>
       </c>
-      <c r="E69" s="35" t="n">
+      <c r="E70" s="35" t="n">
         <v>3638.07</v>
       </c>
-      <c r="F69" s="35" t="n">
+      <c r="F70" s="35" t="n">
         <v>313.48</v>
       </c>
-      <c r="G69" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H69" s="36" t="inlineStr">
+      <c r="G70" s="36" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H70" s="36" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="I69" s="36" t="inlineStr">
+      <c r="I70" s="36" t="inlineStr">
         <is>
           <t>中证500</t>
         </is>
       </c>
-      <c r="J69" s="36" t="inlineStr">
+      <c r="J70" s="36" t="inlineStr">
         <is>
           <t>121</t>
         </is>
       </c>
-      <c r="K69" s="36" t="inlineStr">
+      <c r="K70" s="36" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="2" t="inlineStr">
+    <row r="71">
+      <c r="A71" s="2" t="inlineStr">
         <is>
           <t>货币基金综合</t>
         </is>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B71" s="3" t="n">
         <v>999999</v>
       </c>
-      <c r="C70" s="4" t="n">
+      <c r="C71" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D70" s="5" t="n">
+      <c r="D71" s="5" t="n">
         <v>12042.3</v>
       </c>
-      <c r="E70" s="5" t="n">
+      <c r="E71" s="5" t="n">
         <v>12042.3</v>
       </c>
-      <c r="F70" s="5" t="n">
+      <c r="F71" s="5" t="n">
         <v>41.35</v>
       </c>
-      <c r="G70" s="6" t="inlineStr">
+      <c r="G71" s="6" t="inlineStr">
         <is>
           <t>现金</t>
         </is>
       </c>
-      <c r="H70" s="6" t="inlineStr">
+      <c r="H71" s="6" t="inlineStr">
         <is>
           <t>低风险理财</t>
         </is>
       </c>
-      <c r="I70" s="6" t="inlineStr">
+      <c r="I71" s="6" t="inlineStr">
         <is>
           <t>货币基金</t>
         </is>
       </c>
-      <c r="J70" s="6" t="inlineStr">
+      <c r="J71" s="6" t="inlineStr">
         <is>
           <t>999</t>
         </is>
       </c>
-      <c r="K70" s="6" t="inlineStr">
+      <c r="K71" s="6" t="inlineStr">
         <is>
           <t>现金账户父母</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="7" t="inlineStr">
-        <is>
-          <t>银河沪深300价值指数</t>
-        </is>
-      </c>
-      <c r="B71" s="8" t="n">
-        <v>519671</v>
-      </c>
-      <c r="C71" s="9" t="n">
-        <v>1.4347</v>
-      </c>
-      <c r="D71" s="10" t="n">
-        <v>1182.45</v>
-      </c>
-      <c r="E71" s="10" t="n">
-        <v>1696.82</v>
-      </c>
-      <c r="F71" s="10" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="G71" s="11" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H71" s="11" t="inlineStr">
-        <is>
-          <t>大盘股</t>
-        </is>
-      </c>
-      <c r="I71" s="11" t="inlineStr">
-        <is>
-          <t>300价值</t>
-        </is>
-      </c>
-      <c r="J71" s="11" t="inlineStr">
-        <is>
-          <t>114</t>
-        </is>
-      </c>
-      <c r="K71" s="11" t="inlineStr">
-        <is>
-          <t>螺丝钉父</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="7" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>银河沪深300价值指数</t>
         </is>
       </c>
       <c r="B72" s="8" t="n">
-        <v>90010</v>
+        <v>519671</v>
       </c>
       <c r="C72" s="9" t="n">
-        <v>1.6574</v>
+        <v>1.4347</v>
       </c>
       <c r="D72" s="10" t="n">
-        <v>1013.85</v>
+        <v>1182.45</v>
       </c>
       <c r="E72" s="10" t="n">
-        <v>1672.85</v>
+        <v>1696.82</v>
       </c>
       <c r="F72" s="10" t="n">
-        <v>-7.5</v>
+        <v>0.35</v>
       </c>
       <c r="G72" s="11" t="inlineStr">
         <is>
@@ -3835,17 +3835,17 @@
       </c>
       <c r="H72" s="11" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I72" s="11" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="J72" s="11" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>114</t>
         </is>
       </c>
       <c r="K72" s="11" t="inlineStr">
@@ -3857,23 +3857,23 @@
     <row r="73">
       <c r="A73" s="7" t="inlineStr">
         <is>
-          <t>景顺长城中证500低波动</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="B73" s="8" t="n">
-        <v>3318</v>
+        <v>90010</v>
       </c>
       <c r="C73" s="9" t="n">
-        <v>0.9386</v>
+        <v>1.6574</v>
       </c>
       <c r="D73" s="10" t="n">
-        <v>1548.03</v>
+        <v>1013.85</v>
       </c>
       <c r="E73" s="10" t="n">
-        <v>1502.67</v>
+        <v>1672.85</v>
       </c>
       <c r="F73" s="10" t="n">
-        <v>49.69</v>
+        <v>-7.5</v>
       </c>
       <c r="G73" s="11" t="inlineStr">
         <is>
@@ -3882,17 +3882,17 @@
       </c>
       <c r="H73" s="11" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I73" s="11" t="inlineStr">
         <is>
-          <t>500低波动</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J73" s="11" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K73" s="11" t="inlineStr">
@@ -3904,42 +3904,42 @@
     <row r="74">
       <c r="A74" s="7" t="inlineStr">
         <is>
-          <t>华宝香港中小</t>
+          <t>景顺长城中证500低波动</t>
         </is>
       </c>
       <c r="B74" s="8" t="n">
-        <v>501021</v>
+        <v>3318</v>
       </c>
       <c r="C74" s="9" t="n">
-        <v>1.3485</v>
+        <v>0.9386</v>
       </c>
       <c r="D74" s="10" t="n">
-        <v>898.04</v>
+        <v>1548.03</v>
       </c>
       <c r="E74" s="10" t="n">
-        <v>1343.74</v>
+        <v>1502.67</v>
       </c>
       <c r="F74" s="10" t="n">
-        <v>132.73</v>
+        <v>49.69</v>
       </c>
       <c r="G74" s="11" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H74" s="11" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I74" s="11" t="inlineStr">
         <is>
-          <t>香港中小</t>
+          <t>500低波动</t>
         </is>
       </c>
       <c r="J74" s="11" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>122</t>
         </is>
       </c>
       <c r="K74" s="11" t="inlineStr">
@@ -3951,42 +3951,42 @@
     <row r="75">
       <c r="A75" s="7" t="inlineStr">
         <is>
-          <t>嘉实深证基本面120联接</t>
+          <t>华宝香港中小</t>
         </is>
       </c>
       <c r="B75" s="8" t="n">
-        <v>70023</v>
+        <v>501021</v>
       </c>
       <c r="C75" s="9" t="n">
-        <v>1.7966</v>
+        <v>1.3485</v>
       </c>
       <c r="D75" s="10" t="n">
-        <v>492.58</v>
+        <v>898.04</v>
       </c>
       <c r="E75" s="10" t="n">
-        <v>960.09</v>
+        <v>1343.74</v>
       </c>
       <c r="F75" s="10" t="n">
-        <v>75.12</v>
+        <v>132.73</v>
       </c>
       <c r="G75" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H75" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I75" s="11" t="inlineStr">
         <is>
-          <t>基本面120</t>
+          <t>香港中小</t>
         </is>
       </c>
       <c r="J75" s="11" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>213</t>
         </is>
       </c>
       <c r="K75" s="11" t="inlineStr">
@@ -3998,23 +3998,23 @@
     <row r="76">
       <c r="A76" s="7" t="inlineStr">
         <is>
-          <t>建信深证基本面60ETF联接A</t>
+          <t>嘉实深证基本面120联接</t>
         </is>
       </c>
       <c r="B76" s="8" t="n">
-        <v>530015</v>
+        <v>70023</v>
       </c>
       <c r="C76" s="9" t="n">
-        <v>2.1277</v>
+        <v>1.7966</v>
       </c>
       <c r="D76" s="10" t="n">
-        <v>421.99</v>
+        <v>492.58</v>
       </c>
       <c r="E76" s="10" t="n">
-        <v>953.8200000000001</v>
+        <v>960.09</v>
       </c>
       <c r="F76" s="10" t="n">
-        <v>55.96</v>
+        <v>75.12</v>
       </c>
       <c r="G76" s="11" t="inlineStr">
         <is>
@@ -4028,12 +4028,12 @@
       </c>
       <c r="I76" s="11" t="inlineStr">
         <is>
-          <t>基本面60</t>
+          <t>基本面120</t>
         </is>
       </c>
       <c r="J76" s="11" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>116</t>
         </is>
       </c>
       <c r="K76" s="11" t="inlineStr">
@@ -4045,23 +4045,23 @@
     <row r="77">
       <c r="A77" s="7" t="inlineStr">
         <is>
-          <t>广发中证养老</t>
+          <t>建信深证基本面60ETF联接A</t>
         </is>
       </c>
       <c r="B77" s="8" t="n">
-        <v>968</v>
+        <v>530015</v>
       </c>
       <c r="C77" s="9" t="n">
-        <v>0.9599</v>
+        <v>2.1277</v>
       </c>
       <c r="D77" s="10" t="n">
-        <v>390.82</v>
+        <v>421.99</v>
       </c>
       <c r="E77" s="10" t="n">
-        <v>395</v>
+        <v>953.8200000000001</v>
       </c>
       <c r="F77" s="10" t="n">
-        <v>19.85</v>
+        <v>55.96</v>
       </c>
       <c r="G77" s="11" t="inlineStr">
         <is>
@@ -4070,17 +4070,17 @@
       </c>
       <c r="H77" s="11" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I77" s="11" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>基本面60</t>
         </is>
       </c>
       <c r="J77" s="11" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>115</t>
         </is>
       </c>
       <c r="K77" s="11" t="inlineStr">
@@ -4092,23 +4092,23 @@
     <row r="78">
       <c r="A78" s="7" t="inlineStr">
         <is>
-          <t>华宝红利基金</t>
+          <t>广发中证养老</t>
         </is>
       </c>
       <c r="B78" s="8" t="n">
-        <v>501029</v>
+        <v>968</v>
       </c>
       <c r="C78" s="9" t="n">
-        <v>0.9829</v>
+        <v>0.9599</v>
       </c>
       <c r="D78" s="10" t="n">
-        <v>214.89</v>
+        <v>390.82</v>
       </c>
       <c r="E78" s="10" t="n">
-        <v>211.6</v>
+        <v>395</v>
       </c>
       <c r="F78" s="10" t="n">
-        <v>0.39</v>
+        <v>19.85</v>
       </c>
       <c r="G78" s="11" t="inlineStr">
         <is>
@@ -4117,17 +4117,17 @@
       </c>
       <c r="H78" s="11" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I78" s="11" t="inlineStr">
         <is>
-          <t>标普红利</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="J78" s="11" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K78" s="11" t="inlineStr">
@@ -4139,23 +4139,23 @@
     <row r="79">
       <c r="A79" s="7" t="inlineStr">
         <is>
-          <t>天弘中证银行指数A</t>
+          <t>华宝红利基金</t>
         </is>
       </c>
       <c r="B79" s="8" t="n">
-        <v>1594</v>
+        <v>501029</v>
       </c>
       <c r="C79" s="9" t="n">
-        <v>1.2538</v>
+        <v>0.9829</v>
       </c>
       <c r="D79" s="10" t="n">
-        <v>171.26</v>
+        <v>214.89</v>
       </c>
       <c r="E79" s="10" t="n">
-        <v>206.09</v>
+        <v>211.6</v>
       </c>
       <c r="F79" s="10" t="n">
-        <v>-8.630000000000001</v>
+        <v>0.39</v>
       </c>
       <c r="G79" s="11" t="inlineStr">
         <is>
@@ -4164,17 +4164,17 @@
       </c>
       <c r="H79" s="11" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I79" s="11" t="inlineStr">
         <is>
-          <t>中证银行</t>
+          <t>标普红利</t>
         </is>
       </c>
       <c r="J79" s="11" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>132</t>
         </is>
       </c>
       <c r="K79" s="11" t="inlineStr">
@@ -4186,23 +4186,23 @@
     <row r="80">
       <c r="A80" s="7" t="inlineStr">
         <is>
-          <t>天弘中证医药100A</t>
+          <t>天弘中证银行指数A</t>
         </is>
       </c>
       <c r="B80" s="8" t="n">
-        <v>1550</v>
+        <v>1594</v>
       </c>
       <c r="C80" s="9" t="n">
-        <v>0.6708</v>
+        <v>1.2538</v>
       </c>
       <c r="D80" s="10" t="n">
-        <v>212.74</v>
+        <v>171.26</v>
       </c>
       <c r="E80" s="10" t="n">
-        <v>180.25</v>
+        <v>206.09</v>
       </c>
       <c r="F80" s="10" t="n">
-        <v>37.55</v>
+        <v>-8.630000000000001</v>
       </c>
       <c r="G80" s="11" t="inlineStr">
         <is>
@@ -4216,12 +4216,12 @@
       </c>
       <c r="I80" s="11" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>中证银行</t>
         </is>
       </c>
       <c r="J80" s="11" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>146</t>
         </is>
       </c>
       <c r="K80" s="11" t="inlineStr">
@@ -4233,23 +4233,23 @@
     <row r="81">
       <c r="A81" s="7" t="inlineStr">
         <is>
-          <t>华夏上证50AH优选指数</t>
+          <t>天弘中证医药100A</t>
         </is>
       </c>
       <c r="B81" s="8" t="n">
-        <v>501050</v>
+        <v>1550</v>
       </c>
       <c r="C81" s="9" t="n">
-        <v>1.2891</v>
+        <v>0.6708</v>
       </c>
       <c r="D81" s="10" t="n">
-        <v>62.09</v>
+        <v>212.74</v>
       </c>
       <c r="E81" s="10" t="n">
-        <v>83.56999999999999</v>
+        <v>180.25</v>
       </c>
       <c r="F81" s="10" t="n">
-        <v>3.53</v>
+        <v>37.55</v>
       </c>
       <c r="G81" s="11" t="inlineStr">
         <is>
@@ -4258,17 +4258,17 @@
       </c>
       <c r="H81" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I81" s="11" t="inlineStr">
         <is>
-          <t>50AH</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="J81" s="11" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K81" s="11" t="inlineStr">
@@ -4280,23 +4280,23 @@
     <row r="82">
       <c r="A82" s="7" t="inlineStr">
         <is>
-          <t>申万菱信沪深300价值指数</t>
+          <t>华夏上证50AH优选指数</t>
         </is>
       </c>
       <c r="B82" s="8" t="n">
-        <v>310398</v>
+        <v>501050</v>
       </c>
       <c r="C82" s="9" t="n">
-        <v>1.4372</v>
+        <v>1.2891</v>
       </c>
       <c r="D82" s="10" t="n">
-        <v>25.8</v>
+        <v>62.09</v>
       </c>
       <c r="E82" s="10" t="n">
-        <v>35</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="F82" s="10" t="n">
-        <v>-2.08</v>
+        <v>3.53</v>
       </c>
       <c r="G82" s="11" t="inlineStr">
         <is>
@@ -4310,12 +4310,12 @@
       </c>
       <c r="I82" s="11" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>50AH</t>
         </is>
       </c>
       <c r="J82" s="11" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>112</t>
         </is>
       </c>
       <c r="K82" s="11" t="inlineStr">
@@ -4327,42 +4327,42 @@
     <row r="83">
       <c r="A83" s="7" t="inlineStr">
         <is>
-          <t>大成景安短融债券E</t>
+          <t>申万菱信沪深300价值指数</t>
         </is>
       </c>
       <c r="B83" s="8" t="n">
-        <v>2086</v>
+        <v>310398</v>
       </c>
       <c r="C83" s="9" t="n">
-        <v>1.2258</v>
+        <v>1.4372</v>
       </c>
       <c r="D83" s="10" t="n">
-        <v>0</v>
+        <v>25.8</v>
       </c>
       <c r="E83" s="10" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F83" s="10" t="n">
-        <v>0</v>
+        <v>-2.08</v>
       </c>
       <c r="G83" s="11" t="inlineStr">
         <is>
-          <t>现金</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H83" s="11" t="inlineStr">
         <is>
-          <t>低风险理财</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I83" s="11" t="inlineStr">
         <is>
-          <t>货币基金</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="J83" s="11" t="inlineStr">
         <is>
-          <t>999</t>
+          <t>114</t>
         </is>
       </c>
       <c r="K83" s="11" t="inlineStr">
@@ -4374,70 +4374,70 @@
     <row r="84">
       <c r="A84" s="7" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>大成景安短融债券E</t>
         </is>
       </c>
       <c r="B84" s="8" t="n">
-        <v>90010</v>
+        <v>2086</v>
       </c>
       <c r="C84" s="9" t="n">
-        <v>1.6607</v>
+        <v>1.2258</v>
       </c>
       <c r="D84" s="10" t="n">
-        <v>1128.82</v>
+        <v>0</v>
       </c>
       <c r="E84" s="10" t="n">
-        <v>1862.55</v>
+        <v>0</v>
       </c>
       <c r="F84" s="10" t="n">
-        <v>-12.08</v>
+        <v>0</v>
       </c>
       <c r="G84" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>现金</t>
         </is>
       </c>
       <c r="H84" s="11" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>低风险理财</t>
         </is>
       </c>
       <c r="I84" s="11" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>货币基金</t>
         </is>
       </c>
       <c r="J84" s="11" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>999</t>
         </is>
       </c>
       <c r="K84" s="11" t="inlineStr">
         <is>
-          <t>螺丝钉母</t>
+          <t>螺丝钉父</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="7" t="inlineStr">
         <is>
-          <t>银河沪深300价值指数</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="B85" s="8" t="n">
-        <v>519671</v>
+        <v>90010</v>
       </c>
       <c r="C85" s="9" t="n">
-        <v>1.4346</v>
+        <v>1.6607</v>
       </c>
       <c r="D85" s="10" t="n">
-        <v>1225.03</v>
+        <v>1128.82</v>
       </c>
       <c r="E85" s="10" t="n">
-        <v>1757.92</v>
+        <v>1862.55</v>
       </c>
       <c r="F85" s="10" t="n">
-        <v>0.49</v>
+        <v>-12.08</v>
       </c>
       <c r="G85" s="11" t="inlineStr">
         <is>
@@ -4446,17 +4446,17 @@
       </c>
       <c r="H85" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I85" s="11" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J85" s="11" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K85" s="11" t="inlineStr">
@@ -4468,23 +4468,23 @@
     <row r="86">
       <c r="A86" s="7" t="inlineStr">
         <is>
-          <t>景顺长城中证500低波动</t>
+          <t>银河沪深300价值指数</t>
         </is>
       </c>
       <c r="B86" s="8" t="n">
-        <v>3318</v>
+        <v>519671</v>
       </c>
       <c r="C86" s="9" t="n">
-        <v>0.9393</v>
+        <v>1.4346</v>
       </c>
       <c r="D86" s="10" t="n">
-        <v>1647.71</v>
+        <v>1225.03</v>
       </c>
       <c r="E86" s="10" t="n">
-        <v>1599.43</v>
+        <v>1757.92</v>
       </c>
       <c r="F86" s="10" t="n">
-        <v>51.74</v>
+        <v>0.49</v>
       </c>
       <c r="G86" s="11" t="inlineStr">
         <is>
@@ -4493,17 +4493,17 @@
       </c>
       <c r="H86" s="11" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I86" s="11" t="inlineStr">
         <is>
-          <t>500低波动</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="J86" s="11" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>114</t>
         </is>
       </c>
       <c r="K86" s="11" t="inlineStr">
@@ -4515,42 +4515,42 @@
     <row r="87">
       <c r="A87" s="7" t="inlineStr">
         <is>
-          <t>华宝香港中小</t>
+          <t>景顺长城中证500低波动</t>
         </is>
       </c>
       <c r="B87" s="8" t="n">
-        <v>501021</v>
+        <v>3318</v>
       </c>
       <c r="C87" s="9" t="n">
-        <v>1.3514</v>
+        <v>0.9393</v>
       </c>
       <c r="D87" s="10" t="n">
-        <v>915.97</v>
+        <v>1647.71</v>
       </c>
       <c r="E87" s="10" t="n">
-        <v>1370.57</v>
+        <v>1599.43</v>
       </c>
       <c r="F87" s="10" t="n">
-        <v>132.72</v>
+        <v>51.74</v>
       </c>
       <c r="G87" s="11" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H87" s="11" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I87" s="11" t="inlineStr">
         <is>
-          <t>香港中小</t>
+          <t>500低波动</t>
         </is>
       </c>
       <c r="J87" s="11" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>122</t>
         </is>
       </c>
       <c r="K87" s="11" t="inlineStr">
@@ -4562,42 +4562,42 @@
     <row r="88">
       <c r="A88" s="7" t="inlineStr">
         <is>
-          <t>嘉实深证基本面120联接</t>
+          <t>华宝香港中小</t>
         </is>
       </c>
       <c r="B88" s="8" t="n">
-        <v>70023</v>
+        <v>501021</v>
       </c>
       <c r="C88" s="9" t="n">
-        <v>1.7992</v>
+        <v>1.3514</v>
       </c>
       <c r="D88" s="10" t="n">
-        <v>528.99</v>
+        <v>915.97</v>
       </c>
       <c r="E88" s="10" t="n">
-        <v>1031.05</v>
+        <v>1370.57</v>
       </c>
       <c r="F88" s="10" t="n">
-        <v>79.3</v>
+        <v>132.72</v>
       </c>
       <c r="G88" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H88" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I88" s="11" t="inlineStr">
         <is>
-          <t>基本面120</t>
+          <t>香港中小</t>
         </is>
       </c>
       <c r="J88" s="11" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>213</t>
         </is>
       </c>
       <c r="K88" s="11" t="inlineStr">
@@ -4609,23 +4609,23 @@
     <row r="89">
       <c r="A89" s="7" t="inlineStr">
         <is>
-          <t>建信深证基本面60ETF联接A</t>
+          <t>嘉实深证基本面120联接</t>
         </is>
       </c>
       <c r="B89" s="8" t="n">
-        <v>530015</v>
+        <v>70023</v>
       </c>
       <c r="C89" s="9" t="n">
-        <v>2.142</v>
+        <v>1.7992</v>
       </c>
       <c r="D89" s="10" t="n">
-        <v>451.58</v>
+        <v>528.99</v>
       </c>
       <c r="E89" s="10" t="n">
-        <v>1020.71</v>
+        <v>1031.05</v>
       </c>
       <c r="F89" s="10" t="n">
-        <v>53.42</v>
+        <v>79.3</v>
       </c>
       <c r="G89" s="11" t="inlineStr">
         <is>
@@ -4639,12 +4639,12 @@
       </c>
       <c r="I89" s="11" t="inlineStr">
         <is>
-          <t>基本面60</t>
+          <t>基本面120</t>
         </is>
       </c>
       <c r="J89" s="11" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>116</t>
         </is>
       </c>
       <c r="K89" s="11" t="inlineStr">
@@ -4656,23 +4656,23 @@
     <row r="90">
       <c r="A90" s="7" t="inlineStr">
         <is>
-          <t>广发中证养老</t>
+          <t>建信深证基本面60ETF联接A</t>
         </is>
       </c>
       <c r="B90" s="8" t="n">
-        <v>968</v>
+        <v>530015</v>
       </c>
       <c r="C90" s="9" t="n">
-        <v>0.9588</v>
+        <v>2.142</v>
       </c>
       <c r="D90" s="10" t="n">
-        <v>426.97</v>
+        <v>451.58</v>
       </c>
       <c r="E90" s="10" t="n">
-        <v>431.54</v>
+        <v>1020.71</v>
       </c>
       <c r="F90" s="10" t="n">
-        <v>22.16</v>
+        <v>53.42</v>
       </c>
       <c r="G90" s="11" t="inlineStr">
         <is>
@@ -4681,17 +4681,17 @@
       </c>
       <c r="H90" s="11" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I90" s="11" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>基本面60</t>
         </is>
       </c>
       <c r="J90" s="11" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>115</t>
         </is>
       </c>
       <c r="K90" s="11" t="inlineStr">
@@ -4703,23 +4703,23 @@
     <row r="91">
       <c r="A91" s="7" t="inlineStr">
         <is>
-          <t>天弘中证银行指数A</t>
+          <t>广发中证养老</t>
         </is>
       </c>
       <c r="B91" s="8" t="n">
-        <v>1594</v>
+        <v>968</v>
       </c>
       <c r="C91" s="9" t="n">
-        <v>1.2512</v>
+        <v>0.9588</v>
       </c>
       <c r="D91" s="10" t="n">
-        <v>220.69</v>
+        <v>426.97</v>
       </c>
       <c r="E91" s="10" t="n">
-        <v>265.58</v>
+        <v>431.54</v>
       </c>
       <c r="F91" s="10" t="n">
-        <v>-10.55</v>
+        <v>22.16</v>
       </c>
       <c r="G91" s="11" t="inlineStr">
         <is>
@@ -4733,12 +4733,12 @@
       </c>
       <c r="I91" s="11" t="inlineStr">
         <is>
-          <t>中证银行</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="J91" s="11" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K91" s="11" t="inlineStr">
@@ -4750,23 +4750,23 @@
     <row r="92">
       <c r="A92" s="7" t="inlineStr">
         <is>
-          <t>华宝红利基金</t>
+          <t>天弘中证银行指数A</t>
         </is>
       </c>
       <c r="B92" s="8" t="n">
-        <v>501029</v>
+        <v>1594</v>
       </c>
       <c r="C92" s="9" t="n">
-        <v>0.9824000000000001</v>
+        <v>1.2512</v>
       </c>
       <c r="D92" s="10" t="n">
-        <v>227.52</v>
+        <v>220.69</v>
       </c>
       <c r="E92" s="10" t="n">
-        <v>224.04</v>
+        <v>265.58</v>
       </c>
       <c r="F92" s="10" t="n">
-        <v>0.52</v>
+        <v>-10.55</v>
       </c>
       <c r="G92" s="11" t="inlineStr">
         <is>
@@ -4775,17 +4775,17 @@
       </c>
       <c r="H92" s="11" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I92" s="11" t="inlineStr">
         <is>
-          <t>标普红利</t>
+          <t>中证银行</t>
         </is>
       </c>
       <c r="J92" s="11" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>146</t>
         </is>
       </c>
       <c r="K92" s="11" t="inlineStr">
@@ -4797,23 +4797,23 @@
     <row r="93">
       <c r="A93" s="7" t="inlineStr">
         <is>
-          <t>华夏上证50AH优选指数</t>
+          <t>华宝红利基金</t>
         </is>
       </c>
       <c r="B93" s="8" t="n">
-        <v>501050</v>
+        <v>501029</v>
       </c>
       <c r="C93" s="9" t="n">
-        <v>1.284</v>
+        <v>0.9824000000000001</v>
       </c>
       <c r="D93" s="10" t="n">
-        <v>142.1</v>
+        <v>227.52</v>
       </c>
       <c r="E93" s="10" t="n">
-        <v>191.27</v>
+        <v>224.04</v>
       </c>
       <c r="F93" s="10" t="n">
-        <v>8.81</v>
+        <v>0.52</v>
       </c>
       <c r="G93" s="11" t="inlineStr">
         <is>
@@ -4822,17 +4822,17 @@
       </c>
       <c r="H93" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I93" s="11" t="inlineStr">
         <is>
-          <t>50AH</t>
+          <t>标普红利</t>
         </is>
       </c>
       <c r="J93" s="11" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>132</t>
         </is>
       </c>
       <c r="K93" s="11" t="inlineStr">
@@ -4844,23 +4844,23 @@
     <row r="94">
       <c r="A94" s="7" t="inlineStr">
         <is>
-          <t>天弘中证医药100A</t>
+          <t>华夏上证50AH优选指数</t>
         </is>
       </c>
       <c r="B94" s="8" t="n">
-        <v>1550</v>
+        <v>501050</v>
       </c>
       <c r="C94" s="9" t="n">
-        <v>0.6708</v>
+        <v>1.284</v>
       </c>
       <c r="D94" s="10" t="n">
-        <v>212.74</v>
+        <v>142.1</v>
       </c>
       <c r="E94" s="10" t="n">
-        <v>180.25</v>
+        <v>191.27</v>
       </c>
       <c r="F94" s="10" t="n">
-        <v>37.55</v>
+        <v>8.81</v>
       </c>
       <c r="G94" s="11" t="inlineStr">
         <is>
@@ -4869,17 +4869,17 @@
       </c>
       <c r="H94" s="11" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I94" s="11" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>50AH</t>
         </is>
       </c>
       <c r="J94" s="11" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>112</t>
         </is>
       </c>
       <c r="K94" s="11" t="inlineStr">
@@ -4891,23 +4891,23 @@
     <row r="95">
       <c r="A95" s="7" t="inlineStr">
         <is>
-          <t>申万菱信沪深300价值指数</t>
+          <t>天弘中证医药100A</t>
         </is>
       </c>
       <c r="B95" s="8" t="n">
-        <v>310398</v>
+        <v>1550</v>
       </c>
       <c r="C95" s="9" t="n">
-        <v>1.4372</v>
+        <v>0.6708</v>
       </c>
       <c r="D95" s="10" t="n">
-        <v>25.8</v>
+        <v>212.74</v>
       </c>
       <c r="E95" s="10" t="n">
-        <v>35</v>
+        <v>180.25</v>
       </c>
       <c r="F95" s="10" t="n">
-        <v>-2.08</v>
+        <v>37.55</v>
       </c>
       <c r="G95" s="11" t="inlineStr">
         <is>
@@ -4916,17 +4916,17 @@
       </c>
       <c r="H95" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I95" s="11" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="J95" s="11" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K95" s="11" t="inlineStr">
@@ -4938,117 +4938,117 @@
     <row r="96">
       <c r="A96" s="7" t="inlineStr">
         <is>
+          <t>申万菱信沪深300价值指数</t>
+        </is>
+      </c>
+      <c r="B96" s="8" t="n">
+        <v>310398</v>
+      </c>
+      <c r="C96" s="9" t="n">
+        <v>1.4372</v>
+      </c>
+      <c r="D96" s="10" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="E96" s="10" t="n">
+        <v>35</v>
+      </c>
+      <c r="F96" s="10" t="n">
+        <v>-2.08</v>
+      </c>
+      <c r="G96" s="11" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H96" s="11" t="inlineStr">
+        <is>
+          <t>大盘股</t>
+        </is>
+      </c>
+      <c r="I96" s="11" t="inlineStr">
+        <is>
+          <t>300价值</t>
+        </is>
+      </c>
+      <c r="J96" s="11" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="K96" s="11" t="inlineStr">
+        <is>
+          <t>螺丝钉母</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="7" t="inlineStr">
+        <is>
           <t>大成景安短融债券E</t>
         </is>
       </c>
-      <c r="B96" s="8" t="n">
+      <c r="B97" s="8" t="n">
         <v>2086</v>
       </c>
-      <c r="C96" s="9" t="n">
+      <c r="C97" s="9" t="n">
         <v>1.2257</v>
       </c>
-      <c r="D96" s="10" t="n">
+      <c r="D97" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E96" s="10" t="n">
+      <c r="E97" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F96" s="10" t="n">
+      <c r="F97" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="G96" s="11" t="inlineStr">
+      <c r="G97" s="11" t="inlineStr">
         <is>
           <t>现金</t>
         </is>
       </c>
-      <c r="H96" s="11" t="inlineStr">
+      <c r="H97" s="11" t="inlineStr">
         <is>
           <t>低风险理财</t>
         </is>
       </c>
-      <c r="I96" s="11" t="inlineStr">
+      <c r="I97" s="11" t="inlineStr">
         <is>
           <t>货币基金</t>
         </is>
       </c>
-      <c r="J96" s="11" t="inlineStr">
+      <c r="J97" s="11" t="inlineStr">
         <is>
           <t>999</t>
         </is>
       </c>
-      <c r="K96" s="11" t="inlineStr">
+      <c r="K97" s="11" t="inlineStr">
         <is>
           <t>螺丝钉母</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="27" t="inlineStr">
-        <is>
-          <t>交银稳鑫短债债券A</t>
-        </is>
-      </c>
-      <c r="B97" s="28" t="n">
-        <v>6793</v>
-      </c>
-      <c r="C97" s="29" t="n">
-        <v>1.0286</v>
-      </c>
-      <c r="D97" s="30" t="n">
-        <v>78202.03</v>
-      </c>
-      <c r="E97" s="30" t="n">
-        <v>80962.56</v>
-      </c>
-      <c r="F97" s="30" t="n">
-        <v>523.95</v>
-      </c>
-      <c r="G97" s="31" t="inlineStr">
-        <is>
-          <t>债券</t>
-        </is>
-      </c>
-      <c r="H97" s="31" t="inlineStr">
-        <is>
-          <t>国内债券</t>
-        </is>
-      </c>
-      <c r="I97" s="31" t="inlineStr">
-        <is>
-          <t>可转债</t>
-        </is>
-      </c>
-      <c r="J97" s="31" t="inlineStr">
-        <is>
-          <t>512</t>
-        </is>
-      </c>
-      <c r="K97" s="31" t="inlineStr">
-        <is>
-          <t>稳稳的幸福父</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="27" t="inlineStr">
         <is>
-          <t>交银信用添利债券(LOF)</t>
+          <t>交银稳鑫短债债券A</t>
         </is>
       </c>
       <c r="B98" s="28" t="n">
-        <v>164902</v>
+        <v>6793</v>
       </c>
       <c r="C98" s="29" t="n">
-        <v>1.1469</v>
+        <v>1.0286</v>
       </c>
       <c r="D98" s="30" t="n">
-        <v>132767.68</v>
+        <v>78202.03</v>
       </c>
       <c r="E98" s="30" t="n">
-        <v>152682.83</v>
+        <v>80962.56</v>
       </c>
       <c r="F98" s="30" t="n">
-        <v>411.58</v>
+        <v>523.95</v>
       </c>
       <c r="G98" s="31" t="inlineStr">
         <is>
@@ -5079,42 +5079,42 @@
     <row r="99">
       <c r="A99" s="27" t="inlineStr">
         <is>
-          <t>交银主题优选</t>
+          <t>交银信用添利债券(LOF)</t>
         </is>
       </c>
       <c r="B99" s="28" t="n">
-        <v>519700</v>
+        <v>164902</v>
       </c>
       <c r="C99" s="29" t="n">
-        <v>1.4657</v>
+        <v>1.1469</v>
       </c>
       <c r="D99" s="30" t="n">
-        <v>11598.58</v>
+        <v>132767.68</v>
       </c>
       <c r="E99" s="30" t="n">
-        <v>18847.69</v>
+        <v>152682.83</v>
       </c>
       <c r="F99" s="30" t="n">
-        <v>1847.65</v>
+        <v>411.58</v>
       </c>
       <c r="G99" s="31" t="inlineStr">
         <is>
-          <t>混合型</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H99" s="31" t="inlineStr">
         <is>
-          <t>股债混合</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I99" s="31" t="inlineStr">
         <is>
-          <t>偏股</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J99" s="31" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K99" s="31" t="inlineStr">
@@ -5126,42 +5126,42 @@
     <row r="100">
       <c r="A100" s="27" t="inlineStr">
         <is>
-          <t>交银纯债A/B</t>
+          <t>交银主题优选</t>
         </is>
       </c>
       <c r="B100" s="28" t="n">
-        <v>519718</v>
+        <v>519700</v>
       </c>
       <c r="C100" s="29" t="n">
-        <v>1.0644</v>
+        <v>1.4657</v>
       </c>
       <c r="D100" s="30" t="n">
-        <v>144612.8</v>
+        <v>11598.58</v>
       </c>
       <c r="E100" s="30" t="n">
-        <v>155458.76</v>
+        <v>18847.69</v>
       </c>
       <c r="F100" s="30" t="n">
-        <v>1532.9</v>
+        <v>1847.65</v>
       </c>
       <c r="G100" s="31" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>混合型</t>
         </is>
       </c>
       <c r="H100" s="31" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>股债混合</t>
         </is>
       </c>
       <c r="I100" s="31" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>偏股</t>
         </is>
       </c>
       <c r="J100" s="31" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>411</t>
         </is>
       </c>
       <c r="K100" s="31" t="inlineStr">
@@ -5173,23 +5173,23 @@
     <row r="101">
       <c r="A101" s="27" t="inlineStr">
         <is>
-          <t>交银双轮动A/B</t>
+          <t>交银纯债A/B</t>
         </is>
       </c>
       <c r="B101" s="28" t="n">
-        <v>519723</v>
+        <v>519718</v>
       </c>
       <c r="C101" s="29" t="n">
-        <v>1.0674</v>
+        <v>1.0644</v>
       </c>
       <c r="D101" s="30" t="n">
-        <v>134080.44</v>
+        <v>144612.8</v>
       </c>
       <c r="E101" s="30" t="n">
-        <v>144002.39</v>
+        <v>155458.76</v>
       </c>
       <c r="F101" s="30" t="n">
-        <v>884.9299999999999</v>
+        <v>1532.9</v>
       </c>
       <c r="G101" s="31" t="inlineStr">
         <is>
@@ -5220,42 +5220,42 @@
     <row r="102">
       <c r="A102" s="27" t="inlineStr">
         <is>
-          <t>交银周期回报灵活配置混合A</t>
+          <t>交银双轮动A/B</t>
         </is>
       </c>
       <c r="B102" s="28" t="n">
-        <v>519738</v>
+        <v>519723</v>
       </c>
       <c r="C102" s="29" t="n">
-        <v>1.1791</v>
+        <v>1.0674</v>
       </c>
       <c r="D102" s="30" t="n">
-        <v>68092.81</v>
+        <v>134080.44</v>
       </c>
       <c r="E102" s="30" t="n">
-        <v>80281.42</v>
+        <v>144002.39</v>
       </c>
       <c r="F102" s="30" t="n">
-        <v>-6.81</v>
+        <v>884.9299999999999</v>
       </c>
       <c r="G102" s="31" t="inlineStr">
         <is>
-          <t>混合型</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H102" s="31" t="inlineStr">
         <is>
-          <t>股债混合</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I102" s="31" t="inlineStr">
         <is>
-          <t>偏债</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J102" s="31" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K102" s="31" t="inlineStr">
@@ -5267,23 +5267,23 @@
     <row r="103">
       <c r="A103" s="27" t="inlineStr">
         <is>
-          <t>交银新回报灵活配置混合A</t>
+          <t>交银周期回报灵活配置混合A</t>
         </is>
       </c>
       <c r="B103" s="28" t="n">
-        <v>519752</v>
+        <v>519738</v>
       </c>
       <c r="C103" s="29" t="n">
-        <v>1.2439</v>
+        <v>1.1791</v>
       </c>
       <c r="D103" s="30" t="n">
-        <v>59685.02</v>
+        <v>68092.81</v>
       </c>
       <c r="E103" s="30" t="n">
-        <v>75143.44</v>
+        <v>80281.42</v>
       </c>
       <c r="F103" s="30" t="n">
-        <v>901.24</v>
+        <v>-6.81</v>
       </c>
       <c r="G103" s="31" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
       </c>
       <c r="J103" s="31" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>411</t>
         </is>
       </c>
       <c r="K103" s="31" t="inlineStr">
@@ -5314,117 +5314,117 @@
     <row r="104">
       <c r="A104" s="27" t="inlineStr">
         <is>
+          <t>交银新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="B104" s="28" t="n">
+        <v>519752</v>
+      </c>
+      <c r="C104" s="29" t="n">
+        <v>1.2439</v>
+      </c>
+      <c r="D104" s="30" t="n">
+        <v>59685.02</v>
+      </c>
+      <c r="E104" s="30" t="n">
+        <v>75143.44</v>
+      </c>
+      <c r="F104" s="30" t="n">
+        <v>901.24</v>
+      </c>
+      <c r="G104" s="31" t="inlineStr">
+        <is>
+          <t>混合型</t>
+        </is>
+      </c>
+      <c r="H104" s="31" t="inlineStr">
+        <is>
+          <t>股债混合</t>
+        </is>
+      </c>
+      <c r="I104" s="31" t="inlineStr">
+        <is>
+          <t>偏债</t>
+        </is>
+      </c>
+      <c r="J104" s="31" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="K104" s="31" t="inlineStr">
+        <is>
+          <t>稳稳的幸福父</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="27" t="inlineStr">
+        <is>
           <t>交银多策略回报灵活配置混合A</t>
         </is>
       </c>
-      <c r="B104" s="28" t="n">
+      <c r="B105" s="28" t="n">
         <v>519755</v>
       </c>
-      <c r="C104" s="29" t="n">
+      <c r="C105" s="29" t="n">
         <v>1.2894</v>
       </c>
-      <c r="D104" s="30" t="n">
+      <c r="D105" s="30" t="n">
         <v>76964.17</v>
       </c>
-      <c r="E104" s="30" t="n">
+      <c r="E105" s="30" t="n">
         <v>100976.99</v>
       </c>
-      <c r="F104" s="30" t="n">
+      <c r="F105" s="30" t="n">
         <v>1739.39</v>
       </c>
-      <c r="G104" s="31" t="inlineStr">
+      <c r="G105" s="31" t="inlineStr">
         <is>
           <t>混合型</t>
         </is>
       </c>
-      <c r="H104" s="31" t="inlineStr">
+      <c r="H105" s="31" t="inlineStr">
         <is>
           <t>股债混合</t>
         </is>
       </c>
-      <c r="I104" s="31" t="inlineStr">
+      <c r="I105" s="31" t="inlineStr">
         <is>
           <t>偏债</t>
         </is>
       </c>
-      <c r="J104" s="31" t="inlineStr">
+      <c r="J105" s="31" t="inlineStr">
         <is>
           <t>412</t>
         </is>
       </c>
-      <c r="K104" s="31" t="inlineStr">
+      <c r="K105" s="31" t="inlineStr">
         <is>
           <t>稳稳的幸福父</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="32" t="inlineStr">
-        <is>
-          <t>广发中证500ETF联接A</t>
-        </is>
-      </c>
-      <c r="B105" s="33" t="n">
-        <v>162711</v>
-      </c>
-      <c r="C105" s="34" t="n">
-        <v>1.0519</v>
-      </c>
-      <c r="D105" s="35" t="n">
-        <v>9697.57</v>
-      </c>
-      <c r="E105" s="35" t="n">
-        <v>11356.82</v>
-      </c>
-      <c r="F105" s="35" t="n">
-        <v>1155.95</v>
-      </c>
-      <c r="G105" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H105" s="36" t="inlineStr">
-        <is>
-          <t>中小盘股</t>
-        </is>
-      </c>
-      <c r="I105" s="36" t="inlineStr">
-        <is>
-          <t>中证500</t>
-        </is>
-      </c>
-      <c r="J105" s="36" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="K105" s="36" t="inlineStr">
-        <is>
-          <t>天天基金母</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="32" t="inlineStr">
         <is>
-          <t>富国中证红利指数增强</t>
+          <t>广发中证500ETF联接A</t>
         </is>
       </c>
       <c r="B106" s="33" t="n">
-        <v>100032</v>
+        <v>162711</v>
       </c>
       <c r="C106" s="34" t="n">
-        <v>1.0142</v>
+        <v>1.0519</v>
       </c>
       <c r="D106" s="35" t="n">
-        <v>8677.6</v>
+        <v>9697.57</v>
       </c>
       <c r="E106" s="35" t="n">
-        <v>9814.370000000001</v>
+        <v>11356.82</v>
       </c>
       <c r="F106" s="35" t="n">
-        <v>1013.54</v>
+        <v>1155.95</v>
       </c>
       <c r="G106" s="36" t="inlineStr">
         <is>
@@ -5433,17 +5433,17 @@
       </c>
       <c r="H106" s="36" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I106" s="36" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J106" s="36" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K106" s="36" t="inlineStr">
@@ -5455,23 +5455,23 @@
     <row r="107">
       <c r="A107" s="32" t="inlineStr">
         <is>
-          <t>广发养老指数A</t>
+          <t>富国中证红利指数增强</t>
         </is>
       </c>
       <c r="B107" s="33" t="n">
-        <v>968</v>
+        <v>100032</v>
       </c>
       <c r="C107" s="34" t="n">
-        <v>0.853</v>
+        <v>1.0142</v>
       </c>
       <c r="D107" s="35" t="n">
-        <v>6096.21</v>
+        <v>8677.6</v>
       </c>
       <c r="E107" s="35" t="n">
-        <v>6161.44</v>
+        <v>9814.370000000001</v>
       </c>
       <c r="F107" s="35" t="n">
-        <v>961.37</v>
+        <v>1013.54</v>
       </c>
       <c r="G107" s="36" t="inlineStr">
         <is>
@@ -5480,17 +5480,17 @@
       </c>
       <c r="H107" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I107" s="36" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J107" s="36" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K107" s="36" t="inlineStr">
@@ -5502,23 +5502,23 @@
     <row r="108">
       <c r="A108" s="32" t="inlineStr">
         <is>
-          <t>广发医药卫生联接A</t>
+          <t>广发养老指数A</t>
         </is>
       </c>
       <c r="B108" s="33" t="n">
-        <v>1180</v>
+        <v>968</v>
       </c>
       <c r="C108" s="34" t="n">
-        <v>0.7111</v>
+        <v>0.853</v>
       </c>
       <c r="D108" s="35" t="n">
-        <v>6750.28</v>
+        <v>6096.21</v>
       </c>
       <c r="E108" s="35" t="n">
-        <v>6069.18</v>
+        <v>6161.44</v>
       </c>
       <c r="F108" s="35" t="n">
-        <v>1269.05</v>
+        <v>961.37</v>
       </c>
       <c r="G108" s="36" t="inlineStr">
         <is>
@@ -5532,12 +5532,12 @@
       </c>
       <c r="I108" s="36" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="J108" s="36" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K108" s="36" t="inlineStr">
@@ -5549,23 +5549,23 @@
     <row r="109">
       <c r="A109" s="32" t="inlineStr">
         <is>
-          <t>富国沪深300指数增强</t>
+          <t>广发医药卫生联接A</t>
         </is>
       </c>
       <c r="B109" s="33" t="n">
-        <v>100038</v>
+        <v>1180</v>
       </c>
       <c r="C109" s="34" t="n">
-        <v>1.3043</v>
+        <v>0.7111</v>
       </c>
       <c r="D109" s="35" t="n">
-        <v>2760.12</v>
+        <v>6750.28</v>
       </c>
       <c r="E109" s="35" t="n">
-        <v>4612.16</v>
+        <v>6069.18</v>
       </c>
       <c r="F109" s="35" t="n">
-        <v>1012.14</v>
+        <v>1269.05</v>
       </c>
       <c r="G109" s="36" t="inlineStr">
         <is>
@@ -5574,17 +5574,17 @@
       </c>
       <c r="H109" s="36" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I109" s="36" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="J109" s="36" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K109" s="36" t="inlineStr">
@@ -5596,23 +5596,23 @@
     <row r="110">
       <c r="A110" s="32" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF联接A</t>
+          <t>富国沪深300指数增强</t>
         </is>
       </c>
       <c r="B110" s="33" t="n">
-        <v>4752</v>
+        <v>100038</v>
       </c>
       <c r="C110" s="34" t="n">
-        <v>0.7235</v>
+        <v>1.3043</v>
       </c>
       <c r="D110" s="35" t="n">
-        <v>4423.48</v>
+        <v>2760.12</v>
       </c>
       <c r="E110" s="35" t="n">
-        <v>3860.81</v>
+        <v>4612.16</v>
       </c>
       <c r="F110" s="35" t="n">
-        <v>660.4299999999999</v>
+        <v>1012.14</v>
       </c>
       <c r="G110" s="36" t="inlineStr">
         <is>
@@ -5621,17 +5621,17 @@
       </c>
       <c r="H110" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I110" s="36" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>沪深300</t>
         </is>
       </c>
       <c r="J110" s="36" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>113</t>
         </is>
       </c>
       <c r="K110" s="36" t="inlineStr">
@@ -5643,23 +5643,23 @@
     <row r="111">
       <c r="A111" s="32" t="inlineStr">
         <is>
-          <t>广发中证环保ETF联接A</t>
+          <t>广发中证传媒ETF联接A</t>
         </is>
       </c>
       <c r="B111" s="33" t="n">
-        <v>1064</v>
+        <v>4752</v>
       </c>
       <c r="C111" s="34" t="n">
-        <v>0.5379</v>
+        <v>0.7235</v>
       </c>
       <c r="D111" s="35" t="n">
-        <v>5949.77</v>
+        <v>4423.48</v>
       </c>
       <c r="E111" s="35" t="n">
-        <v>3666.84</v>
+        <v>3860.81</v>
       </c>
       <c r="F111" s="35" t="n">
-        <v>466.46</v>
+        <v>660.4299999999999</v>
       </c>
       <c r="G111" s="36" t="inlineStr">
         <is>
@@ -5673,12 +5673,12 @@
       </c>
       <c r="I111" s="36" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>中证传媒</t>
         </is>
       </c>
       <c r="J111" s="36" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>144</t>
         </is>
       </c>
       <c r="K111" s="36" t="inlineStr">
@@ -5690,23 +5690,23 @@
     <row r="112">
       <c r="A112" s="32" t="inlineStr">
         <is>
-          <t>富国中证500指数(LOF)</t>
+          <t>广发中证环保ETF联接A</t>
         </is>
       </c>
       <c r="B112" s="33" t="n">
-        <v>161017</v>
+        <v>1064</v>
       </c>
       <c r="C112" s="34" t="n">
-        <v>1.325</v>
+        <v>0.5379</v>
       </c>
       <c r="D112" s="35" t="n">
-        <v>2046.97</v>
+        <v>5949.77</v>
       </c>
       <c r="E112" s="35" t="n">
-        <v>3598.57</v>
+        <v>3666.84</v>
       </c>
       <c r="F112" s="35" t="n">
-        <v>886.34</v>
+        <v>466.46</v>
       </c>
       <c r="G112" s="36" t="inlineStr">
         <is>
@@ -5715,17 +5715,17 @@
       </c>
       <c r="H112" s="36" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I112" s="36" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="J112" s="36" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>143</t>
         </is>
       </c>
       <c r="K112" s="36" t="inlineStr">
@@ -5737,42 +5737,42 @@
     <row r="113">
       <c r="A113" s="32" t="inlineStr">
         <is>
-          <t>易方达安心回报债券A</t>
+          <t>富国中证500指数(LOF)</t>
         </is>
       </c>
       <c r="B113" s="33" t="n">
-        <v>110027</v>
+        <v>161017</v>
       </c>
       <c r="C113" s="34" t="n">
-        <v>1.6102</v>
+        <v>1.325</v>
       </c>
       <c r="D113" s="35" t="n">
-        <v>1981.84</v>
+        <v>2046.97</v>
       </c>
       <c r="E113" s="35" t="n">
-        <v>3515.78</v>
+        <v>3598.57</v>
       </c>
       <c r="F113" s="35" t="n">
-        <v>324.63</v>
+        <v>886.34</v>
       </c>
       <c r="G113" s="36" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H113" s="36" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I113" s="36" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J113" s="36" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K113" s="36" t="inlineStr">
@@ -5784,42 +5784,42 @@
     <row r="114">
       <c r="A114" s="32" t="inlineStr">
         <is>
-          <t>易方达创业板ETF联接A</t>
+          <t>易方达安心回报债券A</t>
         </is>
       </c>
       <c r="B114" s="33" t="n">
-        <v>110026</v>
+        <v>110027</v>
       </c>
       <c r="C114" s="34" t="n">
-        <v>1.319</v>
+        <v>1.6102</v>
       </c>
       <c r="D114" s="35" t="n">
-        <v>1213.09</v>
+        <v>1981.84</v>
       </c>
       <c r="E114" s="35" t="n">
-        <v>2400.22</v>
+        <v>3515.78</v>
       </c>
       <c r="F114" s="35" t="n">
-        <v>800.15</v>
+        <v>324.63</v>
       </c>
       <c r="G114" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H114" s="36" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I114" s="36" t="inlineStr">
         <is>
-          <t>创业板</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J114" s="36" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K114" s="36" t="inlineStr">
@@ -5831,42 +5831,42 @@
     <row r="115">
       <c r="A115" s="32" t="inlineStr">
         <is>
-          <t>华安德国30(DAX)联接</t>
+          <t>易方达创业板ETF联接A</t>
         </is>
       </c>
       <c r="B115" s="33" t="n">
-        <v>614</v>
+        <v>110026</v>
       </c>
       <c r="C115" s="34" t="n">
-        <v>1.0612</v>
+        <v>1.319</v>
       </c>
       <c r="D115" s="35" t="n">
-        <v>1884.74</v>
+        <v>1213.09</v>
       </c>
       <c r="E115" s="35" t="n">
-        <v>2276.77</v>
+        <v>2400.22</v>
       </c>
       <c r="F115" s="35" t="n">
-        <v>276.68</v>
+        <v>800.15</v>
       </c>
       <c r="G115" s="36" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H115" s="36" t="inlineStr">
         <is>
-          <t>德国</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I115" s="36" t="inlineStr">
         <is>
-          <t>德国30</t>
+          <t>创业板</t>
         </is>
       </c>
       <c r="J115" s="36" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>124</t>
         </is>
       </c>
       <c r="K115" s="36" t="inlineStr">
@@ -5878,42 +5878,42 @@
     <row r="116">
       <c r="A116" s="32" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>华安德国30(DAX)联接</t>
         </is>
       </c>
       <c r="B116" s="33" t="n">
-        <v>164906</v>
+        <v>614</v>
       </c>
       <c r="C116" s="34" t="n">
-        <v>1.137</v>
+        <v>1.0612</v>
       </c>
       <c r="D116" s="35" t="n">
-        <v>1407.29</v>
+        <v>1884.74</v>
       </c>
       <c r="E116" s="35" t="n">
-        <v>2001.17</v>
+        <v>2276.77</v>
       </c>
       <c r="F116" s="35" t="n">
-        <v>401.08</v>
+        <v>276.68</v>
       </c>
       <c r="G116" s="36" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="H116" s="36" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>德国</t>
         </is>
       </c>
       <c r="I116" s="36" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>德国30</t>
         </is>
       </c>
       <c r="J116" s="36" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>321</t>
         </is>
       </c>
       <c r="K116" s="36" t="inlineStr">
@@ -5925,42 +5925,42 @@
     <row r="117">
       <c r="A117" s="32" t="inlineStr">
         <is>
-          <t>兴全可转债混合</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B117" s="33" t="n">
-        <v>340001</v>
+        <v>164906</v>
       </c>
       <c r="C117" s="34" t="n">
-        <v>0.9816</v>
+        <v>1.137</v>
       </c>
       <c r="D117" s="35" t="n">
-        <v>1630.08</v>
+        <v>1407.29</v>
       </c>
       <c r="E117" s="35" t="n">
-        <v>1984.3</v>
+        <v>2001.17</v>
       </c>
       <c r="F117" s="35" t="n">
-        <v>384.21</v>
+        <v>401.08</v>
       </c>
       <c r="G117" s="36" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H117" s="36" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="I117" s="36" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="J117" s="36" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>221</t>
         </is>
       </c>
       <c r="K117" s="36" t="inlineStr">
@@ -5972,42 +5972,42 @@
     <row r="118">
       <c r="A118" s="32" t="inlineStr">
         <is>
-          <t>华夏上证50ETF联接A</t>
+          <t>兴全可转债混合</t>
         </is>
       </c>
       <c r="B118" s="33" t="n">
-        <v>1051</v>
+        <v>340001</v>
       </c>
       <c r="C118" s="34" t="n">
-        <v>0.8966</v>
+        <v>0.9816</v>
       </c>
       <c r="D118" s="35" t="n">
-        <v>1338.46</v>
+        <v>1630.08</v>
       </c>
       <c r="E118" s="35" t="n">
-        <v>1341.14</v>
+        <v>1984.3</v>
       </c>
       <c r="F118" s="35" t="n">
-        <v>141.07</v>
+        <v>384.21</v>
       </c>
       <c r="G118" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H118" s="36" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I118" s="36" t="inlineStr">
         <is>
-          <t>上证50</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J118" s="36" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K118" s="36" t="inlineStr">
@@ -6019,23 +6019,23 @@
     <row r="119">
       <c r="A119" s="32" t="inlineStr">
         <is>
-          <t>华宝中证1000指数分级</t>
+          <t>华夏上证50ETF联接A</t>
         </is>
       </c>
       <c r="B119" s="33" t="n">
-        <v>162413</v>
+        <v>1051</v>
       </c>
       <c r="C119" s="34" t="n">
-        <v>0.776</v>
+        <v>0.8966</v>
       </c>
       <c r="D119" s="35" t="n">
-        <v>1546.42</v>
+        <v>1338.46</v>
       </c>
       <c r="E119" s="35" t="n">
-        <v>1300.54</v>
+        <v>1341.14</v>
       </c>
       <c r="F119" s="35" t="n">
-        <v>100.52</v>
+        <v>141.07</v>
       </c>
       <c r="G119" s="36" t="inlineStr">
         <is>
@@ -6044,17 +6044,17 @@
       </c>
       <c r="H119" s="36" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I119" s="36" t="inlineStr">
         <is>
-          <t>中证1000</t>
+          <t>上证50</t>
         </is>
       </c>
       <c r="J119" s="36" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>111</t>
         </is>
       </c>
       <c r="K119" s="36" t="inlineStr">
@@ -6066,42 +6066,42 @@
     <row r="120">
       <c r="A120" s="32" t="inlineStr">
         <is>
-          <t>华宝标普油气上游股票人民币A</t>
+          <t>华宝中证1000指数分级</t>
         </is>
       </c>
       <c r="B120" s="33" t="n">
-        <v>162411</v>
+        <v>162413</v>
       </c>
       <c r="C120" s="34" t="n">
-        <v>0.4776</v>
+        <v>0.776</v>
       </c>
       <c r="D120" s="35" t="n">
-        <v>3350.7</v>
+        <v>1546.42</v>
       </c>
       <c r="E120" s="35" t="n">
-        <v>1230.04</v>
+        <v>1300.54</v>
       </c>
       <c r="F120" s="35" t="n">
-        <v>-370.25</v>
+        <v>100.52</v>
       </c>
       <c r="G120" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H120" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I120" s="36" t="inlineStr">
         <is>
-          <t>原油</t>
+          <t>中证1000</t>
         </is>
       </c>
       <c r="J120" s="36" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>123</t>
         </is>
       </c>
       <c r="K120" s="36" t="inlineStr">
@@ -6113,42 +6113,42 @@
     <row r="121">
       <c r="A121" s="32" t="inlineStr">
         <is>
-          <t>广发中证全指金融地产联接A</t>
+          <t>华宝标普油气上游股票人民币A</t>
         </is>
       </c>
       <c r="B121" s="33" t="n">
-        <v>1469</v>
+        <v>162411</v>
       </c>
       <c r="C121" s="34" t="n">
-        <v>0.8885999999999999</v>
+        <v>0.4776</v>
       </c>
       <c r="D121" s="35" t="n">
-        <v>900.35</v>
+        <v>3350.7</v>
       </c>
       <c r="E121" s="35" t="n">
-        <v>991.47</v>
+        <v>1230.04</v>
       </c>
       <c r="F121" s="35" t="n">
-        <v>191.41</v>
+        <v>-370.25</v>
       </c>
       <c r="G121" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="H121" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="I121" s="36" t="inlineStr">
         <is>
-          <t>金融地产</t>
+          <t>原油</t>
         </is>
       </c>
       <c r="J121" s="36" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>613</t>
         </is>
       </c>
       <c r="K121" s="36" t="inlineStr">
@@ -6160,42 +6160,42 @@
     <row r="122">
       <c r="A122" s="32" t="inlineStr">
         <is>
-          <t>华安黄金易ETF联接A</t>
+          <t>广发中证全指金融地产联接A</t>
         </is>
       </c>
       <c r="B122" s="33" t="n">
-        <v>216</v>
+        <v>1469</v>
       </c>
       <c r="C122" s="34" t="n">
-        <v>1.0903</v>
+        <v>0.8885999999999999</v>
       </c>
       <c r="D122" s="35" t="n">
-        <v>733.79</v>
+        <v>900.35</v>
       </c>
       <c r="E122" s="35" t="n">
-        <v>933.38</v>
+        <v>991.47</v>
       </c>
       <c r="F122" s="35" t="n">
-        <v>133.33</v>
+        <v>191.41</v>
       </c>
       <c r="G122" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H122" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I122" s="36" t="inlineStr">
         <is>
-          <t>黄金</t>
+          <t>金融地产</t>
         </is>
       </c>
       <c r="J122" s="36" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>147</t>
         </is>
       </c>
       <c r="K122" s="36" t="inlineStr">
@@ -6207,42 +6207,42 @@
     <row r="123">
       <c r="A123" s="32" t="inlineStr">
         <is>
-          <t>易方达证券公司分级</t>
+          <t>华安黄金易ETF联接A</t>
         </is>
       </c>
       <c r="B123" s="33" t="n">
-        <v>502010</v>
+        <v>216</v>
       </c>
       <c r="C123" s="34" t="n">
-        <v>0.8063</v>
+        <v>1.0903</v>
       </c>
       <c r="D123" s="35" t="n">
-        <v>496.13</v>
+        <v>733.79</v>
       </c>
       <c r="E123" s="35" t="n">
-        <v>528.28</v>
+        <v>933.38</v>
       </c>
       <c r="F123" s="35" t="n">
-        <v>128.25</v>
+        <v>133.33</v>
       </c>
       <c r="G123" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="H123" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="I123" s="36" t="inlineStr">
         <is>
-          <t>证券公司</t>
+          <t>黄金</t>
         </is>
       </c>
       <c r="J123" s="36" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>611</t>
         </is>
       </c>
       <c r="K123" s="36" t="inlineStr">
@@ -6254,42 +6254,42 @@
     <row r="124">
       <c r="A124" s="32" t="inlineStr">
         <is>
-          <t>长信可转债债券A</t>
+          <t>易方达证券公司分级</t>
         </is>
       </c>
       <c r="B124" s="33" t="n">
-        <v>519977</v>
+        <v>502010</v>
       </c>
       <c r="C124" s="34" t="n">
-        <v>1.2011</v>
+        <v>0.8063</v>
       </c>
       <c r="D124" s="35" t="n">
-        <v>333.04</v>
+        <v>496.13</v>
       </c>
       <c r="E124" s="35" t="n">
-        <v>480.51</v>
+        <v>528.28</v>
       </c>
       <c r="F124" s="35" t="n">
-        <v>80.5</v>
+        <v>128.25</v>
       </c>
       <c r="G124" s="36" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H124" s="36" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I124" s="36" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>证券公司</t>
         </is>
       </c>
       <c r="J124" s="36" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>145</t>
         </is>
       </c>
       <c r="K124" s="36" t="inlineStr">
@@ -6301,42 +6301,42 @@
     <row r="125">
       <c r="A125" s="32" t="inlineStr">
         <is>
-          <t>华夏沪深300ETF联接A</t>
+          <t>长信可转债债券A</t>
         </is>
       </c>
       <c r="B125" s="33" t="n">
-        <v>51</v>
+        <v>519977</v>
       </c>
       <c r="C125" s="34" t="n">
-        <v>1.2285</v>
+        <v>1.2011</v>
       </c>
       <c r="D125" s="35" t="n">
-        <v>325.61</v>
+        <v>333.04</v>
       </c>
       <c r="E125" s="35" t="n">
-        <v>435.99</v>
+        <v>480.51</v>
       </c>
       <c r="F125" s="35" t="n">
-        <v>35.98</v>
+        <v>80.5</v>
       </c>
       <c r="G125" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H125" s="36" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I125" s="36" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J125" s="36" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K125" s="36" t="inlineStr">
@@ -6348,23 +6348,23 @@
     <row r="126">
       <c r="A126" s="32" t="inlineStr">
         <is>
-          <t>建信中证500指数增强A</t>
+          <t>华夏沪深300ETF联接A</t>
         </is>
       </c>
       <c r="B126" s="33" t="n">
-        <v>478</v>
+        <v>51</v>
       </c>
       <c r="C126" s="34" t="n">
-        <v>1.9396</v>
+        <v>1.2285</v>
       </c>
       <c r="D126" s="35" t="n">
-        <v>206.23</v>
+        <v>325.61</v>
       </c>
       <c r="E126" s="35" t="n">
-        <v>430.59</v>
+        <v>435.99</v>
       </c>
       <c r="F126" s="35" t="n">
-        <v>30.58</v>
+        <v>35.98</v>
       </c>
       <c r="G126" s="36" t="inlineStr">
         <is>
@@ -6373,17 +6373,17 @@
       </c>
       <c r="H126" s="36" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I126" s="36" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>沪深300</t>
         </is>
       </c>
       <c r="J126" s="36" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>113</t>
         </is>
       </c>
       <c r="K126" s="36" t="inlineStr">
@@ -6395,45 +6395,92 @@
     <row r="127">
       <c r="A127" s="32" t="inlineStr">
         <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="B127" s="33" t="n">
+        <v>478</v>
+      </c>
+      <c r="C127" s="34" t="n">
+        <v>1.9396</v>
+      </c>
+      <c r="D127" s="35" t="n">
+        <v>206.23</v>
+      </c>
+      <c r="E127" s="35" t="n">
+        <v>430.59</v>
+      </c>
+      <c r="F127" s="35" t="n">
+        <v>30.58</v>
+      </c>
+      <c r="G127" s="36" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H127" s="36" t="inlineStr">
+        <is>
+          <t>中小盘股</t>
+        </is>
+      </c>
+      <c r="I127" s="36" t="inlineStr">
+        <is>
+          <t>中证500</t>
+        </is>
+      </c>
+      <c r="J127" s="36" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="K127" s="36" t="inlineStr">
+        <is>
+          <t>天天基金母</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="32" t="inlineStr">
+        <is>
           <t>华夏恒生ETF联接A</t>
         </is>
       </c>
-      <c r="B127" s="33" t="n">
+      <c r="B128" s="33" t="n">
         <v>71</v>
       </c>
-      <c r="C127" s="34" t="n">
+      <c r="C128" s="34" t="n">
         <v>1.452</v>
       </c>
-      <c r="D127" s="35" t="n">
+      <c r="D128" s="35" t="n">
         <v>275.49</v>
       </c>
-      <c r="E127" s="35" t="n">
+      <c r="E128" s="35" t="n">
         <v>423.76</v>
       </c>
-      <c r="F127" s="35" t="n">
+      <c r="F128" s="35" t="n">
         <v>23.75</v>
       </c>
-      <c r="G127" s="36" t="inlineStr">
+      <c r="G128" s="36" t="inlineStr">
         <is>
           <t>海外新兴</t>
         </is>
       </c>
-      <c r="H127" s="36" t="inlineStr">
+      <c r="H128" s="36" t="inlineStr">
         <is>
           <t>香港</t>
         </is>
       </c>
-      <c r="I127" s="36" t="inlineStr">
+      <c r="I128" s="36" t="inlineStr">
         <is>
           <t>恒生</t>
         </is>
       </c>
-      <c r="J127" s="36" t="inlineStr">
+      <c r="J128" s="36" t="inlineStr">
         <is>
           <t>211</t>
         </is>
       </c>
-      <c r="K127" s="36" t="inlineStr">
+      <c r="K128" s="36" t="inlineStr">
         <is>
           <t>天天基金母</t>
         </is>

--- a/scripts/output/202002/全家/全家整体资产配置.xlsx
+++ b/scripts/output/202002/全家/全家整体资产配置.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="资产配置情况" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="000000" numFmtId="164"/>
-    <numFmt formatCode="0.0000" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -87,67 +87,67 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="37">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -448,16 +448,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="30"/>
-    <col customWidth="1" max="2" min="2" width="9"/>
-    <col customWidth="1" max="3" min="3" width="9"/>
-    <col customWidth="1" max="4" min="4" width="9"/>
-    <col customWidth="1" max="5" min="5" width="9"/>
-    <col customWidth="1" max="6" min="6" width="9"/>
-    <col customWidth="1" max="7" min="7" width="9"/>
-    <col customWidth="1" max="8" min="8" width="11.25"/>
-    <col customWidth="1" max="9" min="9" width="11.25"/>
-    <col customWidth="1" max="11" min="11" width="13.5"/>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="9" customWidth="1" min="2" max="2"/>
+    <col width="9" customWidth="1" min="3" max="3"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
+    <col width="9" customWidth="1" min="5" max="5"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="9" customWidth="1" min="7" max="7"/>
+    <col width="11.25" customWidth="1" min="8" max="8"/>
+    <col width="11.25" customWidth="1" min="9" max="9"/>
+    <col width="13.5" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -580,10 +580,10 @@
         <v>2804.87</v>
       </c>
       <c r="E3" s="10" t="n">
-        <v>4628.04</v>
+        <v>4375.6</v>
       </c>
       <c r="F3" s="10" t="n">
-        <v>-17.39</v>
+        <v>-269.83</v>
       </c>
       <c r="G3" s="11" t="inlineStr">
         <is>
@@ -627,10 +627,10 @@
         <v>3115.88</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>4471.29</v>
+        <v>4278.1</v>
       </c>
       <c r="F4" s="10" t="n">
-        <v>-2.49</v>
+        <v>-195.68</v>
       </c>
       <c r="G4" s="11" t="inlineStr">
         <is>
@@ -674,10 +674,10 @@
         <v>4201.88</v>
       </c>
       <c r="E5" s="10" t="n">
-        <v>4078.76</v>
+        <v>3907.75</v>
       </c>
       <c r="F5" s="10" t="n">
-        <v>134.04</v>
+        <v>-36.98</v>
       </c>
       <c r="G5" s="11" t="inlineStr">
         <is>
@@ -721,10 +721,10 @@
         <v>2260.14</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>3381.85</v>
+        <v>3320.15</v>
       </c>
       <c r="F6" s="10" t="n">
-        <v>334.95</v>
+        <v>273.25</v>
       </c>
       <c r="G6" s="11" t="inlineStr">
         <is>
@@ -768,10 +768,10 @@
         <v>1363.37</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>2657.34</v>
+        <v>2522.51</v>
       </c>
       <c r="F7" s="10" t="n">
-        <v>205.05</v>
+        <v>70.20999999999999</v>
       </c>
       <c r="G7" s="11" t="inlineStr">
         <is>
@@ -815,10 +815,10 @@
         <v>1134.65</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>2564.65</v>
+        <v>2445.28</v>
       </c>
       <c r="F8" s="10" t="n">
-        <v>141.04</v>
+        <v>21.67</v>
       </c>
       <c r="G8" s="11" t="inlineStr">
         <is>
@@ -862,10 +862,10 @@
         <v>1067.42</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>1078.84</v>
+        <v>1063.15</v>
       </c>
       <c r="F9" s="10" t="n">
-        <v>55.29</v>
+        <v>39.6</v>
       </c>
       <c r="G9" s="11" t="inlineStr">
         <is>
@@ -909,10 +909,10 @@
         <v>550.61</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>662.6</v>
+        <v>635.13</v>
       </c>
       <c r="F10" s="10" t="n">
-        <v>-26.26</v>
+        <v>-53.74</v>
       </c>
       <c r="G10" s="11" t="inlineStr">
         <is>
@@ -956,10 +956,10 @@
         <v>550.4</v>
       </c>
       <c r="E11" s="10" t="n">
-        <v>541.98</v>
+        <v>512.97</v>
       </c>
       <c r="F11" s="10" t="n">
-        <v>1.1</v>
+        <v>-27.91</v>
       </c>
       <c r="G11" s="11" t="inlineStr">
         <is>
@@ -1003,10 +1003,10 @@
         <v>531.87</v>
       </c>
       <c r="E12" s="10" t="n">
-        <v>450.65</v>
+        <v>472.51</v>
       </c>
       <c r="F12" s="10" t="n">
-        <v>93.88</v>
+        <v>115.73</v>
       </c>
       <c r="G12" s="11" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
         <v>247.91</v>
       </c>
       <c r="E13" s="10" t="n">
-        <v>333.69</v>
+        <v>319.06</v>
       </c>
       <c r="F13" s="10" t="n">
-        <v>20.43</v>
+        <v>5.8</v>
       </c>
       <c r="G13" s="11" t="inlineStr">
         <is>
@@ -1097,10 +1097,10 @@
         <v>64.5</v>
       </c>
       <c r="E14" s="10" t="n">
-        <v>87.48999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="F14" s="10" t="n">
-        <v>-5.22</v>
+        <v>-9.220000000000001</v>
       </c>
       <c r="G14" s="11" t="inlineStr">
         <is>
@@ -1151,22 +1151,22 @@
       </c>
       <c r="G15" s="11" t="inlineStr">
         <is>
-          <t>现金</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H15" s="11" t="inlineStr">
         <is>
-          <t>低风险理财</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I15" s="11" t="inlineStr">
         <is>
-          <t>货币基金</t>
+          <t>纯债</t>
         </is>
       </c>
       <c r="J15" s="11" t="inlineStr">
         <is>
-          <t>999</t>
+          <t>511</t>
         </is>
       </c>
       <c r="K15" s="11" t="inlineStr">
@@ -1238,10 +1238,10 @@
         <v>16731.88</v>
       </c>
       <c r="E17" s="20" t="n">
-        <v>10311.86</v>
+        <v>9816.59</v>
       </c>
       <c r="F17" s="20" t="n">
-        <v>-1688.25</v>
+        <v>-2183.51</v>
       </c>
       <c r="G17" s="21" t="inlineStr">
         <is>
@@ -1285,10 +1285,10 @@
         <v>35500</v>
       </c>
       <c r="E18" s="25" t="n">
-        <v>13032.05</v>
+        <v>11910.25</v>
       </c>
       <c r="F18" s="25" t="n">
-        <v>252.05</v>
+        <v>-869.75</v>
       </c>
       <c r="G18" s="26" t="inlineStr">
         <is>
@@ -1332,10 +1332,10 @@
         <v>2700</v>
       </c>
       <c r="E19" s="25" t="n">
-        <v>7897.5</v>
+        <v>7573.5</v>
       </c>
       <c r="F19" s="25" t="n">
-        <v>1587.6</v>
+        <v>1263.6</v>
       </c>
       <c r="G19" s="26" t="inlineStr">
         <is>
@@ -1379,10 +1379,10 @@
         <v>9100</v>
       </c>
       <c r="E20" s="25" t="n">
-        <v>36384.53</v>
+        <v>34774.74</v>
       </c>
       <c r="F20" s="25" t="n">
-        <v>5016.83</v>
+        <v>3407.04</v>
       </c>
       <c r="G20" s="26" t="inlineStr">
         <is>
@@ -1426,10 +1426,10 @@
         <v>38800</v>
       </c>
       <c r="E21" s="25" t="n">
-        <v>225998.36</v>
+        <v>215200.32</v>
       </c>
       <c r="F21" s="25" t="n">
-        <v>8679.559999999999</v>
+        <v>-2118.48</v>
       </c>
       <c r="G21" s="26" t="inlineStr">
         <is>
@@ -1473,10 +1473,10 @@
         <v>33800</v>
       </c>
       <c r="E22" s="25" t="n">
-        <v>27908.66</v>
+        <v>26478.92</v>
       </c>
       <c r="F22" s="25" t="n">
-        <v>-1733.94</v>
+        <v>-3163.68</v>
       </c>
       <c r="G22" s="26" t="inlineStr">
         <is>
@@ -1520,10 +1520,10 @@
         <v>32700</v>
       </c>
       <c r="E23" s="25" t="n">
-        <v>32379.54</v>
+        <v>29541.18</v>
       </c>
       <c r="F23" s="25" t="n">
-        <v>6775.44</v>
+        <v>3937.08</v>
       </c>
       <c r="G23" s="26" t="inlineStr">
         <is>
@@ -1567,10 +1567,10 @@
         <v>34100</v>
       </c>
       <c r="E24" s="25" t="n">
-        <v>29943.21</v>
+        <v>29022.51</v>
       </c>
       <c r="F24" s="25" t="n">
-        <v>310.31</v>
+        <v>-610.39</v>
       </c>
       <c r="G24" s="26" t="inlineStr">
         <is>
@@ -1614,10 +1614,10 @@
         <v>4500</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>15450.3</v>
+        <v>15617.25</v>
       </c>
       <c r="F25" s="25" t="n">
-        <v>2598.3</v>
+        <v>2765.25</v>
       </c>
       <c r="G25" s="26" t="inlineStr">
         <is>
@@ -1661,10 +1661,10 @@
         <v>9200</v>
       </c>
       <c r="E26" s="25" t="n">
-        <v>17057.72</v>
+        <v>17155.24</v>
       </c>
       <c r="F26" s="25" t="n">
-        <v>4186.92</v>
+        <v>4284.44</v>
       </c>
       <c r="G26" s="26" t="inlineStr">
         <is>
@@ -1708,10 +1708,10 @@
         <v>14400</v>
       </c>
       <c r="E27" s="25" t="n">
-        <v>20854.08</v>
+        <v>21690.72</v>
       </c>
       <c r="F27" s="25" t="n">
-        <v>2551.68</v>
+        <v>3388.32</v>
       </c>
       <c r="G27" s="26" t="inlineStr">
         <is>
@@ -1755,10 +1755,10 @@
         <v>4157.52</v>
       </c>
       <c r="E28" s="30" t="n">
-        <v>8680.49</v>
+        <v>8169.53</v>
       </c>
       <c r="F28" s="30" t="n">
-        <v>676.4299999999999</v>
+        <v>165.47</v>
       </c>
       <c r="G28" s="31" t="inlineStr">
         <is>
@@ -1802,10 +1802,10 @@
         <v>9722</v>
       </c>
       <c r="E29" s="30" t="n">
-        <v>5991.67</v>
+        <v>5703.9</v>
       </c>
       <c r="F29" s="30" t="n">
-        <v>655.26</v>
+        <v>367.49</v>
       </c>
       <c r="G29" s="31" t="inlineStr">
         <is>
@@ -1849,10 +1849,10 @@
         <v>4943.96</v>
       </c>
       <c r="E30" s="30" t="n">
-        <v>4996.86</v>
+        <v>4924.18</v>
       </c>
       <c r="F30" s="30" t="n">
-        <v>327.78</v>
+        <v>255.11</v>
       </c>
       <c r="G30" s="31" t="inlineStr">
         <is>
@@ -1896,10 +1896,10 @@
         <v>7379.54</v>
       </c>
       <c r="E31" s="30" t="n">
-        <v>4398.21</v>
+        <v>4184.2</v>
       </c>
       <c r="F31" s="30" t="n">
-        <v>396.28</v>
+        <v>182.27</v>
       </c>
       <c r="G31" s="31" t="inlineStr">
         <is>
@@ -1943,10 +1943,10 @@
         <v>3665.01</v>
       </c>
       <c r="E32" s="30" t="n">
-        <v>4145.13</v>
+        <v>3910.57</v>
       </c>
       <c r="F32" s="30" t="n">
-        <v>143.3</v>
+        <v>-91.26000000000001</v>
       </c>
       <c r="G32" s="31" t="inlineStr">
         <is>
@@ -1990,10 +1990,10 @@
         <v>4550.55</v>
       </c>
       <c r="E33" s="30" t="n">
-        <v>3971.72</v>
+        <v>3855.68</v>
       </c>
       <c r="F33" s="30" t="n">
-        <v>636.62</v>
+        <v>520.58</v>
       </c>
       <c r="G33" s="31" t="inlineStr">
         <is>
@@ -2037,10 +2037,10 @@
         <v>400.63</v>
       </c>
       <c r="E34" s="30" t="n">
-        <v>792.6900000000001</v>
+        <v>795.77</v>
       </c>
       <c r="F34" s="30" t="n">
-        <v>125.68</v>
+        <v>128.76</v>
       </c>
       <c r="G34" s="31" t="inlineStr">
         <is>
@@ -2084,10 +2084,10 @@
         <v>736.3</v>
       </c>
       <c r="E35" s="30" t="n">
-        <v>785.04</v>
+        <v>791.38</v>
       </c>
       <c r="F35" s="30" t="n">
-        <v>118.03</v>
+        <v>124.36</v>
       </c>
       <c r="G35" s="31" t="inlineStr">
         <is>
@@ -2131,10 +2131,10 @@
         <v>809.28</v>
       </c>
       <c r="E36" s="30" t="n">
-        <v>727.62</v>
+        <v>754.8200000000001</v>
       </c>
       <c r="F36" s="30" t="n">
-        <v>60.62</v>
+        <v>87.81</v>
       </c>
       <c r="G36" s="31" t="inlineStr">
         <is>
@@ -2178,10 +2178,10 @@
         <v>473.85</v>
       </c>
       <c r="E37" s="30" t="n">
-        <v>504.56</v>
+        <v>463.71</v>
       </c>
       <c r="F37" s="30" t="n">
-        <v>37.67</v>
+        <v>-3.17</v>
       </c>
       <c r="G37" s="31" t="inlineStr">
         <is>
@@ -2225,10 +2225,10 @@
         <v>5299.96</v>
       </c>
       <c r="E38" s="30" t="n">
-        <v>1945.62</v>
+        <v>1778.14</v>
       </c>
       <c r="F38" s="30" t="n">
-        <v>-55.12</v>
+        <v>-222.6</v>
       </c>
       <c r="G38" s="31" t="inlineStr">
         <is>
@@ -2272,10 +2272,10 @@
         <v>576.8</v>
       </c>
       <c r="E39" s="30" t="n">
-        <v>820.21</v>
+        <v>825.4</v>
       </c>
       <c r="F39" s="30" t="n">
-        <v>153.2</v>
+        <v>158.39</v>
       </c>
       <c r="G39" s="31" t="inlineStr">
         <is>
@@ -2319,10 +2319,10 @@
         <v>459.67</v>
       </c>
       <c r="E40" s="30" t="n">
-        <v>707.0599999999999</v>
+        <v>689.41</v>
       </c>
       <c r="F40" s="30" t="n">
-        <v>40.08</v>
+        <v>22.43</v>
       </c>
       <c r="G40" s="31" t="inlineStr">
         <is>
@@ -2366,10 +2366,10 @@
         <v>611.75</v>
       </c>
       <c r="E41" s="30" t="n">
-        <v>738.99</v>
+        <v>734.71</v>
       </c>
       <c r="F41" s="30" t="n">
-        <v>72</v>
+        <v>67.72</v>
       </c>
       <c r="G41" s="31" t="inlineStr">
         <is>
@@ -2413,10 +2413,10 @@
         <v>1046.73</v>
       </c>
       <c r="E42" s="30" t="n">
-        <v>2185.47</v>
+        <v>2056.82</v>
       </c>
       <c r="F42" s="30" t="n">
-        <v>185.48</v>
+        <v>56.84</v>
       </c>
       <c r="G42" s="31" t="inlineStr">
         <is>
@@ -2460,10 +2460,10 @@
         <v>1825.9</v>
       </c>
       <c r="E43" s="30" t="n">
-        <v>2065.09</v>
+        <v>1948.24</v>
       </c>
       <c r="F43" s="30" t="n">
-        <v>65</v>
+        <v>-51.86</v>
       </c>
       <c r="G43" s="31" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>1812.7</v>
       </c>
       <c r="E44" s="30" t="n">
-        <v>1080.37</v>
+        <v>1027.8</v>
       </c>
       <c r="F44" s="30" t="n">
-        <v>80.3</v>
+        <v>27.73</v>
       </c>
       <c r="G44" s="31" t="inlineStr">
         <is>
@@ -2554,10 +2554,10 @@
         <v>1227.03</v>
       </c>
       <c r="E45" s="30" t="n">
-        <v>1070.95</v>
+        <v>1039.66</v>
       </c>
       <c r="F45" s="30" t="n">
-        <v>70.92</v>
+        <v>39.63</v>
       </c>
       <c r="G45" s="31" t="inlineStr">
         <is>
@@ -2601,10 +2601,10 @@
         <v>1059.17</v>
       </c>
       <c r="E46" s="30" t="n">
-        <v>1061.29</v>
+        <v>1021.04</v>
       </c>
       <c r="F46" s="30" t="n">
-        <v>61.33</v>
+        <v>21.08</v>
       </c>
       <c r="G46" s="31" t="inlineStr">
         <is>
@@ -2648,10 +2648,10 @@
         <v>899.8200000000001</v>
       </c>
       <c r="E47" s="30" t="n">
-        <v>1279.54</v>
+        <v>1287.64</v>
       </c>
       <c r="F47" s="30" t="n">
-        <v>279.57</v>
+        <v>287.67</v>
       </c>
       <c r="G47" s="31" t="inlineStr">
         <is>
@@ -2695,10 +2695,10 @@
         <v>689.02</v>
       </c>
       <c r="E48" s="30" t="n">
-        <v>1059.85</v>
+        <v>1033.39</v>
       </c>
       <c r="F48" s="30" t="n">
-        <v>59.88</v>
+        <v>33.42</v>
       </c>
       <c r="G48" s="31" t="inlineStr">
         <is>
@@ -2742,10 +2742,10 @@
         <v>1834.47</v>
       </c>
       <c r="E49" s="30" t="n">
-        <v>2333.45</v>
+        <v>2358.58</v>
       </c>
       <c r="F49" s="30" t="n">
-        <v>333.51</v>
+        <v>358.64</v>
       </c>
       <c r="G49" s="31" t="inlineStr">
         <is>
@@ -2789,10 +2789,10 @@
         <v>4757.9</v>
       </c>
       <c r="E50" s="30" t="n">
-        <v>1746.63</v>
+        <v>1596.28</v>
       </c>
       <c r="F50" s="30" t="n">
-        <v>-253.6</v>
+        <v>-403.95</v>
       </c>
       <c r="G50" s="31" t="inlineStr">
         <is>
@@ -2836,10 +2836,10 @@
         <v>953.96</v>
       </c>
       <c r="E51" s="30" t="n">
-        <v>1152.38</v>
+        <v>1145.71</v>
       </c>
       <c r="F51" s="30" t="n">
-        <v>152.35</v>
+        <v>145.67</v>
       </c>
       <c r="G51" s="31" t="inlineStr">
         <is>
@@ -2883,10 +2883,10 @@
         <v>595.47</v>
       </c>
       <c r="E52" s="30" t="n">
-        <v>1056.36</v>
+        <v>1049.81</v>
       </c>
       <c r="F52" s="30" t="n">
-        <v>56.39</v>
+        <v>49.84</v>
       </c>
       <c r="G52" s="31" t="inlineStr">
         <is>
@@ -2930,10 +2930,10 @@
         <v>65064.33</v>
       </c>
       <c r="E53" s="35" t="n">
-        <v>73587.75999999999</v>
+        <v>69423.64</v>
       </c>
       <c r="F53" s="35" t="n">
-        <v>7267.69</v>
+        <v>3103.57</v>
       </c>
       <c r="G53" s="36" t="inlineStr">
         <is>
@@ -2977,10 +2977,10 @@
         <v>63490</v>
       </c>
       <c r="E54" s="35" t="n">
-        <v>64169.34</v>
+        <v>63236.04</v>
       </c>
       <c r="F54" s="35" t="n">
-        <v>5968.06</v>
+        <v>5034.76</v>
       </c>
       <c r="G54" s="36" t="inlineStr">
         <is>
@@ -3024,10 +3024,10 @@
         <v>32370.29</v>
       </c>
       <c r="E55" s="35" t="n">
-        <v>39404.35</v>
+        <v>38918.8</v>
       </c>
       <c r="F55" s="35" t="n">
-        <v>7403.09</v>
+        <v>6917.53</v>
       </c>
       <c r="G55" s="36" t="inlineStr">
         <is>
@@ -3071,10 +3071,10 @@
         <v>41014.88</v>
       </c>
       <c r="E56" s="35" t="n">
-        <v>36876.48</v>
+        <v>38254.58</v>
       </c>
       <c r="F56" s="35" t="n">
-        <v>6316.29</v>
+        <v>7694.39</v>
       </c>
       <c r="G56" s="36" t="inlineStr">
         <is>
@@ -3118,10 +3118,10 @@
         <v>20086.63</v>
       </c>
       <c r="E57" s="35" t="n">
-        <v>35633.68</v>
+        <v>35412.73</v>
       </c>
       <c r="F57" s="35" t="n">
-        <v>3633.67</v>
+        <v>3412.72</v>
       </c>
       <c r="G57" s="36" t="inlineStr">
         <is>
@@ -3165,10 +3165,10 @@
         <v>20716.63</v>
       </c>
       <c r="E58" s="35" t="n">
-        <v>25025.69</v>
+        <v>24880.67</v>
       </c>
       <c r="F58" s="35" t="n">
-        <v>2423.85</v>
+        <v>2278.83</v>
       </c>
       <c r="G58" s="36" t="inlineStr">
         <is>
@@ -3212,10 +3212,10 @@
         <v>14624.61</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>24437.72</v>
+        <v>23340.88</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>5237.07</v>
+        <v>4140.23</v>
       </c>
       <c r="G59" s="36" t="inlineStr">
         <is>
@@ -3259,10 +3259,10 @@
         <v>16778.47</v>
       </c>
       <c r="E60" s="35" t="n">
-        <v>23858.98</v>
+        <v>24009.99</v>
       </c>
       <c r="F60" s="35" t="n">
-        <v>4657.7</v>
+        <v>4808.71</v>
       </c>
       <c r="G60" s="36" t="inlineStr">
         <is>
@@ -3306,10 +3306,10 @@
         <v>21163.93</v>
       </c>
       <c r="E61" s="35" t="n">
-        <v>23305.72</v>
+        <v>21824.24</v>
       </c>
       <c r="F61" s="35" t="n">
-        <v>4103.69</v>
+        <v>2622.21</v>
       </c>
       <c r="G61" s="36" t="inlineStr">
         <is>
@@ -3353,10 +3353,10 @@
         <v>9529.809999999999</v>
       </c>
       <c r="E62" s="35" t="n">
-        <v>16753.41</v>
+        <v>16029.14</v>
       </c>
       <c r="F62" s="35" t="n">
-        <v>3952.97</v>
+        <v>3228.7</v>
       </c>
       <c r="G62" s="36" t="inlineStr">
         <is>
@@ -3400,10 +3400,10 @@
         <v>37267.45</v>
       </c>
       <c r="E63" s="35" t="n">
-        <v>13680.88</v>
+        <v>12503.23</v>
       </c>
       <c r="F63" s="35" t="n">
-        <v>-5519.31</v>
+        <v>-6696.96</v>
       </c>
       <c r="G63" s="36" t="inlineStr">
         <is>
@@ -3447,10 +3447,10 @@
         <v>6798.52</v>
       </c>
       <c r="E64" s="35" t="n">
-        <v>10457.48</v>
+        <v>10196.42</v>
       </c>
       <c r="F64" s="35" t="n">
-        <v>557.48</v>
+        <v>296.42</v>
       </c>
       <c r="G64" s="36" t="inlineStr">
         <is>
@@ -3494,10 +3494,10 @@
         <v>13403.92</v>
       </c>
       <c r="E65" s="35" t="n">
-        <v>8260.84</v>
+        <v>7864.08</v>
       </c>
       <c r="F65" s="35" t="n">
-        <v>1860.46</v>
+        <v>1463.71</v>
       </c>
       <c r="G65" s="36" t="inlineStr">
         <is>
@@ -3541,10 +3541,10 @@
         <v>5328.62</v>
       </c>
       <c r="E66" s="35" t="n">
-        <v>7688.13</v>
+        <v>7579.43</v>
       </c>
       <c r="F66" s="35" t="n">
-        <v>1287.93</v>
+        <v>1179.22</v>
       </c>
       <c r="G66" s="36" t="inlineStr">
         <is>
@@ -3588,10 +3588,10 @@
         <v>5609.79</v>
       </c>
       <c r="E67" s="35" t="n">
-        <v>7629.31</v>
+        <v>7679.8</v>
       </c>
       <c r="F67" s="35" t="n">
-        <v>2484.02</v>
+        <v>2534.5</v>
       </c>
       <c r="G67" s="36" t="inlineStr">
         <is>
@@ -3635,10 +3635,10 @@
         <v>3299.64</v>
       </c>
       <c r="E68" s="35" t="n">
-        <v>6889.32</v>
+        <v>6483.79</v>
       </c>
       <c r="F68" s="35" t="n">
-        <v>489.01</v>
+        <v>83.48</v>
       </c>
       <c r="G68" s="36" t="inlineStr">
         <is>
@@ -3682,10 +3682,10 @@
         <v>7852.99</v>
       </c>
       <c r="E69" s="35" t="n">
-        <v>6854.09</v>
+        <v>6653.84</v>
       </c>
       <c r="F69" s="35" t="n">
-        <v>453.9</v>
+        <v>253.65</v>
       </c>
       <c r="G69" s="36" t="inlineStr">
         <is>
@@ -3729,10 +3729,10 @@
         <v>3889.32</v>
       </c>
       <c r="E70" s="35" t="n">
-        <v>3638.07</v>
+        <v>3475.11</v>
       </c>
       <c r="F70" s="35" t="n">
-        <v>313.48</v>
+        <v>150.52</v>
       </c>
       <c r="G70" s="36" t="inlineStr">
         <is>
@@ -3823,10 +3823,10 @@
         <v>1182.45</v>
       </c>
       <c r="E72" s="10" t="n">
-        <v>1696.82</v>
+        <v>1623.5</v>
       </c>
       <c r="F72" s="10" t="n">
-        <v>0.35</v>
+        <v>-72.95999999999999</v>
       </c>
       <c r="G72" s="11" t="inlineStr">
         <is>
@@ -3870,10 +3870,10 @@
         <v>1013.85</v>
       </c>
       <c r="E73" s="10" t="n">
-        <v>1672.85</v>
+        <v>1581.61</v>
       </c>
       <c r="F73" s="10" t="n">
-        <v>-7.5</v>
+        <v>-98.75</v>
       </c>
       <c r="G73" s="11" t="inlineStr">
         <is>
@@ -3917,10 +3917,10 @@
         <v>1548.03</v>
       </c>
       <c r="E74" s="10" t="n">
-        <v>1502.67</v>
+        <v>1439.67</v>
       </c>
       <c r="F74" s="10" t="n">
-        <v>49.69</v>
+        <v>-13.31</v>
       </c>
       <c r="G74" s="11" t="inlineStr">
         <is>
@@ -3964,10 +3964,10 @@
         <v>898.04</v>
       </c>
       <c r="E75" s="10" t="n">
-        <v>1343.74</v>
+        <v>1319.22</v>
       </c>
       <c r="F75" s="10" t="n">
-        <v>132.73</v>
+        <v>108.21</v>
       </c>
       <c r="G75" s="11" t="inlineStr">
         <is>
@@ -4011,10 +4011,10 @@
         <v>492.58</v>
       </c>
       <c r="E76" s="10" t="n">
-        <v>960.09</v>
+        <v>911.37</v>
       </c>
       <c r="F76" s="10" t="n">
-        <v>75.12</v>
+        <v>26.4</v>
       </c>
       <c r="G76" s="11" t="inlineStr">
         <is>
@@ -4058,10 +4058,10 @@
         <v>421.99</v>
       </c>
       <c r="E77" s="10" t="n">
-        <v>953.8200000000001</v>
+        <v>909.4299999999999</v>
       </c>
       <c r="F77" s="10" t="n">
-        <v>55.96</v>
+        <v>11.56</v>
       </c>
       <c r="G77" s="11" t="inlineStr">
         <is>
@@ -4105,10 +4105,10 @@
         <v>390.82</v>
       </c>
       <c r="E78" s="10" t="n">
-        <v>395</v>
+        <v>389.26</v>
       </c>
       <c r="F78" s="10" t="n">
-        <v>19.85</v>
+        <v>14.11</v>
       </c>
       <c r="G78" s="11" t="inlineStr">
         <is>
@@ -4152,10 +4152,10 @@
         <v>214.89</v>
       </c>
       <c r="E79" s="10" t="n">
-        <v>211.6</v>
+        <v>200.28</v>
       </c>
       <c r="F79" s="10" t="n">
-        <v>0.39</v>
+        <v>-10.94</v>
       </c>
       <c r="G79" s="11" t="inlineStr">
         <is>
@@ -4199,10 +4199,10 @@
         <v>171.26</v>
       </c>
       <c r="E80" s="10" t="n">
-        <v>206.09</v>
+        <v>197.55</v>
       </c>
       <c r="F80" s="10" t="n">
-        <v>-8.630000000000001</v>
+        <v>-17.18</v>
       </c>
       <c r="G80" s="11" t="inlineStr">
         <is>
@@ -4246,10 +4246,10 @@
         <v>212.74</v>
       </c>
       <c r="E81" s="10" t="n">
-        <v>180.25</v>
+        <v>189</v>
       </c>
       <c r="F81" s="10" t="n">
-        <v>37.55</v>
+        <v>46.29</v>
       </c>
       <c r="G81" s="11" t="inlineStr">
         <is>
@@ -4293,10 +4293,10 @@
         <v>62.09</v>
       </c>
       <c r="E82" s="10" t="n">
-        <v>83.56999999999999</v>
+        <v>79.91</v>
       </c>
       <c r="F82" s="10" t="n">
-        <v>3.53</v>
+        <v>-0.13</v>
       </c>
       <c r="G82" s="11" t="inlineStr">
         <is>
@@ -4340,10 +4340,10 @@
         <v>25.8</v>
       </c>
       <c r="E83" s="10" t="n">
-        <v>35</v>
+        <v>33.4</v>
       </c>
       <c r="F83" s="10" t="n">
-        <v>-2.08</v>
+        <v>-3.68</v>
       </c>
       <c r="G83" s="11" t="inlineStr">
         <is>
@@ -4394,22 +4394,22 @@
       </c>
       <c r="G84" s="11" t="inlineStr">
         <is>
-          <t>现金</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H84" s="11" t="inlineStr">
         <is>
-          <t>低风险理财</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I84" s="11" t="inlineStr">
         <is>
-          <t>货币基金</t>
+          <t>纯债</t>
         </is>
       </c>
       <c r="J84" s="11" t="inlineStr">
         <is>
-          <t>999</t>
+          <t>511</t>
         </is>
       </c>
       <c r="K84" s="11" t="inlineStr">
@@ -4434,10 +4434,10 @@
         <v>1128.82</v>
       </c>
       <c r="E85" s="10" t="n">
-        <v>1862.55</v>
+        <v>1760.96</v>
       </c>
       <c r="F85" s="10" t="n">
-        <v>-12.08</v>
+        <v>-113.67</v>
       </c>
       <c r="G85" s="11" t="inlineStr">
         <is>
@@ -4481,10 +4481,10 @@
         <v>1225.03</v>
       </c>
       <c r="E86" s="10" t="n">
-        <v>1757.92</v>
+        <v>1681.97</v>
       </c>
       <c r="F86" s="10" t="n">
-        <v>0.49</v>
+        <v>-75.45999999999999</v>
       </c>
       <c r="G86" s="11" t="inlineStr">
         <is>
@@ -4528,10 +4528,10 @@
         <v>1647.71</v>
       </c>
       <c r="E87" s="10" t="n">
-        <v>1599.43</v>
+        <v>1532.37</v>
       </c>
       <c r="F87" s="10" t="n">
-        <v>51.74</v>
+        <v>-15.32</v>
       </c>
       <c r="G87" s="11" t="inlineStr">
         <is>
@@ -4575,10 +4575,10 @@
         <v>915.97</v>
       </c>
       <c r="E88" s="10" t="n">
-        <v>1370.57</v>
+        <v>1345.56</v>
       </c>
       <c r="F88" s="10" t="n">
-        <v>132.72</v>
+        <v>107.72</v>
       </c>
       <c r="G88" s="11" t="inlineStr">
         <is>
@@ -4622,10 +4622,10 @@
         <v>528.99</v>
       </c>
       <c r="E89" s="10" t="n">
-        <v>1031.05</v>
+        <v>978.74</v>
       </c>
       <c r="F89" s="10" t="n">
-        <v>79.3</v>
+        <v>26.98</v>
       </c>
       <c r="G89" s="11" t="inlineStr">
         <is>
@@ -4669,10 +4669,10 @@
         <v>451.58</v>
       </c>
       <c r="E90" s="10" t="n">
-        <v>1020.71</v>
+        <v>973.2</v>
       </c>
       <c r="F90" s="10" t="n">
-        <v>53.42</v>
+        <v>5.92</v>
       </c>
       <c r="G90" s="11" t="inlineStr">
         <is>
@@ -4716,10 +4716,10 @@
         <v>426.97</v>
       </c>
       <c r="E91" s="10" t="n">
-        <v>431.54</v>
+        <v>425.26</v>
       </c>
       <c r="F91" s="10" t="n">
-        <v>22.16</v>
+        <v>15.88</v>
       </c>
       <c r="G91" s="11" t="inlineStr">
         <is>
@@ -4763,10 +4763,10 @@
         <v>220.69</v>
       </c>
       <c r="E92" s="10" t="n">
-        <v>265.58</v>
+        <v>254.57</v>
       </c>
       <c r="F92" s="10" t="n">
-        <v>-10.55</v>
+        <v>-21.56</v>
       </c>
       <c r="G92" s="11" t="inlineStr">
         <is>
@@ -4810,10 +4810,10 @@
         <v>227.52</v>
       </c>
       <c r="E93" s="10" t="n">
-        <v>224.04</v>
+        <v>212.05</v>
       </c>
       <c r="F93" s="10" t="n">
-        <v>0.52</v>
+        <v>-11.47</v>
       </c>
       <c r="G93" s="11" t="inlineStr">
         <is>
@@ -4857,10 +4857,10 @@
         <v>142.1</v>
       </c>
       <c r="E94" s="10" t="n">
-        <v>191.27</v>
+        <v>182.88</v>
       </c>
       <c r="F94" s="10" t="n">
-        <v>8.81</v>
+        <v>0.43</v>
       </c>
       <c r="G94" s="11" t="inlineStr">
         <is>
@@ -4904,10 +4904,10 @@
         <v>212.74</v>
       </c>
       <c r="E95" s="10" t="n">
-        <v>180.25</v>
+        <v>189</v>
       </c>
       <c r="F95" s="10" t="n">
-        <v>37.55</v>
+        <v>46.29</v>
       </c>
       <c r="G95" s="11" t="inlineStr">
         <is>
@@ -4951,10 +4951,10 @@
         <v>25.8</v>
       </c>
       <c r="E96" s="10" t="n">
-        <v>35</v>
+        <v>33.4</v>
       </c>
       <c r="F96" s="10" t="n">
-        <v>-2.08</v>
+        <v>-3.68</v>
       </c>
       <c r="G96" s="11" t="inlineStr">
         <is>
@@ -5005,22 +5005,22 @@
       </c>
       <c r="G97" s="11" t="inlineStr">
         <is>
-          <t>现金</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H97" s="11" t="inlineStr">
         <is>
-          <t>低风险理财</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I97" s="11" t="inlineStr">
         <is>
-          <t>货币基金</t>
+          <t>纯债</t>
         </is>
       </c>
       <c r="J97" s="11" t="inlineStr">
         <is>
-          <t>999</t>
+          <t>511</t>
         </is>
       </c>
       <c r="K97" s="11" t="inlineStr">
@@ -5045,10 +5045,10 @@
         <v>78202.03</v>
       </c>
       <c r="E98" s="30" t="n">
-        <v>80962.56</v>
+        <v>80344.77</v>
       </c>
       <c r="F98" s="30" t="n">
-        <v>523.95</v>
+        <v>-93.84</v>
       </c>
       <c r="G98" s="31" t="inlineStr">
         <is>
@@ -5092,10 +5092,10 @@
         <v>132767.68</v>
       </c>
       <c r="E99" s="30" t="n">
-        <v>152682.83</v>
+        <v>153346.67</v>
       </c>
       <c r="F99" s="30" t="n">
-        <v>411.58</v>
+        <v>1075.42</v>
       </c>
       <c r="G99" s="31" t="inlineStr">
         <is>
@@ -5139,10 +5139,10 @@
         <v>11598.58</v>
       </c>
       <c r="E100" s="30" t="n">
-        <v>18847.69</v>
+        <v>18232.97</v>
       </c>
       <c r="F100" s="30" t="n">
-        <v>1847.65</v>
+        <v>1232.93</v>
       </c>
       <c r="G100" s="31" t="inlineStr">
         <is>
@@ -5186,10 +5186,10 @@
         <v>144612.8</v>
       </c>
       <c r="E101" s="30" t="n">
-        <v>155458.76</v>
+        <v>156326.44</v>
       </c>
       <c r="F101" s="30" t="n">
-        <v>1532.9</v>
+        <v>2400.57</v>
       </c>
       <c r="G101" s="31" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>134080.44</v>
       </c>
       <c r="E102" s="30" t="n">
-        <v>144002.39</v>
+        <v>144404.63</v>
       </c>
       <c r="F102" s="30" t="n">
-        <v>884.9299999999999</v>
+        <v>1287.17</v>
       </c>
       <c r="G102" s="31" t="inlineStr">
         <is>
@@ -5280,10 +5280,10 @@
         <v>68092.81</v>
       </c>
       <c r="E103" s="30" t="n">
-        <v>80281.42</v>
+        <v>78647.2</v>
       </c>
       <c r="F103" s="30" t="n">
-        <v>-6.81</v>
+        <v>-1641.04</v>
       </c>
       <c r="G103" s="31" t="inlineStr">
         <is>
@@ -5327,10 +5327,10 @@
         <v>59685.02</v>
       </c>
       <c r="E104" s="30" t="n">
-        <v>75143.44</v>
+        <v>75083.75999999999</v>
       </c>
       <c r="F104" s="30" t="n">
-        <v>901.24</v>
+        <v>841.5599999999999</v>
       </c>
       <c r="G104" s="31" t="inlineStr">
         <is>
@@ -5374,10 +5374,10 @@
         <v>76964.17</v>
       </c>
       <c r="E105" s="30" t="n">
-        <v>100976.99</v>
+        <v>100669.13</v>
       </c>
       <c r="F105" s="30" t="n">
-        <v>1739.39</v>
+        <v>1431.53</v>
       </c>
       <c r="G105" s="31" t="inlineStr">
         <is>
@@ -5421,10 +5421,10 @@
         <v>9697.57</v>
       </c>
       <c r="E106" s="35" t="n">
-        <v>11356.82</v>
+        <v>10849.64</v>
       </c>
       <c r="F106" s="35" t="n">
-        <v>1155.95</v>
+        <v>648.77</v>
       </c>
       <c r="G106" s="36" t="inlineStr">
         <is>
@@ -5468,10 +5468,10 @@
         <v>8677.6</v>
       </c>
       <c r="E107" s="35" t="n">
-        <v>9814.370000000001</v>
+        <v>9259</v>
       </c>
       <c r="F107" s="35" t="n">
-        <v>1013.54</v>
+        <v>458.18</v>
       </c>
       <c r="G107" s="36" t="inlineStr">
         <is>
@@ -5515,10 +5515,10 @@
         <v>6096.21</v>
       </c>
       <c r="E108" s="35" t="n">
-        <v>6161.44</v>
+        <v>6071.83</v>
       </c>
       <c r="F108" s="35" t="n">
-        <v>961.37</v>
+        <v>871.76</v>
       </c>
       <c r="G108" s="36" t="inlineStr">
         <is>
@@ -5562,10 +5562,10 @@
         <v>6750.28</v>
       </c>
       <c r="E109" s="35" t="n">
-        <v>6069.18</v>
+        <v>6295.99</v>
       </c>
       <c r="F109" s="35" t="n">
-        <v>1269.05</v>
+        <v>1495.86</v>
       </c>
       <c r="G109" s="36" t="inlineStr">
         <is>
@@ -5609,10 +5609,10 @@
         <v>2760.12</v>
       </c>
       <c r="E110" s="35" t="n">
-        <v>4612.16</v>
+        <v>4405.15</v>
       </c>
       <c r="F110" s="35" t="n">
-        <v>1012.14</v>
+        <v>805.13</v>
       </c>
       <c r="G110" s="36" t="inlineStr">
         <is>
@@ -5656,10 +5656,10 @@
         <v>4423.48</v>
       </c>
       <c r="E111" s="35" t="n">
-        <v>3860.81</v>
+        <v>3748.01</v>
       </c>
       <c r="F111" s="35" t="n">
-        <v>660.4299999999999</v>
+        <v>547.63</v>
       </c>
       <c r="G111" s="36" t="inlineStr">
         <is>
@@ -5703,10 +5703,10 @@
         <v>5949.77</v>
       </c>
       <c r="E112" s="35" t="n">
-        <v>3666.84</v>
+        <v>3490.73</v>
       </c>
       <c r="F112" s="35" t="n">
-        <v>466.46</v>
+        <v>290.35</v>
       </c>
       <c r="G112" s="36" t="inlineStr">
         <is>
@@ -5750,10 +5750,10 @@
         <v>2046.97</v>
       </c>
       <c r="E113" s="35" t="n">
-        <v>3598.57</v>
+        <v>3443</v>
       </c>
       <c r="F113" s="35" t="n">
-        <v>886.34</v>
+        <v>730.77</v>
       </c>
       <c r="G113" s="36" t="inlineStr">
         <is>
@@ -5797,10 +5797,10 @@
         <v>1981.84</v>
       </c>
       <c r="E114" s="35" t="n">
-        <v>3515.78</v>
+        <v>3493.98</v>
       </c>
       <c r="F114" s="35" t="n">
-        <v>324.63</v>
+        <v>302.83</v>
       </c>
       <c r="G114" s="36" t="inlineStr">
         <is>
@@ -5844,10 +5844,10 @@
         <v>1213.09</v>
       </c>
       <c r="E115" s="35" t="n">
-        <v>2400.22</v>
+        <v>2409.56</v>
       </c>
       <c r="F115" s="35" t="n">
-        <v>800.15</v>
+        <v>809.49</v>
       </c>
       <c r="G115" s="36" t="inlineStr">
         <is>
@@ -5891,10 +5891,10 @@
         <v>1884.74</v>
       </c>
       <c r="E116" s="35" t="n">
-        <v>2276.77</v>
+        <v>2263.57</v>
       </c>
       <c r="F116" s="35" t="n">
-        <v>276.68</v>
+        <v>263.49</v>
       </c>
       <c r="G116" s="36" t="inlineStr">
         <is>
@@ -5938,10 +5938,10 @@
         <v>1407.29</v>
       </c>
       <c r="E117" s="35" t="n">
-        <v>2001.17</v>
+        <v>2013.83</v>
       </c>
       <c r="F117" s="35" t="n">
-        <v>401.08</v>
+        <v>413.74</v>
       </c>
       <c r="G117" s="36" t="inlineStr">
         <is>
@@ -5985,10 +5985,10 @@
         <v>1630.08</v>
       </c>
       <c r="E118" s="35" t="n">
-        <v>1984.3</v>
+        <v>1959.85</v>
       </c>
       <c r="F118" s="35" t="n">
-        <v>384.21</v>
+        <v>359.76</v>
       </c>
       <c r="G118" s="36" t="inlineStr">
         <is>
@@ -6032,10 +6032,10 @@
         <v>1338.46</v>
       </c>
       <c r="E119" s="35" t="n">
-        <v>1341.14</v>
+        <v>1290.28</v>
       </c>
       <c r="F119" s="35" t="n">
-        <v>141.07</v>
+        <v>90.20999999999999</v>
       </c>
       <c r="G119" s="36" t="inlineStr">
         <is>
@@ -6079,10 +6079,10 @@
         <v>1546.42</v>
       </c>
       <c r="E120" s="35" t="n">
-        <v>1300.54</v>
+        <v>1228.01</v>
       </c>
       <c r="F120" s="35" t="n">
-        <v>100.52</v>
+        <v>27.99</v>
       </c>
       <c r="G120" s="36" t="inlineStr">
         <is>
@@ -6126,10 +6126,10 @@
         <v>3350.7</v>
       </c>
       <c r="E121" s="35" t="n">
-        <v>1230.04</v>
+        <v>1124.16</v>
       </c>
       <c r="F121" s="35" t="n">
-        <v>-370.25</v>
+        <v>-476.13</v>
       </c>
       <c r="G121" s="36" t="inlineStr">
         <is>
@@ -6173,10 +6173,10 @@
         <v>900.35</v>
       </c>
       <c r="E122" s="35" t="n">
-        <v>991.47</v>
+        <v>928.4400000000001</v>
       </c>
       <c r="F122" s="35" t="n">
-        <v>191.41</v>
+        <v>128.39</v>
       </c>
       <c r="G122" s="36" t="inlineStr">
         <is>
@@ -6220,10 +6220,10 @@
         <v>733.79</v>
       </c>
       <c r="E123" s="35" t="n">
-        <v>933.38</v>
+        <v>943.4299999999999</v>
       </c>
       <c r="F123" s="35" t="n">
-        <v>133.33</v>
+        <v>143.38</v>
       </c>
       <c r="G123" s="36" t="inlineStr">
         <is>
@@ -6267,10 +6267,10 @@
         <v>496.13</v>
       </c>
       <c r="E124" s="35" t="n">
-        <v>528.28</v>
+        <v>485.51</v>
       </c>
       <c r="F124" s="35" t="n">
-        <v>128.25</v>
+        <v>85.48</v>
       </c>
       <c r="G124" s="36" t="inlineStr">
         <is>
@@ -6314,10 +6314,10 @@
         <v>333.04</v>
       </c>
       <c r="E125" s="35" t="n">
-        <v>480.51</v>
+        <v>473.72</v>
       </c>
       <c r="F125" s="35" t="n">
-        <v>80.5</v>
+        <v>73.7</v>
       </c>
       <c r="G125" s="36" t="inlineStr">
         <is>
@@ -6361,10 +6361,10 @@
         <v>325.61</v>
       </c>
       <c r="E126" s="35" t="n">
-        <v>435.99</v>
+        <v>418.08</v>
       </c>
       <c r="F126" s="35" t="n">
-        <v>35.98</v>
+        <v>18.07</v>
       </c>
       <c r="G126" s="36" t="inlineStr">
         <is>
@@ -6408,10 +6408,10 @@
         <v>206.23</v>
       </c>
       <c r="E127" s="35" t="n">
-        <v>430.59</v>
+        <v>405.24</v>
       </c>
       <c r="F127" s="35" t="n">
-        <v>30.58</v>
+        <v>5.24</v>
       </c>
       <c r="G127" s="36" t="inlineStr">
         <is>
@@ -6455,10 +6455,10 @@
         <v>275.49</v>
       </c>
       <c r="E128" s="35" t="n">
-        <v>423.76</v>
+        <v>413.18</v>
       </c>
       <c r="F128" s="35" t="n">
-        <v>23.75</v>
+        <v>13.17</v>
       </c>
       <c r="G128" s="36" t="inlineStr">
         <is>
@@ -6487,6 +6487,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/scripts/output/202002/全家/全家整体资产配置.xlsx
+++ b/scripts/output/202002/全家/全家整体资产配置.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="资产配置情况" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="000000"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt formatCode="000000" numFmtId="164"/>
+    <numFmt formatCode="0.0000" numFmtId="165"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -87,67 +87,67 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="37">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -448,16 +448,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="9" customWidth="1" min="2" max="2"/>
-    <col width="9" customWidth="1" min="3" max="3"/>
-    <col width="9" customWidth="1" min="4" max="4"/>
-    <col width="9" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="9" customWidth="1" min="7" max="7"/>
-    <col width="11.25" customWidth="1" min="8" max="8"/>
-    <col width="11.25" customWidth="1" min="9" max="9"/>
-    <col width="13.5" customWidth="1" min="11" max="11"/>
+    <col customWidth="1" max="1" min="1" width="30"/>
+    <col customWidth="1" max="2" min="2" width="9"/>
+    <col customWidth="1" max="3" min="3" width="9"/>
+    <col customWidth="1" max="4" min="4" width="9"/>
+    <col customWidth="1" max="5" min="5" width="9"/>
+    <col customWidth="1" max="6" min="6" width="9"/>
+    <col customWidth="1" max="7" min="7" width="9"/>
+    <col customWidth="1" max="8" min="8" width="11.25"/>
+    <col customWidth="1" max="9" min="9" width="11.25"/>
+    <col customWidth="1" max="11" min="11" width="13.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1285,10 +1285,10 @@
         <v>35500</v>
       </c>
       <c r="E18" s="25" t="n">
-        <v>11910.25</v>
+        <v>12851</v>
       </c>
       <c r="F18" s="25" t="n">
-        <v>-869.75</v>
+        <v>71</v>
       </c>
       <c r="G18" s="26" t="inlineStr">
         <is>
@@ -1332,10 +1332,10 @@
         <v>2700</v>
       </c>
       <c r="E19" s="25" t="n">
-        <v>7573.5</v>
+        <v>7562.7</v>
       </c>
       <c r="F19" s="25" t="n">
-        <v>1263.6</v>
+        <v>1252.8</v>
       </c>
       <c r="G19" s="26" t="inlineStr">
         <is>
@@ -1379,10 +1379,10 @@
         <v>9100</v>
       </c>
       <c r="E20" s="25" t="n">
-        <v>34774.74</v>
+        <v>34643.7</v>
       </c>
       <c r="F20" s="25" t="n">
-        <v>3407.04</v>
+        <v>3276</v>
       </c>
       <c r="G20" s="26" t="inlineStr">
         <is>
@@ -1426,10 +1426,10 @@
         <v>38800</v>
       </c>
       <c r="E21" s="25" t="n">
-        <v>215200.32</v>
+        <v>215184.8</v>
       </c>
       <c r="F21" s="25" t="n">
-        <v>-2118.48</v>
+        <v>-2134</v>
       </c>
       <c r="G21" s="26" t="inlineStr">
         <is>
@@ -1473,10 +1473,10 @@
         <v>33800</v>
       </c>
       <c r="E22" s="25" t="n">
-        <v>26478.92</v>
+        <v>26533</v>
       </c>
       <c r="F22" s="25" t="n">
-        <v>-3163.68</v>
+        <v>-3109.6</v>
       </c>
       <c r="G22" s="26" t="inlineStr">
         <is>
@@ -1520,10 +1520,10 @@
         <v>32700</v>
       </c>
       <c r="E23" s="25" t="n">
-        <v>29541.18</v>
+        <v>29593.5</v>
       </c>
       <c r="F23" s="25" t="n">
-        <v>3937.08</v>
+        <v>3989.4</v>
       </c>
       <c r="G23" s="26" t="inlineStr">
         <is>
@@ -1567,10 +1567,10 @@
         <v>34100</v>
       </c>
       <c r="E24" s="25" t="n">
-        <v>29022.51</v>
+        <v>28950.9</v>
       </c>
       <c r="F24" s="25" t="n">
-        <v>-610.39</v>
+        <v>-682</v>
       </c>
       <c r="G24" s="26" t="inlineStr">
         <is>
@@ -1614,10 +1614,10 @@
         <v>4500</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>15617.25</v>
+        <v>15610.5</v>
       </c>
       <c r="F25" s="25" t="n">
-        <v>2765.25</v>
+        <v>2758.5</v>
       </c>
       <c r="G25" s="26" t="inlineStr">
         <is>
@@ -1661,10 +1661,10 @@
         <v>9200</v>
       </c>
       <c r="E26" s="25" t="n">
-        <v>17155.24</v>
+        <v>17213.2</v>
       </c>
       <c r="F26" s="25" t="n">
-        <v>4284.44</v>
+        <v>4342.4</v>
       </c>
       <c r="G26" s="26" t="inlineStr">
         <is>
@@ -1708,10 +1708,10 @@
         <v>14400</v>
       </c>
       <c r="E27" s="25" t="n">
-        <v>21690.72</v>
+        <v>21686.4</v>
       </c>
       <c r="F27" s="25" t="n">
-        <v>3388.32</v>
+        <v>3384</v>
       </c>
       <c r="G27" s="26" t="inlineStr">
         <is>
@@ -2225,10 +2225,10 @@
         <v>5299.96</v>
       </c>
       <c r="E38" s="30" t="n">
-        <v>1778.14</v>
+        <v>1918.59</v>
       </c>
       <c r="F38" s="30" t="n">
-        <v>-222.6</v>
+        <v>-82.15000000000001</v>
       </c>
       <c r="G38" s="31" t="inlineStr">
         <is>
@@ -2789,10 +2789,10 @@
         <v>4757.9</v>
       </c>
       <c r="E50" s="30" t="n">
-        <v>1596.28</v>
+        <v>1722.36</v>
       </c>
       <c r="F50" s="30" t="n">
-        <v>-403.95</v>
+        <v>-277.86</v>
       </c>
       <c r="G50" s="31" t="inlineStr">
         <is>
@@ -3400,10 +3400,10 @@
         <v>37267.45</v>
       </c>
       <c r="E63" s="35" t="n">
-        <v>12503.23</v>
+        <v>13490.82</v>
       </c>
       <c r="F63" s="35" t="n">
-        <v>-6696.96</v>
+        <v>-5709.37</v>
       </c>
       <c r="G63" s="36" t="inlineStr">
         <is>
@@ -6126,10 +6126,10 @@
         <v>3350.7</v>
       </c>
       <c r="E121" s="35" t="n">
-        <v>1124.16</v>
+        <v>1212.95</v>
       </c>
       <c r="F121" s="35" t="n">
-        <v>-476.13</v>
+        <v>-387.34</v>
       </c>
       <c r="G121" s="36" t="inlineStr">
         <is>
@@ -6487,6 +6487,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/scripts/output/202002/全家/全家整体资产配置.xlsx
+++ b/scripts/output/202002/全家/全家整体资产配置.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K128"/>
+  <dimension ref="A1:K129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1319,23 +1319,23 @@
     <row r="19">
       <c r="A19" s="22" t="inlineStr">
         <is>
-          <t>50ETF</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="B19" s="23" t="n">
-        <v>510050</v>
+        <v>515180</v>
       </c>
       <c r="C19" s="24" t="n">
-        <v>2.337</v>
+        <v>0.906</v>
       </c>
       <c r="D19" s="25" t="n">
         <v>2700</v>
       </c>
       <c r="E19" s="25" t="n">
-        <v>7562.7</v>
+        <v>2538</v>
       </c>
       <c r="F19" s="25" t="n">
-        <v>1252.8</v>
+        <v>91.8</v>
       </c>
       <c r="G19" s="26" t="inlineStr">
         <is>
@@ -1344,45 +1344,45 @@
       </c>
       <c r="H19" s="26" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I19" s="26" t="inlineStr">
         <is>
-          <t>上证50</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J19" s="26" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K19" s="26" t="inlineStr">
         <is>
-          <t>华泰证券</t>
+          <t>华宝证券</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="22" t="inlineStr">
         <is>
-          <t>300ETF</t>
+          <t>50ETF</t>
         </is>
       </c>
       <c r="B20" s="23" t="n">
-        <v>510300</v>
+        <v>510050</v>
       </c>
       <c r="C20" s="24" t="n">
-        <v>3.447</v>
+        <v>2.337</v>
       </c>
       <c r="D20" s="25" t="n">
-        <v>9100</v>
+        <v>2700</v>
       </c>
       <c r="E20" s="25" t="n">
-        <v>34643.7</v>
+        <v>7562.7</v>
       </c>
       <c r="F20" s="25" t="n">
-        <v>3276</v>
+        <v>1252.8</v>
       </c>
       <c r="G20" s="26" t="inlineStr">
         <is>
@@ -1396,12 +1396,12 @@
       </c>
       <c r="I20" s="26" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>上证50</t>
         </is>
       </c>
       <c r="J20" s="26" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>111</t>
         </is>
       </c>
       <c r="K20" s="26" t="inlineStr">
@@ -1413,23 +1413,23 @@
     <row r="21">
       <c r="A21" s="22" t="inlineStr">
         <is>
-          <t>500ETF</t>
+          <t>300ETF</t>
         </is>
       </c>
       <c r="B21" s="23" t="n">
-        <v>510500</v>
+        <v>510300</v>
       </c>
       <c r="C21" s="24" t="n">
-        <v>5.601</v>
+        <v>3.447</v>
       </c>
       <c r="D21" s="25" t="n">
-        <v>38800</v>
+        <v>9100</v>
       </c>
       <c r="E21" s="25" t="n">
-        <v>215184.8</v>
+        <v>34643.7</v>
       </c>
       <c r="F21" s="25" t="n">
-        <v>-2134</v>
+        <v>3276</v>
       </c>
       <c r="G21" s="26" t="inlineStr">
         <is>
@@ -1438,17 +1438,17 @@
       </c>
       <c r="H21" s="26" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I21" s="26" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>沪深300</t>
         </is>
       </c>
       <c r="J21" s="26" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>113</t>
         </is>
       </c>
       <c r="K21" s="26" t="inlineStr">
@@ -1460,23 +1460,23 @@
     <row r="22">
       <c r="A22" s="22" t="inlineStr">
         <is>
-          <t>环保ETF</t>
+          <t>500ETF</t>
         </is>
       </c>
       <c r="B22" s="23" t="n">
-        <v>512580</v>
+        <v>510500</v>
       </c>
       <c r="C22" s="24" t="n">
-        <v>0.877</v>
+        <v>5.601</v>
       </c>
       <c r="D22" s="25" t="n">
-        <v>33800</v>
+        <v>38800</v>
       </c>
       <c r="E22" s="25" t="n">
-        <v>26533</v>
+        <v>215184.8</v>
       </c>
       <c r="F22" s="25" t="n">
-        <v>-3109.6</v>
+        <v>-2134</v>
       </c>
       <c r="G22" s="26" t="inlineStr">
         <is>
@@ -1485,17 +1485,17 @@
       </c>
       <c r="H22" s="26" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I22" s="26" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J22" s="26" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K22" s="26" t="inlineStr">
@@ -1507,23 +1507,23 @@
     <row r="23">
       <c r="A23" s="22" t="inlineStr">
         <is>
-          <t>证券ETF</t>
+          <t>环保ETF</t>
         </is>
       </c>
       <c r="B23" s="23" t="n">
-        <v>512880</v>
+        <v>512580</v>
       </c>
       <c r="C23" s="24" t="n">
-        <v>0.783</v>
+        <v>0.877</v>
       </c>
       <c r="D23" s="25" t="n">
-        <v>32700</v>
+        <v>33800</v>
       </c>
       <c r="E23" s="25" t="n">
-        <v>29593.5</v>
+        <v>26533</v>
       </c>
       <c r="F23" s="25" t="n">
-        <v>3989.4</v>
+        <v>-3109.6</v>
       </c>
       <c r="G23" s="26" t="inlineStr">
         <is>
@@ -1537,12 +1537,12 @@
       </c>
       <c r="I23" s="26" t="inlineStr">
         <is>
-          <t>证券公司</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="J23" s="26" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>143</t>
         </is>
       </c>
       <c r="K23" s="26" t="inlineStr">
@@ -1554,23 +1554,23 @@
     <row r="24">
       <c r="A24" s="22" t="inlineStr">
         <is>
-          <t>传媒ETF</t>
+          <t>证券ETF</t>
         </is>
       </c>
       <c r="B24" s="23" t="n">
-        <v>512980</v>
+        <v>512880</v>
       </c>
       <c r="C24" s="24" t="n">
-        <v>0.869</v>
+        <v>0.783</v>
       </c>
       <c r="D24" s="25" t="n">
-        <v>34100</v>
+        <v>32700</v>
       </c>
       <c r="E24" s="25" t="n">
-        <v>28950.9</v>
+        <v>29593.5</v>
       </c>
       <c r="F24" s="25" t="n">
-        <v>-682</v>
+        <v>3989.4</v>
       </c>
       <c r="G24" s="26" t="inlineStr">
         <is>
@@ -1584,12 +1584,12 @@
       </c>
       <c r="I24" s="26" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>证券公司</t>
         </is>
       </c>
       <c r="J24" s="26" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>145</t>
         </is>
       </c>
       <c r="K24" s="26" t="inlineStr">
@@ -1601,42 +1601,42 @@
     <row r="25">
       <c r="A25" s="22" t="inlineStr">
         <is>
-          <t>黄金ETF</t>
+          <t>传媒ETF</t>
         </is>
       </c>
       <c r="B25" s="23" t="n">
-        <v>518880</v>
+        <v>512980</v>
       </c>
       <c r="C25" s="24" t="n">
-        <v>2.856</v>
+        <v>0.869</v>
       </c>
       <c r="D25" s="25" t="n">
-        <v>4500</v>
+        <v>34100</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>15610.5</v>
+        <v>28950.9</v>
       </c>
       <c r="F25" s="25" t="n">
-        <v>2758.5</v>
+        <v>-682</v>
       </c>
       <c r="G25" s="26" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H25" s="26" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I25" s="26" t="inlineStr">
         <is>
-          <t>黄金</t>
+          <t>中证传媒</t>
         </is>
       </c>
       <c r="J25" s="26" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>144</t>
         </is>
       </c>
       <c r="K25" s="26" t="inlineStr">
@@ -1648,42 +1648,42 @@
     <row r="26">
       <c r="A26" s="22" t="inlineStr">
         <is>
-          <t>创业板</t>
+          <t>黄金ETF</t>
         </is>
       </c>
       <c r="B26" s="23" t="n">
-        <v>159915</v>
+        <v>518880</v>
       </c>
       <c r="C26" s="24" t="n">
-        <v>1.399</v>
+        <v>2.856</v>
       </c>
       <c r="D26" s="25" t="n">
-        <v>9200</v>
+        <v>4500</v>
       </c>
       <c r="E26" s="25" t="n">
-        <v>17213.2</v>
+        <v>15610.5</v>
       </c>
       <c r="F26" s="25" t="n">
-        <v>4342.4</v>
+        <v>2758.5</v>
       </c>
       <c r="G26" s="26" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="H26" s="26" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="I26" s="26" t="inlineStr">
         <is>
-          <t>创业板</t>
+          <t>黄金</t>
         </is>
       </c>
       <c r="J26" s="26" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>611</t>
         </is>
       </c>
       <c r="K26" s="26" t="inlineStr">
@@ -1695,117 +1695,117 @@
     <row r="27">
       <c r="A27" s="22" t="inlineStr">
         <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="B27" s="23" t="n">
+        <v>159915</v>
+      </c>
+      <c r="C27" s="24" t="n">
+        <v>1.399</v>
+      </c>
+      <c r="D27" s="25" t="n">
+        <v>9200</v>
+      </c>
+      <c r="E27" s="25" t="n">
+        <v>17213.2</v>
+      </c>
+      <c r="F27" s="25" t="n">
+        <v>4342.4</v>
+      </c>
+      <c r="G27" s="26" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H27" s="26" t="inlineStr">
+        <is>
+          <t>中小盘股</t>
+        </is>
+      </c>
+      <c r="I27" s="26" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="J27" s="26" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="K27" s="26" t="inlineStr">
+        <is>
+          <t>华泰证券</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="22" t="inlineStr">
+        <is>
           <t>广发医药</t>
         </is>
       </c>
-      <c r="B27" s="23" t="n">
+      <c r="B28" s="23" t="n">
         <v>159938</v>
       </c>
-      <c r="C27" s="24" t="n">
+      <c r="C28" s="24" t="n">
         <v>1.271</v>
       </c>
-      <c r="D27" s="25" t="n">
+      <c r="D28" s="25" t="n">
         <v>14400</v>
       </c>
-      <c r="E27" s="25" t="n">
+      <c r="E28" s="25" t="n">
         <v>21686.4</v>
       </c>
-      <c r="F27" s="25" t="n">
+      <c r="F28" s="25" t="n">
         <v>3384</v>
       </c>
-      <c r="G27" s="26" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H27" s="26" t="inlineStr">
+      <c r="G28" s="26" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H28" s="26" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="I27" s="26" t="inlineStr">
+      <c r="I28" s="26" t="inlineStr">
         <is>
           <t>全指医药</t>
         </is>
       </c>
-      <c r="J27" s="26" t="inlineStr">
+      <c r="J28" s="26" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="K27" s="26" t="inlineStr">
+      <c r="K28" s="26" t="inlineStr">
         <is>
           <t>华泰证券</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="27" t="inlineStr">
-        <is>
-          <t>建信中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="B28" s="28" t="n">
-        <v>478</v>
-      </c>
-      <c r="C28" s="29" t="n">
-        <v>1.9252</v>
-      </c>
-      <c r="D28" s="30" t="n">
-        <v>4157.52</v>
-      </c>
-      <c r="E28" s="30" t="n">
-        <v>8169.53</v>
-      </c>
-      <c r="F28" s="30" t="n">
-        <v>165.47</v>
-      </c>
-      <c r="G28" s="31" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H28" s="31" t="inlineStr">
-        <is>
-          <t>中小盘股</t>
-        </is>
-      </c>
-      <c r="I28" s="31" t="inlineStr">
-        <is>
-          <t>中证500</t>
-        </is>
-      </c>
-      <c r="J28" s="31" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="K28" s="31" t="inlineStr">
-        <is>
-          <t>且慢 150 份</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="27" t="inlineStr">
         <is>
-          <t>广发中证环保ETF联接A</t>
+          <t>建信中证500指数增强A</t>
         </is>
       </c>
       <c r="B29" s="28" t="n">
-        <v>1064</v>
+        <v>478</v>
       </c>
       <c r="C29" s="29" t="n">
-        <v>0.5489000000000001</v>
+        <v>1.9252</v>
       </c>
       <c r="D29" s="30" t="n">
-        <v>9722</v>
+        <v>4157.52</v>
       </c>
       <c r="E29" s="30" t="n">
-        <v>5703.9</v>
+        <v>8169.53</v>
       </c>
       <c r="F29" s="30" t="n">
-        <v>367.49</v>
+        <v>165.47</v>
       </c>
       <c r="G29" s="31" t="inlineStr">
         <is>
@@ -1814,17 +1814,17 @@
       </c>
       <c r="H29" s="31" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I29" s="31" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J29" s="31" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K29" s="31" t="inlineStr">
@@ -1836,23 +1836,23 @@
     <row r="30">
       <c r="A30" s="27" t="inlineStr">
         <is>
-          <t>广发养老指数A</t>
+          <t>广发中证环保ETF联接A</t>
         </is>
       </c>
       <c r="B30" s="28" t="n">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="C30" s="29" t="n">
-        <v>0.9444</v>
+        <v>0.5489000000000001</v>
       </c>
       <c r="D30" s="30" t="n">
-        <v>4943.96</v>
+        <v>9722</v>
       </c>
       <c r="E30" s="30" t="n">
-        <v>4924.18</v>
+        <v>5703.9</v>
       </c>
       <c r="F30" s="30" t="n">
-        <v>255.11</v>
+        <v>367.49</v>
       </c>
       <c r="G30" s="31" t="inlineStr">
         <is>
@@ -1866,12 +1866,12 @@
       </c>
       <c r="I30" s="31" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="J30" s="31" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>143</t>
         </is>
       </c>
       <c r="K30" s="31" t="inlineStr">
@@ -1883,23 +1883,23 @@
     <row r="31">
       <c r="A31" s="27" t="inlineStr">
         <is>
-          <t>华夏中证500ETF联接A</t>
+          <t>广发养老指数A</t>
         </is>
       </c>
       <c r="B31" s="28" t="n">
-        <v>1052</v>
+        <v>968</v>
       </c>
       <c r="C31" s="29" t="n">
-        <v>0.5423</v>
+        <v>0.9444</v>
       </c>
       <c r="D31" s="30" t="n">
-        <v>7379.54</v>
+        <v>4943.96</v>
       </c>
       <c r="E31" s="30" t="n">
-        <v>4184.2</v>
+        <v>4924.18</v>
       </c>
       <c r="F31" s="30" t="n">
-        <v>182.27</v>
+        <v>255.11</v>
       </c>
       <c r="G31" s="31" t="inlineStr">
         <is>
@@ -1908,17 +1908,17 @@
       </c>
       <c r="H31" s="31" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I31" s="31" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="J31" s="31" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K31" s="31" t="inlineStr">
@@ -1930,23 +1930,23 @@
     <row r="32">
       <c r="A32" s="27" t="inlineStr">
         <is>
-          <t>富国中证红利指数增强</t>
+          <t>华夏中证500ETF联接A</t>
         </is>
       </c>
       <c r="B32" s="28" t="n">
-        <v>100032</v>
+        <v>1052</v>
       </c>
       <c r="C32" s="29" t="n">
-        <v>1.0919</v>
+        <v>0.5423</v>
       </c>
       <c r="D32" s="30" t="n">
-        <v>3665.01</v>
+        <v>7379.54</v>
       </c>
       <c r="E32" s="30" t="n">
-        <v>3910.57</v>
+        <v>4184.2</v>
       </c>
       <c r="F32" s="30" t="n">
-        <v>-91.26000000000001</v>
+        <v>182.27</v>
       </c>
       <c r="G32" s="31" t="inlineStr">
         <is>
@@ -1955,17 +1955,17 @@
       </c>
       <c r="H32" s="31" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I32" s="31" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J32" s="31" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K32" s="31" t="inlineStr">
@@ -1977,23 +1977,23 @@
     <row r="33">
       <c r="A33" s="27" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF联接A</t>
+          <t>富国中证红利指数增强</t>
         </is>
       </c>
       <c r="B33" s="28" t="n">
-        <v>4752</v>
+        <v>100032</v>
       </c>
       <c r="C33" s="29" t="n">
-        <v>0.7329</v>
+        <v>1.0919</v>
       </c>
       <c r="D33" s="30" t="n">
-        <v>4550.55</v>
+        <v>3665.01</v>
       </c>
       <c r="E33" s="30" t="n">
-        <v>3855.68</v>
+        <v>3910.57</v>
       </c>
       <c r="F33" s="30" t="n">
-        <v>520.58</v>
+        <v>-91.26000000000001</v>
       </c>
       <c r="G33" s="31" t="inlineStr">
         <is>
@@ -2002,17 +2002,17 @@
       </c>
       <c r="H33" s="31" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I33" s="31" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J33" s="31" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K33" s="31" t="inlineStr">
@@ -2024,23 +2024,23 @@
     <row r="34">
       <c r="A34" s="27" t="inlineStr">
         <is>
-          <t>易方达创业板ETF联接A</t>
+          <t>广发中证传媒ETF联接A</t>
         </is>
       </c>
       <c r="B34" s="28" t="n">
-        <v>110026</v>
+        <v>4752</v>
       </c>
       <c r="C34" s="29" t="n">
-        <v>1.6649</v>
+        <v>0.7329</v>
       </c>
       <c r="D34" s="30" t="n">
-        <v>400.63</v>
+        <v>4550.55</v>
       </c>
       <c r="E34" s="30" t="n">
-        <v>795.77</v>
+        <v>3855.68</v>
       </c>
       <c r="F34" s="30" t="n">
-        <v>128.76</v>
+        <v>520.58</v>
       </c>
       <c r="G34" s="31" t="inlineStr">
         <is>
@@ -2049,17 +2049,17 @@
       </c>
       <c r="H34" s="31" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I34" s="31" t="inlineStr">
         <is>
-          <t>创业板</t>
+          <t>中证传媒</t>
         </is>
       </c>
       <c r="J34" s="31" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>144</t>
         </is>
       </c>
       <c r="K34" s="31" t="inlineStr">
@@ -2071,23 +2071,23 @@
     <row r="35">
       <c r="A35" s="27" t="inlineStr">
         <is>
-          <t>广发创业板ETF联接A</t>
+          <t>易方达创业板ETF联接A</t>
         </is>
       </c>
       <c r="B35" s="28" t="n">
-        <v>3765</v>
+        <v>110026</v>
       </c>
       <c r="C35" s="29" t="n">
-        <v>0.9059</v>
+        <v>1.6649</v>
       </c>
       <c r="D35" s="30" t="n">
-        <v>736.3</v>
+        <v>400.63</v>
       </c>
       <c r="E35" s="30" t="n">
-        <v>791.38</v>
+        <v>795.77</v>
       </c>
       <c r="F35" s="30" t="n">
-        <v>124.36</v>
+        <v>128.76</v>
       </c>
       <c r="G35" s="31" t="inlineStr">
         <is>
@@ -2118,23 +2118,23 @@
     <row r="36">
       <c r="A36" s="27" t="inlineStr">
         <is>
-          <t>广发医药卫生联接A</t>
+          <t>广发创业板ETF联接A</t>
         </is>
       </c>
       <c r="B36" s="28" t="n">
-        <v>1180</v>
+        <v>3765</v>
       </c>
       <c r="C36" s="29" t="n">
-        <v>0.8242</v>
+        <v>0.9059</v>
       </c>
       <c r="D36" s="30" t="n">
-        <v>809.28</v>
+        <v>736.3</v>
       </c>
       <c r="E36" s="30" t="n">
-        <v>754.8200000000001</v>
+        <v>791.38</v>
       </c>
       <c r="F36" s="30" t="n">
-        <v>87.81</v>
+        <v>124.36</v>
       </c>
       <c r="G36" s="31" t="inlineStr">
         <is>
@@ -2143,17 +2143,17 @@
       </c>
       <c r="H36" s="31" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I36" s="31" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>创业板</t>
         </is>
       </c>
       <c r="J36" s="31" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>124</t>
         </is>
       </c>
       <c r="K36" s="31" t="inlineStr">
@@ -2165,23 +2165,23 @@
     <row r="37">
       <c r="A37" s="27" t="inlineStr">
         <is>
-          <t>易方达证券公司分级</t>
+          <t>广发医药卫生联接A</t>
         </is>
       </c>
       <c r="B37" s="28" t="n">
-        <v>502010</v>
+        <v>1180</v>
       </c>
       <c r="C37" s="29" t="n">
-        <v>0.9853</v>
+        <v>0.8242</v>
       </c>
       <c r="D37" s="30" t="n">
-        <v>473.85</v>
+        <v>809.28</v>
       </c>
       <c r="E37" s="30" t="n">
-        <v>463.71</v>
+        <v>754.8200000000001</v>
       </c>
       <c r="F37" s="30" t="n">
-        <v>-3.17</v>
+        <v>87.81</v>
       </c>
       <c r="G37" s="31" t="inlineStr">
         <is>
@@ -2195,12 +2195,12 @@
       </c>
       <c r="I37" s="31" t="inlineStr">
         <is>
-          <t>证券公司</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="J37" s="31" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K37" s="31" t="inlineStr">
@@ -2212,42 +2212,42 @@
     <row r="38">
       <c r="A38" s="27" t="inlineStr">
         <is>
-          <t>华宝标普石油指数A</t>
+          <t>易方达证券公司分级</t>
         </is>
       </c>
       <c r="B38" s="28" t="n">
-        <v>162411</v>
+        <v>502010</v>
       </c>
       <c r="C38" s="29" t="n">
-        <v>0.3775</v>
+        <v>0.9853</v>
       </c>
       <c r="D38" s="30" t="n">
-        <v>5299.96</v>
+        <v>473.85</v>
       </c>
       <c r="E38" s="30" t="n">
-        <v>1918.59</v>
+        <v>463.71</v>
       </c>
       <c r="F38" s="30" t="n">
-        <v>-82.15000000000001</v>
+        <v>-3.17</v>
       </c>
       <c r="G38" s="31" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H38" s="31" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I38" s="31" t="inlineStr">
         <is>
-          <t>原油</t>
+          <t>证券公司</t>
         </is>
       </c>
       <c r="J38" s="31" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>145</t>
         </is>
       </c>
       <c r="K38" s="31" t="inlineStr">
@@ -2259,42 +2259,42 @@
     <row r="39">
       <c r="A39" s="27" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>华宝标普石油指数A</t>
         </is>
       </c>
       <c r="B39" s="28" t="n">
-        <v>164906</v>
+        <v>162411</v>
       </c>
       <c r="C39" s="29" t="n">
-        <v>1.1564</v>
+        <v>0.3775</v>
       </c>
       <c r="D39" s="30" t="n">
-        <v>576.8</v>
+        <v>5299.96</v>
       </c>
       <c r="E39" s="30" t="n">
-        <v>825.4</v>
+        <v>1918.59</v>
       </c>
       <c r="F39" s="30" t="n">
-        <v>158.39</v>
+        <v>-82.15000000000001</v>
       </c>
       <c r="G39" s="31" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="H39" s="31" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="I39" s="31" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>原油</t>
         </is>
       </c>
       <c r="J39" s="31" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>613</t>
         </is>
       </c>
       <c r="K39" s="31" t="inlineStr">
@@ -2306,23 +2306,23 @@
     <row r="40">
       <c r="A40" s="27" t="inlineStr">
         <is>
-          <t>华夏恒生ETF联接A</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B40" s="28" t="n">
-        <v>71</v>
+        <v>164906</v>
       </c>
       <c r="C40" s="29" t="n">
-        <v>1.451</v>
+        <v>1.1564</v>
       </c>
       <c r="D40" s="30" t="n">
-        <v>459.67</v>
+        <v>576.8</v>
       </c>
       <c r="E40" s="30" t="n">
-        <v>689.41</v>
+        <v>825.4</v>
       </c>
       <c r="F40" s="30" t="n">
-        <v>22.43</v>
+        <v>158.39</v>
       </c>
       <c r="G40" s="31" t="inlineStr">
         <is>
@@ -2331,17 +2331,17 @@
       </c>
       <c r="H40" s="31" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="I40" s="31" t="inlineStr">
         <is>
-          <t>恒生</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="J40" s="31" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>221</t>
         </is>
       </c>
       <c r="K40" s="31" t="inlineStr">
@@ -2353,42 +2353,42 @@
     <row r="41">
       <c r="A41" s="27" t="inlineStr">
         <is>
-          <t>华安德国30(DAX)联接</t>
+          <t>华夏恒生ETF联接A</t>
         </is>
       </c>
       <c r="B41" s="28" t="n">
-        <v>614</v>
+        <v>71</v>
       </c>
       <c r="C41" s="29" t="n">
-        <v>1.0903</v>
+        <v>1.451</v>
       </c>
       <c r="D41" s="30" t="n">
-        <v>611.75</v>
+        <v>459.67</v>
       </c>
       <c r="E41" s="30" t="n">
-        <v>734.71</v>
+        <v>689.41</v>
       </c>
       <c r="F41" s="30" t="n">
-        <v>67.72</v>
+        <v>22.43</v>
       </c>
       <c r="G41" s="31" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H41" s="31" t="inlineStr">
         <is>
-          <t>德国</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I41" s="31" t="inlineStr">
         <is>
-          <t>德国30</t>
+          <t>恒生</t>
         </is>
       </c>
       <c r="J41" s="31" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>211</t>
         </is>
       </c>
       <c r="K41" s="31" t="inlineStr">
@@ -2400,70 +2400,70 @@
     <row r="42">
       <c r="A42" s="27" t="inlineStr">
         <is>
-          <t>建信中证500指数增强A</t>
+          <t>华安德国30(DAX)联接</t>
         </is>
       </c>
       <c r="B42" s="28" t="n">
-        <v>478</v>
+        <v>614</v>
       </c>
       <c r="C42" s="29" t="n">
-        <v>1.9107</v>
+        <v>1.0903</v>
       </c>
       <c r="D42" s="30" t="n">
-        <v>1046.73</v>
+        <v>611.75</v>
       </c>
       <c r="E42" s="30" t="n">
-        <v>2056.82</v>
+        <v>734.71</v>
       </c>
       <c r="F42" s="30" t="n">
-        <v>56.84</v>
+        <v>67.72</v>
       </c>
       <c r="G42" s="31" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="H42" s="31" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>德国</t>
         </is>
       </c>
       <c r="I42" s="31" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>德国30</t>
         </is>
       </c>
       <c r="J42" s="31" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>321</t>
         </is>
       </c>
       <c r="K42" s="31" t="inlineStr">
         <is>
-          <t>且慢 S 定投</t>
+          <t>且慢 150 份</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="27" t="inlineStr">
         <is>
-          <t>富国中证红利指数增强</t>
+          <t>建信中证500指数增强A</t>
         </is>
       </c>
       <c r="B43" s="28" t="n">
-        <v>100032</v>
+        <v>478</v>
       </c>
       <c r="C43" s="29" t="n">
-        <v>1.0954</v>
+        <v>1.9107</v>
       </c>
       <c r="D43" s="30" t="n">
-        <v>1825.9</v>
+        <v>1046.73</v>
       </c>
       <c r="E43" s="30" t="n">
-        <v>1948.24</v>
+        <v>2056.82</v>
       </c>
       <c r="F43" s="30" t="n">
-        <v>-51.86</v>
+        <v>56.84</v>
       </c>
       <c r="G43" s="31" t="inlineStr">
         <is>
@@ -2472,17 +2472,17 @@
       </c>
       <c r="H43" s="31" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I43" s="31" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J43" s="31" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K43" s="31" t="inlineStr">
@@ -2494,23 +2494,23 @@
     <row r="44">
       <c r="A44" s="27" t="inlineStr">
         <is>
-          <t>华夏中证500ETF联接A</t>
+          <t>富国中证红利指数增强</t>
         </is>
       </c>
       <c r="B44" s="28" t="n">
-        <v>1052</v>
+        <v>100032</v>
       </c>
       <c r="C44" s="29" t="n">
-        <v>0.5517</v>
+        <v>1.0954</v>
       </c>
       <c r="D44" s="30" t="n">
-        <v>1812.7</v>
+        <v>1825.9</v>
       </c>
       <c r="E44" s="30" t="n">
-        <v>1027.8</v>
+        <v>1948.24</v>
       </c>
       <c r="F44" s="30" t="n">
-        <v>27.73</v>
+        <v>-51.86</v>
       </c>
       <c r="G44" s="31" t="inlineStr">
         <is>
@@ -2519,17 +2519,17 @@
       </c>
       <c r="H44" s="31" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I44" s="31" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J44" s="31" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K44" s="31" t="inlineStr">
@@ -2541,23 +2541,23 @@
     <row r="45">
       <c r="A45" s="27" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF联接A</t>
+          <t>华夏中证500ETF联接A</t>
         </is>
       </c>
       <c r="B45" s="28" t="n">
-        <v>4752</v>
+        <v>1052</v>
       </c>
       <c r="C45" s="29" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.5517</v>
       </c>
       <c r="D45" s="30" t="n">
-        <v>1227.03</v>
+        <v>1812.7</v>
       </c>
       <c r="E45" s="30" t="n">
-        <v>1039.66</v>
+        <v>1027.8</v>
       </c>
       <c r="F45" s="30" t="n">
-        <v>39.63</v>
+        <v>27.73</v>
       </c>
       <c r="G45" s="31" t="inlineStr">
         <is>
@@ -2566,17 +2566,17 @@
       </c>
       <c r="H45" s="31" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I45" s="31" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J45" s="31" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K45" s="31" t="inlineStr">
@@ -2588,23 +2588,23 @@
     <row r="46">
       <c r="A46" s="27" t="inlineStr">
         <is>
-          <t>华夏上证50ETF联接A</t>
+          <t>广发中证传媒ETF联接A</t>
         </is>
       </c>
       <c r="B46" s="28" t="n">
-        <v>1051</v>
+        <v>4752</v>
       </c>
       <c r="C46" s="29" t="n">
-        <v>0.9441000000000001</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="D46" s="30" t="n">
-        <v>1059.17</v>
+        <v>1227.03</v>
       </c>
       <c r="E46" s="30" t="n">
-        <v>1021.04</v>
+        <v>1039.66</v>
       </c>
       <c r="F46" s="30" t="n">
-        <v>21.08</v>
+        <v>39.63</v>
       </c>
       <c r="G46" s="31" t="inlineStr">
         <is>
@@ -2613,17 +2613,17 @@
       </c>
       <c r="H46" s="31" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I46" s="31" t="inlineStr">
         <is>
-          <t>上证50</t>
+          <t>中证传媒</t>
         </is>
       </c>
       <c r="J46" s="31" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>144</t>
         </is>
       </c>
       <c r="K46" s="31" t="inlineStr">
@@ -2635,42 +2635,42 @@
     <row r="47">
       <c r="A47" s="27" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>华夏上证50ETF联接A</t>
         </is>
       </c>
       <c r="B47" s="28" t="n">
-        <v>164906</v>
+        <v>1051</v>
       </c>
       <c r="C47" s="29" t="n">
-        <v>1.1113</v>
+        <v>0.9441000000000001</v>
       </c>
       <c r="D47" s="30" t="n">
-        <v>899.8200000000001</v>
+        <v>1059.17</v>
       </c>
       <c r="E47" s="30" t="n">
-        <v>1287.64</v>
+        <v>1021.04</v>
       </c>
       <c r="F47" s="30" t="n">
-        <v>287.67</v>
+        <v>21.08</v>
       </c>
       <c r="G47" s="31" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H47" s="31" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I47" s="31" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>上证50</t>
         </is>
       </c>
       <c r="J47" s="31" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>111</t>
         </is>
       </c>
       <c r="K47" s="31" t="inlineStr">
@@ -2682,23 +2682,23 @@
     <row r="48">
       <c r="A48" s="27" t="inlineStr">
         <is>
-          <t>华夏恒生ETF联接A</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B48" s="28" t="n">
-        <v>71</v>
+        <v>164906</v>
       </c>
       <c r="C48" s="29" t="n">
-        <v>1.4513</v>
+        <v>1.1113</v>
       </c>
       <c r="D48" s="30" t="n">
-        <v>689.02</v>
+        <v>899.8200000000001</v>
       </c>
       <c r="E48" s="30" t="n">
-        <v>1033.39</v>
+        <v>1287.64</v>
       </c>
       <c r="F48" s="30" t="n">
-        <v>33.42</v>
+        <v>287.67</v>
       </c>
       <c r="G48" s="31" t="inlineStr">
         <is>
@@ -2707,17 +2707,17 @@
       </c>
       <c r="H48" s="31" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="I48" s="31" t="inlineStr">
         <is>
-          <t>恒生</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="J48" s="31" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>221</t>
         </is>
       </c>
       <c r="K48" s="31" t="inlineStr">
@@ -2729,42 +2729,42 @@
     <row r="49">
       <c r="A49" s="27" t="inlineStr">
         <is>
-          <t>华安黄金易ETF联接A</t>
+          <t>华夏恒生ETF联接A</t>
         </is>
       </c>
       <c r="B49" s="28" t="n">
-        <v>216</v>
+        <v>71</v>
       </c>
       <c r="C49" s="29" t="n">
-        <v>1.0902</v>
+        <v>1.4513</v>
       </c>
       <c r="D49" s="30" t="n">
-        <v>1834.47</v>
+        <v>689.02</v>
       </c>
       <c r="E49" s="30" t="n">
-        <v>2358.58</v>
+        <v>1033.39</v>
       </c>
       <c r="F49" s="30" t="n">
-        <v>358.64</v>
+        <v>33.42</v>
       </c>
       <c r="G49" s="31" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H49" s="31" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I49" s="31" t="inlineStr">
         <is>
-          <t>黄金</t>
+          <t>恒生</t>
         </is>
       </c>
       <c r="J49" s="31" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>211</t>
         </is>
       </c>
       <c r="K49" s="31" t="inlineStr">
@@ -2776,23 +2776,23 @@
     <row r="50">
       <c r="A50" s="27" t="inlineStr">
         <is>
-          <t>华宝标普石油指数A</t>
+          <t>华安黄金易ETF联接A</t>
         </is>
       </c>
       <c r="B50" s="28" t="n">
-        <v>162411</v>
+        <v>216</v>
       </c>
       <c r="C50" s="29" t="n">
-        <v>0.4204</v>
+        <v>1.0902</v>
       </c>
       <c r="D50" s="30" t="n">
-        <v>4757.9</v>
+        <v>1834.47</v>
       </c>
       <c r="E50" s="30" t="n">
-        <v>1722.36</v>
+        <v>2358.58</v>
       </c>
       <c r="F50" s="30" t="n">
-        <v>-277.86</v>
+        <v>358.64</v>
       </c>
       <c r="G50" s="31" t="inlineStr">
         <is>
@@ -2806,12 +2806,12 @@
       </c>
       <c r="I50" s="31" t="inlineStr">
         <is>
-          <t>原油</t>
+          <t>黄金</t>
         </is>
       </c>
       <c r="J50" s="31" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>611</t>
         </is>
       </c>
       <c r="K50" s="31" t="inlineStr">
@@ -2823,42 +2823,42 @@
     <row r="51">
       <c r="A51" s="27" t="inlineStr">
         <is>
-          <t>华安德国30(DAX)联接</t>
+          <t>华宝标普石油指数A</t>
         </is>
       </c>
       <c r="B51" s="28" t="n">
-        <v>614</v>
+        <v>162411</v>
       </c>
       <c r="C51" s="29" t="n">
-        <v>1.0483</v>
+        <v>0.4204</v>
       </c>
       <c r="D51" s="30" t="n">
-        <v>953.96</v>
+        <v>4757.9</v>
       </c>
       <c r="E51" s="30" t="n">
-        <v>1145.71</v>
+        <v>1722.36</v>
       </c>
       <c r="F51" s="30" t="n">
-        <v>145.67</v>
+        <v>-277.86</v>
       </c>
       <c r="G51" s="31" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="H51" s="31" t="inlineStr">
         <is>
-          <t>德国</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="I51" s="31" t="inlineStr">
         <is>
-          <t>德国30</t>
+          <t>原油</t>
         </is>
       </c>
       <c r="J51" s="31" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>613</t>
         </is>
       </c>
       <c r="K51" s="31" t="inlineStr">
@@ -2870,117 +2870,117 @@
     <row r="52">
       <c r="A52" s="27" t="inlineStr">
         <is>
+          <t>华安德国30(DAX)联接</t>
+        </is>
+      </c>
+      <c r="B52" s="28" t="n">
+        <v>614</v>
+      </c>
+      <c r="C52" s="29" t="n">
+        <v>1.0483</v>
+      </c>
+      <c r="D52" s="30" t="n">
+        <v>953.96</v>
+      </c>
+      <c r="E52" s="30" t="n">
+        <v>1145.71</v>
+      </c>
+      <c r="F52" s="30" t="n">
+        <v>145.67</v>
+      </c>
+      <c r="G52" s="31" t="inlineStr">
+        <is>
+          <t>海外成熟</t>
+        </is>
+      </c>
+      <c r="H52" s="31" t="inlineStr">
+        <is>
+          <t>德国</t>
+        </is>
+      </c>
+      <c r="I52" s="31" t="inlineStr">
+        <is>
+          <t>德国30</t>
+        </is>
+      </c>
+      <c r="J52" s="31" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="K52" s="31" t="inlineStr">
+        <is>
+          <t>且慢 S 定投</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="27" t="inlineStr">
+        <is>
           <t>易方达安心债券A</t>
         </is>
       </c>
-      <c r="B52" s="28" t="n">
+      <c r="B53" s="28" t="n">
         <v>110027</v>
       </c>
-      <c r="C52" s="29" t="n">
+      <c r="C53" s="29" t="n">
         <v>1.6793</v>
       </c>
-      <c r="D52" s="30" t="n">
+      <c r="D53" s="30" t="n">
         <v>595.47</v>
       </c>
-      <c r="E52" s="30" t="n">
+      <c r="E53" s="30" t="n">
         <v>1049.81</v>
       </c>
-      <c r="F52" s="30" t="n">
+      <c r="F53" s="30" t="n">
         <v>49.84</v>
       </c>
-      <c r="G52" s="31" t="inlineStr">
+      <c r="G53" s="31" t="inlineStr">
         <is>
           <t>债券</t>
         </is>
       </c>
-      <c r="H52" s="31" t="inlineStr">
+      <c r="H53" s="31" t="inlineStr">
         <is>
           <t>国内债券</t>
         </is>
       </c>
-      <c r="I52" s="31" t="inlineStr">
+      <c r="I53" s="31" t="inlineStr">
         <is>
           <t>可转债</t>
         </is>
       </c>
-      <c r="J52" s="31" t="inlineStr">
+      <c r="J53" s="31" t="inlineStr">
         <is>
           <t>512</t>
         </is>
       </c>
-      <c r="K52" s="31" t="inlineStr">
+      <c r="K53" s="31" t="inlineStr">
         <is>
           <t>且慢 S 定投</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="32" t="inlineStr">
-        <is>
-          <t>富国中证红利指数增强</t>
-        </is>
-      </c>
-      <c r="B53" s="33" t="n">
-        <v>100032</v>
-      </c>
-      <c r="C53" s="34" t="n">
-        <v>1.0193</v>
-      </c>
-      <c r="D53" s="35" t="n">
-        <v>65064.33</v>
-      </c>
-      <c r="E53" s="35" t="n">
-        <v>69423.64</v>
-      </c>
-      <c r="F53" s="35" t="n">
-        <v>3103.57</v>
-      </c>
-      <c r="G53" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H53" s="36" t="inlineStr">
-        <is>
-          <t>红利价值</t>
-        </is>
-      </c>
-      <c r="I53" s="36" t="inlineStr">
-        <is>
-          <t>中证红利</t>
-        </is>
-      </c>
-      <c r="J53" s="36" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
-      </c>
-      <c r="K53" s="36" t="inlineStr">
-        <is>
-          <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="32" t="inlineStr">
         <is>
-          <t>广发养老指数A</t>
+          <t>富国中证红利指数增强</t>
         </is>
       </c>
       <c r="B54" s="33" t="n">
-        <v>968</v>
+        <v>100032</v>
       </c>
       <c r="C54" s="34" t="n">
-        <v>0.9167</v>
+        <v>1.0193</v>
       </c>
       <c r="D54" s="35" t="n">
-        <v>63490</v>
+        <v>65064.33</v>
       </c>
       <c r="E54" s="35" t="n">
-        <v>63236.04</v>
+        <v>69423.64</v>
       </c>
       <c r="F54" s="35" t="n">
-        <v>5034.76</v>
+        <v>3103.57</v>
       </c>
       <c r="G54" s="36" t="inlineStr">
         <is>
@@ -2989,17 +2989,17 @@
       </c>
       <c r="H54" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I54" s="36" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J54" s="36" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K54" s="36" t="inlineStr">
@@ -3011,42 +3011,42 @@
     <row r="55">
       <c r="A55" s="32" t="inlineStr">
         <is>
-          <t>兴全可转债混合</t>
+          <t>广发养老指数A</t>
         </is>
       </c>
       <c r="B55" s="33" t="n">
-        <v>340001</v>
+        <v>968</v>
       </c>
       <c r="C55" s="34" t="n">
-        <v>0.9886</v>
+        <v>0.9167</v>
       </c>
       <c r="D55" s="35" t="n">
-        <v>32370.29</v>
+        <v>63490</v>
       </c>
       <c r="E55" s="35" t="n">
-        <v>38918.8</v>
+        <v>63236.04</v>
       </c>
       <c r="F55" s="35" t="n">
-        <v>6917.53</v>
+        <v>5034.76</v>
       </c>
       <c r="G55" s="36" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H55" s="36" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I55" s="36" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="J55" s="36" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K55" s="36" t="inlineStr">
@@ -3058,42 +3058,42 @@
     <row r="56">
       <c r="A56" s="32" t="inlineStr">
         <is>
-          <t>广发医药卫生联接A</t>
+          <t>兴全可转债混合</t>
         </is>
       </c>
       <c r="B56" s="33" t="n">
-        <v>1180</v>
+        <v>340001</v>
       </c>
       <c r="C56" s="34" t="n">
-        <v>0.7451</v>
+        <v>0.9886</v>
       </c>
       <c r="D56" s="35" t="n">
-        <v>41014.88</v>
+        <v>32370.29</v>
       </c>
       <c r="E56" s="35" t="n">
-        <v>38254.58</v>
+        <v>38918.8</v>
       </c>
       <c r="F56" s="35" t="n">
-        <v>7694.39</v>
+        <v>6917.53</v>
       </c>
       <c r="G56" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H56" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I56" s="36" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J56" s="36" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K56" s="36" t="inlineStr">
@@ -3105,42 +3105,42 @@
     <row r="57">
       <c r="A57" s="32" t="inlineStr">
         <is>
-          <t>易方达安心回报债券A</t>
+          <t>广发医药卫生联接A</t>
         </is>
       </c>
       <c r="B57" s="33" t="n">
-        <v>110027</v>
+        <v>1180</v>
       </c>
       <c r="C57" s="34" t="n">
-        <v>1.5931</v>
+        <v>0.7451</v>
       </c>
       <c r="D57" s="35" t="n">
-        <v>20086.63</v>
+        <v>41014.88</v>
       </c>
       <c r="E57" s="35" t="n">
-        <v>35412.73</v>
+        <v>38254.58</v>
       </c>
       <c r="F57" s="35" t="n">
-        <v>3412.72</v>
+        <v>7694.39</v>
       </c>
       <c r="G57" s="36" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H57" s="36" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I57" s="36" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="J57" s="36" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K57" s="36" t="inlineStr">
@@ -3152,42 +3152,42 @@
     <row r="58">
       <c r="A58" s="32" t="inlineStr">
         <is>
-          <t>华安德国30(DAX)联接</t>
+          <t>易方达安心回报债券A</t>
         </is>
       </c>
       <c r="B58" s="33" t="n">
-        <v>614</v>
+        <v>110027</v>
       </c>
       <c r="C58" s="34" t="n">
-        <v>1.091</v>
+        <v>1.5931</v>
       </c>
       <c r="D58" s="35" t="n">
-        <v>20716.63</v>
+        <v>20086.63</v>
       </c>
       <c r="E58" s="35" t="n">
-        <v>24880.67</v>
+        <v>35412.73</v>
       </c>
       <c r="F58" s="35" t="n">
-        <v>2278.83</v>
+        <v>3412.72</v>
       </c>
       <c r="G58" s="36" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H58" s="36" t="inlineStr">
         <is>
-          <t>德国</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I58" s="36" t="inlineStr">
         <is>
-          <t>德国30</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J58" s="36" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K58" s="36" t="inlineStr">
@@ -3199,42 +3199,42 @@
     <row r="59">
       <c r="A59" s="32" t="inlineStr">
         <is>
-          <t>富国沪深300指数增强</t>
+          <t>华安德国30(DAX)联接</t>
         </is>
       </c>
       <c r="B59" s="33" t="n">
-        <v>100038</v>
+        <v>614</v>
       </c>
       <c r="C59" s="34" t="n">
-        <v>1.3129</v>
+        <v>1.091</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>14624.61</v>
+        <v>20716.63</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>23340.88</v>
+        <v>24880.67</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>4140.23</v>
+        <v>2278.83</v>
       </c>
       <c r="G59" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="H59" s="36" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>德国</t>
         </is>
       </c>
       <c r="I59" s="36" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>德国30</t>
         </is>
       </c>
       <c r="J59" s="36" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>321</t>
         </is>
       </c>
       <c r="K59" s="36" t="inlineStr">
@@ -3246,42 +3246,42 @@
     <row r="60">
       <c r="A60" s="32" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>富国沪深300指数增强</t>
         </is>
       </c>
       <c r="B60" s="33" t="n">
-        <v>164906</v>
+        <v>100038</v>
       </c>
       <c r="C60" s="34" t="n">
-        <v>1.1444</v>
+        <v>1.3129</v>
       </c>
       <c r="D60" s="35" t="n">
-        <v>16778.47</v>
+        <v>14624.61</v>
       </c>
       <c r="E60" s="35" t="n">
-        <v>24009.99</v>
+        <v>23340.88</v>
       </c>
       <c r="F60" s="35" t="n">
-        <v>4808.71</v>
+        <v>4140.23</v>
       </c>
       <c r="G60" s="36" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H60" s="36" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I60" s="36" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>沪深300</t>
         </is>
       </c>
       <c r="J60" s="36" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>113</t>
         </is>
       </c>
       <c r="K60" s="36" t="inlineStr">
@@ -3293,42 +3293,42 @@
     <row r="61">
       <c r="A61" s="32" t="inlineStr">
         <is>
-          <t>广发中证全指金融地产联接A</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B61" s="33" t="n">
-        <v>1469</v>
+        <v>164906</v>
       </c>
       <c r="C61" s="34" t="n">
-        <v>0.9073</v>
+        <v>1.1444</v>
       </c>
       <c r="D61" s="35" t="n">
-        <v>21163.93</v>
+        <v>16778.47</v>
       </c>
       <c r="E61" s="35" t="n">
-        <v>21824.24</v>
+        <v>24009.99</v>
       </c>
       <c r="F61" s="35" t="n">
-        <v>2622.21</v>
+        <v>4808.71</v>
       </c>
       <c r="G61" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H61" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="I61" s="36" t="inlineStr">
         <is>
-          <t>金融地产</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="J61" s="36" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>221</t>
         </is>
       </c>
       <c r="K61" s="36" t="inlineStr">
@@ -3340,23 +3340,23 @@
     <row r="62">
       <c r="A62" s="32" t="inlineStr">
         <is>
-          <t>富国中证500指数(LOF)</t>
+          <t>广发中证全指金融地产联接A</t>
         </is>
       </c>
       <c r="B62" s="33" t="n">
-        <v>161017</v>
+        <v>1469</v>
       </c>
       <c r="C62" s="34" t="n">
-        <v>1.3432</v>
+        <v>0.9073</v>
       </c>
       <c r="D62" s="35" t="n">
-        <v>9529.809999999999</v>
+        <v>21163.93</v>
       </c>
       <c r="E62" s="35" t="n">
-        <v>16029.14</v>
+        <v>21824.24</v>
       </c>
       <c r="F62" s="35" t="n">
-        <v>3228.7</v>
+        <v>2622.21</v>
       </c>
       <c r="G62" s="36" t="inlineStr">
         <is>
@@ -3365,17 +3365,17 @@
       </c>
       <c r="H62" s="36" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I62" s="36" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>金融地产</t>
         </is>
       </c>
       <c r="J62" s="36" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>147</t>
         </is>
       </c>
       <c r="K62" s="36" t="inlineStr">
@@ -3387,42 +3387,42 @@
     <row r="63">
       <c r="A63" s="32" t="inlineStr">
         <is>
-          <t>华宝标普油气上游股票人民币A</t>
+          <t>富国中证500指数(LOF)</t>
         </is>
       </c>
       <c r="B63" s="33" t="n">
-        <v>162411</v>
+        <v>161017</v>
       </c>
       <c r="C63" s="34" t="n">
-        <v>0.5152</v>
+        <v>1.3432</v>
       </c>
       <c r="D63" s="35" t="n">
-        <v>37267.45</v>
+        <v>9529.809999999999</v>
       </c>
       <c r="E63" s="35" t="n">
-        <v>13490.82</v>
+        <v>16029.14</v>
       </c>
       <c r="F63" s="35" t="n">
-        <v>-5709.37</v>
+        <v>3228.7</v>
       </c>
       <c r="G63" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H63" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I63" s="36" t="inlineStr">
         <is>
-          <t>原油</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J63" s="36" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K63" s="36" t="inlineStr">
@@ -3434,42 +3434,42 @@
     <row r="64">
       <c r="A64" s="32" t="inlineStr">
         <is>
-          <t>华夏恒生ETF联接A</t>
+          <t>华宝标普油气上游股票人民币A</t>
         </is>
       </c>
       <c r="B64" s="33" t="n">
-        <v>71</v>
+        <v>162411</v>
       </c>
       <c r="C64" s="34" t="n">
-        <v>1.4562</v>
+        <v>0.5152</v>
       </c>
       <c r="D64" s="35" t="n">
-        <v>6798.52</v>
+        <v>37267.45</v>
       </c>
       <c r="E64" s="35" t="n">
-        <v>10196.42</v>
+        <v>13490.82</v>
       </c>
       <c r="F64" s="35" t="n">
-        <v>296.42</v>
+        <v>-5709.37</v>
       </c>
       <c r="G64" s="36" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="H64" s="36" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="I64" s="36" t="inlineStr">
         <is>
-          <t>恒生</t>
+          <t>原油</t>
         </is>
       </c>
       <c r="J64" s="36" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>613</t>
         </is>
       </c>
       <c r="K64" s="36" t="inlineStr">
@@ -3481,42 +3481,42 @@
     <row r="65">
       <c r="A65" s="32" t="inlineStr">
         <is>
-          <t>广发中证环保ETF联接A</t>
+          <t>华夏恒生ETF联接A</t>
         </is>
       </c>
       <c r="B65" s="33" t="n">
-        <v>1064</v>
+        <v>71</v>
       </c>
       <c r="C65" s="34" t="n">
-        <v>0.4775</v>
+        <v>1.4562</v>
       </c>
       <c r="D65" s="35" t="n">
-        <v>13403.92</v>
+        <v>6798.52</v>
       </c>
       <c r="E65" s="35" t="n">
-        <v>7864.08</v>
+        <v>10196.42</v>
       </c>
       <c r="F65" s="35" t="n">
-        <v>1463.71</v>
+        <v>296.42</v>
       </c>
       <c r="G65" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H65" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I65" s="36" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>恒生</t>
         </is>
       </c>
       <c r="J65" s="36" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>211</t>
         </is>
       </c>
       <c r="K65" s="36" t="inlineStr">
@@ -3528,42 +3528,42 @@
     <row r="66">
       <c r="A66" s="32" t="inlineStr">
         <is>
-          <t>长信可转债债券A</t>
+          <t>广发中证环保ETF联接A</t>
         </is>
       </c>
       <c r="B66" s="33" t="n">
-        <v>519977</v>
+        <v>1064</v>
       </c>
       <c r="C66" s="34" t="n">
-        <v>1.2011</v>
+        <v>0.4775</v>
       </c>
       <c r="D66" s="35" t="n">
-        <v>5328.62</v>
+        <v>13403.92</v>
       </c>
       <c r="E66" s="35" t="n">
-        <v>7579.43</v>
+        <v>7864.08</v>
       </c>
       <c r="F66" s="35" t="n">
-        <v>1179.22</v>
+        <v>1463.71</v>
       </c>
       <c r="G66" s="36" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H66" s="36" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I66" s="36" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="J66" s="36" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>143</t>
         </is>
       </c>
       <c r="K66" s="36" t="inlineStr">
@@ -3575,23 +3575,23 @@
     <row r="67">
       <c r="A67" s="32" t="inlineStr">
         <is>
-          <t>华夏收益债券(QDII)A</t>
+          <t>长信可转债债券A</t>
         </is>
       </c>
       <c r="B67" s="33" t="n">
-        <v>1061</v>
+        <v>519977</v>
       </c>
       <c r="C67" s="34" t="n">
-        <v>0.9172</v>
+        <v>1.2011</v>
       </c>
       <c r="D67" s="35" t="n">
-        <v>5609.79</v>
+        <v>5328.62</v>
       </c>
       <c r="E67" s="35" t="n">
-        <v>7679.8</v>
+        <v>7579.43</v>
       </c>
       <c r="F67" s="35" t="n">
-        <v>2534.5</v>
+        <v>1179.22</v>
       </c>
       <c r="G67" s="36" t="inlineStr">
         <is>
@@ -3600,17 +3600,17 @@
       </c>
       <c r="H67" s="36" t="inlineStr">
         <is>
-          <t>海外债券</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I67" s="36" t="inlineStr">
         <is>
-          <t>美元债</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J67" s="36" t="inlineStr">
         <is>
-          <t>521</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K67" s="36" t="inlineStr">
@@ -3622,42 +3622,42 @@
     <row r="68">
       <c r="A68" s="32" t="inlineStr">
         <is>
-          <t>建信中证500指数增强A</t>
+          <t>华夏收益债券(QDII)A</t>
         </is>
       </c>
       <c r="B68" s="33" t="n">
-        <v>478</v>
+        <v>1061</v>
       </c>
       <c r="C68" s="34" t="n">
-        <v>1.9397</v>
+        <v>0.9172</v>
       </c>
       <c r="D68" s="35" t="n">
-        <v>3299.64</v>
+        <v>5609.79</v>
       </c>
       <c r="E68" s="35" t="n">
-        <v>6483.79</v>
+        <v>7679.8</v>
       </c>
       <c r="F68" s="35" t="n">
-        <v>83.48</v>
+        <v>2534.5</v>
       </c>
       <c r="G68" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H68" s="36" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>海外债券</t>
         </is>
       </c>
       <c r="I68" s="36" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>美元债</t>
         </is>
       </c>
       <c r="J68" s="36" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>521</t>
         </is>
       </c>
       <c r="K68" s="36" t="inlineStr">
@@ -3669,23 +3669,23 @@
     <row r="69">
       <c r="A69" s="32" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF联接A</t>
+          <t>建信中证500指数增强A</t>
         </is>
       </c>
       <c r="B69" s="33" t="n">
-        <v>4752</v>
+        <v>478</v>
       </c>
       <c r="C69" s="34" t="n">
-        <v>0.8149999999999999</v>
+        <v>1.9397</v>
       </c>
       <c r="D69" s="35" t="n">
-        <v>7852.99</v>
+        <v>3299.64</v>
       </c>
       <c r="E69" s="35" t="n">
-        <v>6653.84</v>
+        <v>6483.79</v>
       </c>
       <c r="F69" s="35" t="n">
-        <v>253.65</v>
+        <v>83.48</v>
       </c>
       <c r="G69" s="36" t="inlineStr">
         <is>
@@ -3694,17 +3694,17 @@
       </c>
       <c r="H69" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I69" s="36" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J69" s="36" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K69" s="36" t="inlineStr">
@@ -3716,164 +3716,164 @@
     <row r="70">
       <c r="A70" s="32" t="inlineStr">
         <is>
+          <t>广发中证传媒ETF联接A</t>
+        </is>
+      </c>
+      <c r="B70" s="33" t="n">
+        <v>4752</v>
+      </c>
+      <c r="C70" s="34" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="D70" s="35" t="n">
+        <v>7852.99</v>
+      </c>
+      <c r="E70" s="35" t="n">
+        <v>6653.84</v>
+      </c>
+      <c r="F70" s="35" t="n">
+        <v>253.65</v>
+      </c>
+      <c r="G70" s="36" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H70" s="36" t="inlineStr">
+        <is>
+          <t>行业股</t>
+        </is>
+      </c>
+      <c r="I70" s="36" t="inlineStr">
+        <is>
+          <t>中证传媒</t>
+        </is>
+      </c>
+      <c r="J70" s="36" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="K70" s="36" t="inlineStr">
+        <is>
+          <t>天天基金</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="32" t="inlineStr">
+        <is>
           <t>广发中证500ETF联接C</t>
         </is>
       </c>
-      <c r="B70" s="33" t="n">
+      <c r="B71" s="33" t="n">
         <v>2903</v>
       </c>
-      <c r="C70" s="34" t="n">
+      <c r="C71" s="34" t="n">
         <v>0.8548</v>
       </c>
-      <c r="D70" s="35" t="n">
+      <c r="D71" s="35" t="n">
         <v>3889.32</v>
       </c>
-      <c r="E70" s="35" t="n">
+      <c r="E71" s="35" t="n">
         <v>3475.11</v>
       </c>
-      <c r="F70" s="35" t="n">
+      <c r="F71" s="35" t="n">
         <v>150.52</v>
       </c>
-      <c r="G70" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H70" s="36" t="inlineStr">
+      <c r="G71" s="36" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H71" s="36" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="I70" s="36" t="inlineStr">
+      <c r="I71" s="36" t="inlineStr">
         <is>
           <t>中证500</t>
         </is>
       </c>
-      <c r="J70" s="36" t="inlineStr">
+      <c r="J71" s="36" t="inlineStr">
         <is>
           <t>121</t>
         </is>
       </c>
-      <c r="K70" s="36" t="inlineStr">
+      <c r="K71" s="36" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="2" t="inlineStr">
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
         <is>
           <t>货币基金综合</t>
         </is>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B72" s="3" t="n">
         <v>999999</v>
       </c>
-      <c r="C71" s="4" t="n">
+      <c r="C72" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D71" s="5" t="n">
+      <c r="D72" s="5" t="n">
         <v>12042.3</v>
       </c>
-      <c r="E71" s="5" t="n">
+      <c r="E72" s="5" t="n">
         <v>12042.3</v>
       </c>
-      <c r="F71" s="5" t="n">
+      <c r="F72" s="5" t="n">
         <v>41.35</v>
       </c>
-      <c r="G71" s="6" t="inlineStr">
+      <c r="G72" s="6" t="inlineStr">
         <is>
           <t>现金</t>
         </is>
       </c>
-      <c r="H71" s="6" t="inlineStr">
+      <c r="H72" s="6" t="inlineStr">
         <is>
           <t>低风险理财</t>
         </is>
       </c>
-      <c r="I71" s="6" t="inlineStr">
+      <c r="I72" s="6" t="inlineStr">
         <is>
           <t>货币基金</t>
         </is>
       </c>
-      <c r="J71" s="6" t="inlineStr">
+      <c r="J72" s="6" t="inlineStr">
         <is>
           <t>999</t>
         </is>
       </c>
-      <c r="K71" s="6" t="inlineStr">
+      <c r="K72" s="6" t="inlineStr">
         <is>
           <t>现金账户父母</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="7" t="inlineStr">
-        <is>
-          <t>银河沪深300价值指数</t>
-        </is>
-      </c>
-      <c r="B72" s="8" t="n">
-        <v>519671</v>
-      </c>
-      <c r="C72" s="9" t="n">
-        <v>1.4347</v>
-      </c>
-      <c r="D72" s="10" t="n">
-        <v>1182.45</v>
-      </c>
-      <c r="E72" s="10" t="n">
-        <v>1623.5</v>
-      </c>
-      <c r="F72" s="10" t="n">
-        <v>-72.95999999999999</v>
-      </c>
-      <c r="G72" s="11" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H72" s="11" t="inlineStr">
-        <is>
-          <t>大盘股</t>
-        </is>
-      </c>
-      <c r="I72" s="11" t="inlineStr">
-        <is>
-          <t>300价值</t>
-        </is>
-      </c>
-      <c r="J72" s="11" t="inlineStr">
-        <is>
-          <t>114</t>
-        </is>
-      </c>
-      <c r="K72" s="11" t="inlineStr">
-        <is>
-          <t>螺丝钉父</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="7" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>银河沪深300价值指数</t>
         </is>
       </c>
       <c r="B73" s="8" t="n">
-        <v>90010</v>
+        <v>519671</v>
       </c>
       <c r="C73" s="9" t="n">
-        <v>1.6574</v>
+        <v>1.4347</v>
       </c>
       <c r="D73" s="10" t="n">
-        <v>1013.85</v>
+        <v>1182.45</v>
       </c>
       <c r="E73" s="10" t="n">
-        <v>1581.61</v>
+        <v>1623.5</v>
       </c>
       <c r="F73" s="10" t="n">
-        <v>-98.75</v>
+        <v>-72.95999999999999</v>
       </c>
       <c r="G73" s="11" t="inlineStr">
         <is>
@@ -3882,17 +3882,17 @@
       </c>
       <c r="H73" s="11" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I73" s="11" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="J73" s="11" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>114</t>
         </is>
       </c>
       <c r="K73" s="11" t="inlineStr">
@@ -3904,23 +3904,23 @@
     <row r="74">
       <c r="A74" s="7" t="inlineStr">
         <is>
-          <t>景顺长城中证500低波动</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="B74" s="8" t="n">
-        <v>3318</v>
+        <v>90010</v>
       </c>
       <c r="C74" s="9" t="n">
-        <v>0.9386</v>
+        <v>1.6574</v>
       </c>
       <c r="D74" s="10" t="n">
-        <v>1548.03</v>
+        <v>1013.85</v>
       </c>
       <c r="E74" s="10" t="n">
-        <v>1439.67</v>
+        <v>1581.61</v>
       </c>
       <c r="F74" s="10" t="n">
-        <v>-13.31</v>
+        <v>-98.75</v>
       </c>
       <c r="G74" s="11" t="inlineStr">
         <is>
@@ -3929,17 +3929,17 @@
       </c>
       <c r="H74" s="11" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I74" s="11" t="inlineStr">
         <is>
-          <t>500低波动</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J74" s="11" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K74" s="11" t="inlineStr">
@@ -3951,42 +3951,42 @@
     <row r="75">
       <c r="A75" s="7" t="inlineStr">
         <is>
-          <t>华宝香港中小</t>
+          <t>景顺长城中证500低波动</t>
         </is>
       </c>
       <c r="B75" s="8" t="n">
-        <v>501021</v>
+        <v>3318</v>
       </c>
       <c r="C75" s="9" t="n">
-        <v>1.3485</v>
+        <v>0.9386</v>
       </c>
       <c r="D75" s="10" t="n">
-        <v>898.04</v>
+        <v>1548.03</v>
       </c>
       <c r="E75" s="10" t="n">
-        <v>1319.22</v>
+        <v>1439.67</v>
       </c>
       <c r="F75" s="10" t="n">
-        <v>108.21</v>
+        <v>-13.31</v>
       </c>
       <c r="G75" s="11" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H75" s="11" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I75" s="11" t="inlineStr">
         <is>
-          <t>香港中小</t>
+          <t>500低波动</t>
         </is>
       </c>
       <c r="J75" s="11" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>122</t>
         </is>
       </c>
       <c r="K75" s="11" t="inlineStr">
@@ -3998,42 +3998,42 @@
     <row r="76">
       <c r="A76" s="7" t="inlineStr">
         <is>
-          <t>嘉实深证基本面120联接</t>
+          <t>华宝香港中小</t>
         </is>
       </c>
       <c r="B76" s="8" t="n">
-        <v>70023</v>
+        <v>501021</v>
       </c>
       <c r="C76" s="9" t="n">
-        <v>1.7966</v>
+        <v>1.3485</v>
       </c>
       <c r="D76" s="10" t="n">
-        <v>492.58</v>
+        <v>898.04</v>
       </c>
       <c r="E76" s="10" t="n">
-        <v>911.37</v>
+        <v>1319.22</v>
       </c>
       <c r="F76" s="10" t="n">
-        <v>26.4</v>
+        <v>108.21</v>
       </c>
       <c r="G76" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H76" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I76" s="11" t="inlineStr">
         <is>
-          <t>基本面120</t>
+          <t>香港中小</t>
         </is>
       </c>
       <c r="J76" s="11" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>213</t>
         </is>
       </c>
       <c r="K76" s="11" t="inlineStr">
@@ -4045,23 +4045,23 @@
     <row r="77">
       <c r="A77" s="7" t="inlineStr">
         <is>
-          <t>建信深证基本面60ETF联接A</t>
+          <t>嘉实深证基本面120联接</t>
         </is>
       </c>
       <c r="B77" s="8" t="n">
-        <v>530015</v>
+        <v>70023</v>
       </c>
       <c r="C77" s="9" t="n">
-        <v>2.1277</v>
+        <v>1.7966</v>
       </c>
       <c r="D77" s="10" t="n">
-        <v>421.99</v>
+        <v>492.58</v>
       </c>
       <c r="E77" s="10" t="n">
-        <v>909.4299999999999</v>
+        <v>911.37</v>
       </c>
       <c r="F77" s="10" t="n">
-        <v>11.56</v>
+        <v>26.4</v>
       </c>
       <c r="G77" s="11" t="inlineStr">
         <is>
@@ -4075,12 +4075,12 @@
       </c>
       <c r="I77" s="11" t="inlineStr">
         <is>
-          <t>基本面60</t>
+          <t>基本面120</t>
         </is>
       </c>
       <c r="J77" s="11" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>116</t>
         </is>
       </c>
       <c r="K77" s="11" t="inlineStr">
@@ -4092,23 +4092,23 @@
     <row r="78">
       <c r="A78" s="7" t="inlineStr">
         <is>
-          <t>广发中证养老</t>
+          <t>建信深证基本面60ETF联接A</t>
         </is>
       </c>
       <c r="B78" s="8" t="n">
-        <v>968</v>
+        <v>530015</v>
       </c>
       <c r="C78" s="9" t="n">
-        <v>0.9599</v>
+        <v>2.1277</v>
       </c>
       <c r="D78" s="10" t="n">
-        <v>390.82</v>
+        <v>421.99</v>
       </c>
       <c r="E78" s="10" t="n">
-        <v>389.26</v>
+        <v>909.4299999999999</v>
       </c>
       <c r="F78" s="10" t="n">
-        <v>14.11</v>
+        <v>11.56</v>
       </c>
       <c r="G78" s="11" t="inlineStr">
         <is>
@@ -4117,17 +4117,17 @@
       </c>
       <c r="H78" s="11" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I78" s="11" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>基本面60</t>
         </is>
       </c>
       <c r="J78" s="11" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>115</t>
         </is>
       </c>
       <c r="K78" s="11" t="inlineStr">
@@ -4139,23 +4139,23 @@
     <row r="79">
       <c r="A79" s="7" t="inlineStr">
         <is>
-          <t>华宝红利基金</t>
+          <t>广发中证养老</t>
         </is>
       </c>
       <c r="B79" s="8" t="n">
-        <v>501029</v>
+        <v>968</v>
       </c>
       <c r="C79" s="9" t="n">
-        <v>0.9829</v>
+        <v>0.9599</v>
       </c>
       <c r="D79" s="10" t="n">
-        <v>214.89</v>
+        <v>390.82</v>
       </c>
       <c r="E79" s="10" t="n">
-        <v>200.28</v>
+        <v>389.26</v>
       </c>
       <c r="F79" s="10" t="n">
-        <v>-10.94</v>
+        <v>14.11</v>
       </c>
       <c r="G79" s="11" t="inlineStr">
         <is>
@@ -4164,17 +4164,17 @@
       </c>
       <c r="H79" s="11" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I79" s="11" t="inlineStr">
         <is>
-          <t>标普红利</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="J79" s="11" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K79" s="11" t="inlineStr">
@@ -4186,23 +4186,23 @@
     <row r="80">
       <c r="A80" s="7" t="inlineStr">
         <is>
-          <t>天弘中证银行指数A</t>
+          <t>华宝红利基金</t>
         </is>
       </c>
       <c r="B80" s="8" t="n">
-        <v>1594</v>
+        <v>501029</v>
       </c>
       <c r="C80" s="9" t="n">
-        <v>1.2538</v>
+        <v>0.9829</v>
       </c>
       <c r="D80" s="10" t="n">
-        <v>171.26</v>
+        <v>214.89</v>
       </c>
       <c r="E80" s="10" t="n">
-        <v>197.55</v>
+        <v>200.28</v>
       </c>
       <c r="F80" s="10" t="n">
-        <v>-17.18</v>
+        <v>-10.94</v>
       </c>
       <c r="G80" s="11" t="inlineStr">
         <is>
@@ -4211,17 +4211,17 @@
       </c>
       <c r="H80" s="11" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I80" s="11" t="inlineStr">
         <is>
-          <t>中证银行</t>
+          <t>标普红利</t>
         </is>
       </c>
       <c r="J80" s="11" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>132</t>
         </is>
       </c>
       <c r="K80" s="11" t="inlineStr">
@@ -4233,23 +4233,23 @@
     <row r="81">
       <c r="A81" s="7" t="inlineStr">
         <is>
-          <t>天弘中证医药100A</t>
+          <t>天弘中证银行指数A</t>
         </is>
       </c>
       <c r="B81" s="8" t="n">
-        <v>1550</v>
+        <v>1594</v>
       </c>
       <c r="C81" s="9" t="n">
-        <v>0.6708</v>
+        <v>1.2538</v>
       </c>
       <c r="D81" s="10" t="n">
-        <v>212.74</v>
+        <v>171.26</v>
       </c>
       <c r="E81" s="10" t="n">
-        <v>189</v>
+        <v>197.55</v>
       </c>
       <c r="F81" s="10" t="n">
-        <v>46.29</v>
+        <v>-17.18</v>
       </c>
       <c r="G81" s="11" t="inlineStr">
         <is>
@@ -4263,12 +4263,12 @@
       </c>
       <c r="I81" s="11" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>中证银行</t>
         </is>
       </c>
       <c r="J81" s="11" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>146</t>
         </is>
       </c>
       <c r="K81" s="11" t="inlineStr">
@@ -4280,23 +4280,23 @@
     <row r="82">
       <c r="A82" s="7" t="inlineStr">
         <is>
-          <t>华夏上证50AH优选指数</t>
+          <t>天弘中证医药100A</t>
         </is>
       </c>
       <c r="B82" s="8" t="n">
-        <v>501050</v>
+        <v>1550</v>
       </c>
       <c r="C82" s="9" t="n">
-        <v>1.2891</v>
+        <v>0.6708</v>
       </c>
       <c r="D82" s="10" t="n">
-        <v>62.09</v>
+        <v>212.74</v>
       </c>
       <c r="E82" s="10" t="n">
-        <v>79.91</v>
+        <v>189</v>
       </c>
       <c r="F82" s="10" t="n">
-        <v>-0.13</v>
+        <v>46.29</v>
       </c>
       <c r="G82" s="11" t="inlineStr">
         <is>
@@ -4305,17 +4305,17 @@
       </c>
       <c r="H82" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I82" s="11" t="inlineStr">
         <is>
-          <t>50AH</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="J82" s="11" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K82" s="11" t="inlineStr">
@@ -4327,23 +4327,23 @@
     <row r="83">
       <c r="A83" s="7" t="inlineStr">
         <is>
-          <t>申万菱信沪深300价值指数</t>
+          <t>华夏上证50AH优选指数</t>
         </is>
       </c>
       <c r="B83" s="8" t="n">
-        <v>310398</v>
+        <v>501050</v>
       </c>
       <c r="C83" s="9" t="n">
-        <v>1.4372</v>
+        <v>1.2891</v>
       </c>
       <c r="D83" s="10" t="n">
-        <v>25.8</v>
+        <v>62.09</v>
       </c>
       <c r="E83" s="10" t="n">
-        <v>33.4</v>
+        <v>79.91</v>
       </c>
       <c r="F83" s="10" t="n">
-        <v>-3.68</v>
+        <v>-0.13</v>
       </c>
       <c r="G83" s="11" t="inlineStr">
         <is>
@@ -4357,12 +4357,12 @@
       </c>
       <c r="I83" s="11" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>50AH</t>
         </is>
       </c>
       <c r="J83" s="11" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>112</t>
         </is>
       </c>
       <c r="K83" s="11" t="inlineStr">
@@ -4374,42 +4374,42 @@
     <row r="84">
       <c r="A84" s="7" t="inlineStr">
         <is>
-          <t>大成景安短融债券E</t>
+          <t>申万菱信沪深300价值指数</t>
         </is>
       </c>
       <c r="B84" s="8" t="n">
-        <v>2086</v>
+        <v>310398</v>
       </c>
       <c r="C84" s="9" t="n">
-        <v>1.2258</v>
+        <v>1.4372</v>
       </c>
       <c r="D84" s="10" t="n">
-        <v>0</v>
+        <v>25.8</v>
       </c>
       <c r="E84" s="10" t="n">
-        <v>0</v>
+        <v>33.4</v>
       </c>
       <c r="F84" s="10" t="n">
-        <v>0</v>
+        <v>-3.68</v>
       </c>
       <c r="G84" s="11" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H84" s="11" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I84" s="11" t="inlineStr">
         <is>
-          <t>纯债</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="J84" s="11" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>114</t>
         </is>
       </c>
       <c r="K84" s="11" t="inlineStr">
@@ -4421,70 +4421,70 @@
     <row r="85">
       <c r="A85" s="7" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>大成景安短融债券E</t>
         </is>
       </c>
       <c r="B85" s="8" t="n">
-        <v>90010</v>
+        <v>2086</v>
       </c>
       <c r="C85" s="9" t="n">
-        <v>1.6607</v>
+        <v>1.2258</v>
       </c>
       <c r="D85" s="10" t="n">
-        <v>1128.82</v>
+        <v>0</v>
       </c>
       <c r="E85" s="10" t="n">
-        <v>1760.96</v>
+        <v>0</v>
       </c>
       <c r="F85" s="10" t="n">
-        <v>-113.67</v>
+        <v>0</v>
       </c>
       <c r="G85" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H85" s="11" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I85" s="11" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>纯债</t>
         </is>
       </c>
       <c r="J85" s="11" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>511</t>
         </is>
       </c>
       <c r="K85" s="11" t="inlineStr">
         <is>
-          <t>螺丝钉母</t>
+          <t>螺丝钉父</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="7" t="inlineStr">
         <is>
-          <t>银河沪深300价值指数</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="B86" s="8" t="n">
-        <v>519671</v>
+        <v>90010</v>
       </c>
       <c r="C86" s="9" t="n">
-        <v>1.4346</v>
+        <v>1.6607</v>
       </c>
       <c r="D86" s="10" t="n">
-        <v>1225.03</v>
+        <v>1128.82</v>
       </c>
       <c r="E86" s="10" t="n">
-        <v>1681.97</v>
+        <v>1760.96</v>
       </c>
       <c r="F86" s="10" t="n">
-        <v>-75.45999999999999</v>
+        <v>-113.67</v>
       </c>
       <c r="G86" s="11" t="inlineStr">
         <is>
@@ -4493,17 +4493,17 @@
       </c>
       <c r="H86" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I86" s="11" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J86" s="11" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K86" s="11" t="inlineStr">
@@ -4515,23 +4515,23 @@
     <row r="87">
       <c r="A87" s="7" t="inlineStr">
         <is>
-          <t>景顺长城中证500低波动</t>
+          <t>银河沪深300价值指数</t>
         </is>
       </c>
       <c r="B87" s="8" t="n">
-        <v>3318</v>
+        <v>519671</v>
       </c>
       <c r="C87" s="9" t="n">
-        <v>0.9393</v>
+        <v>1.4346</v>
       </c>
       <c r="D87" s="10" t="n">
-        <v>1647.71</v>
+        <v>1225.03</v>
       </c>
       <c r="E87" s="10" t="n">
-        <v>1532.37</v>
+        <v>1681.97</v>
       </c>
       <c r="F87" s="10" t="n">
-        <v>-15.32</v>
+        <v>-75.45999999999999</v>
       </c>
       <c r="G87" s="11" t="inlineStr">
         <is>
@@ -4540,17 +4540,17 @@
       </c>
       <c r="H87" s="11" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I87" s="11" t="inlineStr">
         <is>
-          <t>500低波动</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="J87" s="11" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>114</t>
         </is>
       </c>
       <c r="K87" s="11" t="inlineStr">
@@ -4562,42 +4562,42 @@
     <row r="88">
       <c r="A88" s="7" t="inlineStr">
         <is>
-          <t>华宝香港中小</t>
+          <t>景顺长城中证500低波动</t>
         </is>
       </c>
       <c r="B88" s="8" t="n">
-        <v>501021</v>
+        <v>3318</v>
       </c>
       <c r="C88" s="9" t="n">
-        <v>1.3514</v>
+        <v>0.9393</v>
       </c>
       <c r="D88" s="10" t="n">
-        <v>915.97</v>
+        <v>1647.71</v>
       </c>
       <c r="E88" s="10" t="n">
-        <v>1345.56</v>
+        <v>1532.37</v>
       </c>
       <c r="F88" s="10" t="n">
-        <v>107.72</v>
+        <v>-15.32</v>
       </c>
       <c r="G88" s="11" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H88" s="11" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I88" s="11" t="inlineStr">
         <is>
-          <t>香港中小</t>
+          <t>500低波动</t>
         </is>
       </c>
       <c r="J88" s="11" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>122</t>
         </is>
       </c>
       <c r="K88" s="11" t="inlineStr">
@@ -4609,42 +4609,42 @@
     <row r="89">
       <c r="A89" s="7" t="inlineStr">
         <is>
-          <t>嘉实深证基本面120联接</t>
+          <t>华宝香港中小</t>
         </is>
       </c>
       <c r="B89" s="8" t="n">
-        <v>70023</v>
+        <v>501021</v>
       </c>
       <c r="C89" s="9" t="n">
-        <v>1.7992</v>
+        <v>1.3514</v>
       </c>
       <c r="D89" s="10" t="n">
-        <v>528.99</v>
+        <v>915.97</v>
       </c>
       <c r="E89" s="10" t="n">
-        <v>978.74</v>
+        <v>1345.56</v>
       </c>
       <c r="F89" s="10" t="n">
-        <v>26.98</v>
+        <v>107.72</v>
       </c>
       <c r="G89" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H89" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I89" s="11" t="inlineStr">
         <is>
-          <t>基本面120</t>
+          <t>香港中小</t>
         </is>
       </c>
       <c r="J89" s="11" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>213</t>
         </is>
       </c>
       <c r="K89" s="11" t="inlineStr">
@@ -4656,23 +4656,23 @@
     <row r="90">
       <c r="A90" s="7" t="inlineStr">
         <is>
-          <t>建信深证基本面60ETF联接A</t>
+          <t>嘉实深证基本面120联接</t>
         </is>
       </c>
       <c r="B90" s="8" t="n">
-        <v>530015</v>
+        <v>70023</v>
       </c>
       <c r="C90" s="9" t="n">
-        <v>2.142</v>
+        <v>1.7992</v>
       </c>
       <c r="D90" s="10" t="n">
-        <v>451.58</v>
+        <v>528.99</v>
       </c>
       <c r="E90" s="10" t="n">
-        <v>973.2</v>
+        <v>978.74</v>
       </c>
       <c r="F90" s="10" t="n">
-        <v>5.92</v>
+        <v>26.98</v>
       </c>
       <c r="G90" s="11" t="inlineStr">
         <is>
@@ -4686,12 +4686,12 @@
       </c>
       <c r="I90" s="11" t="inlineStr">
         <is>
-          <t>基本面60</t>
+          <t>基本面120</t>
         </is>
       </c>
       <c r="J90" s="11" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>116</t>
         </is>
       </c>
       <c r="K90" s="11" t="inlineStr">
@@ -4703,23 +4703,23 @@
     <row r="91">
       <c r="A91" s="7" t="inlineStr">
         <is>
-          <t>广发中证养老</t>
+          <t>建信深证基本面60ETF联接A</t>
         </is>
       </c>
       <c r="B91" s="8" t="n">
-        <v>968</v>
+        <v>530015</v>
       </c>
       <c r="C91" s="9" t="n">
-        <v>0.9588</v>
+        <v>2.142</v>
       </c>
       <c r="D91" s="10" t="n">
-        <v>426.97</v>
+        <v>451.58</v>
       </c>
       <c r="E91" s="10" t="n">
-        <v>425.26</v>
+        <v>973.2</v>
       </c>
       <c r="F91" s="10" t="n">
-        <v>15.88</v>
+        <v>5.92</v>
       </c>
       <c r="G91" s="11" t="inlineStr">
         <is>
@@ -4728,17 +4728,17 @@
       </c>
       <c r="H91" s="11" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I91" s="11" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>基本面60</t>
         </is>
       </c>
       <c r="J91" s="11" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>115</t>
         </is>
       </c>
       <c r="K91" s="11" t="inlineStr">
@@ -4750,23 +4750,23 @@
     <row r="92">
       <c r="A92" s="7" t="inlineStr">
         <is>
-          <t>天弘中证银行指数A</t>
+          <t>广发中证养老</t>
         </is>
       </c>
       <c r="B92" s="8" t="n">
-        <v>1594</v>
+        <v>968</v>
       </c>
       <c r="C92" s="9" t="n">
-        <v>1.2512</v>
+        <v>0.9588</v>
       </c>
       <c r="D92" s="10" t="n">
-        <v>220.69</v>
+        <v>426.97</v>
       </c>
       <c r="E92" s="10" t="n">
-        <v>254.57</v>
+        <v>425.26</v>
       </c>
       <c r="F92" s="10" t="n">
-        <v>-21.56</v>
+        <v>15.88</v>
       </c>
       <c r="G92" s="11" t="inlineStr">
         <is>
@@ -4780,12 +4780,12 @@
       </c>
       <c r="I92" s="11" t="inlineStr">
         <is>
-          <t>中证银行</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="J92" s="11" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K92" s="11" t="inlineStr">
@@ -4797,23 +4797,23 @@
     <row r="93">
       <c r="A93" s="7" t="inlineStr">
         <is>
-          <t>华宝红利基金</t>
+          <t>天弘中证银行指数A</t>
         </is>
       </c>
       <c r="B93" s="8" t="n">
-        <v>501029</v>
+        <v>1594</v>
       </c>
       <c r="C93" s="9" t="n">
-        <v>0.9824000000000001</v>
+        <v>1.2512</v>
       </c>
       <c r="D93" s="10" t="n">
-        <v>227.52</v>
+        <v>220.69</v>
       </c>
       <c r="E93" s="10" t="n">
-        <v>212.05</v>
+        <v>254.57</v>
       </c>
       <c r="F93" s="10" t="n">
-        <v>-11.47</v>
+        <v>-21.56</v>
       </c>
       <c r="G93" s="11" t="inlineStr">
         <is>
@@ -4822,17 +4822,17 @@
       </c>
       <c r="H93" s="11" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I93" s="11" t="inlineStr">
         <is>
-          <t>标普红利</t>
+          <t>中证银行</t>
         </is>
       </c>
       <c r="J93" s="11" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>146</t>
         </is>
       </c>
       <c r="K93" s="11" t="inlineStr">
@@ -4844,23 +4844,23 @@
     <row r="94">
       <c r="A94" s="7" t="inlineStr">
         <is>
-          <t>华夏上证50AH优选指数</t>
+          <t>华宝红利基金</t>
         </is>
       </c>
       <c r="B94" s="8" t="n">
-        <v>501050</v>
+        <v>501029</v>
       </c>
       <c r="C94" s="9" t="n">
-        <v>1.284</v>
+        <v>0.9824000000000001</v>
       </c>
       <c r="D94" s="10" t="n">
-        <v>142.1</v>
+        <v>227.52</v>
       </c>
       <c r="E94" s="10" t="n">
-        <v>182.88</v>
+        <v>212.05</v>
       </c>
       <c r="F94" s="10" t="n">
-        <v>0.43</v>
+        <v>-11.47</v>
       </c>
       <c r="G94" s="11" t="inlineStr">
         <is>
@@ -4869,17 +4869,17 @@
       </c>
       <c r="H94" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I94" s="11" t="inlineStr">
         <is>
-          <t>50AH</t>
+          <t>标普红利</t>
         </is>
       </c>
       <c r="J94" s="11" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>132</t>
         </is>
       </c>
       <c r="K94" s="11" t="inlineStr">
@@ -4891,23 +4891,23 @@
     <row r="95">
       <c r="A95" s="7" t="inlineStr">
         <is>
-          <t>天弘中证医药100A</t>
+          <t>华夏上证50AH优选指数</t>
         </is>
       </c>
       <c r="B95" s="8" t="n">
-        <v>1550</v>
+        <v>501050</v>
       </c>
       <c r="C95" s="9" t="n">
-        <v>0.6708</v>
+        <v>1.284</v>
       </c>
       <c r="D95" s="10" t="n">
-        <v>212.74</v>
+        <v>142.1</v>
       </c>
       <c r="E95" s="10" t="n">
-        <v>189</v>
+        <v>182.88</v>
       </c>
       <c r="F95" s="10" t="n">
-        <v>46.29</v>
+        <v>0.43</v>
       </c>
       <c r="G95" s="11" t="inlineStr">
         <is>
@@ -4916,17 +4916,17 @@
       </c>
       <c r="H95" s="11" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I95" s="11" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>50AH</t>
         </is>
       </c>
       <c r="J95" s="11" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>112</t>
         </is>
       </c>
       <c r="K95" s="11" t="inlineStr">
@@ -4938,23 +4938,23 @@
     <row r="96">
       <c r="A96" s="7" t="inlineStr">
         <is>
-          <t>申万菱信沪深300价值指数</t>
+          <t>天弘中证医药100A</t>
         </is>
       </c>
       <c r="B96" s="8" t="n">
-        <v>310398</v>
+        <v>1550</v>
       </c>
       <c r="C96" s="9" t="n">
-        <v>1.4372</v>
+        <v>0.6708</v>
       </c>
       <c r="D96" s="10" t="n">
-        <v>25.8</v>
+        <v>212.74</v>
       </c>
       <c r="E96" s="10" t="n">
-        <v>33.4</v>
+        <v>189</v>
       </c>
       <c r="F96" s="10" t="n">
-        <v>-3.68</v>
+        <v>46.29</v>
       </c>
       <c r="G96" s="11" t="inlineStr">
         <is>
@@ -4963,17 +4963,17 @@
       </c>
       <c r="H96" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I96" s="11" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="J96" s="11" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K96" s="11" t="inlineStr">
@@ -4985,117 +4985,117 @@
     <row r="97">
       <c r="A97" s="7" t="inlineStr">
         <is>
+          <t>申万菱信沪深300价值指数</t>
+        </is>
+      </c>
+      <c r="B97" s="8" t="n">
+        <v>310398</v>
+      </c>
+      <c r="C97" s="9" t="n">
+        <v>1.4372</v>
+      </c>
+      <c r="D97" s="10" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="E97" s="10" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="F97" s="10" t="n">
+        <v>-3.68</v>
+      </c>
+      <c r="G97" s="11" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H97" s="11" t="inlineStr">
+        <is>
+          <t>大盘股</t>
+        </is>
+      </c>
+      <c r="I97" s="11" t="inlineStr">
+        <is>
+          <t>300价值</t>
+        </is>
+      </c>
+      <c r="J97" s="11" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="K97" s="11" t="inlineStr">
+        <is>
+          <t>螺丝钉母</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="7" t="inlineStr">
+        <is>
           <t>大成景安短融债券E</t>
         </is>
       </c>
-      <c r="B97" s="8" t="n">
+      <c r="B98" s="8" t="n">
         <v>2086</v>
       </c>
-      <c r="C97" s="9" t="n">
+      <c r="C98" s="9" t="n">
         <v>1.2257</v>
       </c>
-      <c r="D97" s="10" t="n">
+      <c r="D98" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E97" s="10" t="n">
+      <c r="E98" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F97" s="10" t="n">
+      <c r="F98" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="G97" s="11" t="inlineStr">
+      <c r="G98" s="11" t="inlineStr">
         <is>
           <t>债券</t>
         </is>
       </c>
-      <c r="H97" s="11" t="inlineStr">
+      <c r="H98" s="11" t="inlineStr">
         <is>
           <t>国内债券</t>
         </is>
       </c>
-      <c r="I97" s="11" t="inlineStr">
+      <c r="I98" s="11" t="inlineStr">
         <is>
           <t>纯债</t>
         </is>
       </c>
-      <c r="J97" s="11" t="inlineStr">
+      <c r="J98" s="11" t="inlineStr">
         <is>
           <t>511</t>
         </is>
       </c>
-      <c r="K97" s="11" t="inlineStr">
+      <c r="K98" s="11" t="inlineStr">
         <is>
           <t>螺丝钉母</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="27" t="inlineStr">
-        <is>
-          <t>交银稳鑫短债债券A</t>
-        </is>
-      </c>
-      <c r="B98" s="28" t="n">
-        <v>6793</v>
-      </c>
-      <c r="C98" s="29" t="n">
-        <v>1.0286</v>
-      </c>
-      <c r="D98" s="30" t="n">
-        <v>78202.03</v>
-      </c>
-      <c r="E98" s="30" t="n">
-        <v>80344.77</v>
-      </c>
-      <c r="F98" s="30" t="n">
-        <v>-93.84</v>
-      </c>
-      <c r="G98" s="31" t="inlineStr">
-        <is>
-          <t>债券</t>
-        </is>
-      </c>
-      <c r="H98" s="31" t="inlineStr">
-        <is>
-          <t>国内债券</t>
-        </is>
-      </c>
-      <c r="I98" s="31" t="inlineStr">
-        <is>
-          <t>可转债</t>
-        </is>
-      </c>
-      <c r="J98" s="31" t="inlineStr">
-        <is>
-          <t>512</t>
-        </is>
-      </c>
-      <c r="K98" s="31" t="inlineStr">
-        <is>
-          <t>稳稳的幸福父</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="27" t="inlineStr">
         <is>
-          <t>交银信用添利债券(LOF)</t>
+          <t>交银稳鑫短债债券A</t>
         </is>
       </c>
       <c r="B99" s="28" t="n">
-        <v>164902</v>
+        <v>6793</v>
       </c>
       <c r="C99" s="29" t="n">
-        <v>1.1469</v>
+        <v>1.0286</v>
       </c>
       <c r="D99" s="30" t="n">
-        <v>132767.68</v>
+        <v>78202.03</v>
       </c>
       <c r="E99" s="30" t="n">
-        <v>153346.67</v>
+        <v>80344.77</v>
       </c>
       <c r="F99" s="30" t="n">
-        <v>1075.42</v>
+        <v>-93.84</v>
       </c>
       <c r="G99" s="31" t="inlineStr">
         <is>
@@ -5126,42 +5126,42 @@
     <row r="100">
       <c r="A100" s="27" t="inlineStr">
         <is>
-          <t>交银主题优选</t>
+          <t>交银信用添利债券(LOF)</t>
         </is>
       </c>
       <c r="B100" s="28" t="n">
-        <v>519700</v>
+        <v>164902</v>
       </c>
       <c r="C100" s="29" t="n">
-        <v>1.4657</v>
+        <v>1.1469</v>
       </c>
       <c r="D100" s="30" t="n">
-        <v>11598.58</v>
+        <v>132767.68</v>
       </c>
       <c r="E100" s="30" t="n">
-        <v>18232.97</v>
+        <v>153346.67</v>
       </c>
       <c r="F100" s="30" t="n">
-        <v>1232.93</v>
+        <v>1075.42</v>
       </c>
       <c r="G100" s="31" t="inlineStr">
         <is>
-          <t>混合型</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H100" s="31" t="inlineStr">
         <is>
-          <t>股债混合</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I100" s="31" t="inlineStr">
         <is>
-          <t>偏股</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J100" s="31" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K100" s="31" t="inlineStr">
@@ -5173,42 +5173,42 @@
     <row r="101">
       <c r="A101" s="27" t="inlineStr">
         <is>
-          <t>交银纯债A/B</t>
+          <t>交银主题优选</t>
         </is>
       </c>
       <c r="B101" s="28" t="n">
-        <v>519718</v>
+        <v>519700</v>
       </c>
       <c r="C101" s="29" t="n">
-        <v>1.0644</v>
+        <v>1.4657</v>
       </c>
       <c r="D101" s="30" t="n">
-        <v>144612.8</v>
+        <v>11598.58</v>
       </c>
       <c r="E101" s="30" t="n">
-        <v>156326.44</v>
+        <v>18232.97</v>
       </c>
       <c r="F101" s="30" t="n">
-        <v>2400.57</v>
+        <v>1232.93</v>
       </c>
       <c r="G101" s="31" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>混合型</t>
         </is>
       </c>
       <c r="H101" s="31" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>股债混合</t>
         </is>
       </c>
       <c r="I101" s="31" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>偏股</t>
         </is>
       </c>
       <c r="J101" s="31" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>411</t>
         </is>
       </c>
       <c r="K101" s="31" t="inlineStr">
@@ -5220,23 +5220,23 @@
     <row r="102">
       <c r="A102" s="27" t="inlineStr">
         <is>
-          <t>交银双轮动A/B</t>
+          <t>交银纯债A/B</t>
         </is>
       </c>
       <c r="B102" s="28" t="n">
-        <v>519723</v>
+        <v>519718</v>
       </c>
       <c r="C102" s="29" t="n">
-        <v>1.0674</v>
+        <v>1.0644</v>
       </c>
       <c r="D102" s="30" t="n">
-        <v>134080.44</v>
+        <v>144612.8</v>
       </c>
       <c r="E102" s="30" t="n">
-        <v>144404.63</v>
+        <v>156326.44</v>
       </c>
       <c r="F102" s="30" t="n">
-        <v>1287.17</v>
+        <v>2400.57</v>
       </c>
       <c r="G102" s="31" t="inlineStr">
         <is>
@@ -5267,42 +5267,42 @@
     <row r="103">
       <c r="A103" s="27" t="inlineStr">
         <is>
-          <t>交银周期回报灵活配置混合A</t>
+          <t>交银双轮动A/B</t>
         </is>
       </c>
       <c r="B103" s="28" t="n">
-        <v>519738</v>
+        <v>519723</v>
       </c>
       <c r="C103" s="29" t="n">
-        <v>1.1791</v>
+        <v>1.0674</v>
       </c>
       <c r="D103" s="30" t="n">
-        <v>68092.81</v>
+        <v>134080.44</v>
       </c>
       <c r="E103" s="30" t="n">
-        <v>78647.2</v>
+        <v>144404.63</v>
       </c>
       <c r="F103" s="30" t="n">
-        <v>-1641.04</v>
+        <v>1287.17</v>
       </c>
       <c r="G103" s="31" t="inlineStr">
         <is>
-          <t>混合型</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H103" s="31" t="inlineStr">
         <is>
-          <t>股债混合</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I103" s="31" t="inlineStr">
         <is>
-          <t>偏债</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J103" s="31" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K103" s="31" t="inlineStr">
@@ -5314,23 +5314,23 @@
     <row r="104">
       <c r="A104" s="27" t="inlineStr">
         <is>
-          <t>交银新回报灵活配置混合A</t>
+          <t>交银周期回报灵活配置混合A</t>
         </is>
       </c>
       <c r="B104" s="28" t="n">
-        <v>519752</v>
+        <v>519738</v>
       </c>
       <c r="C104" s="29" t="n">
-        <v>1.2439</v>
+        <v>1.1791</v>
       </c>
       <c r="D104" s="30" t="n">
-        <v>59685.02</v>
+        <v>68092.81</v>
       </c>
       <c r="E104" s="30" t="n">
-        <v>75083.75999999999</v>
+        <v>78647.2</v>
       </c>
       <c r="F104" s="30" t="n">
-        <v>841.5599999999999</v>
+        <v>-1641.04</v>
       </c>
       <c r="G104" s="31" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
       </c>
       <c r="J104" s="31" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>411</t>
         </is>
       </c>
       <c r="K104" s="31" t="inlineStr">
@@ -5361,117 +5361,117 @@
     <row r="105">
       <c r="A105" s="27" t="inlineStr">
         <is>
+          <t>交银新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="B105" s="28" t="n">
+        <v>519752</v>
+      </c>
+      <c r="C105" s="29" t="n">
+        <v>1.2439</v>
+      </c>
+      <c r="D105" s="30" t="n">
+        <v>59685.02</v>
+      </c>
+      <c r="E105" s="30" t="n">
+        <v>75083.75999999999</v>
+      </c>
+      <c r="F105" s="30" t="n">
+        <v>841.5599999999999</v>
+      </c>
+      <c r="G105" s="31" t="inlineStr">
+        <is>
+          <t>混合型</t>
+        </is>
+      </c>
+      <c r="H105" s="31" t="inlineStr">
+        <is>
+          <t>股债混合</t>
+        </is>
+      </c>
+      <c r="I105" s="31" t="inlineStr">
+        <is>
+          <t>偏债</t>
+        </is>
+      </c>
+      <c r="J105" s="31" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="K105" s="31" t="inlineStr">
+        <is>
+          <t>稳稳的幸福父</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="27" t="inlineStr">
+        <is>
           <t>交银多策略回报灵活配置混合A</t>
         </is>
       </c>
-      <c r="B105" s="28" t="n">
+      <c r="B106" s="28" t="n">
         <v>519755</v>
       </c>
-      <c r="C105" s="29" t="n">
+      <c r="C106" s="29" t="n">
         <v>1.2894</v>
       </c>
-      <c r="D105" s="30" t="n">
+      <c r="D106" s="30" t="n">
         <v>76964.17</v>
       </c>
-      <c r="E105" s="30" t="n">
+      <c r="E106" s="30" t="n">
         <v>100669.13</v>
       </c>
-      <c r="F105" s="30" t="n">
+      <c r="F106" s="30" t="n">
         <v>1431.53</v>
       </c>
-      <c r="G105" s="31" t="inlineStr">
+      <c r="G106" s="31" t="inlineStr">
         <is>
           <t>混合型</t>
         </is>
       </c>
-      <c r="H105" s="31" t="inlineStr">
+      <c r="H106" s="31" t="inlineStr">
         <is>
           <t>股债混合</t>
         </is>
       </c>
-      <c r="I105" s="31" t="inlineStr">
+      <c r="I106" s="31" t="inlineStr">
         <is>
           <t>偏债</t>
         </is>
       </c>
-      <c r="J105" s="31" t="inlineStr">
+      <c r="J106" s="31" t="inlineStr">
         <is>
           <t>412</t>
         </is>
       </c>
-      <c r="K105" s="31" t="inlineStr">
+      <c r="K106" s="31" t="inlineStr">
         <is>
           <t>稳稳的幸福父</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="32" t="inlineStr">
-        <is>
-          <t>广发中证500ETF联接A</t>
-        </is>
-      </c>
-      <c r="B106" s="33" t="n">
-        <v>162711</v>
-      </c>
-      <c r="C106" s="34" t="n">
-        <v>1.0519</v>
-      </c>
-      <c r="D106" s="35" t="n">
-        <v>9697.57</v>
-      </c>
-      <c r="E106" s="35" t="n">
-        <v>10849.64</v>
-      </c>
-      <c r="F106" s="35" t="n">
-        <v>648.77</v>
-      </c>
-      <c r="G106" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H106" s="36" t="inlineStr">
-        <is>
-          <t>中小盘股</t>
-        </is>
-      </c>
-      <c r="I106" s="36" t="inlineStr">
-        <is>
-          <t>中证500</t>
-        </is>
-      </c>
-      <c r="J106" s="36" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="K106" s="36" t="inlineStr">
-        <is>
-          <t>天天基金母</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="32" t="inlineStr">
         <is>
-          <t>富国中证红利指数增强</t>
+          <t>广发中证500ETF联接A</t>
         </is>
       </c>
       <c r="B107" s="33" t="n">
-        <v>100032</v>
+        <v>162711</v>
       </c>
       <c r="C107" s="34" t="n">
-        <v>1.0142</v>
+        <v>1.0519</v>
       </c>
       <c r="D107" s="35" t="n">
-        <v>8677.6</v>
+        <v>9697.57</v>
       </c>
       <c r="E107" s="35" t="n">
-        <v>9259</v>
+        <v>10849.64</v>
       </c>
       <c r="F107" s="35" t="n">
-        <v>458.18</v>
+        <v>648.77</v>
       </c>
       <c r="G107" s="36" t="inlineStr">
         <is>
@@ -5480,17 +5480,17 @@
       </c>
       <c r="H107" s="36" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I107" s="36" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J107" s="36" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K107" s="36" t="inlineStr">
@@ -5502,23 +5502,23 @@
     <row r="108">
       <c r="A108" s="32" t="inlineStr">
         <is>
-          <t>广发养老指数A</t>
+          <t>富国中证红利指数增强</t>
         </is>
       </c>
       <c r="B108" s="33" t="n">
-        <v>968</v>
+        <v>100032</v>
       </c>
       <c r="C108" s="34" t="n">
-        <v>0.853</v>
+        <v>1.0142</v>
       </c>
       <c r="D108" s="35" t="n">
-        <v>6096.21</v>
+        <v>8677.6</v>
       </c>
       <c r="E108" s="35" t="n">
-        <v>6071.83</v>
+        <v>9259</v>
       </c>
       <c r="F108" s="35" t="n">
-        <v>871.76</v>
+        <v>458.18</v>
       </c>
       <c r="G108" s="36" t="inlineStr">
         <is>
@@ -5527,17 +5527,17 @@
       </c>
       <c r="H108" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I108" s="36" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J108" s="36" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K108" s="36" t="inlineStr">
@@ -5549,23 +5549,23 @@
     <row r="109">
       <c r="A109" s="32" t="inlineStr">
         <is>
-          <t>广发医药卫生联接A</t>
+          <t>广发养老指数A</t>
         </is>
       </c>
       <c r="B109" s="33" t="n">
-        <v>1180</v>
+        <v>968</v>
       </c>
       <c r="C109" s="34" t="n">
-        <v>0.7111</v>
+        <v>0.853</v>
       </c>
       <c r="D109" s="35" t="n">
-        <v>6750.28</v>
+        <v>6096.21</v>
       </c>
       <c r="E109" s="35" t="n">
-        <v>6295.99</v>
+        <v>6071.83</v>
       </c>
       <c r="F109" s="35" t="n">
-        <v>1495.86</v>
+        <v>871.76</v>
       </c>
       <c r="G109" s="36" t="inlineStr">
         <is>
@@ -5579,12 +5579,12 @@
       </c>
       <c r="I109" s="36" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="J109" s="36" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K109" s="36" t="inlineStr">
@@ -5596,23 +5596,23 @@
     <row r="110">
       <c r="A110" s="32" t="inlineStr">
         <is>
-          <t>富国沪深300指数增强</t>
+          <t>广发医药卫生联接A</t>
         </is>
       </c>
       <c r="B110" s="33" t="n">
-        <v>100038</v>
+        <v>1180</v>
       </c>
       <c r="C110" s="34" t="n">
-        <v>1.3043</v>
+        <v>0.7111</v>
       </c>
       <c r="D110" s="35" t="n">
-        <v>2760.12</v>
+        <v>6750.28</v>
       </c>
       <c r="E110" s="35" t="n">
-        <v>4405.15</v>
+        <v>6295.99</v>
       </c>
       <c r="F110" s="35" t="n">
-        <v>805.13</v>
+        <v>1495.86</v>
       </c>
       <c r="G110" s="36" t="inlineStr">
         <is>
@@ -5621,17 +5621,17 @@
       </c>
       <c r="H110" s="36" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I110" s="36" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="J110" s="36" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K110" s="36" t="inlineStr">
@@ -5643,23 +5643,23 @@
     <row r="111">
       <c r="A111" s="32" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF联接A</t>
+          <t>富国沪深300指数增强</t>
         </is>
       </c>
       <c r="B111" s="33" t="n">
-        <v>4752</v>
+        <v>100038</v>
       </c>
       <c r="C111" s="34" t="n">
-        <v>0.7235</v>
+        <v>1.3043</v>
       </c>
       <c r="D111" s="35" t="n">
-        <v>4423.48</v>
+        <v>2760.12</v>
       </c>
       <c r="E111" s="35" t="n">
-        <v>3748.01</v>
+        <v>4405.15</v>
       </c>
       <c r="F111" s="35" t="n">
-        <v>547.63</v>
+        <v>805.13</v>
       </c>
       <c r="G111" s="36" t="inlineStr">
         <is>
@@ -5668,17 +5668,17 @@
       </c>
       <c r="H111" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I111" s="36" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>沪深300</t>
         </is>
       </c>
       <c r="J111" s="36" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>113</t>
         </is>
       </c>
       <c r="K111" s="36" t="inlineStr">
@@ -5690,23 +5690,23 @@
     <row r="112">
       <c r="A112" s="32" t="inlineStr">
         <is>
-          <t>广发中证环保ETF联接A</t>
+          <t>广发中证传媒ETF联接A</t>
         </is>
       </c>
       <c r="B112" s="33" t="n">
-        <v>1064</v>
+        <v>4752</v>
       </c>
       <c r="C112" s="34" t="n">
-        <v>0.5379</v>
+        <v>0.7235</v>
       </c>
       <c r="D112" s="35" t="n">
-        <v>5949.77</v>
+        <v>4423.48</v>
       </c>
       <c r="E112" s="35" t="n">
-        <v>3490.73</v>
+        <v>3748.01</v>
       </c>
       <c r="F112" s="35" t="n">
-        <v>290.35</v>
+        <v>547.63</v>
       </c>
       <c r="G112" s="36" t="inlineStr">
         <is>
@@ -5720,12 +5720,12 @@
       </c>
       <c r="I112" s="36" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>中证传媒</t>
         </is>
       </c>
       <c r="J112" s="36" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>144</t>
         </is>
       </c>
       <c r="K112" s="36" t="inlineStr">
@@ -5737,23 +5737,23 @@
     <row r="113">
       <c r="A113" s="32" t="inlineStr">
         <is>
-          <t>富国中证500指数(LOF)</t>
+          <t>广发中证环保ETF联接A</t>
         </is>
       </c>
       <c r="B113" s="33" t="n">
-        <v>161017</v>
+        <v>1064</v>
       </c>
       <c r="C113" s="34" t="n">
-        <v>1.325</v>
+        <v>0.5379</v>
       </c>
       <c r="D113" s="35" t="n">
-        <v>2046.97</v>
+        <v>5949.77</v>
       </c>
       <c r="E113" s="35" t="n">
-        <v>3443</v>
+        <v>3490.73</v>
       </c>
       <c r="F113" s="35" t="n">
-        <v>730.77</v>
+        <v>290.35</v>
       </c>
       <c r="G113" s="36" t="inlineStr">
         <is>
@@ -5762,17 +5762,17 @@
       </c>
       <c r="H113" s="36" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I113" s="36" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="J113" s="36" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>143</t>
         </is>
       </c>
       <c r="K113" s="36" t="inlineStr">
@@ -5784,42 +5784,42 @@
     <row r="114">
       <c r="A114" s="32" t="inlineStr">
         <is>
-          <t>易方达安心回报债券A</t>
+          <t>富国中证500指数(LOF)</t>
         </is>
       </c>
       <c r="B114" s="33" t="n">
-        <v>110027</v>
+        <v>161017</v>
       </c>
       <c r="C114" s="34" t="n">
-        <v>1.6102</v>
+        <v>1.325</v>
       </c>
       <c r="D114" s="35" t="n">
-        <v>1981.84</v>
+        <v>2046.97</v>
       </c>
       <c r="E114" s="35" t="n">
-        <v>3493.98</v>
+        <v>3443</v>
       </c>
       <c r="F114" s="35" t="n">
-        <v>302.83</v>
+        <v>730.77</v>
       </c>
       <c r="G114" s="36" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H114" s="36" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I114" s="36" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J114" s="36" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K114" s="36" t="inlineStr">
@@ -5831,42 +5831,42 @@
     <row r="115">
       <c r="A115" s="32" t="inlineStr">
         <is>
-          <t>易方达创业板ETF联接A</t>
+          <t>易方达安心回报债券A</t>
         </is>
       </c>
       <c r="B115" s="33" t="n">
-        <v>110026</v>
+        <v>110027</v>
       </c>
       <c r="C115" s="34" t="n">
-        <v>1.319</v>
+        <v>1.6102</v>
       </c>
       <c r="D115" s="35" t="n">
-        <v>1213.09</v>
+        <v>1981.84</v>
       </c>
       <c r="E115" s="35" t="n">
-        <v>2409.56</v>
+        <v>3493.98</v>
       </c>
       <c r="F115" s="35" t="n">
-        <v>809.49</v>
+        <v>302.83</v>
       </c>
       <c r="G115" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H115" s="36" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I115" s="36" t="inlineStr">
         <is>
-          <t>创业板</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J115" s="36" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K115" s="36" t="inlineStr">
@@ -5878,42 +5878,42 @@
     <row r="116">
       <c r="A116" s="32" t="inlineStr">
         <is>
-          <t>华安德国30(DAX)联接</t>
+          <t>易方达创业板ETF联接A</t>
         </is>
       </c>
       <c r="B116" s="33" t="n">
-        <v>614</v>
+        <v>110026</v>
       </c>
       <c r="C116" s="34" t="n">
-        <v>1.0612</v>
+        <v>1.319</v>
       </c>
       <c r="D116" s="35" t="n">
-        <v>1884.74</v>
+        <v>1213.09</v>
       </c>
       <c r="E116" s="35" t="n">
-        <v>2263.57</v>
+        <v>2409.56</v>
       </c>
       <c r="F116" s="35" t="n">
-        <v>263.49</v>
+        <v>809.49</v>
       </c>
       <c r="G116" s="36" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H116" s="36" t="inlineStr">
         <is>
-          <t>德国</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I116" s="36" t="inlineStr">
         <is>
-          <t>德国30</t>
+          <t>创业板</t>
         </is>
       </c>
       <c r="J116" s="36" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>124</t>
         </is>
       </c>
       <c r="K116" s="36" t="inlineStr">
@@ -5925,42 +5925,42 @@
     <row r="117">
       <c r="A117" s="32" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>华安德国30(DAX)联接</t>
         </is>
       </c>
       <c r="B117" s="33" t="n">
-        <v>164906</v>
+        <v>614</v>
       </c>
       <c r="C117" s="34" t="n">
-        <v>1.137</v>
+        <v>1.0612</v>
       </c>
       <c r="D117" s="35" t="n">
-        <v>1407.29</v>
+        <v>1884.74</v>
       </c>
       <c r="E117" s="35" t="n">
-        <v>2013.83</v>
+        <v>2263.57</v>
       </c>
       <c r="F117" s="35" t="n">
-        <v>413.74</v>
+        <v>263.49</v>
       </c>
       <c r="G117" s="36" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="H117" s="36" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>德国</t>
         </is>
       </c>
       <c r="I117" s="36" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>德国30</t>
         </is>
       </c>
       <c r="J117" s="36" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>321</t>
         </is>
       </c>
       <c r="K117" s="36" t="inlineStr">
@@ -5972,42 +5972,42 @@
     <row r="118">
       <c r="A118" s="32" t="inlineStr">
         <is>
-          <t>兴全可转债混合</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B118" s="33" t="n">
-        <v>340001</v>
+        <v>164906</v>
       </c>
       <c r="C118" s="34" t="n">
-        <v>0.9816</v>
+        <v>1.137</v>
       </c>
       <c r="D118" s="35" t="n">
-        <v>1630.08</v>
+        <v>1407.29</v>
       </c>
       <c r="E118" s="35" t="n">
-        <v>1959.85</v>
+        <v>2013.83</v>
       </c>
       <c r="F118" s="35" t="n">
-        <v>359.76</v>
+        <v>413.74</v>
       </c>
       <c r="G118" s="36" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H118" s="36" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="I118" s="36" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="J118" s="36" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>221</t>
         </is>
       </c>
       <c r="K118" s="36" t="inlineStr">
@@ -6019,42 +6019,42 @@
     <row r="119">
       <c r="A119" s="32" t="inlineStr">
         <is>
-          <t>华夏上证50ETF联接A</t>
+          <t>兴全可转债混合</t>
         </is>
       </c>
       <c r="B119" s="33" t="n">
-        <v>1051</v>
+        <v>340001</v>
       </c>
       <c r="C119" s="34" t="n">
-        <v>0.8966</v>
+        <v>0.9816</v>
       </c>
       <c r="D119" s="35" t="n">
-        <v>1338.46</v>
+        <v>1630.08</v>
       </c>
       <c r="E119" s="35" t="n">
-        <v>1290.28</v>
+        <v>1959.85</v>
       </c>
       <c r="F119" s="35" t="n">
-        <v>90.20999999999999</v>
+        <v>359.76</v>
       </c>
       <c r="G119" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H119" s="36" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I119" s="36" t="inlineStr">
         <is>
-          <t>上证50</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J119" s="36" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K119" s="36" t="inlineStr">
@@ -6066,23 +6066,23 @@
     <row r="120">
       <c r="A120" s="32" t="inlineStr">
         <is>
-          <t>华宝中证1000指数分级</t>
+          <t>华夏上证50ETF联接A</t>
         </is>
       </c>
       <c r="B120" s="33" t="n">
-        <v>162413</v>
+        <v>1051</v>
       </c>
       <c r="C120" s="34" t="n">
-        <v>0.776</v>
+        <v>0.8966</v>
       </c>
       <c r="D120" s="35" t="n">
-        <v>1546.42</v>
+        <v>1338.46</v>
       </c>
       <c r="E120" s="35" t="n">
-        <v>1228.01</v>
+        <v>1290.28</v>
       </c>
       <c r="F120" s="35" t="n">
-        <v>27.99</v>
+        <v>90.20999999999999</v>
       </c>
       <c r="G120" s="36" t="inlineStr">
         <is>
@@ -6091,17 +6091,17 @@
       </c>
       <c r="H120" s="36" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I120" s="36" t="inlineStr">
         <is>
-          <t>中证1000</t>
+          <t>上证50</t>
         </is>
       </c>
       <c r="J120" s="36" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>111</t>
         </is>
       </c>
       <c r="K120" s="36" t="inlineStr">
@@ -6113,42 +6113,42 @@
     <row r="121">
       <c r="A121" s="32" t="inlineStr">
         <is>
-          <t>华宝标普油气上游股票人民币A</t>
+          <t>华宝中证1000指数分级</t>
         </is>
       </c>
       <c r="B121" s="33" t="n">
-        <v>162411</v>
+        <v>162413</v>
       </c>
       <c r="C121" s="34" t="n">
-        <v>0.4776</v>
+        <v>0.776</v>
       </c>
       <c r="D121" s="35" t="n">
-        <v>3350.7</v>
+        <v>1546.42</v>
       </c>
       <c r="E121" s="35" t="n">
-        <v>1212.95</v>
+        <v>1228.01</v>
       </c>
       <c r="F121" s="35" t="n">
-        <v>-387.34</v>
+        <v>27.99</v>
       </c>
       <c r="G121" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H121" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I121" s="36" t="inlineStr">
         <is>
-          <t>原油</t>
+          <t>中证1000</t>
         </is>
       </c>
       <c r="J121" s="36" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>123</t>
         </is>
       </c>
       <c r="K121" s="36" t="inlineStr">
@@ -6160,42 +6160,42 @@
     <row r="122">
       <c r="A122" s="32" t="inlineStr">
         <is>
-          <t>广发中证全指金融地产联接A</t>
+          <t>华宝标普油气上游股票人民币A</t>
         </is>
       </c>
       <c r="B122" s="33" t="n">
-        <v>1469</v>
+        <v>162411</v>
       </c>
       <c r="C122" s="34" t="n">
-        <v>0.8885999999999999</v>
+        <v>0.4776</v>
       </c>
       <c r="D122" s="35" t="n">
-        <v>900.35</v>
+        <v>3350.7</v>
       </c>
       <c r="E122" s="35" t="n">
-        <v>928.4400000000001</v>
+        <v>1212.95</v>
       </c>
       <c r="F122" s="35" t="n">
-        <v>128.39</v>
+        <v>-387.34</v>
       </c>
       <c r="G122" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="H122" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="I122" s="36" t="inlineStr">
         <is>
-          <t>金融地产</t>
+          <t>原油</t>
         </is>
       </c>
       <c r="J122" s="36" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>613</t>
         </is>
       </c>
       <c r="K122" s="36" t="inlineStr">
@@ -6207,42 +6207,42 @@
     <row r="123">
       <c r="A123" s="32" t="inlineStr">
         <is>
-          <t>华安黄金易ETF联接A</t>
+          <t>广发中证全指金融地产联接A</t>
         </is>
       </c>
       <c r="B123" s="33" t="n">
-        <v>216</v>
+        <v>1469</v>
       </c>
       <c r="C123" s="34" t="n">
-        <v>1.0903</v>
+        <v>0.8885999999999999</v>
       </c>
       <c r="D123" s="35" t="n">
-        <v>733.79</v>
+        <v>900.35</v>
       </c>
       <c r="E123" s="35" t="n">
-        <v>943.4299999999999</v>
+        <v>928.4400000000001</v>
       </c>
       <c r="F123" s="35" t="n">
-        <v>143.38</v>
+        <v>128.39</v>
       </c>
       <c r="G123" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H123" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I123" s="36" t="inlineStr">
         <is>
-          <t>黄金</t>
+          <t>金融地产</t>
         </is>
       </c>
       <c r="J123" s="36" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>147</t>
         </is>
       </c>
       <c r="K123" s="36" t="inlineStr">
@@ -6254,42 +6254,42 @@
     <row r="124">
       <c r="A124" s="32" t="inlineStr">
         <is>
-          <t>易方达证券公司分级</t>
+          <t>华安黄金易ETF联接A</t>
         </is>
       </c>
       <c r="B124" s="33" t="n">
-        <v>502010</v>
+        <v>216</v>
       </c>
       <c r="C124" s="34" t="n">
-        <v>0.8063</v>
+        <v>1.0903</v>
       </c>
       <c r="D124" s="35" t="n">
-        <v>496.13</v>
+        <v>733.79</v>
       </c>
       <c r="E124" s="35" t="n">
-        <v>485.51</v>
+        <v>943.4299999999999</v>
       </c>
       <c r="F124" s="35" t="n">
-        <v>85.48</v>
+        <v>143.38</v>
       </c>
       <c r="G124" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="H124" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="I124" s="36" t="inlineStr">
         <is>
-          <t>证券公司</t>
+          <t>黄金</t>
         </is>
       </c>
       <c r="J124" s="36" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>611</t>
         </is>
       </c>
       <c r="K124" s="36" t="inlineStr">
@@ -6301,42 +6301,42 @@
     <row r="125">
       <c r="A125" s="32" t="inlineStr">
         <is>
-          <t>长信可转债债券A</t>
+          <t>易方达证券公司分级</t>
         </is>
       </c>
       <c r="B125" s="33" t="n">
-        <v>519977</v>
+        <v>502010</v>
       </c>
       <c r="C125" s="34" t="n">
-        <v>1.2011</v>
+        <v>0.8063</v>
       </c>
       <c r="D125" s="35" t="n">
-        <v>333.04</v>
+        <v>496.13</v>
       </c>
       <c r="E125" s="35" t="n">
-        <v>473.72</v>
+        <v>485.51</v>
       </c>
       <c r="F125" s="35" t="n">
-        <v>73.7</v>
+        <v>85.48</v>
       </c>
       <c r="G125" s="36" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H125" s="36" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I125" s="36" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>证券公司</t>
         </is>
       </c>
       <c r="J125" s="36" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>145</t>
         </is>
       </c>
       <c r="K125" s="36" t="inlineStr">
@@ -6348,42 +6348,42 @@
     <row r="126">
       <c r="A126" s="32" t="inlineStr">
         <is>
-          <t>华夏沪深300ETF联接A</t>
+          <t>长信可转债债券A</t>
         </is>
       </c>
       <c r="B126" s="33" t="n">
-        <v>51</v>
+        <v>519977</v>
       </c>
       <c r="C126" s="34" t="n">
-        <v>1.2285</v>
+        <v>1.2011</v>
       </c>
       <c r="D126" s="35" t="n">
-        <v>325.61</v>
+        <v>333.04</v>
       </c>
       <c r="E126" s="35" t="n">
-        <v>418.08</v>
+        <v>473.72</v>
       </c>
       <c r="F126" s="35" t="n">
-        <v>18.07</v>
+        <v>73.7</v>
       </c>
       <c r="G126" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H126" s="36" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I126" s="36" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J126" s="36" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K126" s="36" t="inlineStr">
@@ -6395,23 +6395,23 @@
     <row r="127">
       <c r="A127" s="32" t="inlineStr">
         <is>
-          <t>建信中证500指数增强A</t>
+          <t>华夏沪深300ETF联接A</t>
         </is>
       </c>
       <c r="B127" s="33" t="n">
-        <v>478</v>
+        <v>51</v>
       </c>
       <c r="C127" s="34" t="n">
-        <v>1.9396</v>
+        <v>1.2285</v>
       </c>
       <c r="D127" s="35" t="n">
-        <v>206.23</v>
+        <v>325.61</v>
       </c>
       <c r="E127" s="35" t="n">
-        <v>405.24</v>
+        <v>418.08</v>
       </c>
       <c r="F127" s="35" t="n">
-        <v>5.24</v>
+        <v>18.07</v>
       </c>
       <c r="G127" s="36" t="inlineStr">
         <is>
@@ -6420,17 +6420,17 @@
       </c>
       <c r="H127" s="36" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I127" s="36" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>沪深300</t>
         </is>
       </c>
       <c r="J127" s="36" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>113</t>
         </is>
       </c>
       <c r="K127" s="36" t="inlineStr">
@@ -6442,45 +6442,92 @@
     <row r="128">
       <c r="A128" s="32" t="inlineStr">
         <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="B128" s="33" t="n">
+        <v>478</v>
+      </c>
+      <c r="C128" s="34" t="n">
+        <v>1.9396</v>
+      </c>
+      <c r="D128" s="35" t="n">
+        <v>206.23</v>
+      </c>
+      <c r="E128" s="35" t="n">
+        <v>405.24</v>
+      </c>
+      <c r="F128" s="35" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="G128" s="36" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H128" s="36" t="inlineStr">
+        <is>
+          <t>中小盘股</t>
+        </is>
+      </c>
+      <c r="I128" s="36" t="inlineStr">
+        <is>
+          <t>中证500</t>
+        </is>
+      </c>
+      <c r="J128" s="36" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="K128" s="36" t="inlineStr">
+        <is>
+          <t>天天基金母</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="32" t="inlineStr">
+        <is>
           <t>华夏恒生ETF联接A</t>
         </is>
       </c>
-      <c r="B128" s="33" t="n">
+      <c r="B129" s="33" t="n">
         <v>71</v>
       </c>
-      <c r="C128" s="34" t="n">
+      <c r="C129" s="34" t="n">
         <v>1.452</v>
       </c>
-      <c r="D128" s="35" t="n">
+      <c r="D129" s="35" t="n">
         <v>275.49</v>
       </c>
-      <c r="E128" s="35" t="n">
+      <c r="E129" s="35" t="n">
         <v>413.18</v>
       </c>
-      <c r="F128" s="35" t="n">
+      <c r="F129" s="35" t="n">
         <v>13.17</v>
       </c>
-      <c r="G128" s="36" t="inlineStr">
+      <c r="G129" s="36" t="inlineStr">
         <is>
           <t>海外新兴</t>
         </is>
       </c>
-      <c r="H128" s="36" t="inlineStr">
+      <c r="H129" s="36" t="inlineStr">
         <is>
           <t>香港</t>
         </is>
       </c>
-      <c r="I128" s="36" t="inlineStr">
+      <c r="I129" s="36" t="inlineStr">
         <is>
           <t>恒生</t>
         </is>
       </c>
-      <c r="J128" s="36" t="inlineStr">
+      <c r="J129" s="36" t="inlineStr">
         <is>
           <t>211</t>
         </is>
       </c>
-      <c r="K128" s="36" t="inlineStr">
+      <c r="K129" s="36" t="inlineStr">
         <is>
           <t>天天基金母</t>
         </is>

--- a/scripts/output/202002/全家/全家整体资产配置.xlsx
+++ b/scripts/output/202002/全家/全家整体资产配置.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="资产配置情况" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="000000" numFmtId="164"/>
-    <numFmt formatCode="0.0000" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -34,7 +34,7 @@
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill/>
     </fill>
@@ -63,6 +63,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00B0D482"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00FF7C9E"/>
       </patternFill>
     </fill>
@@ -87,67 +92,74 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -448,16 +460,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="31.5"/>
-    <col customWidth="1" max="2" min="2" width="9"/>
-    <col customWidth="1" max="3" min="3" width="9"/>
-    <col customWidth="1" max="4" min="4" width="9"/>
-    <col customWidth="1" max="5" min="5" width="9"/>
-    <col customWidth="1" max="6" min="6" width="9"/>
-    <col customWidth="1" max="7" min="7" width="9"/>
-    <col customWidth="1" max="8" min="8" width="11.25"/>
-    <col customWidth="1" max="9" min="9" width="11.25"/>
-    <col customWidth="1" max="11" min="11" width="13.5"/>
+    <col width="31.5" customWidth="1" min="1" max="1"/>
+    <col width="9" customWidth="1" min="2" max="2"/>
+    <col width="9" customWidth="1" min="3" max="3"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
+    <col width="9" customWidth="1" min="5" max="5"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="9" customWidth="1" min="7" max="7"/>
+    <col width="11.25" customWidth="1" min="8" max="8"/>
+    <col width="11.25" customWidth="1" min="9" max="9"/>
+    <col width="13.5" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -721,10 +733,10 @@
         <v>2260.14</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>3393.37</v>
+        <v>3366.7</v>
       </c>
       <c r="F6" s="10" t="n">
-        <v>346.48</v>
+        <v>319.81</v>
       </c>
       <c r="G6" s="11" t="inlineStr">
         <is>
@@ -768,10 +780,10 @@
         <v>1178.34</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>2588.46</v>
+        <v>2576.91</v>
       </c>
       <c r="F7" s="10" t="n">
-        <v>71.64</v>
+        <v>60.1</v>
       </c>
       <c r="G7" s="11" t="inlineStr">
         <is>
@@ -909,10 +921,10 @@
         <v>645.5</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>749.23</v>
+        <v>746.52</v>
       </c>
       <c r="F10" s="10" t="n">
-        <v>-49.25</v>
+        <v>-51.96</v>
       </c>
       <c r="G10" s="11" t="inlineStr">
         <is>
@@ -956,10 +968,10 @@
         <v>531.87</v>
       </c>
       <c r="E11" s="10" t="n">
-        <v>486.61</v>
+        <v>480.01</v>
       </c>
       <c r="F11" s="10" t="n">
-        <v>129.83</v>
+        <v>123.23</v>
       </c>
       <c r="G11" s="11" t="inlineStr">
         <is>
@@ -1379,10 +1391,10 @@
         <v>10662.08</v>
       </c>
       <c r="E20" s="10" t="n">
-        <v>16579.53</v>
+        <v>16622.18</v>
       </c>
       <c r="F20" s="10" t="n">
-        <v>82.09999999999999</v>
+        <v>124.75</v>
       </c>
       <c r="G20" s="11" t="inlineStr">
         <is>
@@ -1567,10 +1579,10 @@
         <v>12720.35</v>
       </c>
       <c r="E24" s="10" t="n">
-        <v>12829.75</v>
+        <v>12834.83</v>
       </c>
       <c r="F24" s="10" t="n">
-        <v>87.77</v>
+        <v>92.86</v>
       </c>
       <c r="G24" s="11" t="inlineStr">
         <is>
@@ -1787,2444 +1799,2444 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="22" t="inlineStr">
+      <c r="A29" s="27" t="inlineStr">
         <is>
           <t>50ETF</t>
         </is>
       </c>
-      <c r="B29" s="23" t="n">
+      <c r="B29" s="28" t="n">
         <v>510050</v>
       </c>
-      <c r="C29" s="24" t="n">
+      <c r="C29" s="29" t="n">
         <v>2.337</v>
       </c>
-      <c r="D29" s="25" t="n">
+      <c r="D29" s="30" t="n">
         <v>2700</v>
       </c>
-      <c r="E29" s="25" t="n">
+      <c r="E29" s="30" t="n">
         <v>7673.4</v>
       </c>
-      <c r="F29" s="25" t="n">
+      <c r="F29" s="30" t="n">
         <v>1363.5</v>
       </c>
-      <c r="G29" s="26" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H29" s="26" t="inlineStr">
+      <c r="G29" s="31" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H29" s="31" t="inlineStr">
         <is>
           <t>大盘股</t>
         </is>
       </c>
-      <c r="I29" s="26" t="inlineStr">
+      <c r="I29" s="31" t="inlineStr">
         <is>
           <t>上证50</t>
         </is>
       </c>
-      <c r="J29" s="26" t="inlineStr">
+      <c r="J29" s="31" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="K29" s="26" t="inlineStr">
+      <c r="K29" s="31" t="inlineStr">
         <is>
           <t>华泰证券</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="22" t="inlineStr">
+      <c r="A30" s="27" t="inlineStr">
         <is>
           <t>300ETF</t>
         </is>
       </c>
-      <c r="B30" s="23" t="n">
+      <c r="B30" s="28" t="n">
         <v>510300</v>
       </c>
-      <c r="C30" s="24" t="n">
+      <c r="C30" s="29" t="n">
         <v>3.447</v>
       </c>
-      <c r="D30" s="25" t="n">
+      <c r="D30" s="30" t="n">
         <v>9100</v>
       </c>
-      <c r="E30" s="25" t="n">
+      <c r="E30" s="30" t="n">
         <v>35462.7</v>
       </c>
-      <c r="F30" s="25" t="n">
+      <c r="F30" s="30" t="n">
         <v>4095</v>
       </c>
-      <c r="G30" s="26" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H30" s="26" t="inlineStr">
+      <c r="G30" s="31" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H30" s="31" t="inlineStr">
         <is>
           <t>大盘股</t>
         </is>
       </c>
-      <c r="I30" s="26" t="inlineStr">
+      <c r="I30" s="31" t="inlineStr">
         <is>
           <t>沪深300</t>
         </is>
       </c>
-      <c r="J30" s="26" t="inlineStr">
+      <c r="J30" s="31" t="inlineStr">
         <is>
           <t>113</t>
         </is>
       </c>
-      <c r="K30" s="26" t="inlineStr">
+      <c r="K30" s="31" t="inlineStr">
         <is>
           <t>华泰证券</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="22" t="inlineStr">
+      <c r="A31" s="27" t="inlineStr">
         <is>
           <t>500ETF</t>
         </is>
       </c>
-      <c r="B31" s="23" t="n">
+      <c r="B31" s="28" t="n">
         <v>510500</v>
       </c>
-      <c r="C31" s="24" t="n">
+      <c r="C31" s="29" t="n">
         <v>5.601</v>
       </c>
-      <c r="D31" s="25" t="n">
+      <c r="D31" s="30" t="n">
         <v>38800</v>
       </c>
-      <c r="E31" s="25" t="n">
+      <c r="E31" s="30" t="n">
         <v>221586.8</v>
       </c>
-      <c r="F31" s="25" t="n">
+      <c r="F31" s="30" t="n">
         <v>4268</v>
       </c>
-      <c r="G31" s="26" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H31" s="26" t="inlineStr">
+      <c r="G31" s="31" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H31" s="31" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="I31" s="26" t="inlineStr">
+      <c r="I31" s="31" t="inlineStr">
         <is>
           <t>中证500</t>
         </is>
       </c>
-      <c r="J31" s="26" t="inlineStr">
+      <c r="J31" s="31" t="inlineStr">
         <is>
           <t>121</t>
         </is>
       </c>
-      <c r="K31" s="26" t="inlineStr">
+      <c r="K31" s="31" t="inlineStr">
         <is>
           <t>华泰证券</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="22" t="inlineStr">
+      <c r="A32" s="27" t="inlineStr">
         <is>
           <t>环保ETF</t>
         </is>
       </c>
-      <c r="B32" s="23" t="n">
+      <c r="B32" s="28" t="n">
         <v>512580</v>
       </c>
-      <c r="C32" s="24" t="n">
+      <c r="C32" s="29" t="n">
         <v>0.877</v>
       </c>
-      <c r="D32" s="25" t="n">
+      <c r="D32" s="30" t="n">
         <v>33800</v>
       </c>
-      <c r="E32" s="25" t="n">
+      <c r="E32" s="30" t="n">
         <v>27209</v>
       </c>
-      <c r="F32" s="25" t="n">
+      <c r="F32" s="30" t="n">
         <v>-2433.6</v>
       </c>
-      <c r="G32" s="26" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H32" s="26" t="inlineStr">
+      <c r="G32" s="31" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H32" s="31" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="I32" s="26" t="inlineStr">
+      <c r="I32" s="31" t="inlineStr">
         <is>
           <t>中证环保</t>
         </is>
       </c>
-      <c r="J32" s="26" t="inlineStr">
+      <c r="J32" s="31" t="inlineStr">
         <is>
           <t>143</t>
         </is>
       </c>
-      <c r="K32" s="26" t="inlineStr">
+      <c r="K32" s="31" t="inlineStr">
         <is>
           <t>华泰证券</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="22" t="inlineStr">
+      <c r="A33" s="27" t="inlineStr">
         <is>
           <t>证券ETF</t>
         </is>
       </c>
-      <c r="B33" s="23" t="n">
+      <c r="B33" s="28" t="n">
         <v>512880</v>
       </c>
-      <c r="C33" s="24" t="n">
+      <c r="C33" s="29" t="n">
         <v>0.783</v>
       </c>
-      <c r="D33" s="25" t="n">
+      <c r="D33" s="30" t="n">
         <v>32700</v>
       </c>
-      <c r="E33" s="25" t="n">
+      <c r="E33" s="30" t="n">
         <v>30345.6</v>
       </c>
-      <c r="F33" s="25" t="n">
+      <c r="F33" s="30" t="n">
         <v>4741.5</v>
       </c>
-      <c r="G33" s="26" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H33" s="26" t="inlineStr">
+      <c r="G33" s="31" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H33" s="31" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="I33" s="26" t="inlineStr">
+      <c r="I33" s="31" t="inlineStr">
         <is>
           <t>证券公司</t>
         </is>
       </c>
-      <c r="J33" s="26" t="inlineStr">
+      <c r="J33" s="31" t="inlineStr">
         <is>
           <t>145</t>
         </is>
       </c>
-      <c r="K33" s="26" t="inlineStr">
+      <c r="K33" s="31" t="inlineStr">
         <is>
           <t>华泰证券</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="22" t="inlineStr">
+      <c r="A34" s="27" t="inlineStr">
         <is>
           <t>传媒ETF</t>
         </is>
       </c>
-      <c r="B34" s="23" t="n">
+      <c r="B34" s="28" t="n">
         <v>512980</v>
       </c>
-      <c r="C34" s="24" t="n">
+      <c r="C34" s="29" t="n">
         <v>0.869</v>
       </c>
-      <c r="D34" s="25" t="n">
+      <c r="D34" s="30" t="n">
         <v>34100</v>
       </c>
-      <c r="E34" s="25" t="n">
+      <c r="E34" s="30" t="n">
         <v>30996.9</v>
       </c>
-      <c r="F34" s="25" t="n">
+      <c r="F34" s="30" t="n">
         <v>1364</v>
       </c>
-      <c r="G34" s="26" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H34" s="26" t="inlineStr">
+      <c r="G34" s="31" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H34" s="31" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="I34" s="26" t="inlineStr">
+      <c r="I34" s="31" t="inlineStr">
         <is>
           <t>中证传媒</t>
         </is>
       </c>
-      <c r="J34" s="26" t="inlineStr">
+      <c r="J34" s="31" t="inlineStr">
         <is>
           <t>144</t>
         </is>
       </c>
-      <c r="K34" s="26" t="inlineStr">
+      <c r="K34" s="31" t="inlineStr">
         <is>
           <t>华泰证券</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="22" t="inlineStr">
+      <c r="A35" s="27" t="inlineStr">
         <is>
           <t>黄金ETF</t>
         </is>
       </c>
-      <c r="B35" s="23" t="n">
+      <c r="B35" s="28" t="n">
         <v>518880</v>
       </c>
-      <c r="C35" s="24" t="n">
+      <c r="C35" s="29" t="n">
         <v>2.856</v>
       </c>
-      <c r="D35" s="25" t="n">
+      <c r="D35" s="30" t="n">
         <v>4500</v>
       </c>
-      <c r="E35" s="25" t="n">
+      <c r="E35" s="30" t="n">
         <v>15534</v>
       </c>
-      <c r="F35" s="25" t="n">
+      <c r="F35" s="30" t="n">
         <v>2682</v>
       </c>
-      <c r="G35" s="26" t="inlineStr">
+      <c r="G35" s="31" t="inlineStr">
         <is>
           <t>商品</t>
         </is>
       </c>
-      <c r="H35" s="26" t="inlineStr">
+      <c r="H35" s="31" t="inlineStr">
         <is>
           <t>商品</t>
         </is>
       </c>
-      <c r="I35" s="26" t="inlineStr">
+      <c r="I35" s="31" t="inlineStr">
         <is>
           <t>黄金</t>
         </is>
       </c>
-      <c r="J35" s="26" t="inlineStr">
+      <c r="J35" s="31" t="inlineStr">
         <is>
           <t>611</t>
         </is>
       </c>
-      <c r="K35" s="26" t="inlineStr">
+      <c r="K35" s="31" t="inlineStr">
         <is>
           <t>华泰证券</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="22" t="inlineStr">
+      <c r="A36" s="27" t="inlineStr">
         <is>
           <t>创业板</t>
         </is>
       </c>
-      <c r="B36" s="23" t="n">
+      <c r="B36" s="28" t="n">
         <v>159915</v>
       </c>
-      <c r="C36" s="24" t="n">
+      <c r="C36" s="29" t="n">
         <v>1.399</v>
       </c>
-      <c r="D36" s="25" t="n">
+      <c r="D36" s="30" t="n">
         <v>9200</v>
       </c>
-      <c r="E36" s="25" t="n">
+      <c r="E36" s="30" t="n">
         <v>17756</v>
       </c>
-      <c r="F36" s="25" t="n">
+      <c r="F36" s="30" t="n">
         <v>4885.2</v>
       </c>
-      <c r="G36" s="26" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H36" s="26" t="inlineStr">
+      <c r="G36" s="31" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H36" s="31" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="I36" s="26" t="inlineStr">
+      <c r="I36" s="31" t="inlineStr">
         <is>
           <t>创业板</t>
         </is>
       </c>
-      <c r="J36" s="26" t="inlineStr">
+      <c r="J36" s="31" t="inlineStr">
         <is>
           <t>124</t>
         </is>
       </c>
-      <c r="K36" s="26" t="inlineStr">
+      <c r="K36" s="31" t="inlineStr">
         <is>
           <t>华泰证券</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="22" t="inlineStr">
+      <c r="A37" s="27" t="inlineStr">
         <is>
           <t>广发医药</t>
         </is>
       </c>
-      <c r="B37" s="23" t="n">
+      <c r="B37" s="28" t="n">
         <v>159938</v>
       </c>
-      <c r="C37" s="24" t="n">
+      <c r="C37" s="29" t="n">
         <v>1.271</v>
       </c>
-      <c r="D37" s="25" t="n">
+      <c r="D37" s="30" t="n">
         <v>14400</v>
       </c>
-      <c r="E37" s="25" t="n">
+      <c r="E37" s="30" t="n">
         <v>22464</v>
       </c>
-      <c r="F37" s="25" t="n">
+      <c r="F37" s="30" t="n">
         <v>4161.6</v>
       </c>
-      <c r="G37" s="26" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H37" s="26" t="inlineStr">
+      <c r="G37" s="31" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H37" s="31" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="I37" s="26" t="inlineStr">
+      <c r="I37" s="31" t="inlineStr">
         <is>
           <t>全指医药</t>
         </is>
       </c>
-      <c r="J37" s="26" t="inlineStr">
+      <c r="J37" s="31" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="K37" s="26" t="inlineStr">
+      <c r="K37" s="31" t="inlineStr">
         <is>
           <t>华泰证券</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
+      <c r="A38" s="32" t="inlineStr">
         <is>
           <t>建信中证500指数增强A</t>
         </is>
       </c>
-      <c r="B38" s="28" t="n">
+      <c r="B38" s="33" t="n">
         <v>478</v>
       </c>
-      <c r="C38" s="29" t="n">
+      <c r="C38" s="34" t="n">
         <v>1.9252</v>
       </c>
-      <c r="D38" s="30" t="n">
+      <c r="D38" s="35" t="n">
         <v>4157.52</v>
       </c>
-      <c r="E38" s="30" t="n">
-        <v>8386.549999999999</v>
-      </c>
-      <c r="F38" s="30" t="n">
-        <v>382.49</v>
-      </c>
-      <c r="G38" s="31" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H38" s="31" t="inlineStr">
+      <c r="E38" s="35" t="n">
+        <v>8456.4</v>
+      </c>
+      <c r="F38" s="35" t="n">
+        <v>452.34</v>
+      </c>
+      <c r="G38" s="36" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H38" s="36" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="I38" s="31" t="inlineStr">
+      <c r="I38" s="36" t="inlineStr">
         <is>
           <t>中证500</t>
         </is>
       </c>
-      <c r="J38" s="31" t="inlineStr">
+      <c r="J38" s="36" t="inlineStr">
         <is>
           <t>121</t>
         </is>
       </c>
-      <c r="K38" s="31" t="inlineStr">
+      <c r="K38" s="36" t="inlineStr">
         <is>
           <t>且慢 150 份</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
+      <c r="A39" s="32" t="inlineStr">
         <is>
           <t>广发中证环保ETF联接A</t>
         </is>
       </c>
-      <c r="B39" s="28" t="n">
+      <c r="B39" s="33" t="n">
         <v>1064</v>
       </c>
-      <c r="C39" s="29" t="n">
+      <c r="C39" s="34" t="n">
         <v>0.5489000000000001</v>
       </c>
-      <c r="D39" s="30" t="n">
+      <c r="D39" s="35" t="n">
         <v>9722</v>
       </c>
-      <c r="E39" s="30" t="n">
+      <c r="E39" s="35" t="n">
         <v>5830.28</v>
       </c>
-      <c r="F39" s="30" t="n">
+      <c r="F39" s="35" t="n">
         <v>493.88</v>
       </c>
-      <c r="G39" s="31" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H39" s="31" t="inlineStr">
+      <c r="G39" s="36" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H39" s="36" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="I39" s="31" t="inlineStr">
+      <c r="I39" s="36" t="inlineStr">
         <is>
           <t>中证环保</t>
         </is>
       </c>
-      <c r="J39" s="31" t="inlineStr">
+      <c r="J39" s="36" t="inlineStr">
         <is>
           <t>143</t>
         </is>
       </c>
-      <c r="K39" s="31" t="inlineStr">
+      <c r="K39" s="36" t="inlineStr">
         <is>
           <t>且慢 150 份</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="inlineStr">
+      <c r="A40" s="32" t="inlineStr">
         <is>
           <t>广发养老指数A</t>
         </is>
       </c>
-      <c r="B40" s="28" t="n">
+      <c r="B40" s="33" t="n">
         <v>968</v>
       </c>
-      <c r="C40" s="29" t="n">
+      <c r="C40" s="34" t="n">
         <v>0.9444</v>
       </c>
-      <c r="D40" s="30" t="n">
+      <c r="D40" s="35" t="n">
         <v>4943.96</v>
       </c>
-      <c r="E40" s="30" t="n">
+      <c r="E40" s="35" t="n">
         <v>5094.26</v>
       </c>
-      <c r="F40" s="30" t="n">
+      <c r="F40" s="35" t="n">
         <v>425.18</v>
       </c>
-      <c r="G40" s="31" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H40" s="31" t="inlineStr">
+      <c r="G40" s="36" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H40" s="36" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="I40" s="31" t="inlineStr">
+      <c r="I40" s="36" t="inlineStr">
         <is>
           <t>养老产业</t>
         </is>
       </c>
-      <c r="J40" s="31" t="inlineStr">
+      <c r="J40" s="36" t="inlineStr">
         <is>
           <t>141</t>
         </is>
       </c>
-      <c r="K40" s="31" t="inlineStr">
+      <c r="K40" s="36" t="inlineStr">
         <is>
           <t>且慢 150 份</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="inlineStr">
+      <c r="A41" s="32" t="inlineStr">
         <is>
           <t>华夏中证500ETF联接A</t>
         </is>
       </c>
-      <c r="B41" s="28" t="n">
+      <c r="B41" s="33" t="n">
         <v>1052</v>
       </c>
-      <c r="C41" s="29" t="n">
+      <c r="C41" s="34" t="n">
         <v>0.5423</v>
       </c>
-      <c r="D41" s="30" t="n">
+      <c r="D41" s="35" t="n">
         <v>7379.54</v>
       </c>
-      <c r="E41" s="30" t="n">
+      <c r="E41" s="35" t="n">
         <v>4309.65</v>
       </c>
-      <c r="F41" s="30" t="n">
+      <c r="F41" s="35" t="n">
         <v>307.73</v>
       </c>
-      <c r="G41" s="31" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H41" s="31" t="inlineStr">
+      <c r="G41" s="36" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H41" s="36" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="I41" s="31" t="inlineStr">
+      <c r="I41" s="36" t="inlineStr">
         <is>
           <t>中证500</t>
         </is>
       </c>
-      <c r="J41" s="31" t="inlineStr">
+      <c r="J41" s="36" t="inlineStr">
         <is>
           <t>121</t>
         </is>
       </c>
-      <c r="K41" s="31" t="inlineStr">
+      <c r="K41" s="36" t="inlineStr">
         <is>
           <t>且慢 150 份</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="inlineStr">
+      <c r="A42" s="32" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF联接A</t>
+        </is>
+      </c>
+      <c r="B42" s="33" t="n">
+        <v>4752</v>
+      </c>
+      <c r="C42" s="34" t="n">
+        <v>0.7329</v>
+      </c>
+      <c r="D42" s="35" t="n">
+        <v>4550.55</v>
+      </c>
+      <c r="E42" s="35" t="n">
+        <v>4058.64</v>
+      </c>
+      <c r="F42" s="35" t="n">
+        <v>723.54</v>
+      </c>
+      <c r="G42" s="36" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H42" s="36" t="inlineStr">
+        <is>
+          <t>行业股</t>
+        </is>
+      </c>
+      <c r="I42" s="36" t="inlineStr">
+        <is>
+          <t>中证传媒</t>
+        </is>
+      </c>
+      <c r="J42" s="36" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="K42" s="36" t="inlineStr">
+        <is>
+          <t>且慢 150 份</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="32" t="inlineStr">
         <is>
           <t>富国中证红利指数增强</t>
         </is>
       </c>
-      <c r="B42" s="28" t="n">
+      <c r="B43" s="33" t="n">
         <v>100032</v>
       </c>
-      <c r="C42" s="29" t="n">
+      <c r="C43" s="34" t="n">
         <v>1.0919</v>
       </c>
-      <c r="D42" s="30" t="n">
+      <c r="D43" s="35" t="n">
         <v>3665.01</v>
       </c>
-      <c r="E42" s="30" t="n">
+      <c r="E43" s="35" t="n">
         <v>3958.21</v>
       </c>
-      <c r="F42" s="30" t="n">
+      <c r="F43" s="35" t="n">
         <v>-43.61</v>
       </c>
-      <c r="G42" s="31" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H42" s="31" t="inlineStr">
+      <c r="G43" s="36" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H43" s="36" t="inlineStr">
         <is>
           <t>红利价值</t>
         </is>
       </c>
-      <c r="I42" s="31" t="inlineStr">
+      <c r="I43" s="36" t="inlineStr">
         <is>
           <t>中证红利</t>
         </is>
       </c>
-      <c r="J42" s="31" t="inlineStr">
+      <c r="J43" s="36" t="inlineStr">
         <is>
           <t>131</t>
         </is>
       </c>
-      <c r="K42" s="31" t="inlineStr">
+      <c r="K43" s="36" t="inlineStr">
         <is>
           <t>且慢 150 份</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="27" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="32" t="inlineStr">
+        <is>
+          <t>易方达创业板ETF联接A</t>
+        </is>
+      </c>
+      <c r="B44" s="33" t="n">
+        <v>110026</v>
+      </c>
+      <c r="C44" s="34" t="n">
+        <v>1.6649</v>
+      </c>
+      <c r="D44" s="35" t="n">
+        <v>400.63</v>
+      </c>
+      <c r="E44" s="35" t="n">
+        <v>824.86</v>
+      </c>
+      <c r="F44" s="35" t="n">
+        <v>157.85</v>
+      </c>
+      <c r="G44" s="36" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H44" s="36" t="inlineStr">
+        <is>
+          <t>中小盘股</t>
+        </is>
+      </c>
+      <c r="I44" s="36" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="J44" s="36" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="K44" s="36" t="inlineStr">
+        <is>
+          <t>且慢 150 份</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="32" t="inlineStr">
+        <is>
+          <t>广发创业板ETF联接A</t>
+        </is>
+      </c>
+      <c r="B45" s="33" t="n">
+        <v>3765</v>
+      </c>
+      <c r="C45" s="34" t="n">
+        <v>0.9059</v>
+      </c>
+      <c r="D45" s="35" t="n">
+        <v>736.3</v>
+      </c>
+      <c r="E45" s="35" t="n">
+        <v>819.35</v>
+      </c>
+      <c r="F45" s="35" t="n">
+        <v>152.34</v>
+      </c>
+      <c r="G45" s="36" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H45" s="36" t="inlineStr">
+        <is>
+          <t>中小盘股</t>
+        </is>
+      </c>
+      <c r="I45" s="36" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="J45" s="36" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="K45" s="36" t="inlineStr">
+        <is>
+          <t>且慢 150 份</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="32" t="inlineStr">
+        <is>
+          <t>广发医药卫生联接A</t>
+        </is>
+      </c>
+      <c r="B46" s="33" t="n">
+        <v>1180</v>
+      </c>
+      <c r="C46" s="34" t="n">
+        <v>0.8242</v>
+      </c>
+      <c r="D46" s="35" t="n">
+        <v>809.28</v>
+      </c>
+      <c r="E46" s="35" t="n">
+        <v>778.45</v>
+      </c>
+      <c r="F46" s="35" t="n">
+        <v>111.44</v>
+      </c>
+      <c r="G46" s="36" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H46" s="36" t="inlineStr">
+        <is>
+          <t>行业股</t>
+        </is>
+      </c>
+      <c r="I46" s="36" t="inlineStr">
+        <is>
+          <t>全指医药</t>
+        </is>
+      </c>
+      <c r="J46" s="36" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="K46" s="36" t="inlineStr">
+        <is>
+          <t>且慢 150 份</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="32" t="inlineStr">
+        <is>
+          <t>易方达证券公司分级</t>
+        </is>
+      </c>
+      <c r="B47" s="33" t="n">
+        <v>502010</v>
+      </c>
+      <c r="C47" s="34" t="n">
+        <v>0.9853</v>
+      </c>
+      <c r="D47" s="35" t="n">
+        <v>473.85</v>
+      </c>
+      <c r="E47" s="35" t="n">
+        <v>476.84</v>
+      </c>
+      <c r="F47" s="35" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="G47" s="36" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H47" s="36" t="inlineStr">
+        <is>
+          <t>行业股</t>
+        </is>
+      </c>
+      <c r="I47" s="36" t="inlineStr">
+        <is>
+          <t>证券公司</t>
+        </is>
+      </c>
+      <c r="J47" s="36" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="K47" s="36" t="inlineStr">
+        <is>
+          <t>且慢 150 份</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="32" t="inlineStr">
+        <is>
+          <t>华宝标普石油指数A</t>
+        </is>
+      </c>
+      <c r="B48" s="33" t="n">
+        <v>162411</v>
+      </c>
+      <c r="C48" s="34" t="n">
+        <v>0.3775</v>
+      </c>
+      <c r="D48" s="35" t="n">
+        <v>5299.96</v>
+      </c>
+      <c r="E48" s="35" t="n">
+        <v>1971.59</v>
+      </c>
+      <c r="F48" s="35" t="n">
+        <v>-29.15</v>
+      </c>
+      <c r="G48" s="36" t="inlineStr">
+        <is>
+          <t>商品</t>
+        </is>
+      </c>
+      <c r="H48" s="36" t="inlineStr">
+        <is>
+          <t>商品</t>
+        </is>
+      </c>
+      <c r="I48" s="36" t="inlineStr">
+        <is>
+          <t>原油</t>
+        </is>
+      </c>
+      <c r="J48" s="36" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="K48" s="36" t="inlineStr">
+        <is>
+          <t>且慢 150 份</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="32" t="inlineStr">
+        <is>
+          <t>交银中证海外中国互联网指数</t>
+        </is>
+      </c>
+      <c r="B49" s="33" t="n">
+        <v>164906</v>
+      </c>
+      <c r="C49" s="34" t="n">
+        <v>1.1564</v>
+      </c>
+      <c r="D49" s="35" t="n">
+        <v>576.8</v>
+      </c>
+      <c r="E49" s="35" t="n">
+        <v>816.75</v>
+      </c>
+      <c r="F49" s="35" t="n">
+        <v>149.74</v>
+      </c>
+      <c r="G49" s="36" t="inlineStr">
+        <is>
+          <t>海外新兴</t>
+        </is>
+      </c>
+      <c r="H49" s="36" t="inlineStr">
+        <is>
+          <t>海外互联</t>
+        </is>
+      </c>
+      <c r="I49" s="36" t="inlineStr">
+        <is>
+          <t>海外互联网</t>
+        </is>
+      </c>
+      <c r="J49" s="36" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="K49" s="36" t="inlineStr">
+        <is>
+          <t>且慢 150 份</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="32" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF联接A</t>
+        </is>
+      </c>
+      <c r="B50" s="33" t="n">
+        <v>71</v>
+      </c>
+      <c r="C50" s="34" t="n">
+        <v>1.451</v>
+      </c>
+      <c r="D50" s="35" t="n">
+        <v>459.67</v>
+      </c>
+      <c r="E50" s="35" t="n">
+        <v>707.85</v>
+      </c>
+      <c r="F50" s="35" t="n">
+        <v>40.86</v>
+      </c>
+      <c r="G50" s="36" t="inlineStr">
+        <is>
+          <t>海外新兴</t>
+        </is>
+      </c>
+      <c r="H50" s="36" t="inlineStr">
+        <is>
+          <t>香港</t>
+        </is>
+      </c>
+      <c r="I50" s="36" t="inlineStr">
+        <is>
+          <t>恒生</t>
+        </is>
+      </c>
+      <c r="J50" s="36" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="K50" s="36" t="inlineStr">
+        <is>
+          <t>且慢 150 份</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="32" t="inlineStr">
+        <is>
+          <t>华安德国30(DAX)联接</t>
+        </is>
+      </c>
+      <c r="B51" s="33" t="n">
+        <v>614</v>
+      </c>
+      <c r="C51" s="34" t="n">
+        <v>1.0903</v>
+      </c>
+      <c r="D51" s="35" t="n">
+        <v>611.75</v>
+      </c>
+      <c r="E51" s="35" t="n">
+        <v>744.5</v>
+      </c>
+      <c r="F51" s="35" t="n">
+        <v>77.51000000000001</v>
+      </c>
+      <c r="G51" s="36" t="inlineStr">
+        <is>
+          <t>海外成熟</t>
+        </is>
+      </c>
+      <c r="H51" s="36" t="inlineStr">
+        <is>
+          <t>德国</t>
+        </is>
+      </c>
+      <c r="I51" s="36" t="inlineStr">
+        <is>
+          <t>德国30</t>
+        </is>
+      </c>
+      <c r="J51" s="36" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="K51" s="36" t="inlineStr">
+        <is>
+          <t>且慢 150 份</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="32" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="B52" s="33" t="n">
+        <v>478</v>
+      </c>
+      <c r="C52" s="34" t="n">
+        <v>1.9178</v>
+      </c>
+      <c r="D52" s="35" t="n">
+        <v>1564.33</v>
+      </c>
+      <c r="E52" s="35" t="n">
+        <v>3181.85</v>
+      </c>
+      <c r="F52" s="35" t="n">
+        <v>181.78</v>
+      </c>
+      <c r="G52" s="36" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H52" s="36" t="inlineStr">
+        <is>
+          <t>中小盘股</t>
+        </is>
+      </c>
+      <c r="I52" s="36" t="inlineStr">
+        <is>
+          <t>中证500</t>
+        </is>
+      </c>
+      <c r="J52" s="36" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="K52" s="36" t="inlineStr">
+        <is>
+          <t>且慢 S 定投</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="32" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强</t>
+        </is>
+      </c>
+      <c r="B53" s="33" t="n">
+        <v>100032</v>
+      </c>
+      <c r="C53" s="34" t="n">
+        <v>1.0818</v>
+      </c>
+      <c r="D53" s="35" t="n">
+        <v>2773.24</v>
+      </c>
+      <c r="E53" s="35" t="n">
+        <v>2995.1</v>
+      </c>
+      <c r="F53" s="35" t="n">
+        <v>-4.99</v>
+      </c>
+      <c r="G53" s="36" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H53" s="36" t="inlineStr">
+        <is>
+          <t>红利价值</t>
+        </is>
+      </c>
+      <c r="I53" s="36" t="inlineStr">
+        <is>
+          <t>中证红利</t>
+        </is>
+      </c>
+      <c r="J53" s="36" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="K53" s="36" t="inlineStr">
+        <is>
+          <t>且慢 S 定投</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="32" t="inlineStr">
         <is>
           <t>广发中证传媒ETF联接A</t>
         </is>
       </c>
-      <c r="B43" s="28" t="n">
+      <c r="B54" s="33" t="n">
         <v>4752</v>
       </c>
-      <c r="C43" s="29" t="n">
-        <v>0.7329</v>
-      </c>
-      <c r="D43" s="30" t="n">
-        <v>4550.55</v>
-      </c>
-      <c r="E43" s="30" t="n">
-        <v>4058.64</v>
-      </c>
-      <c r="F43" s="30" t="n">
-        <v>723.54</v>
-      </c>
-      <c r="G43" s="31" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H43" s="31" t="inlineStr">
+      <c r="C54" s="34" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="D54" s="35" t="n">
+        <v>1227.03</v>
+      </c>
+      <c r="E54" s="35" t="n">
+        <v>1094.39</v>
+      </c>
+      <c r="F54" s="35" t="n">
+        <v>94.36</v>
+      </c>
+      <c r="G54" s="36" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H54" s="36" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="I43" s="31" t="inlineStr">
+      <c r="I54" s="36" t="inlineStr">
         <is>
           <t>中证传媒</t>
         </is>
       </c>
-      <c r="J43" s="31" t="inlineStr">
+      <c r="J54" s="36" t="inlineStr">
         <is>
           <t>144</t>
         </is>
       </c>
-      <c r="K43" s="31" t="inlineStr">
-        <is>
-          <t>且慢 150 份</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="27" t="inlineStr">
-        <is>
-          <t>易方达创业板ETF联接A</t>
-        </is>
-      </c>
-      <c r="B44" s="28" t="n">
-        <v>110026</v>
-      </c>
-      <c r="C44" s="29" t="n">
-        <v>1.6649</v>
-      </c>
-      <c r="D44" s="30" t="n">
-        <v>400.63</v>
-      </c>
-      <c r="E44" s="30" t="n">
-        <v>823.74</v>
-      </c>
-      <c r="F44" s="30" t="n">
-        <v>156.73</v>
-      </c>
-      <c r="G44" s="31" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H44" s="31" t="inlineStr">
+      <c r="K54" s="36" t="inlineStr">
+        <is>
+          <t>且慢 S 定投</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="32" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF联接A</t>
+        </is>
+      </c>
+      <c r="B55" s="33" t="n">
+        <v>1052</v>
+      </c>
+      <c r="C55" s="34" t="n">
+        <v>0.5517</v>
+      </c>
+      <c r="D55" s="35" t="n">
+        <v>1812.7</v>
+      </c>
+      <c r="E55" s="35" t="n">
+        <v>1058.62</v>
+      </c>
+      <c r="F55" s="35" t="n">
+        <v>58.55</v>
+      </c>
+      <c r="G55" s="36" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H55" s="36" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="I44" s="31" t="inlineStr">
-        <is>
-          <t>创业板</t>
-        </is>
-      </c>
-      <c r="J44" s="31" t="inlineStr">
-        <is>
-          <t>124</t>
-        </is>
-      </c>
-      <c r="K44" s="31" t="inlineStr">
-        <is>
-          <t>且慢 150 份</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="27" t="inlineStr">
-        <is>
-          <t>广发创业板ETF联接A</t>
-        </is>
-      </c>
-      <c r="B45" s="28" t="n">
-        <v>3765</v>
-      </c>
-      <c r="C45" s="29" t="n">
-        <v>0.9059</v>
-      </c>
-      <c r="D45" s="30" t="n">
-        <v>736.3</v>
-      </c>
-      <c r="E45" s="30" t="n">
-        <v>819.35</v>
-      </c>
-      <c r="F45" s="30" t="n">
-        <v>152.34</v>
-      </c>
-      <c r="G45" s="31" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H45" s="31" t="inlineStr">
+      <c r="I55" s="36" t="inlineStr">
+        <is>
+          <t>中证500</t>
+        </is>
+      </c>
+      <c r="J55" s="36" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="K55" s="36" t="inlineStr">
+        <is>
+          <t>且慢 S 定投</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="32" t="inlineStr">
+        <is>
+          <t>华夏上证50ETF联接A</t>
+        </is>
+      </c>
+      <c r="B56" s="33" t="n">
+        <v>1051</v>
+      </c>
+      <c r="C56" s="34" t="n">
+        <v>0.9441000000000001</v>
+      </c>
+      <c r="D56" s="35" t="n">
+        <v>1059.17</v>
+      </c>
+      <c r="E56" s="35" t="n">
+        <v>1035.87</v>
+      </c>
+      <c r="F56" s="35" t="n">
+        <v>35.91</v>
+      </c>
+      <c r="G56" s="36" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H56" s="36" t="inlineStr">
+        <is>
+          <t>大盘股</t>
+        </is>
+      </c>
+      <c r="I56" s="36" t="inlineStr">
+        <is>
+          <t>上证50</t>
+        </is>
+      </c>
+      <c r="J56" s="36" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="K56" s="36" t="inlineStr">
+        <is>
+          <t>且慢 S 定投</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="32" t="inlineStr">
+        <is>
+          <t>华宝标普石油指数A</t>
+        </is>
+      </c>
+      <c r="B57" s="33" t="n">
+        <v>162411</v>
+      </c>
+      <c r="C57" s="34" t="n">
+        <v>0.3879</v>
+      </c>
+      <c r="D57" s="35" t="n">
+        <v>7734.05</v>
+      </c>
+      <c r="E57" s="35" t="n">
+        <v>2877.07</v>
+      </c>
+      <c r="F57" s="35" t="n">
+        <v>-122.97</v>
+      </c>
+      <c r="G57" s="36" t="inlineStr">
+        <is>
+          <t>商品</t>
+        </is>
+      </c>
+      <c r="H57" s="36" t="inlineStr">
+        <is>
+          <t>商品</t>
+        </is>
+      </c>
+      <c r="I57" s="36" t="inlineStr">
+        <is>
+          <t>原油</t>
+        </is>
+      </c>
+      <c r="J57" s="36" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="K57" s="36" t="inlineStr">
+        <is>
+          <t>且慢 S 定投</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="32" t="inlineStr">
+        <is>
+          <t>华安黄金易ETF联接A</t>
+        </is>
+      </c>
+      <c r="B58" s="33" t="n">
+        <v>216</v>
+      </c>
+      <c r="C58" s="34" t="n">
+        <v>1.0902</v>
+      </c>
+      <c r="D58" s="35" t="n">
+        <v>1834.47</v>
+      </c>
+      <c r="E58" s="35" t="n">
+        <v>2359.13</v>
+      </c>
+      <c r="F58" s="35" t="n">
+        <v>359.19</v>
+      </c>
+      <c r="G58" s="36" t="inlineStr">
+        <is>
+          <t>商品</t>
+        </is>
+      </c>
+      <c r="H58" s="36" t="inlineStr">
+        <is>
+          <t>商品</t>
+        </is>
+      </c>
+      <c r="I58" s="36" t="inlineStr">
+        <is>
+          <t>黄金</t>
+        </is>
+      </c>
+      <c r="J58" s="36" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="K58" s="36" t="inlineStr">
+        <is>
+          <t>且慢 S 定投</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="32" t="inlineStr">
+        <is>
+          <t>交银中证海外中国互联网指数</t>
+        </is>
+      </c>
+      <c r="B59" s="33" t="n">
+        <v>164906</v>
+      </c>
+      <c r="C59" s="34" t="n">
+        <v>1.1113</v>
+      </c>
+      <c r="D59" s="35" t="n">
+        <v>899.8200000000001</v>
+      </c>
+      <c r="E59" s="35" t="n">
+        <v>1274.15</v>
+      </c>
+      <c r="F59" s="35" t="n">
+        <v>274.18</v>
+      </c>
+      <c r="G59" s="36" t="inlineStr">
+        <is>
+          <t>海外新兴</t>
+        </is>
+      </c>
+      <c r="H59" s="36" t="inlineStr">
+        <is>
+          <t>海外互联</t>
+        </is>
+      </c>
+      <c r="I59" s="36" t="inlineStr">
+        <is>
+          <t>海外互联网</t>
+        </is>
+      </c>
+      <c r="J59" s="36" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="K59" s="36" t="inlineStr">
+        <is>
+          <t>且慢 S 定投</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="32" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF联接A</t>
+        </is>
+      </c>
+      <c r="B60" s="33" t="n">
+        <v>71</v>
+      </c>
+      <c r="C60" s="34" t="n">
+        <v>1.4513</v>
+      </c>
+      <c r="D60" s="35" t="n">
+        <v>689.02</v>
+      </c>
+      <c r="E60" s="35" t="n">
+        <v>1061.02</v>
+      </c>
+      <c r="F60" s="35" t="n">
+        <v>61.05</v>
+      </c>
+      <c r="G60" s="36" t="inlineStr">
+        <is>
+          <t>海外新兴</t>
+        </is>
+      </c>
+      <c r="H60" s="36" t="inlineStr">
+        <is>
+          <t>香港</t>
+        </is>
+      </c>
+      <c r="I60" s="36" t="inlineStr">
+        <is>
+          <t>恒生</t>
+        </is>
+      </c>
+      <c r="J60" s="36" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="K60" s="36" t="inlineStr">
+        <is>
+          <t>且慢 S 定投</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="32" t="inlineStr">
+        <is>
+          <t>华安德国30(DAX)联接</t>
+        </is>
+      </c>
+      <c r="B61" s="33" t="n">
+        <v>614</v>
+      </c>
+      <c r="C61" s="34" t="n">
+        <v>1.0483</v>
+      </c>
+      <c r="D61" s="35" t="n">
+        <v>953.96</v>
+      </c>
+      <c r="E61" s="35" t="n">
+        <v>1160.97</v>
+      </c>
+      <c r="F61" s="35" t="n">
+        <v>160.93</v>
+      </c>
+      <c r="G61" s="36" t="inlineStr">
+        <is>
+          <t>海外成熟</t>
+        </is>
+      </c>
+      <c r="H61" s="36" t="inlineStr">
+        <is>
+          <t>德国</t>
+        </is>
+      </c>
+      <c r="I61" s="36" t="inlineStr">
+        <is>
+          <t>德国30</t>
+        </is>
+      </c>
+      <c r="J61" s="36" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="K61" s="36" t="inlineStr">
+        <is>
+          <t>且慢 S 定投</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="32" t="inlineStr">
+        <is>
+          <t>易方达安心债券A</t>
+        </is>
+      </c>
+      <c r="B62" s="33" t="n">
+        <v>110027</v>
+      </c>
+      <c r="C62" s="34" t="n">
+        <v>1.6793</v>
+      </c>
+      <c r="D62" s="35" t="n">
+        <v>595.47</v>
+      </c>
+      <c r="E62" s="35" t="n">
+        <v>1057.55</v>
+      </c>
+      <c r="F62" s="35" t="n">
+        <v>57.58</v>
+      </c>
+      <c r="G62" s="36" t="inlineStr">
+        <is>
+          <t>债券</t>
+        </is>
+      </c>
+      <c r="H62" s="36" t="inlineStr">
+        <is>
+          <t>国内债券</t>
+        </is>
+      </c>
+      <c r="I62" s="36" t="inlineStr">
+        <is>
+          <t>可转债</t>
+        </is>
+      </c>
+      <c r="J62" s="36" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="K62" s="36" t="inlineStr">
+        <is>
+          <t>且慢 S 定投</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="37" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强</t>
+        </is>
+      </c>
+      <c r="B63" s="38" t="n">
+        <v>100032</v>
+      </c>
+      <c r="C63" s="39" t="n">
+        <v>1.0193</v>
+      </c>
+      <c r="D63" s="40" t="n">
+        <v>65064.33</v>
+      </c>
+      <c r="E63" s="40" t="n">
+        <v>70269.48</v>
+      </c>
+      <c r="F63" s="40" t="n">
+        <v>3949.4</v>
+      </c>
+      <c r="G63" s="41" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H63" s="41" t="inlineStr">
+        <is>
+          <t>红利价值</t>
+        </is>
+      </c>
+      <c r="I63" s="41" t="inlineStr">
+        <is>
+          <t>中证红利</t>
+        </is>
+      </c>
+      <c r="J63" s="41" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="K63" s="41" t="inlineStr">
+        <is>
+          <t>天天基金</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="37" t="inlineStr">
+        <is>
+          <t>广发养老指数A</t>
+        </is>
+      </c>
+      <c r="B64" s="38" t="n">
+        <v>968</v>
+      </c>
+      <c r="C64" s="39" t="n">
+        <v>0.9167</v>
+      </c>
+      <c r="D64" s="40" t="n">
+        <v>63490</v>
+      </c>
+      <c r="E64" s="40" t="n">
+        <v>65420.1</v>
+      </c>
+      <c r="F64" s="40" t="n">
+        <v>7218.81</v>
+      </c>
+      <c r="G64" s="41" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H64" s="41" t="inlineStr">
+        <is>
+          <t>行业股</t>
+        </is>
+      </c>
+      <c r="I64" s="41" t="inlineStr">
+        <is>
+          <t>养老产业</t>
+        </is>
+      </c>
+      <c r="J64" s="41" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="K64" s="41" t="inlineStr">
+        <is>
+          <t>天天基金</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="37" t="inlineStr">
+        <is>
+          <t>兴全可转债混合</t>
+        </is>
+      </c>
+      <c r="B65" s="38" t="n">
+        <v>340001</v>
+      </c>
+      <c r="C65" s="39" t="n">
+        <v>0.9886</v>
+      </c>
+      <c r="D65" s="40" t="n">
+        <v>32370.29</v>
+      </c>
+      <c r="E65" s="40" t="n">
+        <v>39414.07</v>
+      </c>
+      <c r="F65" s="40" t="n">
+        <v>7412.8</v>
+      </c>
+      <c r="G65" s="41" t="inlineStr">
+        <is>
+          <t>债券</t>
+        </is>
+      </c>
+      <c r="H65" s="41" t="inlineStr">
+        <is>
+          <t>国内债券</t>
+        </is>
+      </c>
+      <c r="I65" s="41" t="inlineStr">
+        <is>
+          <t>可转债</t>
+        </is>
+      </c>
+      <c r="J65" s="41" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="K65" s="41" t="inlineStr">
+        <is>
+          <t>天天基金</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="37" t="inlineStr">
+        <is>
+          <t>广发医药卫生联接A</t>
+        </is>
+      </c>
+      <c r="B66" s="38" t="n">
+        <v>1180</v>
+      </c>
+      <c r="C66" s="39" t="n">
+        <v>0.7451</v>
+      </c>
+      <c r="D66" s="40" t="n">
+        <v>41014.88</v>
+      </c>
+      <c r="E66" s="40" t="n">
+        <v>39452.21</v>
+      </c>
+      <c r="F66" s="40" t="n">
+        <v>8892.030000000001</v>
+      </c>
+      <c r="G66" s="41" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H66" s="41" t="inlineStr">
+        <is>
+          <t>行业股</t>
+        </is>
+      </c>
+      <c r="I66" s="41" t="inlineStr">
+        <is>
+          <t>全指医药</t>
+        </is>
+      </c>
+      <c r="J66" s="41" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="K66" s="41" t="inlineStr">
+        <is>
+          <t>天天基金</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="37" t="inlineStr">
+        <is>
+          <t>易方达安心回报债券A</t>
+        </is>
+      </c>
+      <c r="B67" s="38" t="n">
+        <v>110027</v>
+      </c>
+      <c r="C67" s="39" t="n">
+        <v>1.5931</v>
+      </c>
+      <c r="D67" s="40" t="n">
+        <v>20086.63</v>
+      </c>
+      <c r="E67" s="40" t="n">
+        <v>35673.85</v>
+      </c>
+      <c r="F67" s="40" t="n">
+        <v>3673.84</v>
+      </c>
+      <c r="G67" s="41" t="inlineStr">
+        <is>
+          <t>债券</t>
+        </is>
+      </c>
+      <c r="H67" s="41" t="inlineStr">
+        <is>
+          <t>国内债券</t>
+        </is>
+      </c>
+      <c r="I67" s="41" t="inlineStr">
+        <is>
+          <t>可转债</t>
+        </is>
+      </c>
+      <c r="J67" s="41" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="K67" s="41" t="inlineStr">
+        <is>
+          <t>天天基金</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="37" t="inlineStr">
+        <is>
+          <t>华安德国30(DAX)联接</t>
+        </is>
+      </c>
+      <c r="B68" s="38" t="n">
+        <v>614</v>
+      </c>
+      <c r="C68" s="39" t="n">
+        <v>1.091</v>
+      </c>
+      <c r="D68" s="40" t="n">
+        <v>20716.63</v>
+      </c>
+      <c r="E68" s="40" t="n">
+        <v>25212.14</v>
+      </c>
+      <c r="F68" s="40" t="n">
+        <v>2610.3</v>
+      </c>
+      <c r="G68" s="41" t="inlineStr">
+        <is>
+          <t>海外成熟</t>
+        </is>
+      </c>
+      <c r="H68" s="41" t="inlineStr">
+        <is>
+          <t>德国</t>
+        </is>
+      </c>
+      <c r="I68" s="41" t="inlineStr">
+        <is>
+          <t>德国30</t>
+        </is>
+      </c>
+      <c r="J68" s="41" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="K68" s="41" t="inlineStr">
+        <is>
+          <t>天天基金</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="37" t="inlineStr">
+        <is>
+          <t>富国沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="B69" s="38" t="n">
+        <v>100038</v>
+      </c>
+      <c r="C69" s="39" t="n">
+        <v>1.3129</v>
+      </c>
+      <c r="D69" s="40" t="n">
+        <v>14624.61</v>
+      </c>
+      <c r="E69" s="40" t="n">
+        <v>23721.12</v>
+      </c>
+      <c r="F69" s="40" t="n">
+        <v>4520.47</v>
+      </c>
+      <c r="G69" s="41" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H69" s="41" t="inlineStr">
+        <is>
+          <t>大盘股</t>
+        </is>
+      </c>
+      <c r="I69" s="41" t="inlineStr">
+        <is>
+          <t>沪深300</t>
+        </is>
+      </c>
+      <c r="J69" s="41" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="K69" s="41" t="inlineStr">
+        <is>
+          <t>天天基金</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="37" t="inlineStr">
+        <is>
+          <t>交银中证海外中国互联网指数</t>
+        </is>
+      </c>
+      <c r="B70" s="38" t="n">
+        <v>164906</v>
+      </c>
+      <c r="C70" s="39" t="n">
+        <v>1.1444</v>
+      </c>
+      <c r="D70" s="40" t="n">
+        <v>16778.47</v>
+      </c>
+      <c r="E70" s="40" t="n">
+        <v>23758.31</v>
+      </c>
+      <c r="F70" s="40" t="n">
+        <v>4557.03</v>
+      </c>
+      <c r="G70" s="41" t="inlineStr">
+        <is>
+          <t>海外新兴</t>
+        </is>
+      </c>
+      <c r="H70" s="41" t="inlineStr">
+        <is>
+          <t>海外互联</t>
+        </is>
+      </c>
+      <c r="I70" s="41" t="inlineStr">
+        <is>
+          <t>海外互联网</t>
+        </is>
+      </c>
+      <c r="J70" s="41" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="K70" s="41" t="inlineStr">
+        <is>
+          <t>天天基金</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="37" t="inlineStr">
+        <is>
+          <t>广发中证全指金融地产联接A</t>
+        </is>
+      </c>
+      <c r="B71" s="38" t="n">
+        <v>1469</v>
+      </c>
+      <c r="C71" s="39" t="n">
+        <v>0.9073</v>
+      </c>
+      <c r="D71" s="40" t="n">
+        <v>21163.93</v>
+      </c>
+      <c r="E71" s="40" t="n">
+        <v>22078.21</v>
+      </c>
+      <c r="F71" s="40" t="n">
+        <v>2876.18</v>
+      </c>
+      <c r="G71" s="41" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H71" s="41" t="inlineStr">
+        <is>
+          <t>行业股</t>
+        </is>
+      </c>
+      <c r="I71" s="41" t="inlineStr">
+        <is>
+          <t>金融地产</t>
+        </is>
+      </c>
+      <c r="J71" s="41" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="K71" s="41" t="inlineStr">
+        <is>
+          <t>天天基金</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="37" t="inlineStr">
+        <is>
+          <t>富国中证500指数(LOF)</t>
+        </is>
+      </c>
+      <c r="B72" s="38" t="n">
+        <v>161017</v>
+      </c>
+      <c r="C72" s="39" t="n">
+        <v>1.3432</v>
+      </c>
+      <c r="D72" s="40" t="n">
+        <v>9529.809999999999</v>
+      </c>
+      <c r="E72" s="40" t="n">
+        <v>16477.04</v>
+      </c>
+      <c r="F72" s="40" t="n">
+        <v>3676.6</v>
+      </c>
+      <c r="G72" s="41" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H72" s="41" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="I45" s="31" t="inlineStr">
-        <is>
-          <t>创业板</t>
-        </is>
-      </c>
-      <c r="J45" s="31" t="inlineStr">
-        <is>
-          <t>124</t>
-        </is>
-      </c>
-      <c r="K45" s="31" t="inlineStr">
-        <is>
-          <t>且慢 150 份</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="27" t="inlineStr">
-        <is>
-          <t>广发医药卫生联接A</t>
-        </is>
-      </c>
-      <c r="B46" s="28" t="n">
-        <v>1180</v>
-      </c>
-      <c r="C46" s="29" t="n">
-        <v>0.8242</v>
-      </c>
-      <c r="D46" s="30" t="n">
-        <v>809.28</v>
-      </c>
-      <c r="E46" s="30" t="n">
-        <v>778.45</v>
-      </c>
-      <c r="F46" s="30" t="n">
-        <v>111.44</v>
-      </c>
-      <c r="G46" s="31" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H46" s="31" t="inlineStr">
+      <c r="I72" s="41" t="inlineStr">
+        <is>
+          <t>中证500</t>
+        </is>
+      </c>
+      <c r="J72" s="41" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="K72" s="41" t="inlineStr">
+        <is>
+          <t>天天基金</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="37" t="inlineStr">
+        <is>
+          <t>华宝标普油气上游股票人民币A</t>
+        </is>
+      </c>
+      <c r="B73" s="38" t="n">
+        <v>162411</v>
+      </c>
+      <c r="C73" s="39" t="n">
+        <v>0.5152</v>
+      </c>
+      <c r="D73" s="40" t="n">
+        <v>37267.45</v>
+      </c>
+      <c r="E73" s="40" t="n">
+        <v>13863.49</v>
+      </c>
+      <c r="F73" s="40" t="n">
+        <v>-5336.7</v>
+      </c>
+      <c r="G73" s="41" t="inlineStr">
+        <is>
+          <t>商品</t>
+        </is>
+      </c>
+      <c r="H73" s="41" t="inlineStr">
+        <is>
+          <t>商品</t>
+        </is>
+      </c>
+      <c r="I73" s="41" t="inlineStr">
+        <is>
+          <t>原油</t>
+        </is>
+      </c>
+      <c r="J73" s="41" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="K73" s="41" t="inlineStr">
+        <is>
+          <t>天天基金</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="37" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF联接A</t>
+        </is>
+      </c>
+      <c r="B74" s="38" t="n">
+        <v>71</v>
+      </c>
+      <c r="C74" s="39" t="n">
+        <v>1.4562</v>
+      </c>
+      <c r="D74" s="40" t="n">
+        <v>6798.52</v>
+      </c>
+      <c r="E74" s="40" t="n">
+        <v>10469.04</v>
+      </c>
+      <c r="F74" s="40" t="n">
+        <v>569.04</v>
+      </c>
+      <c r="G74" s="41" t="inlineStr">
+        <is>
+          <t>海外新兴</t>
+        </is>
+      </c>
+      <c r="H74" s="41" t="inlineStr">
+        <is>
+          <t>香港</t>
+        </is>
+      </c>
+      <c r="I74" s="41" t="inlineStr">
+        <is>
+          <t>恒生</t>
+        </is>
+      </c>
+      <c r="J74" s="41" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="K74" s="41" t="inlineStr">
+        <is>
+          <t>天天基金</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="37" t="inlineStr">
+        <is>
+          <t>广发中证环保ETF联接A</t>
+        </is>
+      </c>
+      <c r="B75" s="38" t="n">
+        <v>1064</v>
+      </c>
+      <c r="C75" s="39" t="n">
+        <v>0.4775</v>
+      </c>
+      <c r="D75" s="40" t="n">
+        <v>13403.92</v>
+      </c>
+      <c r="E75" s="40" t="n">
+        <v>8038.33</v>
+      </c>
+      <c r="F75" s="40" t="n">
+        <v>1637.96</v>
+      </c>
+      <c r="G75" s="41" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H75" s="41" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="I46" s="31" t="inlineStr">
-        <is>
-          <t>全指医药</t>
-        </is>
-      </c>
-      <c r="J46" s="31" t="inlineStr">
-        <is>
-          <t>142</t>
-        </is>
-      </c>
-      <c r="K46" s="31" t="inlineStr">
-        <is>
-          <t>且慢 150 份</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="27" t="inlineStr">
-        <is>
-          <t>易方达证券公司分级</t>
-        </is>
-      </c>
-      <c r="B47" s="28" t="n">
-        <v>502010</v>
-      </c>
-      <c r="C47" s="29" t="n">
-        <v>0.9853</v>
-      </c>
-      <c r="D47" s="30" t="n">
-        <v>473.85</v>
-      </c>
-      <c r="E47" s="30" t="n">
-        <v>475.37</v>
-      </c>
-      <c r="F47" s="30" t="n">
-        <v>8.48</v>
-      </c>
-      <c r="G47" s="31" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H47" s="31" t="inlineStr">
+      <c r="I75" s="41" t="inlineStr">
+        <is>
+          <t>中证环保</t>
+        </is>
+      </c>
+      <c r="J75" s="41" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="K75" s="41" t="inlineStr">
+        <is>
+          <t>天天基金</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="37" t="inlineStr">
+        <is>
+          <t>长信可转债债券A</t>
+        </is>
+      </c>
+      <c r="B76" s="38" t="n">
+        <v>519977</v>
+      </c>
+      <c r="C76" s="39" t="n">
+        <v>1.2011</v>
+      </c>
+      <c r="D76" s="40" t="n">
+        <v>5328.62</v>
+      </c>
+      <c r="E76" s="40" t="n">
+        <v>7684.4</v>
+      </c>
+      <c r="F76" s="40" t="n">
+        <v>1284.2</v>
+      </c>
+      <c r="G76" s="41" t="inlineStr">
+        <is>
+          <t>债券</t>
+        </is>
+      </c>
+      <c r="H76" s="41" t="inlineStr">
+        <is>
+          <t>国内债券</t>
+        </is>
+      </c>
+      <c r="I76" s="41" t="inlineStr">
+        <is>
+          <t>可转债</t>
+        </is>
+      </c>
+      <c r="J76" s="41" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="K76" s="41" t="inlineStr">
+        <is>
+          <t>天天基金</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="37" t="inlineStr">
+        <is>
+          <t>华夏收益债券(QDII)A</t>
+        </is>
+      </c>
+      <c r="B77" s="38" t="n">
+        <v>1061</v>
+      </c>
+      <c r="C77" s="39" t="n">
+        <v>0.9172</v>
+      </c>
+      <c r="D77" s="40" t="n">
+        <v>5609.79</v>
+      </c>
+      <c r="E77" s="40" t="n">
+        <v>7707.85</v>
+      </c>
+      <c r="F77" s="40" t="n">
+        <v>2562.55</v>
+      </c>
+      <c r="G77" s="41" t="inlineStr">
+        <is>
+          <t>债券</t>
+        </is>
+      </c>
+      <c r="H77" s="41" t="inlineStr">
+        <is>
+          <t>海外债券</t>
+        </is>
+      </c>
+      <c r="I77" s="41" t="inlineStr">
+        <is>
+          <t>美元债</t>
+        </is>
+      </c>
+      <c r="J77" s="41" t="inlineStr">
+        <is>
+          <t>521</t>
+        </is>
+      </c>
+      <c r="K77" s="41" t="inlineStr">
+        <is>
+          <t>天天基金</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="37" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="B78" s="38" t="n">
+        <v>478</v>
+      </c>
+      <c r="C78" s="39" t="n">
+        <v>1.9397</v>
+      </c>
+      <c r="D78" s="40" t="n">
+        <v>3299.64</v>
+      </c>
+      <c r="E78" s="40" t="n">
+        <v>6711.47</v>
+      </c>
+      <c r="F78" s="40" t="n">
+        <v>311.16</v>
+      </c>
+      <c r="G78" s="41" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H78" s="41" t="inlineStr">
+        <is>
+          <t>中小盘股</t>
+        </is>
+      </c>
+      <c r="I78" s="41" t="inlineStr">
+        <is>
+          <t>中证500</t>
+        </is>
+      </c>
+      <c r="J78" s="41" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="K78" s="41" t="inlineStr">
+        <is>
+          <t>天天基金</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="37" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF联接A</t>
+        </is>
+      </c>
+      <c r="B79" s="38" t="n">
+        <v>4752</v>
+      </c>
+      <c r="C79" s="39" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="D79" s="40" t="n">
+        <v>7852.99</v>
+      </c>
+      <c r="E79" s="40" t="n">
+        <v>7004.08</v>
+      </c>
+      <c r="F79" s="40" t="n">
+        <v>603.89</v>
+      </c>
+      <c r="G79" s="41" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H79" s="41" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="I47" s="31" t="inlineStr">
-        <is>
-          <t>证券公司</t>
-        </is>
-      </c>
-      <c r="J47" s="31" t="inlineStr">
-        <is>
-          <t>145</t>
-        </is>
-      </c>
-      <c r="K47" s="31" t="inlineStr">
-        <is>
-          <t>且慢 150 份</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="27" t="inlineStr">
-        <is>
-          <t>华宝标普石油指数A</t>
-        </is>
-      </c>
-      <c r="B48" s="28" t="n">
-        <v>162411</v>
-      </c>
-      <c r="C48" s="29" t="n">
-        <v>0.3775</v>
-      </c>
-      <c r="D48" s="30" t="n">
-        <v>5299.96</v>
-      </c>
-      <c r="E48" s="30" t="n">
-        <v>1971.59</v>
-      </c>
-      <c r="F48" s="30" t="n">
-        <v>-29.15</v>
-      </c>
-      <c r="G48" s="31" t="inlineStr">
-        <is>
-          <t>商品</t>
-        </is>
-      </c>
-      <c r="H48" s="31" t="inlineStr">
-        <is>
-          <t>商品</t>
-        </is>
-      </c>
-      <c r="I48" s="31" t="inlineStr">
-        <is>
-          <t>原油</t>
-        </is>
-      </c>
-      <c r="J48" s="31" t="inlineStr">
-        <is>
-          <t>613</t>
-        </is>
-      </c>
-      <c r="K48" s="31" t="inlineStr">
-        <is>
-          <t>且慢 150 份</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="27" t="inlineStr">
-        <is>
-          <t>交银中证海外中国互联网指数</t>
-        </is>
-      </c>
-      <c r="B49" s="28" t="n">
-        <v>164906</v>
-      </c>
-      <c r="C49" s="29" t="n">
-        <v>1.1564</v>
-      </c>
-      <c r="D49" s="30" t="n">
-        <v>576.8</v>
-      </c>
-      <c r="E49" s="30" t="n">
-        <v>816.75</v>
-      </c>
-      <c r="F49" s="30" t="n">
-        <v>149.74</v>
-      </c>
-      <c r="G49" s="31" t="inlineStr">
-        <is>
-          <t>海外新兴</t>
-        </is>
-      </c>
-      <c r="H49" s="31" t="inlineStr">
-        <is>
-          <t>海外互联</t>
-        </is>
-      </c>
-      <c r="I49" s="31" t="inlineStr">
-        <is>
-          <t>海外互联网</t>
-        </is>
-      </c>
-      <c r="J49" s="31" t="inlineStr">
-        <is>
-          <t>221</t>
-        </is>
-      </c>
-      <c r="K49" s="31" t="inlineStr">
-        <is>
-          <t>且慢 150 份</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="27" t="inlineStr">
-        <is>
-          <t>华夏恒生ETF联接A</t>
-        </is>
-      </c>
-      <c r="B50" s="28" t="n">
-        <v>71</v>
-      </c>
-      <c r="C50" s="29" t="n">
-        <v>1.451</v>
-      </c>
-      <c r="D50" s="30" t="n">
-        <v>459.67</v>
-      </c>
-      <c r="E50" s="30" t="n">
-        <v>707.85</v>
-      </c>
-      <c r="F50" s="30" t="n">
-        <v>40.86</v>
-      </c>
-      <c r="G50" s="31" t="inlineStr">
-        <is>
-          <t>海外新兴</t>
-        </is>
-      </c>
-      <c r="H50" s="31" t="inlineStr">
-        <is>
-          <t>香港</t>
-        </is>
-      </c>
-      <c r="I50" s="31" t="inlineStr">
-        <is>
-          <t>恒生</t>
-        </is>
-      </c>
-      <c r="J50" s="31" t="inlineStr">
-        <is>
-          <t>211</t>
-        </is>
-      </c>
-      <c r="K50" s="31" t="inlineStr">
-        <is>
-          <t>且慢 150 份</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="27" t="inlineStr">
-        <is>
-          <t>华安德国30(DAX)联接</t>
-        </is>
-      </c>
-      <c r="B51" s="28" t="n">
-        <v>614</v>
-      </c>
-      <c r="C51" s="29" t="n">
-        <v>1.0903</v>
-      </c>
-      <c r="D51" s="30" t="n">
-        <v>611.75</v>
-      </c>
-      <c r="E51" s="30" t="n">
-        <v>744.5</v>
-      </c>
-      <c r="F51" s="30" t="n">
-        <v>77.51000000000001</v>
-      </c>
-      <c r="G51" s="31" t="inlineStr">
-        <is>
-          <t>海外成熟</t>
-        </is>
-      </c>
-      <c r="H51" s="31" t="inlineStr">
-        <is>
-          <t>德国</t>
-        </is>
-      </c>
-      <c r="I51" s="31" t="inlineStr">
-        <is>
-          <t>德国30</t>
-        </is>
-      </c>
-      <c r="J51" s="31" t="inlineStr">
-        <is>
-          <t>321</t>
-        </is>
-      </c>
-      <c r="K51" s="31" t="inlineStr">
-        <is>
-          <t>且慢 150 份</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="27" t="inlineStr">
-        <is>
-          <t>建信中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="B52" s="28" t="n">
-        <v>478</v>
-      </c>
-      <c r="C52" s="29" t="n">
-        <v>1.9107</v>
-      </c>
-      <c r="D52" s="30" t="n">
-        <v>1046.73</v>
-      </c>
-      <c r="E52" s="30" t="n">
-        <v>2111.46</v>
-      </c>
-      <c r="F52" s="30" t="n">
-        <v>111.48</v>
-      </c>
-      <c r="G52" s="31" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H52" s="31" t="inlineStr">
+      <c r="I79" s="41" t="inlineStr">
+        <is>
+          <t>中证传媒</t>
+        </is>
+      </c>
+      <c r="J79" s="41" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="K79" s="41" t="inlineStr">
+        <is>
+          <t>天天基金</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="37" t="inlineStr">
+        <is>
+          <t>广发中证500ETF联接C</t>
+        </is>
+      </c>
+      <c r="B80" s="38" t="n">
+        <v>2903</v>
+      </c>
+      <c r="C80" s="39" t="n">
+        <v>0.8548</v>
+      </c>
+      <c r="D80" s="40" t="n">
+        <v>3889.32</v>
+      </c>
+      <c r="E80" s="40" t="n">
+        <v>3576.62</v>
+      </c>
+      <c r="F80" s="40" t="n">
+        <v>252.03</v>
+      </c>
+      <c r="G80" s="41" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H80" s="41" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="I52" s="31" t="inlineStr">
+      <c r="I80" s="41" t="inlineStr">
         <is>
           <t>中证500</t>
         </is>
       </c>
-      <c r="J52" s="31" t="inlineStr">
+      <c r="J80" s="41" t="inlineStr">
         <is>
           <t>121</t>
         </is>
       </c>
-      <c r="K52" s="31" t="inlineStr">
-        <is>
-          <t>且慢 S 定投</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="27" t="inlineStr">
-        <is>
-          <t>富国中证红利指数增强</t>
-        </is>
-      </c>
-      <c r="B53" s="28" t="n">
-        <v>100032</v>
-      </c>
-      <c r="C53" s="29" t="n">
-        <v>1.0954</v>
-      </c>
-      <c r="D53" s="30" t="n">
-        <v>1825.9</v>
-      </c>
-      <c r="E53" s="30" t="n">
-        <v>1971.97</v>
-      </c>
-      <c r="F53" s="30" t="n">
-        <v>-28.12</v>
-      </c>
-      <c r="G53" s="31" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H53" s="31" t="inlineStr">
-        <is>
-          <t>红利价值</t>
-        </is>
-      </c>
-      <c r="I53" s="31" t="inlineStr">
-        <is>
-          <t>中证红利</t>
-        </is>
-      </c>
-      <c r="J53" s="31" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
-      </c>
-      <c r="K53" s="31" t="inlineStr">
-        <is>
-          <t>且慢 S 定投</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="27" t="inlineStr">
-        <is>
-          <t>华夏中证500ETF联接A</t>
-        </is>
-      </c>
-      <c r="B54" s="28" t="n">
-        <v>1052</v>
-      </c>
-      <c r="C54" s="29" t="n">
-        <v>0.5517</v>
-      </c>
-      <c r="D54" s="30" t="n">
-        <v>1812.7</v>
-      </c>
-      <c r="E54" s="30" t="n">
-        <v>1058.62</v>
-      </c>
-      <c r="F54" s="30" t="n">
-        <v>58.55</v>
-      </c>
-      <c r="G54" s="31" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H54" s="31" t="inlineStr">
-        <is>
-          <t>中小盘股</t>
-        </is>
-      </c>
-      <c r="I54" s="31" t="inlineStr">
-        <is>
-          <t>中证500</t>
-        </is>
-      </c>
-      <c r="J54" s="31" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="K54" s="31" t="inlineStr">
-        <is>
-          <t>且慢 S 定投</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="27" t="inlineStr">
-        <is>
-          <t>广发中证传媒ETF联接A</t>
-        </is>
-      </c>
-      <c r="B55" s="28" t="n">
-        <v>4752</v>
-      </c>
-      <c r="C55" s="29" t="n">
-        <v>0.8149999999999999</v>
-      </c>
-      <c r="D55" s="30" t="n">
-        <v>1227.03</v>
-      </c>
-      <c r="E55" s="30" t="n">
-        <v>1094.39</v>
-      </c>
-      <c r="F55" s="30" t="n">
-        <v>94.36</v>
-      </c>
-      <c r="G55" s="31" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H55" s="31" t="inlineStr">
-        <is>
-          <t>行业股</t>
-        </is>
-      </c>
-      <c r="I55" s="31" t="inlineStr">
-        <is>
-          <t>中证传媒</t>
-        </is>
-      </c>
-      <c r="J55" s="31" t="inlineStr">
-        <is>
-          <t>144</t>
-        </is>
-      </c>
-      <c r="K55" s="31" t="inlineStr">
-        <is>
-          <t>且慢 S 定投</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="27" t="inlineStr">
-        <is>
-          <t>华夏上证50ETF联接A</t>
-        </is>
-      </c>
-      <c r="B56" s="28" t="n">
-        <v>1051</v>
-      </c>
-      <c r="C56" s="29" t="n">
-        <v>0.9441000000000001</v>
-      </c>
-      <c r="D56" s="30" t="n">
-        <v>1059.17</v>
-      </c>
-      <c r="E56" s="30" t="n">
-        <v>1035.87</v>
-      </c>
-      <c r="F56" s="30" t="n">
-        <v>35.91</v>
-      </c>
-      <c r="G56" s="31" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H56" s="31" t="inlineStr">
-        <is>
-          <t>大盘股</t>
-        </is>
-      </c>
-      <c r="I56" s="31" t="inlineStr">
-        <is>
-          <t>上证50</t>
-        </is>
-      </c>
-      <c r="J56" s="31" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="K56" s="31" t="inlineStr">
-        <is>
-          <t>且慢 S 定投</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="27" t="inlineStr">
-        <is>
-          <t>交银中证海外中国互联网指数</t>
-        </is>
-      </c>
-      <c r="B57" s="28" t="n">
-        <v>164906</v>
-      </c>
-      <c r="C57" s="29" t="n">
-        <v>1.1113</v>
-      </c>
-      <c r="D57" s="30" t="n">
-        <v>899.8200000000001</v>
-      </c>
-      <c r="E57" s="30" t="n">
-        <v>1274.15</v>
-      </c>
-      <c r="F57" s="30" t="n">
-        <v>274.18</v>
-      </c>
-      <c r="G57" s="31" t="inlineStr">
-        <is>
-          <t>海外新兴</t>
-        </is>
-      </c>
-      <c r="H57" s="31" t="inlineStr">
-        <is>
-          <t>海外互联</t>
-        </is>
-      </c>
-      <c r="I57" s="31" t="inlineStr">
-        <is>
-          <t>海外互联网</t>
-        </is>
-      </c>
-      <c r="J57" s="31" t="inlineStr">
-        <is>
-          <t>221</t>
-        </is>
-      </c>
-      <c r="K57" s="31" t="inlineStr">
-        <is>
-          <t>且慢 S 定投</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="27" t="inlineStr">
-        <is>
-          <t>华夏恒生ETF联接A</t>
-        </is>
-      </c>
-      <c r="B58" s="28" t="n">
-        <v>71</v>
-      </c>
-      <c r="C58" s="29" t="n">
-        <v>1.4513</v>
-      </c>
-      <c r="D58" s="30" t="n">
-        <v>689.02</v>
-      </c>
-      <c r="E58" s="30" t="n">
-        <v>1061.02</v>
-      </c>
-      <c r="F58" s="30" t="n">
-        <v>61.05</v>
-      </c>
-      <c r="G58" s="31" t="inlineStr">
-        <is>
-          <t>海外新兴</t>
-        </is>
-      </c>
-      <c r="H58" s="31" t="inlineStr">
-        <is>
-          <t>香港</t>
-        </is>
-      </c>
-      <c r="I58" s="31" t="inlineStr">
-        <is>
-          <t>恒生</t>
-        </is>
-      </c>
-      <c r="J58" s="31" t="inlineStr">
-        <is>
-          <t>211</t>
-        </is>
-      </c>
-      <c r="K58" s="31" t="inlineStr">
-        <is>
-          <t>且慢 S 定投</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="27" t="inlineStr">
-        <is>
-          <t>华安黄金易ETF联接A</t>
-        </is>
-      </c>
-      <c r="B59" s="28" t="n">
-        <v>216</v>
-      </c>
-      <c r="C59" s="29" t="n">
-        <v>1.0902</v>
-      </c>
-      <c r="D59" s="30" t="n">
-        <v>1834.47</v>
-      </c>
-      <c r="E59" s="30" t="n">
-        <v>2343.17</v>
-      </c>
-      <c r="F59" s="30" t="n">
-        <v>343.23</v>
-      </c>
-      <c r="G59" s="31" t="inlineStr">
-        <is>
-          <t>商品</t>
-        </is>
-      </c>
-      <c r="H59" s="31" t="inlineStr">
-        <is>
-          <t>商品</t>
-        </is>
-      </c>
-      <c r="I59" s="31" t="inlineStr">
-        <is>
-          <t>黄金</t>
-        </is>
-      </c>
-      <c r="J59" s="31" t="inlineStr">
-        <is>
-          <t>611</t>
-        </is>
-      </c>
-      <c r="K59" s="31" t="inlineStr">
-        <is>
-          <t>且慢 S 定投</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="27" t="inlineStr">
-        <is>
-          <t>华宝标普石油指数A</t>
-        </is>
-      </c>
-      <c r="B60" s="28" t="n">
-        <v>162411</v>
-      </c>
-      <c r="C60" s="29" t="n">
-        <v>0.4204</v>
-      </c>
-      <c r="D60" s="30" t="n">
-        <v>4757.9</v>
-      </c>
-      <c r="E60" s="30" t="n">
-        <v>1769.94</v>
-      </c>
-      <c r="F60" s="30" t="n">
-        <v>-230.28</v>
-      </c>
-      <c r="G60" s="31" t="inlineStr">
-        <is>
-          <t>商品</t>
-        </is>
-      </c>
-      <c r="H60" s="31" t="inlineStr">
-        <is>
-          <t>商品</t>
-        </is>
-      </c>
-      <c r="I60" s="31" t="inlineStr">
-        <is>
-          <t>原油</t>
-        </is>
-      </c>
-      <c r="J60" s="31" t="inlineStr">
-        <is>
-          <t>613</t>
-        </is>
-      </c>
-      <c r="K60" s="31" t="inlineStr">
-        <is>
-          <t>且慢 S 定投</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="27" t="inlineStr">
-        <is>
-          <t>华安德国30(DAX)联接</t>
-        </is>
-      </c>
-      <c r="B61" s="28" t="n">
-        <v>614</v>
-      </c>
-      <c r="C61" s="29" t="n">
-        <v>1.0483</v>
-      </c>
-      <c r="D61" s="30" t="n">
-        <v>953.96</v>
-      </c>
-      <c r="E61" s="30" t="n">
-        <v>1160.97</v>
-      </c>
-      <c r="F61" s="30" t="n">
-        <v>160.93</v>
-      </c>
-      <c r="G61" s="31" t="inlineStr">
-        <is>
-          <t>海外成熟</t>
-        </is>
-      </c>
-      <c r="H61" s="31" t="inlineStr">
-        <is>
-          <t>德国</t>
-        </is>
-      </c>
-      <c r="I61" s="31" t="inlineStr">
-        <is>
-          <t>德国30</t>
-        </is>
-      </c>
-      <c r="J61" s="31" t="inlineStr">
-        <is>
-          <t>321</t>
-        </is>
-      </c>
-      <c r="K61" s="31" t="inlineStr">
-        <is>
-          <t>且慢 S 定投</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="27" t="inlineStr">
-        <is>
-          <t>易方达安心债券A</t>
-        </is>
-      </c>
-      <c r="B62" s="28" t="n">
-        <v>110027</v>
-      </c>
-      <c r="C62" s="29" t="n">
-        <v>1.6793</v>
-      </c>
-      <c r="D62" s="30" t="n">
-        <v>595.47</v>
-      </c>
-      <c r="E62" s="30" t="n">
-        <v>1056.96</v>
-      </c>
-      <c r="F62" s="30" t="n">
-        <v>56.99</v>
-      </c>
-      <c r="G62" s="31" t="inlineStr">
-        <is>
-          <t>债券</t>
-        </is>
-      </c>
-      <c r="H62" s="31" t="inlineStr">
-        <is>
-          <t>国内债券</t>
-        </is>
-      </c>
-      <c r="I62" s="31" t="inlineStr">
-        <is>
-          <t>可转债</t>
-        </is>
-      </c>
-      <c r="J62" s="31" t="inlineStr">
-        <is>
-          <t>512</t>
-        </is>
-      </c>
-      <c r="K62" s="31" t="inlineStr">
-        <is>
-          <t>且慢 S 定投</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="32" t="inlineStr">
-        <is>
-          <t>富国中证红利指数增强</t>
-        </is>
-      </c>
-      <c r="B63" s="33" t="n">
-        <v>100032</v>
-      </c>
-      <c r="C63" s="34" t="n">
-        <v>1.0193</v>
-      </c>
-      <c r="D63" s="35" t="n">
-        <v>65064.33</v>
-      </c>
-      <c r="E63" s="35" t="n">
-        <v>70269.48</v>
-      </c>
-      <c r="F63" s="35" t="n">
-        <v>3949.4</v>
-      </c>
-      <c r="G63" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H63" s="36" t="inlineStr">
-        <is>
-          <t>红利价值</t>
-        </is>
-      </c>
-      <c r="I63" s="36" t="inlineStr">
-        <is>
-          <t>中证红利</t>
-        </is>
-      </c>
-      <c r="J63" s="36" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
-      </c>
-      <c r="K63" s="36" t="inlineStr">
-        <is>
-          <t>天天基金</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="32" t="inlineStr">
-        <is>
-          <t>广发养老指数A</t>
-        </is>
-      </c>
-      <c r="B64" s="33" t="n">
-        <v>968</v>
-      </c>
-      <c r="C64" s="34" t="n">
-        <v>0.9167</v>
-      </c>
-      <c r="D64" s="35" t="n">
-        <v>63490</v>
-      </c>
-      <c r="E64" s="35" t="n">
-        <v>65420.1</v>
-      </c>
-      <c r="F64" s="35" t="n">
-        <v>7218.81</v>
-      </c>
-      <c r="G64" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H64" s="36" t="inlineStr">
-        <is>
-          <t>行业股</t>
-        </is>
-      </c>
-      <c r="I64" s="36" t="inlineStr">
-        <is>
-          <t>养老产业</t>
-        </is>
-      </c>
-      <c r="J64" s="36" t="inlineStr">
-        <is>
-          <t>141</t>
-        </is>
-      </c>
-      <c r="K64" s="36" t="inlineStr">
-        <is>
-          <t>天天基金</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="32" t="inlineStr">
-        <is>
-          <t>兴全可转债混合</t>
-        </is>
-      </c>
-      <c r="B65" s="33" t="n">
-        <v>340001</v>
-      </c>
-      <c r="C65" s="34" t="n">
-        <v>0.9886</v>
-      </c>
-      <c r="D65" s="35" t="n">
-        <v>32370.29</v>
-      </c>
-      <c r="E65" s="35" t="n">
-        <v>39414.07</v>
-      </c>
-      <c r="F65" s="35" t="n">
-        <v>7412.8</v>
-      </c>
-      <c r="G65" s="36" t="inlineStr">
-        <is>
-          <t>债券</t>
-        </is>
-      </c>
-      <c r="H65" s="36" t="inlineStr">
-        <is>
-          <t>国内债券</t>
-        </is>
-      </c>
-      <c r="I65" s="36" t="inlineStr">
-        <is>
-          <t>可转债</t>
-        </is>
-      </c>
-      <c r="J65" s="36" t="inlineStr">
-        <is>
-          <t>512</t>
-        </is>
-      </c>
-      <c r="K65" s="36" t="inlineStr">
-        <is>
-          <t>天天基金</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="32" t="inlineStr">
-        <is>
-          <t>广发医药卫生联接A</t>
-        </is>
-      </c>
-      <c r="B66" s="33" t="n">
-        <v>1180</v>
-      </c>
-      <c r="C66" s="34" t="n">
-        <v>0.7451</v>
-      </c>
-      <c r="D66" s="35" t="n">
-        <v>41014.88</v>
-      </c>
-      <c r="E66" s="35" t="n">
-        <v>39452.21</v>
-      </c>
-      <c r="F66" s="35" t="n">
-        <v>8892.030000000001</v>
-      </c>
-      <c r="G66" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H66" s="36" t="inlineStr">
-        <is>
-          <t>行业股</t>
-        </is>
-      </c>
-      <c r="I66" s="36" t="inlineStr">
-        <is>
-          <t>全指医药</t>
-        </is>
-      </c>
-      <c r="J66" s="36" t="inlineStr">
-        <is>
-          <t>142</t>
-        </is>
-      </c>
-      <c r="K66" s="36" t="inlineStr">
-        <is>
-          <t>天天基金</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="32" t="inlineStr">
-        <is>
-          <t>易方达安心回报债券A</t>
-        </is>
-      </c>
-      <c r="B67" s="33" t="n">
-        <v>110027</v>
-      </c>
-      <c r="C67" s="34" t="n">
-        <v>1.5931</v>
-      </c>
-      <c r="D67" s="35" t="n">
-        <v>20086.63</v>
-      </c>
-      <c r="E67" s="35" t="n">
-        <v>35653.77</v>
-      </c>
-      <c r="F67" s="35" t="n">
-        <v>3653.76</v>
-      </c>
-      <c r="G67" s="36" t="inlineStr">
-        <is>
-          <t>债券</t>
-        </is>
-      </c>
-      <c r="H67" s="36" t="inlineStr">
-        <is>
-          <t>国内债券</t>
-        </is>
-      </c>
-      <c r="I67" s="36" t="inlineStr">
-        <is>
-          <t>可转债</t>
-        </is>
-      </c>
-      <c r="J67" s="36" t="inlineStr">
-        <is>
-          <t>512</t>
-        </is>
-      </c>
-      <c r="K67" s="36" t="inlineStr">
-        <is>
-          <t>天天基金</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="32" t="inlineStr">
-        <is>
-          <t>华安德国30(DAX)联接</t>
-        </is>
-      </c>
-      <c r="B68" s="33" t="n">
-        <v>614</v>
-      </c>
-      <c r="C68" s="34" t="n">
-        <v>1.091</v>
-      </c>
-      <c r="D68" s="35" t="n">
-        <v>20716.63</v>
-      </c>
-      <c r="E68" s="35" t="n">
-        <v>25212.14</v>
-      </c>
-      <c r="F68" s="35" t="n">
-        <v>2610.3</v>
-      </c>
-      <c r="G68" s="36" t="inlineStr">
-        <is>
-          <t>海外成熟</t>
-        </is>
-      </c>
-      <c r="H68" s="36" t="inlineStr">
-        <is>
-          <t>德国</t>
-        </is>
-      </c>
-      <c r="I68" s="36" t="inlineStr">
-        <is>
-          <t>德国30</t>
-        </is>
-      </c>
-      <c r="J68" s="36" t="inlineStr">
-        <is>
-          <t>321</t>
-        </is>
-      </c>
-      <c r="K68" s="36" t="inlineStr">
-        <is>
-          <t>天天基金</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="32" t="inlineStr">
-        <is>
-          <t>富国沪深300指数增强</t>
-        </is>
-      </c>
-      <c r="B69" s="33" t="n">
-        <v>100038</v>
-      </c>
-      <c r="C69" s="34" t="n">
-        <v>1.3129</v>
-      </c>
-      <c r="D69" s="35" t="n">
-        <v>14624.61</v>
-      </c>
-      <c r="E69" s="35" t="n">
-        <v>23721.12</v>
-      </c>
-      <c r="F69" s="35" t="n">
-        <v>4520.47</v>
-      </c>
-      <c r="G69" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H69" s="36" t="inlineStr">
-        <is>
-          <t>大盘股</t>
-        </is>
-      </c>
-      <c r="I69" s="36" t="inlineStr">
-        <is>
-          <t>沪深300</t>
-        </is>
-      </c>
-      <c r="J69" s="36" t="inlineStr">
-        <is>
-          <t>113</t>
-        </is>
-      </c>
-      <c r="K69" s="36" t="inlineStr">
-        <is>
-          <t>天天基金</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="32" t="inlineStr">
-        <is>
-          <t>交银中证海外中国互联网指数</t>
-        </is>
-      </c>
-      <c r="B70" s="33" t="n">
-        <v>164906</v>
-      </c>
-      <c r="C70" s="34" t="n">
-        <v>1.1444</v>
-      </c>
-      <c r="D70" s="35" t="n">
-        <v>16778.47</v>
-      </c>
-      <c r="E70" s="35" t="n">
-        <v>23758.31</v>
-      </c>
-      <c r="F70" s="35" t="n">
-        <v>4557.03</v>
-      </c>
-      <c r="G70" s="36" t="inlineStr">
-        <is>
-          <t>海外新兴</t>
-        </is>
-      </c>
-      <c r="H70" s="36" t="inlineStr">
-        <is>
-          <t>海外互联</t>
-        </is>
-      </c>
-      <c r="I70" s="36" t="inlineStr">
-        <is>
-          <t>海外互联网</t>
-        </is>
-      </c>
-      <c r="J70" s="36" t="inlineStr">
-        <is>
-          <t>221</t>
-        </is>
-      </c>
-      <c r="K70" s="36" t="inlineStr">
-        <is>
-          <t>天天基金</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="32" t="inlineStr">
-        <is>
-          <t>广发中证全指金融地产联接A</t>
-        </is>
-      </c>
-      <c r="B71" s="33" t="n">
-        <v>1469</v>
-      </c>
-      <c r="C71" s="34" t="n">
-        <v>0.9073</v>
-      </c>
-      <c r="D71" s="35" t="n">
-        <v>21163.93</v>
-      </c>
-      <c r="E71" s="35" t="n">
-        <v>22078.21</v>
-      </c>
-      <c r="F71" s="35" t="n">
-        <v>2876.18</v>
-      </c>
-      <c r="G71" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H71" s="36" t="inlineStr">
-        <is>
-          <t>行业股</t>
-        </is>
-      </c>
-      <c r="I71" s="36" t="inlineStr">
-        <is>
-          <t>金融地产</t>
-        </is>
-      </c>
-      <c r="J71" s="36" t="inlineStr">
-        <is>
-          <t>147</t>
-        </is>
-      </c>
-      <c r="K71" s="36" t="inlineStr">
-        <is>
-          <t>天天基金</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="32" t="inlineStr">
-        <is>
-          <t>富国中证500指数(LOF)</t>
-        </is>
-      </c>
-      <c r="B72" s="33" t="n">
-        <v>161017</v>
-      </c>
-      <c r="C72" s="34" t="n">
-        <v>1.3432</v>
-      </c>
-      <c r="D72" s="35" t="n">
-        <v>9529.809999999999</v>
-      </c>
-      <c r="E72" s="35" t="n">
-        <v>16477.04</v>
-      </c>
-      <c r="F72" s="35" t="n">
-        <v>3676.6</v>
-      </c>
-      <c r="G72" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H72" s="36" t="inlineStr">
-        <is>
-          <t>中小盘股</t>
-        </is>
-      </c>
-      <c r="I72" s="36" t="inlineStr">
-        <is>
-          <t>中证500</t>
-        </is>
-      </c>
-      <c r="J72" s="36" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="K72" s="36" t="inlineStr">
-        <is>
-          <t>天天基金</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="32" t="inlineStr">
-        <is>
-          <t>华宝标普油气上游股票人民币A</t>
-        </is>
-      </c>
-      <c r="B73" s="33" t="n">
-        <v>162411</v>
-      </c>
-      <c r="C73" s="34" t="n">
-        <v>0.5152</v>
-      </c>
-      <c r="D73" s="35" t="n">
-        <v>37267.45</v>
-      </c>
-      <c r="E73" s="35" t="n">
-        <v>13863.49</v>
-      </c>
-      <c r="F73" s="35" t="n">
-        <v>-5336.7</v>
-      </c>
-      <c r="G73" s="36" t="inlineStr">
-        <is>
-          <t>商品</t>
-        </is>
-      </c>
-      <c r="H73" s="36" t="inlineStr">
-        <is>
-          <t>商品</t>
-        </is>
-      </c>
-      <c r="I73" s="36" t="inlineStr">
-        <is>
-          <t>原油</t>
-        </is>
-      </c>
-      <c r="J73" s="36" t="inlineStr">
-        <is>
-          <t>613</t>
-        </is>
-      </c>
-      <c r="K73" s="36" t="inlineStr">
-        <is>
-          <t>天天基金</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="32" t="inlineStr">
-        <is>
-          <t>华夏恒生ETF联接A</t>
-        </is>
-      </c>
-      <c r="B74" s="33" t="n">
-        <v>71</v>
-      </c>
-      <c r="C74" s="34" t="n">
-        <v>1.4562</v>
-      </c>
-      <c r="D74" s="35" t="n">
-        <v>6798.52</v>
-      </c>
-      <c r="E74" s="35" t="n">
-        <v>10469.04</v>
-      </c>
-      <c r="F74" s="35" t="n">
-        <v>569.04</v>
-      </c>
-      <c r="G74" s="36" t="inlineStr">
-        <is>
-          <t>海外新兴</t>
-        </is>
-      </c>
-      <c r="H74" s="36" t="inlineStr">
-        <is>
-          <t>香港</t>
-        </is>
-      </c>
-      <c r="I74" s="36" t="inlineStr">
-        <is>
-          <t>恒生</t>
-        </is>
-      </c>
-      <c r="J74" s="36" t="inlineStr">
-        <is>
-          <t>211</t>
-        </is>
-      </c>
-      <c r="K74" s="36" t="inlineStr">
-        <is>
-          <t>天天基金</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="32" t="inlineStr">
-        <is>
-          <t>广发中证环保ETF联接A</t>
-        </is>
-      </c>
-      <c r="B75" s="33" t="n">
-        <v>1064</v>
-      </c>
-      <c r="C75" s="34" t="n">
-        <v>0.4775</v>
-      </c>
-      <c r="D75" s="35" t="n">
-        <v>13403.92</v>
-      </c>
-      <c r="E75" s="35" t="n">
-        <v>8038.33</v>
-      </c>
-      <c r="F75" s="35" t="n">
-        <v>1637.96</v>
-      </c>
-      <c r="G75" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H75" s="36" t="inlineStr">
-        <is>
-          <t>行业股</t>
-        </is>
-      </c>
-      <c r="I75" s="36" t="inlineStr">
-        <is>
-          <t>中证环保</t>
-        </is>
-      </c>
-      <c r="J75" s="36" t="inlineStr">
-        <is>
-          <t>143</t>
-        </is>
-      </c>
-      <c r="K75" s="36" t="inlineStr">
-        <is>
-          <t>天天基金</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="32" t="inlineStr">
-        <is>
-          <t>长信可转债债券A</t>
-        </is>
-      </c>
-      <c r="B76" s="33" t="n">
-        <v>519977</v>
-      </c>
-      <c r="C76" s="34" t="n">
-        <v>1.2011</v>
-      </c>
-      <c r="D76" s="35" t="n">
-        <v>5328.62</v>
-      </c>
-      <c r="E76" s="35" t="n">
-        <v>7684.4</v>
-      </c>
-      <c r="F76" s="35" t="n">
-        <v>1284.2</v>
-      </c>
-      <c r="G76" s="36" t="inlineStr">
-        <is>
-          <t>债券</t>
-        </is>
-      </c>
-      <c r="H76" s="36" t="inlineStr">
-        <is>
-          <t>国内债券</t>
-        </is>
-      </c>
-      <c r="I76" s="36" t="inlineStr">
-        <is>
-          <t>可转债</t>
-        </is>
-      </c>
-      <c r="J76" s="36" t="inlineStr">
-        <is>
-          <t>512</t>
-        </is>
-      </c>
-      <c r="K76" s="36" t="inlineStr">
-        <is>
-          <t>天天基金</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="32" t="inlineStr">
-        <is>
-          <t>华夏收益债券(QDII)A</t>
-        </is>
-      </c>
-      <c r="B77" s="33" t="n">
-        <v>1061</v>
-      </c>
-      <c r="C77" s="34" t="n">
-        <v>0.9172</v>
-      </c>
-      <c r="D77" s="35" t="n">
-        <v>5609.79</v>
-      </c>
-      <c r="E77" s="35" t="n">
-        <v>7707.85</v>
-      </c>
-      <c r="F77" s="35" t="n">
-        <v>2562.55</v>
-      </c>
-      <c r="G77" s="36" t="inlineStr">
-        <is>
-          <t>债券</t>
-        </is>
-      </c>
-      <c r="H77" s="36" t="inlineStr">
-        <is>
-          <t>海外债券</t>
-        </is>
-      </c>
-      <c r="I77" s="36" t="inlineStr">
-        <is>
-          <t>美元债</t>
-        </is>
-      </c>
-      <c r="J77" s="36" t="inlineStr">
-        <is>
-          <t>521</t>
-        </is>
-      </c>
-      <c r="K77" s="36" t="inlineStr">
-        <is>
-          <t>天天基金</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="32" t="inlineStr">
-        <is>
-          <t>建信中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="B78" s="33" t="n">
-        <v>478</v>
-      </c>
-      <c r="C78" s="34" t="n">
-        <v>1.9397</v>
-      </c>
-      <c r="D78" s="35" t="n">
-        <v>3299.64</v>
-      </c>
-      <c r="E78" s="35" t="n">
-        <v>6656.03</v>
-      </c>
-      <c r="F78" s="35" t="n">
-        <v>255.72</v>
-      </c>
-      <c r="G78" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H78" s="36" t="inlineStr">
-        <is>
-          <t>中小盘股</t>
-        </is>
-      </c>
-      <c r="I78" s="36" t="inlineStr">
-        <is>
-          <t>中证500</t>
-        </is>
-      </c>
-      <c r="J78" s="36" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="K78" s="36" t="inlineStr">
-        <is>
-          <t>天天基金</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="32" t="inlineStr">
-        <is>
-          <t>广发中证传媒ETF联接A</t>
-        </is>
-      </c>
-      <c r="B79" s="33" t="n">
-        <v>4752</v>
-      </c>
-      <c r="C79" s="34" t="n">
-        <v>0.8149999999999999</v>
-      </c>
-      <c r="D79" s="35" t="n">
-        <v>7852.99</v>
-      </c>
-      <c r="E79" s="35" t="n">
-        <v>7004.08</v>
-      </c>
-      <c r="F79" s="35" t="n">
-        <v>603.89</v>
-      </c>
-      <c r="G79" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H79" s="36" t="inlineStr">
-        <is>
-          <t>行业股</t>
-        </is>
-      </c>
-      <c r="I79" s="36" t="inlineStr">
-        <is>
-          <t>中证传媒</t>
-        </is>
-      </c>
-      <c r="J79" s="36" t="inlineStr">
-        <is>
-          <t>144</t>
-        </is>
-      </c>
-      <c r="K79" s="36" t="inlineStr">
-        <is>
-          <t>天天基金</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="32" t="inlineStr">
-        <is>
-          <t>广发中证500ETF联接C</t>
-        </is>
-      </c>
-      <c r="B80" s="33" t="n">
-        <v>2903</v>
-      </c>
-      <c r="C80" s="34" t="n">
-        <v>0.8548</v>
-      </c>
-      <c r="D80" s="35" t="n">
-        <v>3889.32</v>
-      </c>
-      <c r="E80" s="35" t="n">
-        <v>3576.62</v>
-      </c>
-      <c r="F80" s="35" t="n">
-        <v>252.03</v>
-      </c>
-      <c r="G80" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H80" s="36" t="inlineStr">
-        <is>
-          <t>中小盘股</t>
-        </is>
-      </c>
-      <c r="I80" s="36" t="inlineStr">
-        <is>
-          <t>中证500</t>
-        </is>
-      </c>
-      <c r="J80" s="36" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="K80" s="36" t="inlineStr">
+      <c r="K80" s="41" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
@@ -4434,10 +4446,10 @@
         <v>915.97</v>
       </c>
       <c r="E85" s="10" t="n">
-        <v>1375.24</v>
+        <v>1364.43</v>
       </c>
       <c r="F85" s="10" t="n">
-        <v>137.4</v>
+        <v>126.59</v>
       </c>
       <c r="G85" s="11" t="inlineStr">
         <is>
@@ -4481,10 +4493,10 @@
         <v>469.05</v>
       </c>
       <c r="E86" s="10" t="n">
-        <v>1030.36</v>
+        <v>1025.77</v>
       </c>
       <c r="F86" s="10" t="n">
-        <v>25.75</v>
+        <v>21.15</v>
       </c>
       <c r="G86" s="11" t="inlineStr">
         <is>
@@ -4622,10 +4634,10 @@
         <v>258.65</v>
       </c>
       <c r="E89" s="10" t="n">
-        <v>300.22</v>
+        <v>299.13</v>
       </c>
       <c r="F89" s="10" t="n">
-        <v>-19.76</v>
+        <v>-20.85</v>
       </c>
       <c r="G89" s="11" t="inlineStr">
         <is>
@@ -4669,10 +4681,10 @@
         <v>212.74</v>
       </c>
       <c r="E90" s="10" t="n">
-        <v>194.64</v>
+        <v>192</v>
       </c>
       <c r="F90" s="10" t="n">
-        <v>51.93</v>
+        <v>49.29</v>
       </c>
       <c r="G90" s="11" t="inlineStr">
         <is>
@@ -5045,10 +5057,10 @@
         <v>1432.82</v>
       </c>
       <c r="E98" s="10" t="n">
-        <v>1445.14</v>
+        <v>1445.72</v>
       </c>
       <c r="F98" s="10" t="n">
-        <v>5.59</v>
+        <v>6.16</v>
       </c>
       <c r="G98" s="11" t="inlineStr">
         <is>
@@ -5233,10 +5245,10 @@
         <v>898.04</v>
       </c>
       <c r="E102" s="10" t="n">
-        <v>1348.32</v>
+        <v>1337.72</v>
       </c>
       <c r="F102" s="10" t="n">
-        <v>137.31</v>
+        <v>126.71</v>
       </c>
       <c r="G102" s="11" t="inlineStr">
         <is>
@@ -5280,10 +5292,10 @@
         <v>439.46</v>
       </c>
       <c r="E103" s="10" t="n">
-        <v>965.36</v>
+        <v>961.0599999999999</v>
       </c>
       <c r="F103" s="10" t="n">
-        <v>30.19</v>
+        <v>25.88</v>
       </c>
       <c r="G103" s="11" t="inlineStr">
         <is>
@@ -5421,10 +5433,10 @@
         <v>209.22</v>
       </c>
       <c r="E106" s="10" t="n">
-        <v>242.84</v>
+        <v>241.96</v>
       </c>
       <c r="F106" s="10" t="n">
-        <v>-15.73</v>
+        <v>-16.61</v>
       </c>
       <c r="G106" s="11" t="inlineStr">
         <is>
@@ -5468,10 +5480,10 @@
         <v>212.74</v>
       </c>
       <c r="E107" s="10" t="n">
-        <v>194.64</v>
+        <v>192</v>
       </c>
       <c r="F107" s="10" t="n">
-        <v>51.93</v>
+        <v>49.29</v>
       </c>
       <c r="G107" s="11" t="inlineStr">
         <is>
@@ -5891,10 +5903,10 @@
         <v>612.9</v>
       </c>
       <c r="E116" s="10" t="n">
-        <v>953.0599999999999</v>
+        <v>955.51</v>
       </c>
       <c r="F116" s="10" t="n">
-        <v>3.06</v>
+        <v>5.52</v>
       </c>
       <c r="G116" s="11" t="inlineStr">
         <is>
@@ -5970,1463 +5982,1463 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="27" t="inlineStr">
+      <c r="A118" s="32" t="inlineStr">
         <is>
           <t>交银稳鑫短债债券A</t>
         </is>
       </c>
-      <c r="B118" s="28" t="n">
+      <c r="B118" s="33" t="n">
         <v>6793</v>
       </c>
-      <c r="C118" s="29" t="n">
+      <c r="C118" s="34" t="n">
         <v>1.0286</v>
       </c>
-      <c r="D118" s="30" t="n">
+      <c r="D118" s="35" t="n">
         <v>78202.03</v>
       </c>
-      <c r="E118" s="30" t="n">
+      <c r="E118" s="35" t="n">
         <v>80352.59</v>
       </c>
-      <c r="F118" s="30" t="n">
+      <c r="F118" s="35" t="n">
         <v>-86.02</v>
       </c>
-      <c r="G118" s="31" t="inlineStr">
+      <c r="G118" s="36" t="inlineStr">
         <is>
           <t>债券</t>
         </is>
       </c>
-      <c r="H118" s="31" t="inlineStr">
+      <c r="H118" s="36" t="inlineStr">
         <is>
           <t>国内债券</t>
         </is>
       </c>
-      <c r="I118" s="31" t="inlineStr">
+      <c r="I118" s="36" t="inlineStr">
         <is>
           <t>可转债</t>
         </is>
       </c>
-      <c r="J118" s="31" t="inlineStr">
+      <c r="J118" s="36" t="inlineStr">
         <is>
           <t>512</t>
         </is>
       </c>
-      <c r="K118" s="31" t="inlineStr">
+      <c r="K118" s="36" t="inlineStr">
         <is>
           <t>稳稳的幸福父</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="27" t="inlineStr">
+      <c r="A119" s="32" t="inlineStr">
         <is>
           <t>交银信用添利债券(LOF)</t>
         </is>
       </c>
-      <c r="B119" s="28" t="n">
+      <c r="B119" s="33" t="n">
         <v>164902</v>
       </c>
-      <c r="C119" s="29" t="n">
+      <c r="C119" s="34" t="n">
         <v>1.1469</v>
       </c>
-      <c r="D119" s="30" t="n">
+      <c r="D119" s="35" t="n">
         <v>132767.68</v>
       </c>
-      <c r="E119" s="30" t="n">
+      <c r="E119" s="35" t="n">
         <v>153346.67</v>
       </c>
-      <c r="F119" s="30" t="n">
+      <c r="F119" s="35" t="n">
         <v>1075.42</v>
       </c>
-      <c r="G119" s="31" t="inlineStr">
+      <c r="G119" s="36" t="inlineStr">
         <is>
           <t>债券</t>
         </is>
       </c>
-      <c r="H119" s="31" t="inlineStr">
+      <c r="H119" s="36" t="inlineStr">
         <is>
           <t>国内债券</t>
         </is>
       </c>
-      <c r="I119" s="31" t="inlineStr">
+      <c r="I119" s="36" t="inlineStr">
         <is>
           <t>可转债</t>
         </is>
       </c>
-      <c r="J119" s="31" t="inlineStr">
+      <c r="J119" s="36" t="inlineStr">
         <is>
           <t>512</t>
         </is>
       </c>
-      <c r="K119" s="31" t="inlineStr">
+      <c r="K119" s="36" t="inlineStr">
         <is>
           <t>稳稳的幸福父</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="27" t="inlineStr">
+      <c r="A120" s="32" t="inlineStr">
         <is>
           <t>交银主题优选</t>
         </is>
       </c>
-      <c r="B120" s="28" t="n">
+      <c r="B120" s="33" t="n">
         <v>519700</v>
       </c>
-      <c r="C120" s="29" t="n">
+      <c r="C120" s="34" t="n">
         <v>1.4657</v>
       </c>
-      <c r="D120" s="30" t="n">
+      <c r="D120" s="35" t="n">
         <v>11598.58</v>
       </c>
-      <c r="E120" s="30" t="n">
+      <c r="E120" s="35" t="n">
         <v>18604.12</v>
       </c>
-      <c r="F120" s="30" t="n">
+      <c r="F120" s="35" t="n">
         <v>1604.08</v>
       </c>
-      <c r="G120" s="31" t="inlineStr">
+      <c r="G120" s="36" t="inlineStr">
         <is>
           <t>混合型</t>
         </is>
       </c>
-      <c r="H120" s="31" t="inlineStr">
+      <c r="H120" s="36" t="inlineStr">
         <is>
           <t>股债混合</t>
         </is>
       </c>
-      <c r="I120" s="31" t="inlineStr">
+      <c r="I120" s="36" t="inlineStr">
         <is>
           <t>偏股</t>
         </is>
       </c>
-      <c r="J120" s="31" t="inlineStr">
+      <c r="J120" s="36" t="inlineStr">
         <is>
           <t>411</t>
         </is>
       </c>
-      <c r="K120" s="31" t="inlineStr">
+      <c r="K120" s="36" t="inlineStr">
         <is>
           <t>稳稳的幸福父</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="27" t="inlineStr">
+      <c r="A121" s="32" t="inlineStr">
         <is>
           <t>交银纯债A/B</t>
         </is>
       </c>
-      <c r="B121" s="28" t="n">
+      <c r="B121" s="33" t="n">
         <v>519718</v>
       </c>
-      <c r="C121" s="29" t="n">
+      <c r="C121" s="34" t="n">
         <v>1.0644</v>
       </c>
-      <c r="D121" s="30" t="n">
+      <c r="D121" s="35" t="n">
         <v>144612.8</v>
       </c>
-      <c r="E121" s="30" t="n">
+      <c r="E121" s="35" t="n">
         <v>156326.44</v>
       </c>
-      <c r="F121" s="30" t="n">
+      <c r="F121" s="35" t="n">
         <v>2400.57</v>
       </c>
-      <c r="G121" s="31" t="inlineStr">
+      <c r="G121" s="36" t="inlineStr">
         <is>
           <t>债券</t>
         </is>
       </c>
-      <c r="H121" s="31" t="inlineStr">
+      <c r="H121" s="36" t="inlineStr">
         <is>
           <t>国内债券</t>
         </is>
       </c>
-      <c r="I121" s="31" t="inlineStr">
+      <c r="I121" s="36" t="inlineStr">
         <is>
           <t>可转债</t>
         </is>
       </c>
-      <c r="J121" s="31" t="inlineStr">
+      <c r="J121" s="36" t="inlineStr">
         <is>
           <t>512</t>
         </is>
       </c>
-      <c r="K121" s="31" t="inlineStr">
+      <c r="K121" s="36" t="inlineStr">
         <is>
           <t>稳稳的幸福父</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="27" t="inlineStr">
+      <c r="A122" s="32" t="inlineStr">
         <is>
           <t>交银双轮动A/B</t>
         </is>
       </c>
-      <c r="B122" s="28" t="n">
+      <c r="B122" s="33" t="n">
         <v>519723</v>
       </c>
-      <c r="C122" s="29" t="n">
+      <c r="C122" s="34" t="n">
         <v>1.0674</v>
       </c>
-      <c r="D122" s="30" t="n">
+      <c r="D122" s="35" t="n">
         <v>134080.44</v>
       </c>
-      <c r="E122" s="30" t="n">
+      <c r="E122" s="35" t="n">
         <v>144538.71</v>
       </c>
-      <c r="F122" s="30" t="n">
+      <c r="F122" s="35" t="n">
         <v>1421.25</v>
       </c>
-      <c r="G122" s="31" t="inlineStr">
+      <c r="G122" s="36" t="inlineStr">
         <is>
           <t>债券</t>
         </is>
       </c>
-      <c r="H122" s="31" t="inlineStr">
+      <c r="H122" s="36" t="inlineStr">
         <is>
           <t>国内债券</t>
         </is>
       </c>
-      <c r="I122" s="31" t="inlineStr">
+      <c r="I122" s="36" t="inlineStr">
         <is>
           <t>可转债</t>
         </is>
       </c>
-      <c r="J122" s="31" t="inlineStr">
+      <c r="J122" s="36" t="inlineStr">
         <is>
           <t>512</t>
         </is>
       </c>
-      <c r="K122" s="31" t="inlineStr">
+      <c r="K122" s="36" t="inlineStr">
         <is>
           <t>稳稳的幸福父</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="27" t="inlineStr">
+      <c r="A123" s="32" t="inlineStr">
         <is>
           <t>交银周期回报灵活配置混合A</t>
         </is>
       </c>
-      <c r="B123" s="28" t="n">
+      <c r="B123" s="33" t="n">
         <v>519738</v>
       </c>
-      <c r="C123" s="29" t="n">
+      <c r="C123" s="34" t="n">
         <v>1.1791</v>
       </c>
-      <c r="D123" s="30" t="n">
+      <c r="D123" s="35" t="n">
         <v>68092.81</v>
       </c>
-      <c r="E123" s="30" t="n">
+      <c r="E123" s="35" t="n">
         <v>78851.47</v>
       </c>
-      <c r="F123" s="30" t="n">
+      <c r="F123" s="35" t="n">
         <v>-1436.76</v>
       </c>
-      <c r="G123" s="31" t="inlineStr">
+      <c r="G123" s="36" t="inlineStr">
         <is>
           <t>混合型</t>
         </is>
       </c>
-      <c r="H123" s="31" t="inlineStr">
+      <c r="H123" s="36" t="inlineStr">
         <is>
           <t>股债混合</t>
         </is>
       </c>
-      <c r="I123" s="31" t="inlineStr">
+      <c r="I123" s="36" t="inlineStr">
         <is>
           <t>偏债</t>
         </is>
       </c>
-      <c r="J123" s="31" t="inlineStr">
+      <c r="J123" s="36" t="inlineStr">
         <is>
           <t>411</t>
         </is>
       </c>
-      <c r="K123" s="31" t="inlineStr">
+      <c r="K123" s="36" t="inlineStr">
         <is>
           <t>稳稳的幸福父</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="27" t="inlineStr">
+      <c r="A124" s="32" t="inlineStr">
         <is>
           <t>交银新回报灵活配置混合A</t>
         </is>
       </c>
-      <c r="B124" s="28" t="n">
+      <c r="B124" s="33" t="n">
         <v>519752</v>
       </c>
-      <c r="C124" s="29" t="n">
+      <c r="C124" s="34" t="n">
         <v>1.2439</v>
       </c>
-      <c r="D124" s="30" t="n">
+      <c r="D124" s="35" t="n">
         <v>59685.02</v>
       </c>
-      <c r="E124" s="30" t="n">
+      <c r="E124" s="35" t="n">
         <v>75262.81</v>
       </c>
-      <c r="F124" s="30" t="n">
+      <c r="F124" s="35" t="n">
         <v>1020.61</v>
       </c>
-      <c r="G124" s="31" t="inlineStr">
+      <c r="G124" s="36" t="inlineStr">
         <is>
           <t>混合型</t>
         </is>
       </c>
-      <c r="H124" s="31" t="inlineStr">
+      <c r="H124" s="36" t="inlineStr">
         <is>
           <t>股债混合</t>
         </is>
       </c>
-      <c r="I124" s="31" t="inlineStr">
+      <c r="I124" s="36" t="inlineStr">
         <is>
           <t>偏债</t>
         </is>
       </c>
-      <c r="J124" s="31" t="inlineStr">
+      <c r="J124" s="36" t="inlineStr">
         <is>
           <t>412</t>
         </is>
       </c>
-      <c r="K124" s="31" t="inlineStr">
+      <c r="K124" s="36" t="inlineStr">
         <is>
           <t>稳稳的幸福父</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="27" t="inlineStr">
+      <c r="A125" s="32" t="inlineStr">
         <is>
           <t>交银多策略回报灵活配置混合A</t>
         </is>
       </c>
-      <c r="B125" s="28" t="n">
+      <c r="B125" s="33" t="n">
         <v>519755</v>
       </c>
-      <c r="C125" s="29" t="n">
+      <c r="C125" s="34" t="n">
         <v>1.2894</v>
       </c>
-      <c r="D125" s="30" t="n">
+      <c r="D125" s="35" t="n">
         <v>76964.17</v>
       </c>
-      <c r="E125" s="30" t="n">
+      <c r="E125" s="35" t="n">
         <v>100900.03</v>
       </c>
-      <c r="F125" s="30" t="n">
+      <c r="F125" s="35" t="n">
         <v>1662.43</v>
       </c>
-      <c r="G125" s="31" t="inlineStr">
+      <c r="G125" s="36" t="inlineStr">
         <is>
           <t>混合型</t>
         </is>
       </c>
-      <c r="H125" s="31" t="inlineStr">
+      <c r="H125" s="36" t="inlineStr">
         <is>
           <t>股债混合</t>
         </is>
       </c>
-      <c r="I125" s="31" t="inlineStr">
+      <c r="I125" s="36" t="inlineStr">
         <is>
           <t>偏债</t>
         </is>
       </c>
-      <c r="J125" s="31" t="inlineStr">
+      <c r="J125" s="36" t="inlineStr">
         <is>
           <t>412</t>
         </is>
       </c>
-      <c r="K125" s="31" t="inlineStr">
+      <c r="K125" s="36" t="inlineStr">
         <is>
           <t>稳稳的幸福父</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="32" t="inlineStr">
+      <c r="A126" s="37" t="inlineStr">
         <is>
           <t>广发中证500ETF联接A</t>
         </is>
       </c>
-      <c r="B126" s="33" t="n">
+      <c r="B126" s="38" t="n">
         <v>162711</v>
       </c>
-      <c r="C126" s="34" t="n">
+      <c r="C126" s="39" t="n">
         <v>1.0519</v>
       </c>
-      <c r="D126" s="35" t="n">
+      <c r="D126" s="40" t="n">
         <v>9697.57</v>
       </c>
-      <c r="E126" s="35" t="n">
+      <c r="E126" s="40" t="n">
         <v>11166.75</v>
       </c>
-      <c r="F126" s="35" t="n">
+      <c r="F126" s="40" t="n">
         <v>965.88</v>
       </c>
-      <c r="G126" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H126" s="36" t="inlineStr">
+      <c r="G126" s="41" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H126" s="41" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="I126" s="36" t="inlineStr">
+      <c r="I126" s="41" t="inlineStr">
         <is>
           <t>中证500</t>
         </is>
       </c>
-      <c r="J126" s="36" t="inlineStr">
+      <c r="J126" s="41" t="inlineStr">
         <is>
           <t>121</t>
         </is>
       </c>
-      <c r="K126" s="36" t="inlineStr">
+      <c r="K126" s="41" t="inlineStr">
         <is>
           <t>天天基金母</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="32" t="inlineStr">
+      <c r="A127" s="37" t="inlineStr">
         <is>
           <t>富国中证红利指数增强</t>
         </is>
       </c>
-      <c r="B127" s="33" t="n">
+      <c r="B127" s="38" t="n">
         <v>100032</v>
       </c>
-      <c r="C127" s="34" t="n">
+      <c r="C127" s="39" t="n">
         <v>1.0142</v>
       </c>
-      <c r="D127" s="35" t="n">
+      <c r="D127" s="40" t="n">
         <v>8677.6</v>
       </c>
-      <c r="E127" s="35" t="n">
+      <c r="E127" s="40" t="n">
         <v>9371.809999999999</v>
       </c>
-      <c r="F127" s="35" t="n">
+      <c r="F127" s="40" t="n">
         <v>570.99</v>
       </c>
-      <c r="G127" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H127" s="36" t="inlineStr">
+      <c r="G127" s="41" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H127" s="41" t="inlineStr">
         <is>
           <t>红利价值</t>
         </is>
       </c>
-      <c r="I127" s="36" t="inlineStr">
+      <c r="I127" s="41" t="inlineStr">
         <is>
           <t>中证红利</t>
         </is>
       </c>
-      <c r="J127" s="36" t="inlineStr">
+      <c r="J127" s="41" t="inlineStr">
         <is>
           <t>131</t>
         </is>
       </c>
-      <c r="K127" s="36" t="inlineStr">
+      <c r="K127" s="41" t="inlineStr">
         <is>
           <t>天天基金母</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="32" t="inlineStr">
+      <c r="A128" s="37" t="inlineStr">
         <is>
           <t>广发养老指数A</t>
         </is>
       </c>
-      <c r="B128" s="33" t="n">
+      <c r="B128" s="38" t="n">
         <v>968</v>
       </c>
-      <c r="C128" s="34" t="n">
+      <c r="C128" s="39" t="n">
         <v>0.853</v>
       </c>
-      <c r="D128" s="35" t="n">
+      <c r="D128" s="40" t="n">
         <v>6096.21</v>
       </c>
-      <c r="E128" s="35" t="n">
+      <c r="E128" s="40" t="n">
         <v>6281.53</v>
       </c>
-      <c r="F128" s="35" t="n">
+      <c r="F128" s="40" t="n">
         <v>1081.47</v>
       </c>
-      <c r="G128" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H128" s="36" t="inlineStr">
+      <c r="G128" s="41" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H128" s="41" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="I128" s="36" t="inlineStr">
+      <c r="I128" s="41" t="inlineStr">
         <is>
           <t>养老产业</t>
         </is>
       </c>
-      <c r="J128" s="36" t="inlineStr">
+      <c r="J128" s="41" t="inlineStr">
         <is>
           <t>141</t>
         </is>
       </c>
-      <c r="K128" s="36" t="inlineStr">
+      <c r="K128" s="41" t="inlineStr">
         <is>
           <t>天天基金母</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="32" t="inlineStr">
+      <c r="A129" s="37" t="inlineStr">
         <is>
           <t>广发医药卫生联接A</t>
         </is>
       </c>
-      <c r="B129" s="33" t="n">
+      <c r="B129" s="38" t="n">
         <v>1180</v>
       </c>
-      <c r="C129" s="34" t="n">
+      <c r="C129" s="39" t="n">
         <v>0.7111</v>
       </c>
-      <c r="D129" s="35" t="n">
+      <c r="D129" s="40" t="n">
         <v>6750.28</v>
       </c>
-      <c r="E129" s="35" t="n">
+      <c r="E129" s="40" t="n">
         <v>6493.09</v>
       </c>
-      <c r="F129" s="35" t="n">
+      <c r="F129" s="40" t="n">
         <v>1692.97</v>
       </c>
-      <c r="G129" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H129" s="36" t="inlineStr">
+      <c r="G129" s="41" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H129" s="41" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="I129" s="36" t="inlineStr">
+      <c r="I129" s="41" t="inlineStr">
         <is>
           <t>全指医药</t>
         </is>
       </c>
-      <c r="J129" s="36" t="inlineStr">
+      <c r="J129" s="41" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="K129" s="36" t="inlineStr">
+      <c r="K129" s="41" t="inlineStr">
         <is>
           <t>天天基金母</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="32" t="inlineStr">
+      <c r="A130" s="37" t="inlineStr">
         <is>
           <t>富国沪深300指数增强</t>
         </is>
       </c>
-      <c r="B130" s="33" t="n">
+      <c r="B130" s="38" t="n">
         <v>100038</v>
       </c>
-      <c r="C130" s="34" t="n">
+      <c r="C130" s="39" t="n">
         <v>1.3043</v>
       </c>
-      <c r="D130" s="35" t="n">
+      <c r="D130" s="40" t="n">
         <v>2760.12</v>
       </c>
-      <c r="E130" s="35" t="n">
+      <c r="E130" s="40" t="n">
         <v>4476.91</v>
       </c>
-      <c r="F130" s="35" t="n">
+      <c r="F130" s="40" t="n">
         <v>876.89</v>
       </c>
-      <c r="G130" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H130" s="36" t="inlineStr">
+      <c r="G130" s="41" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H130" s="41" t="inlineStr">
         <is>
           <t>大盘股</t>
         </is>
       </c>
-      <c r="I130" s="36" t="inlineStr">
+      <c r="I130" s="41" t="inlineStr">
         <is>
           <t>沪深300</t>
         </is>
       </c>
-      <c r="J130" s="36" t="inlineStr">
+      <c r="J130" s="41" t="inlineStr">
         <is>
           <t>113</t>
         </is>
       </c>
-      <c r="K130" s="36" t="inlineStr">
+      <c r="K130" s="41" t="inlineStr">
         <is>
           <t>天天基金母</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="32" t="inlineStr">
+      <c r="A131" s="37" t="inlineStr">
         <is>
           <t>广发中证传媒ETF联接A</t>
         </is>
       </c>
-      <c r="B131" s="33" t="n">
+      <c r="B131" s="38" t="n">
         <v>4752</v>
       </c>
-      <c r="C131" s="34" t="n">
+      <c r="C131" s="39" t="n">
         <v>0.7235</v>
       </c>
-      <c r="D131" s="35" t="n">
+      <c r="D131" s="40" t="n">
         <v>4423.48</v>
       </c>
-      <c r="E131" s="35" t="n">
+      <c r="E131" s="40" t="n">
         <v>3945.3</v>
       </c>
-      <c r="F131" s="35" t="n">
+      <c r="F131" s="40" t="n">
         <v>744.91</v>
       </c>
-      <c r="G131" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H131" s="36" t="inlineStr">
+      <c r="G131" s="41" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H131" s="41" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="I131" s="36" t="inlineStr">
+      <c r="I131" s="41" t="inlineStr">
         <is>
           <t>中证传媒</t>
         </is>
       </c>
-      <c r="J131" s="36" t="inlineStr">
+      <c r="J131" s="41" t="inlineStr">
         <is>
           <t>144</t>
         </is>
       </c>
-      <c r="K131" s="36" t="inlineStr">
+      <c r="K131" s="41" t="inlineStr">
         <is>
           <t>天天基金母</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="32" t="inlineStr">
+      <c r="A132" s="37" t="inlineStr">
         <is>
           <t>广发中证环保ETF联接A</t>
         </is>
       </c>
-      <c r="B132" s="33" t="n">
+      <c r="B132" s="38" t="n">
         <v>1064</v>
       </c>
-      <c r="C132" s="34" t="n">
+      <c r="C132" s="39" t="n">
         <v>0.5379</v>
       </c>
-      <c r="D132" s="35" t="n">
+      <c r="D132" s="40" t="n">
         <v>5949.77</v>
       </c>
-      <c r="E132" s="35" t="n">
+      <c r="E132" s="40" t="n">
         <v>3568.08</v>
       </c>
-      <c r="F132" s="35" t="n">
+      <c r="F132" s="40" t="n">
         <v>367.7</v>
       </c>
-      <c r="G132" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H132" s="36" t="inlineStr">
+      <c r="G132" s="41" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H132" s="41" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="I132" s="36" t="inlineStr">
+      <c r="I132" s="41" t="inlineStr">
         <is>
           <t>中证环保</t>
         </is>
       </c>
-      <c r="J132" s="36" t="inlineStr">
+      <c r="J132" s="41" t="inlineStr">
         <is>
           <t>143</t>
         </is>
       </c>
-      <c r="K132" s="36" t="inlineStr">
+      <c r="K132" s="41" t="inlineStr">
         <is>
           <t>天天基金母</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="32" t="inlineStr">
+      <c r="A133" s="37" t="inlineStr">
         <is>
           <t>富国中证500指数(LOF)</t>
         </is>
       </c>
-      <c r="B133" s="33" t="n">
+      <c r="B133" s="38" t="n">
         <v>161017</v>
       </c>
-      <c r="C133" s="34" t="n">
+      <c r="C133" s="39" t="n">
         <v>1.325</v>
       </c>
-      <c r="D133" s="35" t="n">
+      <c r="D133" s="40" t="n">
         <v>2046.97</v>
       </c>
-      <c r="E133" s="35" t="n">
+      <c r="E133" s="40" t="n">
         <v>3539.21</v>
       </c>
-      <c r="F133" s="35" t="n">
+      <c r="F133" s="40" t="n">
         <v>826.98</v>
       </c>
-      <c r="G133" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H133" s="36" t="inlineStr">
+      <c r="G133" s="41" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H133" s="41" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="I133" s="36" t="inlineStr">
+      <c r="I133" s="41" t="inlineStr">
         <is>
           <t>中证500</t>
         </is>
       </c>
-      <c r="J133" s="36" t="inlineStr">
+      <c r="J133" s="41" t="inlineStr">
         <is>
           <t>121</t>
         </is>
       </c>
-      <c r="K133" s="36" t="inlineStr">
+      <c r="K133" s="41" t="inlineStr">
         <is>
           <t>天天基金母</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="32" t="inlineStr">
+      <c r="A134" s="37" t="inlineStr">
         <is>
           <t>易方达安心回报债券A</t>
         </is>
       </c>
-      <c r="B134" s="33" t="n">
+      <c r="B134" s="38" t="n">
         <v>110027</v>
       </c>
-      <c r="C134" s="34" t="n">
+      <c r="C134" s="39" t="n">
         <v>1.6102</v>
       </c>
-      <c r="D134" s="35" t="n">
+      <c r="D134" s="40" t="n">
         <v>1981.84</v>
       </c>
-      <c r="E134" s="35" t="n">
-        <v>3517.77</v>
-      </c>
-      <c r="F134" s="35" t="n">
-        <v>326.61</v>
-      </c>
-      <c r="G134" s="36" t="inlineStr">
+      <c r="E134" s="40" t="n">
+        <v>3519.75</v>
+      </c>
+      <c r="F134" s="40" t="n">
+        <v>328.59</v>
+      </c>
+      <c r="G134" s="41" t="inlineStr">
         <is>
           <t>债券</t>
         </is>
       </c>
-      <c r="H134" s="36" t="inlineStr">
+      <c r="H134" s="41" t="inlineStr">
         <is>
           <t>国内债券</t>
         </is>
       </c>
-      <c r="I134" s="36" t="inlineStr">
+      <c r="I134" s="41" t="inlineStr">
         <is>
           <t>可转债</t>
         </is>
       </c>
-      <c r="J134" s="36" t="inlineStr">
+      <c r="J134" s="41" t="inlineStr">
         <is>
           <t>512</t>
         </is>
       </c>
-      <c r="K134" s="36" t="inlineStr">
+      <c r="K134" s="41" t="inlineStr">
         <is>
           <t>天天基金母</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="32" t="inlineStr">
+      <c r="A135" s="37" t="inlineStr">
         <is>
           <t>易方达创业板ETF联接A</t>
         </is>
       </c>
-      <c r="B135" s="33" t="n">
+      <c r="B135" s="38" t="n">
         <v>110026</v>
       </c>
-      <c r="C135" s="34" t="n">
+      <c r="C135" s="39" t="n">
         <v>1.319</v>
       </c>
-      <c r="D135" s="35" t="n">
+      <c r="D135" s="40" t="n">
         <v>1213.09</v>
       </c>
-      <c r="E135" s="35" t="n">
-        <v>2494.23</v>
-      </c>
-      <c r="F135" s="35" t="n">
-        <v>894.17</v>
-      </c>
-      <c r="G135" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H135" s="36" t="inlineStr">
+      <c r="E135" s="40" t="n">
+        <v>2497.63</v>
+      </c>
+      <c r="F135" s="40" t="n">
+        <v>897.5700000000001</v>
+      </c>
+      <c r="G135" s="41" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H135" s="41" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="I135" s="36" t="inlineStr">
+      <c r="I135" s="41" t="inlineStr">
         <is>
           <t>创业板</t>
         </is>
       </c>
-      <c r="J135" s="36" t="inlineStr">
+      <c r="J135" s="41" t="inlineStr">
         <is>
           <t>124</t>
         </is>
       </c>
-      <c r="K135" s="36" t="inlineStr">
+      <c r="K135" s="41" t="inlineStr">
         <is>
           <t>天天基金母</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="32" t="inlineStr">
+      <c r="A136" s="37" t="inlineStr">
         <is>
           <t>华安德国30(DAX)联接</t>
         </is>
       </c>
-      <c r="B136" s="33" t="n">
+      <c r="B136" s="38" t="n">
         <v>614</v>
       </c>
-      <c r="C136" s="34" t="n">
+      <c r="C136" s="39" t="n">
         <v>1.0612</v>
       </c>
-      <c r="D136" s="35" t="n">
+      <c r="D136" s="40" t="n">
         <v>1884.74</v>
       </c>
-      <c r="E136" s="35" t="n">
+      <c r="E136" s="40" t="n">
         <v>2293.73</v>
       </c>
-      <c r="F136" s="35" t="n">
+      <c r="F136" s="40" t="n">
         <v>293.64</v>
       </c>
-      <c r="G136" s="36" t="inlineStr">
+      <c r="G136" s="41" t="inlineStr">
         <is>
           <t>海外成熟</t>
         </is>
       </c>
-      <c r="H136" s="36" t="inlineStr">
+      <c r="H136" s="41" t="inlineStr">
         <is>
           <t>德国</t>
         </is>
       </c>
-      <c r="I136" s="36" t="inlineStr">
+      <c r="I136" s="41" t="inlineStr">
         <is>
           <t>德国30</t>
         </is>
       </c>
-      <c r="J136" s="36" t="inlineStr">
+      <c r="J136" s="41" t="inlineStr">
         <is>
           <t>321</t>
         </is>
       </c>
-      <c r="K136" s="36" t="inlineStr">
+      <c r="K136" s="41" t="inlineStr">
         <is>
           <t>天天基金母</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="32" t="inlineStr">
+      <c r="A137" s="37" t="inlineStr">
         <is>
           <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
-      <c r="B137" s="33" t="n">
+      <c r="B137" s="38" t="n">
         <v>164906</v>
       </c>
-      <c r="C137" s="34" t="n">
+      <c r="C137" s="39" t="n">
         <v>1.137</v>
       </c>
-      <c r="D137" s="35" t="n">
+      <c r="D137" s="40" t="n">
         <v>1407.29</v>
       </c>
-      <c r="E137" s="35" t="n">
+      <c r="E137" s="40" t="n">
         <v>1992.72</v>
       </c>
-      <c r="F137" s="35" t="n">
+      <c r="F137" s="40" t="n">
         <v>392.63</v>
       </c>
-      <c r="G137" s="36" t="inlineStr">
+      <c r="G137" s="41" t="inlineStr">
         <is>
           <t>海外新兴</t>
         </is>
       </c>
-      <c r="H137" s="36" t="inlineStr">
+      <c r="H137" s="41" t="inlineStr">
         <is>
           <t>海外互联</t>
         </is>
       </c>
-      <c r="I137" s="36" t="inlineStr">
+      <c r="I137" s="41" t="inlineStr">
         <is>
           <t>海外互联网</t>
         </is>
       </c>
-      <c r="J137" s="36" t="inlineStr">
+      <c r="J137" s="41" t="inlineStr">
         <is>
           <t>221</t>
         </is>
       </c>
-      <c r="K137" s="36" t="inlineStr">
+      <c r="K137" s="41" t="inlineStr">
         <is>
           <t>天天基金母</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="32" t="inlineStr">
+      <c r="A138" s="37" t="inlineStr">
         <is>
           <t>兴全可转债混合</t>
         </is>
       </c>
-      <c r="B138" s="33" t="n">
+      <c r="B138" s="38" t="n">
         <v>340001</v>
       </c>
-      <c r="C138" s="34" t="n">
+      <c r="C138" s="39" t="n">
         <v>0.9816</v>
       </c>
-      <c r="D138" s="35" t="n">
+      <c r="D138" s="40" t="n">
         <v>1630.08</v>
       </c>
-      <c r="E138" s="35" t="n">
+      <c r="E138" s="40" t="n">
         <v>1984.79</v>
       </c>
-      <c r="F138" s="35" t="n">
+      <c r="F138" s="40" t="n">
         <v>384.7</v>
       </c>
-      <c r="G138" s="36" t="inlineStr">
+      <c r="G138" s="41" t="inlineStr">
         <is>
           <t>债券</t>
         </is>
       </c>
-      <c r="H138" s="36" t="inlineStr">
+      <c r="H138" s="41" t="inlineStr">
         <is>
           <t>国内债券</t>
         </is>
       </c>
-      <c r="I138" s="36" t="inlineStr">
+      <c r="I138" s="41" t="inlineStr">
         <is>
           <t>可转债</t>
         </is>
       </c>
-      <c r="J138" s="36" t="inlineStr">
+      <c r="J138" s="41" t="inlineStr">
         <is>
           <t>512</t>
         </is>
       </c>
-      <c r="K138" s="36" t="inlineStr">
+      <c r="K138" s="41" t="inlineStr">
         <is>
           <t>天天基金母</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="32" t="inlineStr">
+      <c r="A139" s="37" t="inlineStr">
         <is>
           <t>华夏上证50ETF联接A</t>
         </is>
       </c>
-      <c r="B139" s="33" t="n">
+      <c r="B139" s="38" t="n">
         <v>1051</v>
       </c>
-      <c r="C139" s="34" t="n">
+      <c r="C139" s="39" t="n">
         <v>0.8966</v>
       </c>
-      <c r="D139" s="35" t="n">
+      <c r="D139" s="40" t="n">
         <v>1338.46</v>
       </c>
-      <c r="E139" s="35" t="n">
+      <c r="E139" s="40" t="n">
         <v>1309.01</v>
       </c>
-      <c r="F139" s="35" t="n">
+      <c r="F139" s="40" t="n">
         <v>108.95</v>
       </c>
-      <c r="G139" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H139" s="36" t="inlineStr">
+      <c r="G139" s="41" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H139" s="41" t="inlineStr">
         <is>
           <t>大盘股</t>
         </is>
       </c>
-      <c r="I139" s="36" t="inlineStr">
+      <c r="I139" s="41" t="inlineStr">
         <is>
           <t>上证50</t>
         </is>
       </c>
-      <c r="J139" s="36" t="inlineStr">
+      <c r="J139" s="41" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="K139" s="36" t="inlineStr">
+      <c r="K139" s="41" t="inlineStr">
         <is>
           <t>天天基金母</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="32" t="inlineStr">
+      <c r="A140" s="37" t="inlineStr">
         <is>
           <t>华宝中证1000指数分级</t>
         </is>
       </c>
-      <c r="B140" s="33" t="n">
+      <c r="B140" s="38" t="n">
         <v>162413</v>
       </c>
-      <c r="C140" s="34" t="n">
+      <c r="C140" s="39" t="n">
         <v>0.776</v>
       </c>
-      <c r="D140" s="35" t="n">
+      <c r="D140" s="40" t="n">
         <v>1546.42</v>
       </c>
-      <c r="E140" s="35" t="n">
+      <c r="E140" s="40" t="n">
         <v>1263.89</v>
       </c>
-      <c r="F140" s="35" t="n">
+      <c r="F140" s="40" t="n">
         <v>63.87</v>
       </c>
-      <c r="G140" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H140" s="36" t="inlineStr">
+      <c r="G140" s="41" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H140" s="41" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="I140" s="36" t="inlineStr">
+      <c r="I140" s="41" t="inlineStr">
         <is>
           <t>中证1000</t>
         </is>
       </c>
-      <c r="J140" s="36" t="inlineStr">
+      <c r="J140" s="41" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
-      <c r="K140" s="36" t="inlineStr">
+      <c r="K140" s="41" t="inlineStr">
         <is>
           <t>天天基金母</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="32" t="inlineStr">
+      <c r="A141" s="37" t="inlineStr">
         <is>
           <t>华宝标普油气上游股票人民币A</t>
         </is>
       </c>
-      <c r="B141" s="33" t="n">
+      <c r="B141" s="38" t="n">
         <v>162411</v>
       </c>
-      <c r="C141" s="34" t="n">
+      <c r="C141" s="39" t="n">
         <v>0.4776</v>
       </c>
-      <c r="D141" s="35" t="n">
+      <c r="D141" s="40" t="n">
         <v>3350.7</v>
       </c>
-      <c r="E141" s="35" t="n">
+      <c r="E141" s="40" t="n">
         <v>1246.46</v>
       </c>
-      <c r="F141" s="35" t="n">
+      <c r="F141" s="40" t="n">
         <v>-353.83</v>
       </c>
-      <c r="G141" s="36" t="inlineStr">
+      <c r="G141" s="41" t="inlineStr">
         <is>
           <t>商品</t>
         </is>
       </c>
-      <c r="H141" s="36" t="inlineStr">
+      <c r="H141" s="41" t="inlineStr">
         <is>
           <t>商品</t>
         </is>
       </c>
-      <c r="I141" s="36" t="inlineStr">
+      <c r="I141" s="41" t="inlineStr">
         <is>
           <t>原油</t>
         </is>
       </c>
-      <c r="J141" s="36" t="inlineStr">
+      <c r="J141" s="41" t="inlineStr">
         <is>
           <t>613</t>
         </is>
       </c>
-      <c r="K141" s="36" t="inlineStr">
+      <c r="K141" s="41" t="inlineStr">
         <is>
           <t>天天基金母</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="32" t="inlineStr">
+      <c r="A142" s="37" t="inlineStr">
         <is>
           <t>广发中证全指金融地产联接A</t>
         </is>
       </c>
-      <c r="B142" s="33" t="n">
+      <c r="B142" s="38" t="n">
         <v>1469</v>
       </c>
-      <c r="C142" s="34" t="n">
+      <c r="C142" s="39" t="n">
         <v>0.8885999999999999</v>
       </c>
-      <c r="D142" s="35" t="n">
+      <c r="D142" s="40" t="n">
         <v>900.35</v>
       </c>
-      <c r="E142" s="35" t="n">
+      <c r="E142" s="40" t="n">
         <v>939.25</v>
       </c>
-      <c r="F142" s="35" t="n">
+      <c r="F142" s="40" t="n">
         <v>139.19</v>
       </c>
-      <c r="G142" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H142" s="36" t="inlineStr">
+      <c r="G142" s="41" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H142" s="41" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="I142" s="36" t="inlineStr">
+      <c r="I142" s="41" t="inlineStr">
         <is>
           <t>金融地产</t>
         </is>
       </c>
-      <c r="J142" s="36" t="inlineStr">
+      <c r="J142" s="41" t="inlineStr">
         <is>
           <t>147</t>
         </is>
       </c>
-      <c r="K142" s="36" t="inlineStr">
+      <c r="K142" s="41" t="inlineStr">
         <is>
           <t>天天基金母</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="32" t="inlineStr">
+      <c r="A143" s="37" t="inlineStr">
         <is>
           <t>华安黄金易ETF联接A</t>
         </is>
       </c>
-      <c r="B143" s="33" t="n">
+      <c r="B143" s="38" t="n">
         <v>216</v>
       </c>
-      <c r="C143" s="34" t="n">
+      <c r="C143" s="39" t="n">
         <v>1.0903</v>
       </c>
-      <c r="D143" s="35" t="n">
+      <c r="D143" s="40" t="n">
         <v>733.79</v>
       </c>
-      <c r="E143" s="35" t="n">
-        <v>937.27</v>
-      </c>
-      <c r="F143" s="35" t="n">
-        <v>137.22</v>
-      </c>
-      <c r="G143" s="36" t="inlineStr">
+      <c r="E143" s="40" t="n">
+        <v>943.65</v>
+      </c>
+      <c r="F143" s="40" t="n">
+        <v>143.6</v>
+      </c>
+      <c r="G143" s="41" t="inlineStr">
         <is>
           <t>商品</t>
         </is>
       </c>
-      <c r="H143" s="36" t="inlineStr">
+      <c r="H143" s="41" t="inlineStr">
         <is>
           <t>商品</t>
         </is>
       </c>
-      <c r="I143" s="36" t="inlineStr">
+      <c r="I143" s="41" t="inlineStr">
         <is>
           <t>黄金</t>
         </is>
       </c>
-      <c r="J143" s="36" t="inlineStr">
+      <c r="J143" s="41" t="inlineStr">
         <is>
           <t>611</t>
         </is>
       </c>
-      <c r="K143" s="36" t="inlineStr">
+      <c r="K143" s="41" t="inlineStr">
         <is>
           <t>天天基金母</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="32" t="inlineStr">
+      <c r="A144" s="37" t="inlineStr">
         <is>
           <t>易方达证券公司分级</t>
         </is>
       </c>
-      <c r="B144" s="33" t="n">
+      <c r="B144" s="38" t="n">
         <v>502010</v>
       </c>
-      <c r="C144" s="34" t="n">
+      <c r="C144" s="39" t="n">
         <v>0.8063</v>
       </c>
-      <c r="D144" s="35" t="n">
+      <c r="D144" s="40" t="n">
         <v>496.13</v>
       </c>
-      <c r="E144" s="35" t="n">
-        <v>497.72</v>
-      </c>
-      <c r="F144" s="35" t="n">
-        <v>97.69</v>
-      </c>
-      <c r="G144" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H144" s="36" t="inlineStr">
+      <c r="E144" s="40" t="n">
+        <v>499.26</v>
+      </c>
+      <c r="F144" s="40" t="n">
+        <v>99.23</v>
+      </c>
+      <c r="G144" s="41" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H144" s="41" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="I144" s="36" t="inlineStr">
+      <c r="I144" s="41" t="inlineStr">
         <is>
           <t>证券公司</t>
         </is>
       </c>
-      <c r="J144" s="36" t="inlineStr">
+      <c r="J144" s="41" t="inlineStr">
         <is>
           <t>145</t>
         </is>
       </c>
-      <c r="K144" s="36" t="inlineStr">
+      <c r="K144" s="41" t="inlineStr">
         <is>
           <t>天天基金母</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="32" t="inlineStr">
+      <c r="A145" s="37" t="inlineStr">
         <is>
           <t>长信可转债债券A</t>
         </is>
       </c>
-      <c r="B145" s="33" t="n">
+      <c r="B145" s="38" t="n">
         <v>519977</v>
       </c>
-      <c r="C145" s="34" t="n">
+      <c r="C145" s="39" t="n">
         <v>1.2011</v>
       </c>
-      <c r="D145" s="35" t="n">
+      <c r="D145" s="40" t="n">
         <v>333.04</v>
       </c>
-      <c r="E145" s="35" t="n">
+      <c r="E145" s="40" t="n">
         <v>480.28</v>
       </c>
-      <c r="F145" s="35" t="n">
+      <c r="F145" s="40" t="n">
         <v>80.26000000000001</v>
       </c>
-      <c r="G145" s="36" t="inlineStr">
+      <c r="G145" s="41" t="inlineStr">
         <is>
           <t>债券</t>
         </is>
       </c>
-      <c r="H145" s="36" t="inlineStr">
+      <c r="H145" s="41" t="inlineStr">
         <is>
           <t>国内债券</t>
         </is>
       </c>
-      <c r="I145" s="36" t="inlineStr">
+      <c r="I145" s="41" t="inlineStr">
         <is>
           <t>可转债</t>
         </is>
       </c>
-      <c r="J145" s="36" t="inlineStr">
+      <c r="J145" s="41" t="inlineStr">
         <is>
           <t>512</t>
         </is>
       </c>
-      <c r="K145" s="36" t="inlineStr">
+      <c r="K145" s="41" t="inlineStr">
         <is>
           <t>天天基金母</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="32" t="inlineStr">
+      <c r="A146" s="37" t="inlineStr">
         <is>
           <t>华夏沪深300ETF联接A</t>
         </is>
       </c>
-      <c r="B146" s="33" t="n">
+      <c r="B146" s="38" t="n">
         <v>51</v>
       </c>
-      <c r="C146" s="34" t="n">
+      <c r="C146" s="39" t="n">
         <v>1.2285</v>
       </c>
-      <c r="D146" s="35" t="n">
+      <c r="D146" s="40" t="n">
         <v>325.61</v>
       </c>
-      <c r="E146" s="35" t="n">
+      <c r="E146" s="40" t="n">
         <v>425.57</v>
       </c>
-      <c r="F146" s="35" t="n">
+      <c r="F146" s="40" t="n">
         <v>25.56</v>
       </c>
-      <c r="G146" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H146" s="36" t="inlineStr">
+      <c r="G146" s="41" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H146" s="41" t="inlineStr">
         <is>
           <t>大盘股</t>
         </is>
       </c>
-      <c r="I146" s="36" t="inlineStr">
+      <c r="I146" s="41" t="inlineStr">
         <is>
           <t>沪深300</t>
         </is>
       </c>
-      <c r="J146" s="36" t="inlineStr">
+      <c r="J146" s="41" t="inlineStr">
         <is>
           <t>113</t>
         </is>
       </c>
-      <c r="K146" s="36" t="inlineStr">
+      <c r="K146" s="41" t="inlineStr">
         <is>
           <t>天天基金母</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="32" t="inlineStr">
+      <c r="A147" s="37" t="inlineStr">
         <is>
           <t>建信中证500指数增强A</t>
         </is>
       </c>
-      <c r="B147" s="33" t="n">
+      <c r="B147" s="38" t="n">
         <v>478</v>
       </c>
-      <c r="C147" s="34" t="n">
+      <c r="C147" s="39" t="n">
         <v>1.9396</v>
       </c>
-      <c r="D147" s="35" t="n">
+      <c r="D147" s="40" t="n">
         <v>206.23</v>
       </c>
-      <c r="E147" s="35" t="n">
-        <v>416.01</v>
-      </c>
-      <c r="F147" s="35" t="n">
-        <v>16</v>
-      </c>
-      <c r="G147" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H147" s="36" t="inlineStr">
+      <c r="E147" s="40" t="n">
+        <v>419.47</v>
+      </c>
+      <c r="F147" s="40" t="n">
+        <v>19.47</v>
+      </c>
+      <c r="G147" s="41" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H147" s="41" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="I147" s="36" t="inlineStr">
+      <c r="I147" s="41" t="inlineStr">
         <is>
           <t>中证500</t>
         </is>
       </c>
-      <c r="J147" s="36" t="inlineStr">
+      <c r="J147" s="41" t="inlineStr">
         <is>
           <t>121</t>
         </is>
       </c>
-      <c r="K147" s="36" t="inlineStr">
+      <c r="K147" s="41" t="inlineStr">
         <is>
           <t>天天基金母</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="32" t="inlineStr">
+      <c r="A148" s="37" t="inlineStr">
         <is>
           <t>华夏恒生ETF联接A</t>
         </is>
       </c>
-      <c r="B148" s="33" t="n">
+      <c r="B148" s="38" t="n">
         <v>71</v>
       </c>
-      <c r="C148" s="34" t="n">
+      <c r="C148" s="39" t="n">
         <v>1.452</v>
       </c>
-      <c r="D148" s="35" t="n">
+      <c r="D148" s="40" t="n">
         <v>275.49</v>
       </c>
-      <c r="E148" s="35" t="n">
+      <c r="E148" s="40" t="n">
         <v>424.23</v>
       </c>
-      <c r="F148" s="35" t="n">
+      <c r="F148" s="40" t="n">
         <v>24.22</v>
       </c>
-      <c r="G148" s="36" t="inlineStr">
+      <c r="G148" s="41" t="inlineStr">
         <is>
           <t>海外新兴</t>
         </is>
       </c>
-      <c r="H148" s="36" t="inlineStr">
+      <c r="H148" s="41" t="inlineStr">
         <is>
           <t>香港</t>
         </is>
       </c>
-      <c r="I148" s="36" t="inlineStr">
+      <c r="I148" s="41" t="inlineStr">
         <is>
           <t>恒生</t>
         </is>
       </c>
-      <c r="J148" s="36" t="inlineStr">
+      <c r="J148" s="41" t="inlineStr">
         <is>
           <t>211</t>
         </is>
       </c>
-      <c r="K148" s="36" t="inlineStr">
+      <c r="K148" s="41" t="inlineStr">
         <is>
           <t>天天基金母</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>